--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,205 +666,231 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12133000</v>
+        <v>11195200</v>
       </c>
       <c r="E8" s="3">
-        <v>10095600</v>
+        <v>10960000</v>
       </c>
       <c r="F8" s="3">
-        <v>9904200</v>
+        <v>11558600</v>
       </c>
       <c r="G8" s="3">
-        <v>10597200</v>
+        <v>9617600</v>
       </c>
       <c r="H8" s="3">
-        <v>10461400</v>
+        <v>9435300</v>
       </c>
       <c r="I8" s="3">
+        <v>10095400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9966100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9450400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9336700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9963600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10229700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9547500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9723200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9989200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3847400</v>
+        <v>3425100</v>
       </c>
       <c r="E9" s="3">
-        <v>3142800</v>
+        <v>3708300</v>
       </c>
       <c r="F9" s="3">
-        <v>3069100</v>
+        <v>3665200</v>
       </c>
       <c r="G9" s="3">
-        <v>3449200</v>
+        <v>2994000</v>
       </c>
       <c r="H9" s="3">
-        <v>3259200</v>
+        <v>2923800</v>
       </c>
       <c r="I9" s="3">
+        <v>3285900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3104900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2853200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2996700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3122500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3183800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2778200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3097100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3066800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8285600</v>
+        <v>7770200</v>
       </c>
       <c r="E10" s="3">
-        <v>6952700</v>
+        <v>7251700</v>
       </c>
       <c r="F10" s="3">
-        <v>6835100</v>
+        <v>7893300</v>
       </c>
       <c r="G10" s="3">
-        <v>7147900</v>
+        <v>6623500</v>
       </c>
       <c r="H10" s="3">
-        <v>7202200</v>
+        <v>6511500</v>
       </c>
       <c r="I10" s="3">
+        <v>6809500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6861200</v>
+      </c>
+      <c r="K10" s="3">
         <v>6597200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6339900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6841100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7045900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6769400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6626100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6922400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1504800</v>
+        <v>1337500</v>
       </c>
       <c r="E12" s="3">
-        <v>1344500</v>
+        <v>1433600</v>
       </c>
       <c r="F12" s="3">
-        <v>1255300</v>
+        <v>1433600</v>
       </c>
       <c r="G12" s="3">
-        <v>1317400</v>
+        <v>1280900</v>
       </c>
       <c r="H12" s="3">
-        <v>1242400</v>
+        <v>1195900</v>
       </c>
       <c r="I12" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1183600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1122200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1146700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1293900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1171300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1373400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1210100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1339200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1003,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>562400</v>
+        <v>582500</v>
       </c>
       <c r="E14" s="3">
-        <v>618000</v>
+        <v>-282000</v>
       </c>
       <c r="F14" s="3">
-        <v>707200</v>
+        <v>535700</v>
       </c>
       <c r="G14" s="3">
-        <v>478300</v>
+        <v>588700</v>
       </c>
       <c r="H14" s="3">
-        <v>598600</v>
+        <v>673700</v>
       </c>
       <c r="I14" s="3">
+        <v>455700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>570200</v>
+      </c>
+      <c r="K14" s="3">
         <v>1529400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>686500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1712600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>566100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2504300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>156700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1663100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>18100</v>
+        <v>20900</v>
       </c>
       <c r="E15" s="3">
-        <v>22000</v>
+        <v>19700</v>
       </c>
       <c r="F15" s="3">
-        <v>22000</v>
+        <v>17200</v>
       </c>
       <c r="G15" s="3">
-        <v>18100</v>
+        <v>20900</v>
       </c>
       <c r="H15" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K15" s="3">
         <v>12900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>12900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>14300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>15700</v>
       </c>
       <c r="M15" s="3">
         <v>14300</v>
       </c>
       <c r="N15" s="3">
-        <v>14500</v>
+        <v>15700</v>
       </c>
       <c r="O15" s="3">
-        <v>13200</v>
+        <v>14300</v>
       </c>
       <c r="P15" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9357400</v>
+        <v>8714800</v>
       </c>
       <c r="E17" s="3">
-        <v>8177000</v>
+        <v>8617500</v>
       </c>
       <c r="F17" s="3">
-        <v>8058100</v>
+        <v>8914300</v>
       </c>
       <c r="G17" s="3">
-        <v>8588100</v>
+        <v>7789900</v>
       </c>
       <c r="H17" s="3">
-        <v>7988300</v>
+        <v>7676600</v>
       </c>
       <c r="I17" s="3">
+        <v>8181500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7610100</v>
+      </c>
+      <c r="K17" s="3">
         <v>8443300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7733600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9209700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7771100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9547500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7460900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9205700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2775700</v>
+        <v>2480400</v>
       </c>
       <c r="E18" s="3">
-        <v>1918500</v>
+        <v>2342500</v>
       </c>
       <c r="F18" s="3">
-        <v>1846100</v>
+        <v>2644200</v>
       </c>
       <c r="G18" s="3">
-        <v>2009000</v>
+        <v>1827700</v>
       </c>
       <c r="H18" s="3">
-        <v>2473100</v>
+        <v>1758700</v>
       </c>
       <c r="I18" s="3">
+        <v>1913900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2356100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1007100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1603100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>753900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2458600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>2262200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>783500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-253400</v>
+        <v>-220500</v>
       </c>
       <c r="E20" s="3">
-        <v>-284400</v>
+        <v>-235200</v>
       </c>
       <c r="F20" s="3">
+        <v>-241400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-163800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-221700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-256200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-171900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-232700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-268900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-213300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-171900</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-177400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-226900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-232200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-221200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-226500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3185500</v>
+        <v>2498900</v>
       </c>
       <c r="E21" s="3">
-        <v>2637300</v>
+        <v>1937300</v>
       </c>
       <c r="F21" s="3">
-        <v>3203600</v>
+        <v>3034700</v>
       </c>
       <c r="G21" s="3">
-        <v>2664500</v>
+        <v>2512500</v>
       </c>
       <c r="H21" s="3">
-        <v>2845500</v>
+        <v>3051900</v>
       </c>
       <c r="I21" s="3">
+        <v>2538300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2710800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1045900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2049100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>348300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3123800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1185600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2470300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1378700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,96 +1390,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2522300</v>
+        <v>2260000</v>
       </c>
       <c r="E23" s="3">
-        <v>1634100</v>
+        <v>2107300</v>
       </c>
       <c r="F23" s="3">
-        <v>1674200</v>
+        <v>2402900</v>
       </c>
       <c r="G23" s="3">
-        <v>1776300</v>
+        <v>1556700</v>
       </c>
       <c r="H23" s="3">
-        <v>2204200</v>
+        <v>1594900</v>
       </c>
       <c r="I23" s="3">
+        <v>1692200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2099900</v>
+      </c>
+      <c r="K23" s="3">
         <v>793800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1431100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>576500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2231700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-232200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2041000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>557000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>303800</v>
+        <v>192100</v>
       </c>
       <c r="E24" s="3">
-        <v>276700</v>
+        <v>238900</v>
       </c>
       <c r="F24" s="3">
-        <v>400800</v>
+        <v>289400</v>
       </c>
       <c r="G24" s="3">
-        <v>-65900</v>
+        <v>263600</v>
       </c>
       <c r="H24" s="3">
-        <v>249500</v>
+        <v>381800</v>
       </c>
       <c r="I24" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K24" s="3">
         <v>179700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>449900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-356100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>412200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-120000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>430600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>139600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2218500</v>
+        <v>2067900</v>
       </c>
       <c r="E26" s="3">
-        <v>1357500</v>
+        <v>1868300</v>
       </c>
       <c r="F26" s="3">
-        <v>1273400</v>
+        <v>2113400</v>
       </c>
       <c r="G26" s="3">
-        <v>1842300</v>
+        <v>1293200</v>
       </c>
       <c r="H26" s="3">
-        <v>1954700</v>
+        <v>1213100</v>
       </c>
       <c r="I26" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1862200</v>
+      </c>
+      <c r="K26" s="3">
         <v>614100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>981200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>932600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1819500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-112200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1610400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>417400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2006400</v>
+        <v>1927500</v>
       </c>
       <c r="E27" s="3">
-        <v>1246300</v>
+        <v>1599800</v>
       </c>
       <c r="F27" s="3">
-        <v>1073000</v>
+        <v>1911400</v>
       </c>
       <c r="G27" s="3">
-        <v>1732400</v>
+        <v>1187300</v>
       </c>
       <c r="H27" s="3">
-        <v>1833200</v>
+        <v>1022200</v>
       </c>
       <c r="I27" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="K27" s="3">
         <v>570100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>709800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>693900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1580800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-234800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1377400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>338400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1588,26 +1710,26 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>-161600</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>-154000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>-1406000</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-1406000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>253400</v>
+        <v>220500</v>
       </c>
       <c r="E32" s="3">
-        <v>284400</v>
+        <v>235200</v>
       </c>
       <c r="F32" s="3">
+        <v>241400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>271000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>163800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>221700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>213300</v>
+      </c>
+      <c r="L32" s="3">
         <v>171900</v>
       </c>
-      <c r="G32" s="3">
-        <v>232700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>268900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>213300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>171900</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>177400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>226900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>232200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>221200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>226500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2006400</v>
+        <v>1927500</v>
       </c>
       <c r="E33" s="3">
-        <v>1246300</v>
+        <v>1599800</v>
       </c>
       <c r="F33" s="3">
-        <v>1073000</v>
+        <v>1911400</v>
       </c>
       <c r="G33" s="3">
-        <v>1570800</v>
+        <v>1187300</v>
       </c>
       <c r="H33" s="3">
-        <v>1833200</v>
+        <v>1022200</v>
       </c>
       <c r="I33" s="3">
+        <v>1496400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="K33" s="3">
         <v>570100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>709800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-712200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1580800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-234800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1377400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>338400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2006400</v>
+        <v>1927500</v>
       </c>
       <c r="E35" s="3">
-        <v>1246300</v>
+        <v>1599800</v>
       </c>
       <c r="F35" s="3">
-        <v>1073000</v>
+        <v>1911400</v>
       </c>
       <c r="G35" s="3">
-        <v>1570800</v>
+        <v>1187300</v>
       </c>
       <c r="H35" s="3">
-        <v>1833200</v>
+        <v>1022200</v>
       </c>
       <c r="I35" s="3">
+        <v>1496400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="K35" s="3">
         <v>570100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>709800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-712200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1580800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-234800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1377400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>338400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2139,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5565500</v>
+        <v>5873500</v>
       </c>
       <c r="E41" s="3">
-        <v>5330300</v>
+        <v>5797100</v>
       </c>
       <c r="F41" s="3">
-        <v>5341900</v>
+        <v>5302000</v>
       </c>
       <c r="G41" s="3">
-        <v>5008300</v>
+        <v>5077900</v>
       </c>
       <c r="H41" s="3">
-        <v>4903600</v>
+        <v>5089000</v>
       </c>
       <c r="I41" s="3">
+        <v>4771200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4671500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5230700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5176400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4999400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6186300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5199000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5937400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6448300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111200</v>
+        <v>105900</v>
       </c>
       <c r="E42" s="3">
-        <v>108600</v>
+        <v>97300</v>
       </c>
       <c r="F42" s="3">
+        <v>105900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>103500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>99800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>103500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>98500</v>
+      </c>
+      <c r="K42" s="3">
         <v>104700</v>
       </c>
-      <c r="G42" s="3">
-        <v>108600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>103400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>104700</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>98300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>101700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>107000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>110900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>115900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>117200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10784600</v>
+        <v>10955100</v>
       </c>
       <c r="E43" s="3">
-        <v>9128500</v>
+        <v>9192700</v>
       </c>
       <c r="F43" s="3">
-        <v>8685100</v>
+        <v>10274000</v>
       </c>
       <c r="G43" s="3">
-        <v>8599800</v>
+        <v>8696300</v>
       </c>
       <c r="H43" s="3">
-        <v>9759400</v>
+        <v>8273900</v>
       </c>
       <c r="I43" s="3">
+        <v>8192600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9297300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8805300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8283000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8162400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8778000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8337100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8494600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8232600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8760100</v>
+        <v>7330500</v>
       </c>
       <c r="E44" s="3">
-        <v>7703900</v>
+        <v>7324300</v>
       </c>
       <c r="F44" s="3">
-        <v>7340600</v>
+        <v>8345300</v>
       </c>
       <c r="G44" s="3">
-        <v>7079400</v>
+        <v>7339100</v>
       </c>
       <c r="H44" s="3">
-        <v>7482800</v>
+        <v>6993000</v>
       </c>
       <c r="I44" s="3">
+        <v>6744200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7128500</v>
+      </c>
+      <c r="K44" s="3">
         <v>7683200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7316000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7248100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7383700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7490700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>7133100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6718300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1914700</v>
+        <v>2858500</v>
       </c>
       <c r="E45" s="3">
-        <v>1294100</v>
+        <v>1593700</v>
       </c>
       <c r="F45" s="3">
-        <v>1182900</v>
+        <v>1824000</v>
       </c>
       <c r="G45" s="3">
-        <v>1087300</v>
+        <v>1232800</v>
       </c>
       <c r="H45" s="3">
-        <v>268900</v>
+        <v>1126900</v>
       </c>
       <c r="I45" s="3">
+        <v>1035800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K45" s="3">
         <v>210700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>358100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>236100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>573900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>286900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>424000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>488500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27136100</v>
+        <v>27123500</v>
       </c>
       <c r="E46" s="3">
-        <v>23565300</v>
+        <v>24005100</v>
       </c>
       <c r="F46" s="3">
-        <v>22655200</v>
+        <v>25851300</v>
       </c>
       <c r="G46" s="3">
-        <v>21883400</v>
+        <v>22449600</v>
       </c>
       <c r="H46" s="3">
-        <v>22518200</v>
+        <v>21582600</v>
       </c>
       <c r="I46" s="3">
+        <v>20847300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>21452000</v>
+      </c>
+      <c r="K46" s="3">
         <v>22034700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21231800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>20747700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>23028900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>21424600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>22105000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>22004900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2490000</v>
+        <v>2698400</v>
       </c>
       <c r="E47" s="3">
-        <v>2183600</v>
+        <v>2649200</v>
       </c>
       <c r="F47" s="3">
-        <v>2122800</v>
+        <v>2372100</v>
       </c>
       <c r="G47" s="3">
-        <v>2014200</v>
+        <v>2080200</v>
       </c>
       <c r="H47" s="3">
-        <v>2086600</v>
+        <v>2022300</v>
       </c>
       <c r="I47" s="3">
+        <v>1918800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1987800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1640600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1484100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1436000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1455600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1647300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1744700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1643400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15125900</v>
+        <v>14042700</v>
       </c>
       <c r="E48" s="3">
-        <v>14748400</v>
+        <v>13934300</v>
       </c>
       <c r="F48" s="3">
-        <v>14598400</v>
+        <v>14409700</v>
       </c>
       <c r="G48" s="3">
-        <v>14295900</v>
+        <v>14050100</v>
       </c>
       <c r="H48" s="3">
-        <v>14121400</v>
+        <v>13907200</v>
       </c>
       <c r="I48" s="3">
+        <v>13619000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13452800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13992100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13782600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14164800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13868700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13906600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>14237100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14231900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56238500</v>
+        <v>52217400</v>
       </c>
       <c r="E49" s="3">
-        <v>35112700</v>
+        <v>51132300</v>
       </c>
       <c r="F49" s="3">
-        <v>34684800</v>
+        <v>53575800</v>
       </c>
       <c r="G49" s="3">
-        <v>29723000</v>
+        <v>33450300</v>
       </c>
       <c r="H49" s="3">
-        <v>29878100</v>
+        <v>33042600</v>
       </c>
       <c r="I49" s="3">
+        <v>28315700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>28463500</v>
+      </c>
+      <c r="K49" s="3">
         <v>29827700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>29593700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>30385200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30892600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>31732600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32541800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>32578700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6629500</v>
+        <v>7842800</v>
       </c>
       <c r="E52" s="3">
-        <v>6654100</v>
+        <v>6427700</v>
       </c>
       <c r="F52" s="3">
-        <v>6564900</v>
+        <v>6315600</v>
       </c>
       <c r="G52" s="3">
-        <v>7151800</v>
+        <v>6339000</v>
       </c>
       <c r="H52" s="3">
-        <v>7159600</v>
+        <v>6254100</v>
       </c>
       <c r="I52" s="3">
+        <v>6813200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6820600</v>
+      </c>
+      <c r="K52" s="3">
         <v>7016100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6510600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6804600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7425400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7242800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7371400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7338500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107620000</v>
+        <v>103924900</v>
       </c>
       <c r="E54" s="3">
-        <v>82264100</v>
+        <v>98148700</v>
       </c>
       <c r="F54" s="3">
-        <v>80626100</v>
+        <v>102524500</v>
       </c>
       <c r="G54" s="3">
-        <v>75068300</v>
+        <v>78369200</v>
       </c>
       <c r="H54" s="3">
-        <v>75763800</v>
+        <v>76808700</v>
       </c>
       <c r="I54" s="3">
+        <v>71514100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>72176700</v>
+      </c>
+      <c r="K54" s="3">
         <v>74511100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>72602900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>73538300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>76671300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>75953900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78000100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>77797300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19052100</v>
+        <v>18855800</v>
       </c>
       <c r="E57" s="3">
-        <v>17304300</v>
+        <v>18398900</v>
       </c>
       <c r="F57" s="3">
-        <v>17354700</v>
+        <v>18150100</v>
       </c>
       <c r="G57" s="3">
-        <v>18147200</v>
+        <v>16485000</v>
       </c>
       <c r="H57" s="3">
-        <v>16926800</v>
+        <v>16533000</v>
       </c>
       <c r="I57" s="3">
+        <v>17288000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16125300</v>
+      </c>
+      <c r="K57" s="3">
         <v>16218300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27262800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27351400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25877500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25538400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15844900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>15754100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10621700</v>
+        <v>8947600</v>
       </c>
       <c r="E58" s="3">
-        <v>13118100</v>
+        <v>8520200</v>
       </c>
       <c r="F58" s="3">
-        <v>10876400</v>
+        <v>10118800</v>
       </c>
       <c r="G58" s="3">
-        <v>7489200</v>
+        <v>12497000</v>
       </c>
       <c r="H58" s="3">
-        <v>3751700</v>
+        <v>10361500</v>
       </c>
       <c r="I58" s="3">
+        <v>7134700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3574100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4486100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4449900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3684700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6182400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8624100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4924800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5437000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3310900</v>
+        <v>3399200</v>
       </c>
       <c r="E59" s="3">
-        <v>2904900</v>
+        <v>2700900</v>
       </c>
       <c r="F59" s="3">
-        <v>3391000</v>
+        <v>3154100</v>
       </c>
       <c r="G59" s="3">
-        <v>3440200</v>
+        <v>2767400</v>
       </c>
       <c r="H59" s="3">
-        <v>3102700</v>
+        <v>3230500</v>
       </c>
       <c r="I59" s="3">
+        <v>3277300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2955800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2822200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3098900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3618200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3727700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3386000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3929300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3829200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32984800</v>
+        <v>31202600</v>
       </c>
       <c r="E60" s="3">
-        <v>33327300</v>
+        <v>29620000</v>
       </c>
       <c r="F60" s="3">
-        <v>31622100</v>
+        <v>31423000</v>
       </c>
       <c r="G60" s="3">
-        <v>29076600</v>
+        <v>31749400</v>
       </c>
       <c r="H60" s="3">
-        <v>23781200</v>
+        <v>30124900</v>
       </c>
       <c r="I60" s="3">
+        <v>27699900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>22655300</v>
+      </c>
+      <c r="K60" s="3">
         <v>23526600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>34811500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34654200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>35787700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>37548500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>24699000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>25020300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32104400</v>
+        <v>30471000</v>
       </c>
       <c r="E61" s="3">
-        <v>30139300</v>
+        <v>29053400</v>
       </c>
       <c r="F61" s="3">
-        <v>30179400</v>
+        <v>30584300</v>
       </c>
       <c r="G61" s="3">
-        <v>26206600</v>
+        <v>28712300</v>
       </c>
       <c r="H61" s="3">
-        <v>32072000</v>
+        <v>28750500</v>
       </c>
       <c r="I61" s="3">
+        <v>24965800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>30553500</v>
+      </c>
+      <c r="K61" s="3">
         <v>31792800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18118700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18604700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18643800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15989500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>19225100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19305500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19182700</v>
+        <v>17499800</v>
       </c>
       <c r="E62" s="3">
-        <v>14961700</v>
+        <v>16866800</v>
       </c>
       <c r="F62" s="3">
-        <v>14466500</v>
+        <v>18274500</v>
       </c>
       <c r="G62" s="3">
-        <v>15038000</v>
+        <v>14253300</v>
       </c>
       <c r="H62" s="3">
-        <v>15097400</v>
+        <v>13781600</v>
       </c>
       <c r="I62" s="3">
+        <v>14326000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14382600</v>
+      </c>
+      <c r="K62" s="3">
         <v>15283600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15031500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15728700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15941300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16645600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>26711100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>26936300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92401000</v>
+        <v>87798300</v>
       </c>
       <c r="E66" s="3">
-        <v>77591900</v>
+        <v>84102300</v>
       </c>
       <c r="F66" s="3">
-        <v>75436800</v>
+        <v>88026100</v>
       </c>
       <c r="G66" s="3">
-        <v>69431700</v>
+        <v>73918200</v>
       </c>
       <c r="H66" s="3">
-        <v>69977200</v>
+        <v>71865100</v>
       </c>
       <c r="I66" s="3">
+        <v>66144300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>66664000</v>
+      </c>
+      <c r="K66" s="3">
         <v>69754900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>72692100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>73627000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>74983500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>74896100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>75743100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>76317200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9388400</v>
+        <v>10435300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1148000</v>
+        <v>8479600</v>
       </c>
       <c r="F72" s="3">
-        <v>-623100</v>
+        <v>8943900</v>
       </c>
       <c r="G72" s="3">
-        <v>-98300</v>
+        <v>-1093700</v>
       </c>
       <c r="H72" s="3">
-        <v>107300</v>
+        <v>-593600</v>
       </c>
       <c r="I72" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-912700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15219000</v>
+        <v>16126600</v>
       </c>
       <c r="E76" s="3">
-        <v>4672200</v>
+        <v>14046400</v>
       </c>
       <c r="F76" s="3">
-        <v>5189300</v>
+        <v>14498400</v>
       </c>
       <c r="G76" s="3">
-        <v>5636700</v>
+        <v>4451000</v>
       </c>
       <c r="H76" s="3">
-        <v>5786600</v>
+        <v>4943600</v>
       </c>
       <c r="I76" s="3">
+        <v>5369800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5512600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4756200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-89200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-88700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1687800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1057800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2257000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1480100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2006400</v>
+        <v>1927500</v>
       </c>
       <c r="E81" s="3">
-        <v>1246300</v>
+        <v>1599800</v>
       </c>
       <c r="F81" s="3">
-        <v>1073000</v>
+        <v>1911400</v>
       </c>
       <c r="G81" s="3">
-        <v>1570800</v>
+        <v>1187300</v>
       </c>
       <c r="H81" s="3">
-        <v>1833200</v>
+        <v>1022200</v>
       </c>
       <c r="I81" s="3">
+        <v>1496400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="K81" s="3">
         <v>570100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>709800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-712200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1580800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-234800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1377400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>338400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>663200</v>
+        <v>238900</v>
       </c>
       <c r="E83" s="3">
-        <v>1003200</v>
+        <v>-170000</v>
       </c>
       <c r="F83" s="3">
-        <v>1529400</v>
+        <v>631800</v>
       </c>
       <c r="G83" s="3">
-        <v>888200</v>
+        <v>955700</v>
       </c>
       <c r="H83" s="3">
-        <v>641200</v>
+        <v>1457000</v>
       </c>
       <c r="I83" s="3">
+        <v>846100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>610900</v>
+      </c>
+      <c r="K83" s="3">
         <v>252100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>618000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>-228300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>892100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1417800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>429300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>821700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3251400</v>
+        <v>1188500</v>
       </c>
       <c r="E89" s="3">
-        <v>1795700</v>
+        <v>4252700</v>
       </c>
       <c r="F89" s="3">
-        <v>857100</v>
+        <v>3097500</v>
       </c>
       <c r="G89" s="3">
-        <v>5325100</v>
+        <v>1710700</v>
       </c>
       <c r="H89" s="3">
-        <v>2685200</v>
+        <v>816600</v>
       </c>
       <c r="I89" s="3">
+        <v>5073000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1760800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1115700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3742100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2474300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1314700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1506400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3938500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-367200</v>
+        <v>-242600</v>
       </c>
       <c r="E91" s="3">
-        <v>-360700</v>
+        <v>-591200</v>
       </c>
       <c r="F91" s="3">
-        <v>-287000</v>
+        <v>-349800</v>
       </c>
       <c r="G91" s="3">
-        <v>-649000</v>
+        <v>-343600</v>
       </c>
       <c r="H91" s="3">
-        <v>-389100</v>
+        <v>-273400</v>
       </c>
       <c r="I91" s="3">
+        <v>-618300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-370700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-365900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-333500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-696500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-485200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-494300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-547800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-605000</v>
+        <v>-71400</v>
       </c>
       <c r="E94" s="3">
-        <v>-729100</v>
+        <v>-455700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5109200</v>
+        <v>-576400</v>
       </c>
       <c r="G94" s="3">
-        <v>-533900</v>
+        <v>-694600</v>
       </c>
       <c r="H94" s="3">
-        <v>-655500</v>
+        <v>-4867300</v>
       </c>
       <c r="I94" s="3">
+        <v>-508700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-624400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-338700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-479600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-436900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-602600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-583000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-262000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-229100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-229100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1215200</v>
+        <v>-1158900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1469900</v>
+        <v>-1158900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1208800</v>
+        <v>-1157700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1207500</v>
+        <v>-1400300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1207500</v>
+        <v>-1151500</v>
       </c>
       <c r="I96" s="3">
+        <v>-1150300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1150300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1466000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1218000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1218000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2391700</v>
+        <v>-1295600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1153200</v>
+        <v>-3398000</v>
       </c>
       <c r="F100" s="3">
-        <v>4733000</v>
+        <v>-2278500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4196500</v>
+        <v>-1098600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2159000</v>
+        <v>4508900</v>
       </c>
       <c r="I100" s="3">
+        <v>-3997800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2056800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-365900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-846500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>51700</v>
       </c>
       <c r="E101" s="3">
-        <v>69800</v>
+        <v>-125600</v>
       </c>
       <c r="F101" s="3">
-        <v>-51700</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3">
-        <v>51700</v>
+        <v>66500</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>-49300</v>
       </c>
       <c r="I101" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>23300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-67200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-30000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-40400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-74300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>14500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>105300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>262400</v>
+        <v>-126900</v>
       </c>
       <c r="E102" s="3">
-        <v>-16800</v>
+        <v>273400</v>
       </c>
       <c r="F102" s="3">
-        <v>429200</v>
+        <v>250000</v>
       </c>
       <c r="G102" s="3">
-        <v>646400</v>
+        <v>-16000</v>
       </c>
       <c r="H102" s="3">
-        <v>-126700</v>
+        <v>408900</v>
       </c>
       <c r="I102" s="3">
+        <v>615800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-93100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>203000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-973000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>984800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-601300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-728200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1256200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,242 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11195200</v>
+        <v>10069700</v>
       </c>
       <c r="E8" s="3">
-        <v>10960000</v>
+        <v>12006000</v>
       </c>
       <c r="F8" s="3">
-        <v>11558600</v>
+        <v>11753700</v>
       </c>
       <c r="G8" s="3">
-        <v>9617600</v>
+        <v>12395600</v>
       </c>
       <c r="H8" s="3">
-        <v>9435300</v>
+        <v>10314000</v>
       </c>
       <c r="I8" s="3">
-        <v>10095400</v>
+        <v>10118600</v>
       </c>
       <c r="J8" s="3">
+        <v>10826500</v>
+      </c>
+      <c r="K8" s="3">
         <v>9966100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9450400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9336700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9963600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10229700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9547500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9723200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9989200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3425100</v>
+        <v>3208200</v>
       </c>
       <c r="E9" s="3">
-        <v>3708300</v>
+        <v>3673100</v>
       </c>
       <c r="F9" s="3">
-        <v>3665200</v>
+        <v>3976900</v>
       </c>
       <c r="G9" s="3">
-        <v>2994000</v>
+        <v>3930700</v>
       </c>
       <c r="H9" s="3">
-        <v>2923800</v>
+        <v>3210800</v>
       </c>
       <c r="I9" s="3">
-        <v>3285900</v>
+        <v>3135600</v>
       </c>
       <c r="J9" s="3">
+        <v>3523900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3104900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2853200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2996700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3122500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3183800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2778200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3097100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3066800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7770200</v>
+        <v>6861500</v>
       </c>
       <c r="E10" s="3">
-        <v>7251700</v>
+        <v>8332900</v>
       </c>
       <c r="F10" s="3">
-        <v>7893300</v>
+        <v>7776800</v>
       </c>
       <c r="G10" s="3">
-        <v>6623500</v>
+        <v>8464900</v>
       </c>
       <c r="H10" s="3">
-        <v>6511500</v>
+        <v>7103200</v>
       </c>
       <c r="I10" s="3">
-        <v>6809500</v>
+        <v>6983000</v>
       </c>
       <c r="J10" s="3">
+        <v>7302600</v>
+      </c>
+      <c r="K10" s="3">
         <v>6861200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6597200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6339900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6841100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7045900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6769400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6626100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6922400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +919,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1337500</v>
+        <v>1546600</v>
       </c>
       <c r="E12" s="3">
-        <v>1433600</v>
+        <v>1434400</v>
       </c>
       <c r="F12" s="3">
-        <v>1433600</v>
+        <v>1537400</v>
       </c>
       <c r="G12" s="3">
-        <v>1280900</v>
+        <v>1537400</v>
       </c>
       <c r="H12" s="3">
-        <v>1195900</v>
+        <v>1373600</v>
       </c>
       <c r="I12" s="3">
-        <v>1255000</v>
+        <v>1282500</v>
       </c>
       <c r="J12" s="3">
+        <v>1345900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1183600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1122200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1146700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1293900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1171300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1373400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1210100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1339200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,108 +1023,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>582500</v>
+        <v>-1709100</v>
       </c>
       <c r="E14" s="3">
-        <v>-282000</v>
+        <v>624700</v>
       </c>
       <c r="F14" s="3">
-        <v>535700</v>
+        <v>-302500</v>
       </c>
       <c r="G14" s="3">
-        <v>588700</v>
+        <v>574500</v>
       </c>
       <c r="H14" s="3">
-        <v>673700</v>
+        <v>631300</v>
       </c>
       <c r="I14" s="3">
-        <v>455700</v>
+        <v>722500</v>
       </c>
       <c r="J14" s="3">
+        <v>488700</v>
+      </c>
+      <c r="K14" s="3">
         <v>570200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1529400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>686500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1712600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>566100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2504300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>156700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1663100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="E15" s="3">
-        <v>19700</v>
+        <v>22500</v>
       </c>
       <c r="F15" s="3">
-        <v>17200</v>
+        <v>21100</v>
       </c>
       <c r="G15" s="3">
-        <v>20900</v>
+        <v>18500</v>
       </c>
       <c r="H15" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="I15" s="3">
-        <v>17200</v>
+        <v>22500</v>
       </c>
       <c r="J15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K15" s="3">
         <v>12300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>12900</v>
       </c>
       <c r="L15" s="3">
         <v>12900</v>
       </c>
       <c r="M15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="N15" s="3">
         <v>14300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1149,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8714800</v>
+        <v>6305500</v>
       </c>
       <c r="E17" s="3">
-        <v>8617500</v>
+        <v>9345900</v>
       </c>
       <c r="F17" s="3">
-        <v>8914300</v>
+        <v>9241600</v>
       </c>
       <c r="G17" s="3">
-        <v>7789900</v>
+        <v>9559900</v>
       </c>
       <c r="H17" s="3">
-        <v>7676600</v>
+        <v>8354000</v>
       </c>
       <c r="I17" s="3">
-        <v>8181500</v>
+        <v>8232500</v>
       </c>
       <c r="J17" s="3">
+        <v>8774000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7610100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8443300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7733600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9209700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7771100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9547500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7460900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9205700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2480400</v>
+        <v>3764300</v>
       </c>
       <c r="E18" s="3">
-        <v>2342500</v>
+        <v>2660100</v>
       </c>
       <c r="F18" s="3">
-        <v>2644200</v>
+        <v>2512100</v>
       </c>
       <c r="G18" s="3">
-        <v>1827700</v>
+        <v>2835700</v>
       </c>
       <c r="H18" s="3">
-        <v>1758700</v>
+        <v>1960100</v>
       </c>
       <c r="I18" s="3">
-        <v>1913900</v>
+        <v>1886100</v>
       </c>
       <c r="J18" s="3">
+        <v>2052500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2356100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1007100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1603100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>753900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2458600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2262200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>783500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,108 +1276,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-220500</v>
+        <v>-276000</v>
       </c>
       <c r="E20" s="3">
-        <v>-235200</v>
+        <v>-236400</v>
       </c>
       <c r="F20" s="3">
-        <v>-241400</v>
+        <v>-252300</v>
       </c>
       <c r="G20" s="3">
-        <v>-271000</v>
+        <v>-258900</v>
       </c>
       <c r="H20" s="3">
-        <v>-163800</v>
+        <v>-290600</v>
       </c>
       <c r="I20" s="3">
-        <v>-221700</v>
+        <v>-175700</v>
       </c>
       <c r="J20" s="3">
+        <v>-237700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-256200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-213300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-171900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-177400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-226900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-232200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-221200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-226500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2498900</v>
+        <v>3492200</v>
       </c>
       <c r="E21" s="3">
-        <v>1937300</v>
+        <v>2679900</v>
       </c>
       <c r="F21" s="3">
-        <v>3034700</v>
+        <v>2077600</v>
       </c>
       <c r="G21" s="3">
-        <v>2512500</v>
+        <v>3254400</v>
       </c>
       <c r="H21" s="3">
-        <v>3051900</v>
+        <v>2694400</v>
       </c>
       <c r="I21" s="3">
-        <v>2538300</v>
+        <v>3272900</v>
       </c>
       <c r="J21" s="3">
+        <v>2722100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2710800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1045900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2049100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>348300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3123800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1185600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2470300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1378700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,108 +1433,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2260000</v>
+        <v>3488200</v>
       </c>
       <c r="E23" s="3">
-        <v>2107300</v>
+        <v>2423600</v>
       </c>
       <c r="F23" s="3">
-        <v>2402900</v>
+        <v>2259900</v>
       </c>
       <c r="G23" s="3">
-        <v>1556700</v>
+        <v>2576900</v>
       </c>
       <c r="H23" s="3">
-        <v>1594900</v>
+        <v>1669500</v>
       </c>
       <c r="I23" s="3">
-        <v>1692200</v>
+        <v>1710400</v>
       </c>
       <c r="J23" s="3">
+        <v>1814800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2099900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>793800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1431100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>576500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2231700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-232200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2041000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>557000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>192100</v>
+        <v>265500</v>
       </c>
       <c r="E24" s="3">
-        <v>238900</v>
+        <v>206000</v>
       </c>
       <c r="F24" s="3">
-        <v>289400</v>
+        <v>256200</v>
       </c>
       <c r="G24" s="3">
-        <v>263600</v>
+        <v>310400</v>
       </c>
       <c r="H24" s="3">
-        <v>381800</v>
+        <v>282600</v>
       </c>
       <c r="I24" s="3">
-        <v>-62800</v>
+        <v>409400</v>
       </c>
       <c r="J24" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K24" s="3">
         <v>237700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>179700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>449900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-356100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>412200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-120000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>430600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>139600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1592,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2067900</v>
+        <v>3222700</v>
       </c>
       <c r="E26" s="3">
-        <v>1868300</v>
+        <v>2217600</v>
       </c>
       <c r="F26" s="3">
-        <v>2113400</v>
+        <v>2003600</v>
       </c>
       <c r="G26" s="3">
-        <v>1293200</v>
+        <v>2266500</v>
       </c>
       <c r="H26" s="3">
-        <v>1213100</v>
+        <v>1386800</v>
       </c>
       <c r="I26" s="3">
-        <v>1755000</v>
+        <v>1301000</v>
       </c>
       <c r="J26" s="3">
+        <v>1551900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1862200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>614100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>981200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>932600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1819500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-112200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1610400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>417400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1927500</v>
+        <v>2988900</v>
       </c>
       <c r="E27" s="3">
-        <v>1599800</v>
+        <v>2067000</v>
       </c>
       <c r="F27" s="3">
-        <v>1911400</v>
+        <v>1715700</v>
       </c>
       <c r="G27" s="3">
-        <v>1187300</v>
+        <v>2049900</v>
       </c>
       <c r="H27" s="3">
-        <v>1022200</v>
+        <v>1273200</v>
       </c>
       <c r="I27" s="3">
-        <v>1650300</v>
+        <v>1096300</v>
       </c>
       <c r="J27" s="3">
+        <v>1439700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1746400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>570100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>709800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>693900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1580800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-234800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1377400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>338400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1716,11 +1774,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>-154000</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>165100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1728,11 +1786,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1746,8 +1804,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1910,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>220500</v>
+        <v>276000</v>
       </c>
       <c r="E32" s="3">
-        <v>235200</v>
+        <v>236400</v>
       </c>
       <c r="F32" s="3">
-        <v>241400</v>
+        <v>252300</v>
       </c>
       <c r="G32" s="3">
-        <v>271000</v>
+        <v>258900</v>
       </c>
       <c r="H32" s="3">
-        <v>163800</v>
+        <v>290600</v>
       </c>
       <c r="I32" s="3">
-        <v>221700</v>
+        <v>175700</v>
       </c>
       <c r="J32" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K32" s="3">
         <v>256200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>213300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>171900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>177400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>226900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>232200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>221200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>226500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1927500</v>
+        <v>2988900</v>
       </c>
       <c r="E33" s="3">
-        <v>1599800</v>
+        <v>2067000</v>
       </c>
       <c r="F33" s="3">
-        <v>1911400</v>
+        <v>1715700</v>
       </c>
       <c r="G33" s="3">
-        <v>1187300</v>
+        <v>2049900</v>
       </c>
       <c r="H33" s="3">
-        <v>1022200</v>
+        <v>1273200</v>
       </c>
       <c r="I33" s="3">
-        <v>1496400</v>
+        <v>1096300</v>
       </c>
       <c r="J33" s="3">
+        <v>1604800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1746400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>570100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>709800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-712200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1580800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-234800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1377400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>338400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2069,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1927500</v>
+        <v>2988900</v>
       </c>
       <c r="E35" s="3">
-        <v>1599800</v>
+        <v>2067000</v>
       </c>
       <c r="F35" s="3">
-        <v>1911400</v>
+        <v>1715700</v>
       </c>
       <c r="G35" s="3">
-        <v>1187300</v>
+        <v>2049900</v>
       </c>
       <c r="H35" s="3">
-        <v>1022200</v>
+        <v>1273200</v>
       </c>
       <c r="I35" s="3">
-        <v>1496400</v>
+        <v>1096300</v>
       </c>
       <c r="J35" s="3">
+        <v>1604800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1746400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>570100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>709800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-712200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1580800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-234800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1377400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>338400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2224,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5873500</v>
+        <v>10785600</v>
       </c>
       <c r="E41" s="3">
-        <v>5797100</v>
+        <v>6298800</v>
       </c>
       <c r="F41" s="3">
-        <v>5302000</v>
+        <v>6217000</v>
       </c>
       <c r="G41" s="3">
-        <v>5077900</v>
+        <v>5686000</v>
       </c>
       <c r="H41" s="3">
-        <v>5089000</v>
+        <v>5445600</v>
       </c>
       <c r="I41" s="3">
-        <v>4771200</v>
+        <v>5457500</v>
       </c>
       <c r="J41" s="3">
+        <v>5116700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4671500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5230700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5176400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4999400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6186300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5199000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5937400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6448300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105900</v>
+        <v>114900</v>
       </c>
       <c r="E42" s="3">
-        <v>97300</v>
+        <v>113600</v>
       </c>
       <c r="F42" s="3">
-        <v>105900</v>
+        <v>104300</v>
       </c>
       <c r="G42" s="3">
-        <v>103500</v>
+        <v>113600</v>
       </c>
       <c r="H42" s="3">
-        <v>99800</v>
+        <v>110900</v>
       </c>
       <c r="I42" s="3">
-        <v>103500</v>
+        <v>107000</v>
       </c>
       <c r="J42" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K42" s="3">
         <v>98500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>104700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>101700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>107000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>110900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>115900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>117200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10955100</v>
+        <v>9900600</v>
       </c>
       <c r="E43" s="3">
-        <v>9192700</v>
+        <v>11748400</v>
       </c>
       <c r="F43" s="3">
-        <v>10274000</v>
+        <v>9858400</v>
       </c>
       <c r="G43" s="3">
-        <v>8696300</v>
+        <v>11018000</v>
       </c>
       <c r="H43" s="3">
-        <v>8273900</v>
+        <v>9326100</v>
       </c>
       <c r="I43" s="3">
-        <v>8192600</v>
+        <v>8873100</v>
       </c>
       <c r="J43" s="3">
+        <v>8785900</v>
+      </c>
+      <c r="K43" s="3">
         <v>9297300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8805300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8283000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8162400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8778000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8337100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8494600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8232600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7330500</v>
+        <v>8447800</v>
       </c>
       <c r="E44" s="3">
-        <v>7324300</v>
+        <v>7861300</v>
       </c>
       <c r="F44" s="3">
-        <v>8345300</v>
+        <v>7854700</v>
       </c>
       <c r="G44" s="3">
-        <v>7339100</v>
+        <v>8949700</v>
       </c>
       <c r="H44" s="3">
-        <v>6993000</v>
+        <v>7870600</v>
       </c>
       <c r="I44" s="3">
-        <v>6744200</v>
+        <v>7499400</v>
       </c>
       <c r="J44" s="3">
+        <v>7232600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7128500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7683200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7316000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7248100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7383700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7490700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7133100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6718300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2858500</v>
+        <v>1100200</v>
       </c>
       <c r="E45" s="3">
-        <v>1593700</v>
+        <v>3065600</v>
       </c>
       <c r="F45" s="3">
-        <v>1824000</v>
+        <v>1709100</v>
       </c>
       <c r="G45" s="3">
-        <v>1232800</v>
+        <v>1956100</v>
       </c>
       <c r="H45" s="3">
-        <v>1126900</v>
+        <v>1322100</v>
       </c>
       <c r="I45" s="3">
-        <v>1035800</v>
+        <v>1208500</v>
       </c>
       <c r="J45" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="K45" s="3">
         <v>256200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>210700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>358100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>236100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>573900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>286900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>424000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>488500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27123500</v>
+        <v>30349100</v>
       </c>
       <c r="E46" s="3">
-        <v>24005100</v>
+        <v>29087800</v>
       </c>
       <c r="F46" s="3">
-        <v>25851300</v>
+        <v>25743500</v>
       </c>
       <c r="G46" s="3">
-        <v>22449600</v>
+        <v>27723400</v>
       </c>
       <c r="H46" s="3">
-        <v>21582600</v>
+        <v>24075400</v>
       </c>
       <c r="I46" s="3">
-        <v>20847300</v>
+        <v>23145500</v>
       </c>
       <c r="J46" s="3">
+        <v>22357000</v>
+      </c>
+      <c r="K46" s="3">
         <v>21452000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22034700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21231800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20747700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23028900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21424600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22105000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22004900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2698400</v>
+        <v>3386500</v>
       </c>
       <c r="E47" s="3">
-        <v>2649200</v>
+        <v>2893900</v>
       </c>
       <c r="F47" s="3">
-        <v>2372100</v>
+        <v>2841000</v>
       </c>
       <c r="G47" s="3">
-        <v>2080200</v>
+        <v>2543800</v>
       </c>
       <c r="H47" s="3">
-        <v>2022300</v>
+        <v>2230800</v>
       </c>
       <c r="I47" s="3">
-        <v>1918800</v>
+        <v>2168700</v>
       </c>
       <c r="J47" s="3">
+        <v>2057800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1987800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1640600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1484100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1436000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1455600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1647300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1744700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1643400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14042700</v>
+        <v>15098000</v>
       </c>
       <c r="E48" s="3">
-        <v>13934300</v>
+        <v>15059600</v>
       </c>
       <c r="F48" s="3">
-        <v>14409700</v>
+        <v>14943400</v>
       </c>
       <c r="G48" s="3">
-        <v>14050100</v>
+        <v>15453200</v>
       </c>
       <c r="H48" s="3">
-        <v>13907200</v>
+        <v>15067600</v>
       </c>
       <c r="I48" s="3">
-        <v>13619000</v>
+        <v>14914400</v>
       </c>
       <c r="J48" s="3">
+        <v>14605300</v>
+      </c>
+      <c r="K48" s="3">
         <v>13452800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13992100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13782600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14164800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13868700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13906600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14237100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14231900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52217400</v>
+        <v>55817900</v>
       </c>
       <c r="E49" s="3">
-        <v>51132300</v>
+        <v>55998900</v>
       </c>
       <c r="F49" s="3">
-        <v>53575800</v>
+        <v>54835200</v>
       </c>
       <c r="G49" s="3">
-        <v>33450300</v>
+        <v>57455700</v>
       </c>
       <c r="H49" s="3">
-        <v>33042600</v>
+        <v>35872700</v>
       </c>
       <c r="I49" s="3">
-        <v>28315700</v>
+        <v>35435500</v>
       </c>
       <c r="J49" s="3">
+        <v>30366300</v>
+      </c>
+      <c r="K49" s="3">
         <v>28463500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29827700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29593700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30385200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30892600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31732600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32541800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32578700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2805,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7842800</v>
+        <v>7140200</v>
       </c>
       <c r="E52" s="3">
-        <v>6427700</v>
+        <v>8410800</v>
       </c>
       <c r="F52" s="3">
-        <v>6315600</v>
+        <v>6893200</v>
       </c>
       <c r="G52" s="3">
-        <v>6339000</v>
+        <v>6773000</v>
       </c>
       <c r="H52" s="3">
-        <v>6254100</v>
+        <v>6798100</v>
       </c>
       <c r="I52" s="3">
-        <v>6813200</v>
+        <v>6707000</v>
       </c>
       <c r="J52" s="3">
+        <v>7306600</v>
+      </c>
+      <c r="K52" s="3">
         <v>6820600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7016100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6510600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6804600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7425400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7242800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7371400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7338500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2911,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103924900</v>
+        <v>111791700</v>
       </c>
       <c r="E54" s="3">
-        <v>98148700</v>
+        <v>111450900</v>
       </c>
       <c r="F54" s="3">
-        <v>102524500</v>
+        <v>105256400</v>
       </c>
       <c r="G54" s="3">
-        <v>78369200</v>
+        <v>109949200</v>
       </c>
       <c r="H54" s="3">
-        <v>76808700</v>
+        <v>84044500</v>
       </c>
       <c r="I54" s="3">
-        <v>71514100</v>
+        <v>82371100</v>
       </c>
       <c r="J54" s="3">
+        <v>76693000</v>
+      </c>
+      <c r="K54" s="3">
         <v>72176700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74511100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72602900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73538300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76671300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75953900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78000100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77797300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3008,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18855800</v>
+        <v>20406200</v>
       </c>
       <c r="E57" s="3">
-        <v>18398900</v>
+        <v>20221300</v>
       </c>
       <c r="F57" s="3">
-        <v>18150100</v>
+        <v>19731300</v>
       </c>
       <c r="G57" s="3">
-        <v>16485000</v>
+        <v>19464500</v>
       </c>
       <c r="H57" s="3">
-        <v>16533000</v>
+        <v>17678800</v>
       </c>
       <c r="I57" s="3">
-        <v>17288000</v>
+        <v>17730300</v>
       </c>
       <c r="J57" s="3">
+        <v>18539900</v>
+      </c>
+      <c r="K57" s="3">
         <v>16125300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16218300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27262800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27351400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25877500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25538400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15844900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15754100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8947600</v>
+        <v>7877200</v>
       </c>
       <c r="E58" s="3">
-        <v>8520200</v>
+        <v>9595500</v>
       </c>
       <c r="F58" s="3">
-        <v>10118800</v>
+        <v>9137200</v>
       </c>
       <c r="G58" s="3">
-        <v>12497000</v>
+        <v>10851600</v>
       </c>
       <c r="H58" s="3">
-        <v>10361500</v>
+        <v>13402100</v>
       </c>
       <c r="I58" s="3">
-        <v>7134700</v>
+        <v>11111800</v>
       </c>
       <c r="J58" s="3">
+        <v>7651300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3574100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4486100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4449900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3684700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6182400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8624100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4924800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5437000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3399200</v>
+        <v>3315200</v>
       </c>
       <c r="E59" s="3">
-        <v>2700900</v>
+        <v>3645400</v>
       </c>
       <c r="F59" s="3">
-        <v>3154100</v>
+        <v>2896500</v>
       </c>
       <c r="G59" s="3">
-        <v>2767400</v>
+        <v>3382500</v>
       </c>
       <c r="H59" s="3">
-        <v>3230500</v>
+        <v>2967800</v>
       </c>
       <c r="I59" s="3">
-        <v>3277300</v>
+        <v>3464400</v>
       </c>
       <c r="J59" s="3">
+        <v>3514600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2955800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2822200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3098900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3618200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3727700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3386000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3929300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3829200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31202600</v>
+        <v>31598600</v>
       </c>
       <c r="E60" s="3">
-        <v>29620000</v>
+        <v>33462200</v>
       </c>
       <c r="F60" s="3">
-        <v>31423000</v>
+        <v>31765000</v>
       </c>
       <c r="G60" s="3">
-        <v>31749400</v>
+        <v>33698600</v>
       </c>
       <c r="H60" s="3">
-        <v>30124900</v>
+        <v>34048600</v>
       </c>
       <c r="I60" s="3">
-        <v>27699900</v>
+        <v>32306500</v>
       </c>
       <c r="J60" s="3">
+        <v>29705900</v>
+      </c>
+      <c r="K60" s="3">
         <v>22655300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23526600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34811500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34654200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35787700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37548500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24699000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25020300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30471000</v>
+        <v>33978600</v>
       </c>
       <c r="E61" s="3">
-        <v>29053400</v>
+        <v>32677700</v>
       </c>
       <c r="F61" s="3">
-        <v>30584300</v>
+        <v>31157400</v>
       </c>
       <c r="G61" s="3">
-        <v>28712300</v>
+        <v>32799200</v>
       </c>
       <c r="H61" s="3">
-        <v>28750500</v>
+        <v>30791600</v>
       </c>
       <c r="I61" s="3">
-        <v>24965800</v>
+        <v>30832500</v>
       </c>
       <c r="J61" s="3">
+        <v>26773700</v>
+      </c>
+      <c r="K61" s="3">
         <v>30553500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31792800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18118700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18604700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18643800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15989500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19225100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19305500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17499800</v>
+        <v>19617700</v>
       </c>
       <c r="E62" s="3">
-        <v>16866800</v>
+        <v>18767100</v>
       </c>
       <c r="F62" s="3">
-        <v>18274500</v>
+        <v>18088200</v>
       </c>
       <c r="G62" s="3">
-        <v>14253300</v>
+        <v>19597900</v>
       </c>
       <c r="H62" s="3">
-        <v>13781600</v>
+        <v>15285500</v>
       </c>
       <c r="I62" s="3">
-        <v>14326000</v>
+        <v>14779600</v>
       </c>
       <c r="J62" s="3">
+        <v>15363400</v>
+      </c>
+      <c r="K62" s="3">
         <v>14382600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15283600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15031500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15728700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15941300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16645600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26711100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26936300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3483,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87798300</v>
+        <v>93838200</v>
       </c>
       <c r="E66" s="3">
-        <v>84102300</v>
+        <v>94156500</v>
       </c>
       <c r="F66" s="3">
-        <v>88026100</v>
+        <v>90192800</v>
       </c>
       <c r="G66" s="3">
-        <v>73918200</v>
+        <v>94400800</v>
       </c>
       <c r="H66" s="3">
-        <v>71865100</v>
+        <v>79271200</v>
       </c>
       <c r="I66" s="3">
-        <v>66144300</v>
+        <v>77069400</v>
       </c>
       <c r="J66" s="3">
+        <v>70934300</v>
+      </c>
+      <c r="K66" s="3">
         <v>66664000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69754900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72692100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73627000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74983500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74896100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75743100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76317200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3769,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10435300</v>
+        <v>11846200</v>
       </c>
       <c r="E72" s="3">
-        <v>8479600</v>
+        <v>11191100</v>
       </c>
       <c r="F72" s="3">
-        <v>8943900</v>
+        <v>9093600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1093700</v>
+        <v>9591600</v>
       </c>
       <c r="H72" s="3">
-        <v>-593600</v>
+        <v>-1172900</v>
       </c>
       <c r="I72" s="3">
-        <v>-93600</v>
+        <v>-636600</v>
       </c>
       <c r="J72" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K72" s="3">
         <v>102200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-912700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3981,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16126600</v>
+        <v>17953500</v>
       </c>
       <c r="E76" s="3">
-        <v>14046400</v>
+        <v>17294400</v>
       </c>
       <c r="F76" s="3">
-        <v>14498400</v>
+        <v>15063600</v>
       </c>
       <c r="G76" s="3">
-        <v>4451000</v>
+        <v>15548300</v>
       </c>
       <c r="H76" s="3">
-        <v>4943600</v>
+        <v>4773300</v>
       </c>
       <c r="I76" s="3">
-        <v>5369800</v>
+        <v>5301700</v>
       </c>
       <c r="J76" s="3">
+        <v>5758600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5512600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4756200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-89200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-88700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1687800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1057800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2257000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1480100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4087,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1927500</v>
+        <v>2988900</v>
       </c>
       <c r="E81" s="3">
-        <v>1599800</v>
+        <v>2067000</v>
       </c>
       <c r="F81" s="3">
-        <v>1911400</v>
+        <v>1715700</v>
       </c>
       <c r="G81" s="3">
-        <v>1187300</v>
+        <v>2049900</v>
       </c>
       <c r="H81" s="3">
-        <v>1022200</v>
+        <v>1273200</v>
       </c>
       <c r="I81" s="3">
-        <v>1496400</v>
+        <v>1096300</v>
       </c>
       <c r="J81" s="3">
+        <v>1604800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1746400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>570100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>709800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-712200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1580800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-234800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1377400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>338400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4221,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>238900</v>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E83" s="3">
-        <v>-170000</v>
+        <v>256200</v>
       </c>
       <c r="F83" s="3">
-        <v>631800</v>
+        <v>-182300</v>
       </c>
       <c r="G83" s="3">
-        <v>955700</v>
+        <v>677600</v>
       </c>
       <c r="H83" s="3">
-        <v>1457000</v>
+        <v>1024900</v>
       </c>
       <c r="I83" s="3">
-        <v>846100</v>
+        <v>1562500</v>
       </c>
       <c r="J83" s="3">
+        <v>907400</v>
+      </c>
+      <c r="K83" s="3">
         <v>610900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>252100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>618000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-228300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>892100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1417800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>429300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>821700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4537,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1188500</v>
+        <v>3645400</v>
       </c>
       <c r="E89" s="3">
-        <v>4252700</v>
+        <v>1274600</v>
       </c>
       <c r="F89" s="3">
-        <v>3097500</v>
+        <v>4560700</v>
       </c>
       <c r="G89" s="3">
-        <v>1710700</v>
+        <v>3321800</v>
       </c>
       <c r="H89" s="3">
-        <v>816600</v>
+        <v>1834600</v>
       </c>
       <c r="I89" s="3">
-        <v>5073000</v>
+        <v>875700</v>
       </c>
       <c r="J89" s="3">
+        <v>5440300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2558000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1760800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1115700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3742100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2474300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1314700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1506400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3938500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4613,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-242600</v>
+        <v>-294500</v>
       </c>
       <c r="E91" s="3">
-        <v>-591200</v>
+        <v>-260200</v>
       </c>
       <c r="F91" s="3">
-        <v>-349800</v>
+        <v>-634000</v>
       </c>
       <c r="G91" s="3">
-        <v>-343600</v>
+        <v>-375100</v>
       </c>
       <c r="H91" s="3">
-        <v>-273400</v>
+        <v>-368500</v>
       </c>
       <c r="I91" s="3">
-        <v>-618300</v>
+        <v>-293200</v>
       </c>
       <c r="J91" s="3">
+        <v>-663000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-370700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-365900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-333500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-696500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-485200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-494300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-547800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4770,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71400</v>
+        <v>3739200</v>
       </c>
       <c r="E94" s="3">
-        <v>-455700</v>
+        <v>-76600</v>
       </c>
       <c r="F94" s="3">
-        <v>-576400</v>
+        <v>-488700</v>
       </c>
       <c r="G94" s="3">
-        <v>-694600</v>
+        <v>-618100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4867300</v>
+        <v>-744900</v>
       </c>
       <c r="I94" s="3">
-        <v>-508700</v>
+        <v>-5219800</v>
       </c>
       <c r="J94" s="3">
+        <v>-545500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-624400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-338700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-479600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-436900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-602600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-583000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-229100</v>
       </c>
       <c r="R94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4846,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1158900</v>
+        <v>-1511000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1158900</v>
+        <v>-1242900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1157700</v>
+        <v>-1242900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400300</v>
+        <v>-1241500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1151500</v>
+        <v>-1501700</v>
       </c>
       <c r="I96" s="3">
+        <v>-1234900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1233600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1150300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1218000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5056,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1295600</v>
+        <v>-3472400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3398000</v>
+        <v>-1389500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2278500</v>
+        <v>-3644100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1098600</v>
+        <v>-2443500</v>
       </c>
       <c r="H100" s="3">
-        <v>4508900</v>
+        <v>-1178100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3997800</v>
+        <v>4835400</v>
       </c>
       <c r="J100" s="3">
+        <v>-4287300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-365900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-846500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>51700</v>
+        <v>-18500</v>
       </c>
       <c r="E101" s="3">
-        <v>-125600</v>
+        <v>55500</v>
       </c>
       <c r="F101" s="3">
-        <v>7400</v>
+        <v>-134700</v>
       </c>
       <c r="G101" s="3">
-        <v>66500</v>
+        <v>7900</v>
       </c>
       <c r="H101" s="3">
-        <v>-49300</v>
+        <v>71300</v>
       </c>
       <c r="I101" s="3">
-        <v>49300</v>
+        <v>-52800</v>
       </c>
       <c r="J101" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-67200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-30000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-40400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-74300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>105300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-126900</v>
+        <v>3893700</v>
       </c>
       <c r="E102" s="3">
-        <v>273400</v>
+        <v>-136000</v>
       </c>
       <c r="F102" s="3">
-        <v>250000</v>
+        <v>293200</v>
       </c>
       <c r="G102" s="3">
-        <v>-16000</v>
+        <v>268100</v>
       </c>
       <c r="H102" s="3">
-        <v>408900</v>
+        <v>-17200</v>
       </c>
       <c r="I102" s="3">
-        <v>615800</v>
+        <v>438500</v>
       </c>
       <c r="J102" s="3">
+        <v>660400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-120700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-93100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>203000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-973000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>984800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-601300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-728200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1256200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,254 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10069700</v>
+        <v>11511300</v>
       </c>
       <c r="E8" s="3">
-        <v>12006000</v>
+        <v>10150600</v>
       </c>
       <c r="F8" s="3">
-        <v>11753700</v>
+        <v>12102400</v>
       </c>
       <c r="G8" s="3">
-        <v>12395600</v>
+        <v>11848100</v>
       </c>
       <c r="H8" s="3">
-        <v>10314000</v>
+        <v>12495200</v>
       </c>
       <c r="I8" s="3">
-        <v>10118600</v>
+        <v>10396900</v>
       </c>
       <c r="J8" s="3">
+        <v>10199900</v>
+      </c>
+      <c r="K8" s="3">
         <v>10826500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9966100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9450400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9336700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9963600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10229700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9547500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9723200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9989200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3208200</v>
+        <v>3618700</v>
       </c>
       <c r="E9" s="3">
-        <v>3673100</v>
+        <v>3234000</v>
       </c>
       <c r="F9" s="3">
-        <v>3976900</v>
+        <v>3702600</v>
       </c>
       <c r="G9" s="3">
-        <v>3930700</v>
+        <v>4008800</v>
       </c>
       <c r="H9" s="3">
-        <v>3210800</v>
+        <v>3962200</v>
       </c>
       <c r="I9" s="3">
-        <v>3135600</v>
+        <v>3236600</v>
       </c>
       <c r="J9" s="3">
+        <v>3160700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3523900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3104900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2853200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2996700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3122500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3183800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2778200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3097100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3066800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6861500</v>
+        <v>7892500</v>
       </c>
       <c r="E10" s="3">
-        <v>8332900</v>
+        <v>6916600</v>
       </c>
       <c r="F10" s="3">
-        <v>7776800</v>
+        <v>8399800</v>
       </c>
       <c r="G10" s="3">
-        <v>8464900</v>
+        <v>7839300</v>
       </c>
       <c r="H10" s="3">
-        <v>7103200</v>
+        <v>8532900</v>
       </c>
       <c r="I10" s="3">
-        <v>6983000</v>
+        <v>7160300</v>
       </c>
       <c r="J10" s="3">
+        <v>7039100</v>
+      </c>
+      <c r="K10" s="3">
         <v>7302600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6861200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6597200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6339900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6841100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7045900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6769400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6626100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6922400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1546600</v>
+        <v>1396600</v>
       </c>
       <c r="E12" s="3">
-        <v>1434400</v>
+        <v>1559100</v>
       </c>
       <c r="F12" s="3">
-        <v>1537400</v>
+        <v>1445900</v>
       </c>
       <c r="G12" s="3">
-        <v>1537400</v>
+        <v>1549700</v>
       </c>
       <c r="H12" s="3">
-        <v>1373600</v>
+        <v>1549700</v>
       </c>
       <c r="I12" s="3">
-        <v>1282500</v>
+        <v>1384700</v>
       </c>
       <c r="J12" s="3">
+        <v>1292800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1345900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1183600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1122200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1146700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1293900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1171300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1373400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1210100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1339200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,114 +1042,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1709100</v>
+        <v>814800</v>
       </c>
       <c r="E14" s="3">
-        <v>624700</v>
+        <v>-1722800</v>
       </c>
       <c r="F14" s="3">
-        <v>-302500</v>
+        <v>629800</v>
       </c>
       <c r="G14" s="3">
-        <v>574500</v>
+        <v>-304900</v>
       </c>
       <c r="H14" s="3">
-        <v>631300</v>
+        <v>579200</v>
       </c>
       <c r="I14" s="3">
-        <v>722500</v>
+        <v>636400</v>
       </c>
       <c r="J14" s="3">
+        <v>728300</v>
+      </c>
+      <c r="K14" s="3">
         <v>488700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>570200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1529400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>686500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1712600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>566100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2504300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>156700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1663100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>22500</v>
+        <v>21300</v>
       </c>
       <c r="E15" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="F15" s="3">
-        <v>21100</v>
+        <v>22600</v>
       </c>
       <c r="G15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K15" s="3">
         <v>18500</v>
       </c>
-      <c r="H15" s="3">
-        <v>22500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>18500</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>12900</v>
       </c>
       <c r="M15" s="3">
         <v>12900</v>
       </c>
       <c r="N15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="O15" s="3">
         <v>14300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6305500</v>
+        <v>9037500</v>
       </c>
       <c r="E17" s="3">
-        <v>9345900</v>
+        <v>6356100</v>
       </c>
       <c r="F17" s="3">
-        <v>9241600</v>
+        <v>9421000</v>
       </c>
       <c r="G17" s="3">
-        <v>9559900</v>
+        <v>9315800</v>
       </c>
       <c r="H17" s="3">
-        <v>8354000</v>
+        <v>9636700</v>
       </c>
       <c r="I17" s="3">
-        <v>8232500</v>
+        <v>8421100</v>
       </c>
       <c r="J17" s="3">
+        <v>8298600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8774000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7610100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8443300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7733600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9209700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7771100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9547500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7460900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9205700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3764300</v>
+        <v>2473700</v>
       </c>
       <c r="E18" s="3">
-        <v>2660100</v>
+        <v>3794500</v>
       </c>
       <c r="F18" s="3">
-        <v>2512100</v>
+        <v>2681400</v>
       </c>
       <c r="G18" s="3">
-        <v>2835700</v>
+        <v>2532300</v>
       </c>
       <c r="H18" s="3">
-        <v>1960100</v>
+        <v>2858500</v>
       </c>
       <c r="I18" s="3">
-        <v>1886100</v>
+        <v>1975800</v>
       </c>
       <c r="J18" s="3">
+        <v>1901200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2052500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2356100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1007100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1603100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>753900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2458600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>2262200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>783500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,114 +1309,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-276000</v>
+        <v>-249000</v>
       </c>
       <c r="E20" s="3">
-        <v>-236400</v>
+        <v>-278300</v>
       </c>
       <c r="F20" s="3">
-        <v>-252300</v>
+        <v>-238300</v>
       </c>
       <c r="G20" s="3">
-        <v>-258900</v>
+        <v>-254300</v>
       </c>
       <c r="H20" s="3">
-        <v>-290600</v>
+        <v>-261000</v>
       </c>
       <c r="I20" s="3">
-        <v>-175700</v>
+        <v>-292900</v>
       </c>
       <c r="J20" s="3">
+        <v>-177100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-237700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-256200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-213300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-171900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-177400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-226900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-232200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-221200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-226500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3492200</v>
+        <v>2220800</v>
       </c>
       <c r="E21" s="3">
-        <v>2679900</v>
+        <v>3520200</v>
       </c>
       <c r="F21" s="3">
-        <v>2077600</v>
+        <v>2701400</v>
       </c>
       <c r="G21" s="3">
-        <v>3254400</v>
+        <v>2094300</v>
       </c>
       <c r="H21" s="3">
-        <v>2694400</v>
+        <v>3280600</v>
       </c>
       <c r="I21" s="3">
-        <v>3272900</v>
+        <v>2716100</v>
       </c>
       <c r="J21" s="3">
+        <v>3299200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2722100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2710800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1045900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2049100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>348300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3123800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1185600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2470300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1378700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1436,114 +1475,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3488200</v>
+        <v>2224800</v>
       </c>
       <c r="E23" s="3">
-        <v>2423600</v>
+        <v>3516200</v>
       </c>
       <c r="F23" s="3">
-        <v>2259900</v>
+        <v>2443100</v>
       </c>
       <c r="G23" s="3">
-        <v>2576900</v>
+        <v>2278000</v>
       </c>
       <c r="H23" s="3">
-        <v>1669500</v>
+        <v>2597600</v>
       </c>
       <c r="I23" s="3">
-        <v>1710400</v>
+        <v>1682900</v>
       </c>
       <c r="J23" s="3">
+        <v>1724200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1814800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2099900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>793800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1431100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>576500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2231700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-232200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2041000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>557000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>265500</v>
+        <v>320900</v>
       </c>
       <c r="E24" s="3">
-        <v>206000</v>
+        <v>267600</v>
       </c>
       <c r="F24" s="3">
-        <v>256200</v>
+        <v>207700</v>
       </c>
       <c r="G24" s="3">
-        <v>310400</v>
+        <v>258300</v>
       </c>
       <c r="H24" s="3">
-        <v>282600</v>
+        <v>312900</v>
       </c>
       <c r="I24" s="3">
-        <v>409400</v>
+        <v>284900</v>
       </c>
       <c r="J24" s="3">
+        <v>412700</v>
+      </c>
+      <c r="K24" s="3">
         <v>262800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>237700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>179700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>449900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-356100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>412200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>430600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>139600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3222700</v>
+        <v>1903900</v>
       </c>
       <c r="E26" s="3">
-        <v>2217600</v>
+        <v>3248600</v>
       </c>
       <c r="F26" s="3">
-        <v>2003600</v>
+        <v>2235400</v>
       </c>
       <c r="G26" s="3">
-        <v>2266500</v>
+        <v>2019700</v>
       </c>
       <c r="H26" s="3">
-        <v>1386800</v>
+        <v>2284700</v>
       </c>
       <c r="I26" s="3">
-        <v>1301000</v>
+        <v>1398000</v>
       </c>
       <c r="J26" s="3">
+        <v>1311400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1551900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1862200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>614100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>981200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>932600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1819500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1610400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>417400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2988900</v>
+        <v>1656300</v>
       </c>
       <c r="E27" s="3">
-        <v>2067000</v>
+        <v>3013000</v>
       </c>
       <c r="F27" s="3">
-        <v>1715700</v>
+        <v>2083600</v>
       </c>
       <c r="G27" s="3">
-        <v>2049900</v>
+        <v>1729500</v>
       </c>
       <c r="H27" s="3">
-        <v>1273200</v>
+        <v>2066300</v>
       </c>
       <c r="I27" s="3">
-        <v>1096300</v>
+        <v>1283500</v>
       </c>
       <c r="J27" s="3">
+        <v>1105100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1439700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1746400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>570100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>709800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>693900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1580800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-234800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1377400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>338400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1777,11 +1837,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>165100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1789,11 +1849,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>276000</v>
+        <v>249000</v>
       </c>
       <c r="E32" s="3">
-        <v>236400</v>
+        <v>278300</v>
       </c>
       <c r="F32" s="3">
-        <v>252300</v>
+        <v>238300</v>
       </c>
       <c r="G32" s="3">
-        <v>258900</v>
+        <v>254300</v>
       </c>
       <c r="H32" s="3">
-        <v>290600</v>
+        <v>261000</v>
       </c>
       <c r="I32" s="3">
-        <v>175700</v>
+        <v>292900</v>
       </c>
       <c r="J32" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K32" s="3">
         <v>237700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>256200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>213300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>171900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>177400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>226900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>232200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>221200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>226500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2988900</v>
+        <v>1656300</v>
       </c>
       <c r="E33" s="3">
-        <v>2067000</v>
+        <v>3013000</v>
       </c>
       <c r="F33" s="3">
-        <v>1715700</v>
+        <v>2083600</v>
       </c>
       <c r="G33" s="3">
-        <v>2049900</v>
+        <v>1729500</v>
       </c>
       <c r="H33" s="3">
-        <v>1273200</v>
+        <v>2066300</v>
       </c>
       <c r="I33" s="3">
-        <v>1096300</v>
+        <v>1283500</v>
       </c>
       <c r="J33" s="3">
+        <v>1105100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1604800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1746400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>570100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>709800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-712200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1580800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-234800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1377400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>338400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2988900</v>
+        <v>1656300</v>
       </c>
       <c r="E35" s="3">
-        <v>2067000</v>
+        <v>3013000</v>
       </c>
       <c r="F35" s="3">
-        <v>1715700</v>
+        <v>2083600</v>
       </c>
       <c r="G35" s="3">
-        <v>2049900</v>
+        <v>1729500</v>
       </c>
       <c r="H35" s="3">
-        <v>1273200</v>
+        <v>2066300</v>
       </c>
       <c r="I35" s="3">
-        <v>1096300</v>
+        <v>1283500</v>
       </c>
       <c r="J35" s="3">
+        <v>1105100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1604800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1746400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>570100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>709800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-712200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1580800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-234800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1377400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>338400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,485 +2310,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10785600</v>
+        <v>5702400</v>
       </c>
       <c r="E41" s="3">
-        <v>6298800</v>
+        <v>10872200</v>
       </c>
       <c r="F41" s="3">
-        <v>6217000</v>
+        <v>6349400</v>
       </c>
       <c r="G41" s="3">
-        <v>5686000</v>
+        <v>6266900</v>
       </c>
       <c r="H41" s="3">
-        <v>5445600</v>
+        <v>5731700</v>
       </c>
       <c r="I41" s="3">
-        <v>5457500</v>
+        <v>5489400</v>
       </c>
       <c r="J41" s="3">
+        <v>5501300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5116700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4671500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5230700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5176400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4999400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6186300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5199000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5937400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6448300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>114900</v>
+        <v>110500</v>
       </c>
       <c r="E42" s="3">
-        <v>113600</v>
+        <v>115800</v>
       </c>
       <c r="F42" s="3">
-        <v>104300</v>
+        <v>114500</v>
       </c>
       <c r="G42" s="3">
-        <v>113600</v>
+        <v>105200</v>
       </c>
       <c r="H42" s="3">
+        <v>114500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K42" s="3">
         <v>110900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
+        <v>98500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>104700</v>
+      </c>
+      <c r="N42" s="3">
+        <v>98300</v>
+      </c>
+      <c r="O42" s="3">
+        <v>101700</v>
+      </c>
+      <c r="P42" s="3">
         <v>107000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="Q42" s="3">
         <v>110900</v>
       </c>
-      <c r="K42" s="3">
-        <v>98500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>104700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>98300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>101700</v>
-      </c>
-      <c r="O42" s="3">
-        <v>107000</v>
-      </c>
-      <c r="P42" s="3">
-        <v>110900</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>115900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>117200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9900600</v>
+        <v>11211700</v>
       </c>
       <c r="E43" s="3">
-        <v>11748400</v>
+        <v>9980200</v>
       </c>
       <c r="F43" s="3">
-        <v>9858400</v>
+        <v>11842800</v>
       </c>
       <c r="G43" s="3">
-        <v>11018000</v>
+        <v>9937600</v>
       </c>
       <c r="H43" s="3">
-        <v>9326100</v>
+        <v>11106500</v>
       </c>
       <c r="I43" s="3">
-        <v>8873100</v>
+        <v>9401000</v>
       </c>
       <c r="J43" s="3">
+        <v>8944300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8785900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9297300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8805300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8283000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8162400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8778000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8337100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8494600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8232600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8447800</v>
+        <v>8574200</v>
       </c>
       <c r="E44" s="3">
-        <v>7861300</v>
+        <v>8515600</v>
       </c>
       <c r="F44" s="3">
-        <v>7854700</v>
+        <v>7924500</v>
       </c>
       <c r="G44" s="3">
-        <v>8949700</v>
+        <v>7917800</v>
       </c>
       <c r="H44" s="3">
-        <v>7870600</v>
+        <v>9021600</v>
       </c>
       <c r="I44" s="3">
-        <v>7499400</v>
+        <v>7933800</v>
       </c>
       <c r="J44" s="3">
+        <v>7559700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7232600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7128500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7683200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7316000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7248100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7383700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7490700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7133100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6718300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100200</v>
+        <v>870700</v>
       </c>
       <c r="E45" s="3">
-        <v>3065600</v>
+        <v>1109100</v>
       </c>
       <c r="F45" s="3">
-        <v>1709100</v>
+        <v>3090200</v>
       </c>
       <c r="G45" s="3">
-        <v>1956100</v>
+        <v>1722800</v>
       </c>
       <c r="H45" s="3">
-        <v>1322100</v>
+        <v>1971800</v>
       </c>
       <c r="I45" s="3">
-        <v>1208500</v>
+        <v>1332700</v>
       </c>
       <c r="J45" s="3">
+        <v>1218200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1110800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>256200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>210700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>358100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>236100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>573900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>286900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>424000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>488500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30349100</v>
+        <v>26469600</v>
       </c>
       <c r="E46" s="3">
-        <v>29087800</v>
+        <v>30592900</v>
       </c>
       <c r="F46" s="3">
-        <v>25743500</v>
+        <v>29321400</v>
       </c>
       <c r="G46" s="3">
-        <v>27723400</v>
+        <v>25950300</v>
       </c>
       <c r="H46" s="3">
-        <v>24075400</v>
+        <v>27946100</v>
       </c>
       <c r="I46" s="3">
-        <v>23145500</v>
+        <v>24268800</v>
       </c>
       <c r="J46" s="3">
+        <v>23331500</v>
+      </c>
+      <c r="K46" s="3">
         <v>22357000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21452000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22034700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21231800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20747700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23028900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21424600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22105000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22004900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3386500</v>
+        <v>3956900</v>
       </c>
       <c r="E47" s="3">
-        <v>2893900</v>
+        <v>3413700</v>
       </c>
       <c r="F47" s="3">
-        <v>2841000</v>
+        <v>2917100</v>
       </c>
       <c r="G47" s="3">
-        <v>2543800</v>
+        <v>2863800</v>
       </c>
       <c r="H47" s="3">
-        <v>2230800</v>
+        <v>2564300</v>
       </c>
       <c r="I47" s="3">
-        <v>2168700</v>
+        <v>2248700</v>
       </c>
       <c r="J47" s="3">
+        <v>2186200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2057800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1987800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1640600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1484100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1436000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1455600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1647300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1744700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1643400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15098000</v>
+        <v>14918300</v>
       </c>
       <c r="E48" s="3">
-        <v>15059600</v>
+        <v>15219200</v>
       </c>
       <c r="F48" s="3">
-        <v>14943400</v>
+        <v>15180600</v>
       </c>
       <c r="G48" s="3">
-        <v>15453200</v>
+        <v>15063500</v>
       </c>
       <c r="H48" s="3">
-        <v>15067600</v>
+        <v>15577400</v>
       </c>
       <c r="I48" s="3">
-        <v>14914400</v>
+        <v>15188600</v>
       </c>
       <c r="J48" s="3">
+        <v>15034200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14605300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13452800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13992100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13782600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14164800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13868700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13906600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14237100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14231900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55817900</v>
+        <v>55322300</v>
       </c>
       <c r="E49" s="3">
-        <v>55998900</v>
+        <v>56266300</v>
       </c>
       <c r="F49" s="3">
-        <v>54835200</v>
+        <v>56448700</v>
       </c>
       <c r="G49" s="3">
-        <v>57455700</v>
+        <v>55275700</v>
       </c>
       <c r="H49" s="3">
-        <v>35872700</v>
+        <v>57917200</v>
       </c>
       <c r="I49" s="3">
-        <v>35435500</v>
+        <v>36160800</v>
       </c>
       <c r="J49" s="3">
+        <v>35720100</v>
+      </c>
+      <c r="K49" s="3">
         <v>30366300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28463500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29827700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29593700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30385200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30892600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31732600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32541800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32578700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7140200</v>
+        <v>7079100</v>
       </c>
       <c r="E52" s="3">
-        <v>8410800</v>
+        <v>7197500</v>
       </c>
       <c r="F52" s="3">
-        <v>6893200</v>
+        <v>8478400</v>
       </c>
       <c r="G52" s="3">
-        <v>6773000</v>
+        <v>6948600</v>
       </c>
       <c r="H52" s="3">
-        <v>6798100</v>
+        <v>6827400</v>
       </c>
       <c r="I52" s="3">
-        <v>6707000</v>
+        <v>6852700</v>
       </c>
       <c r="J52" s="3">
+        <v>6760800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7306600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6820600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7016100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6510600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6804600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7425400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7242800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7371400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7338500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111791700</v>
+        <v>107746200</v>
       </c>
       <c r="E54" s="3">
-        <v>111450900</v>
+        <v>112689700</v>
       </c>
       <c r="F54" s="3">
-        <v>105256400</v>
+        <v>112346200</v>
       </c>
       <c r="G54" s="3">
-        <v>109949200</v>
+        <v>106101900</v>
       </c>
       <c r="H54" s="3">
-        <v>84044500</v>
+        <v>110832400</v>
       </c>
       <c r="I54" s="3">
-        <v>82371100</v>
+        <v>84719600</v>
       </c>
       <c r="J54" s="3">
+        <v>83032800</v>
+      </c>
+      <c r="K54" s="3">
         <v>76693000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72176700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74511100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72602900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73538300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76671300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75953900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78000100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77797300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20406200</v>
+        <v>20160100</v>
       </c>
       <c r="E57" s="3">
-        <v>20221300</v>
+        <v>20570100</v>
       </c>
       <c r="F57" s="3">
-        <v>19731300</v>
+        <v>20383700</v>
       </c>
       <c r="G57" s="3">
-        <v>19464500</v>
+        <v>19889800</v>
       </c>
       <c r="H57" s="3">
-        <v>17678800</v>
+        <v>19620800</v>
       </c>
       <c r="I57" s="3">
-        <v>17730300</v>
+        <v>17820800</v>
       </c>
       <c r="J57" s="3">
+        <v>17872700</v>
+      </c>
+      <c r="K57" s="3">
         <v>18539900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16125300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16218300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27262800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27351400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25877500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25538400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15844900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15754100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7877200</v>
+        <v>6542500</v>
       </c>
       <c r="E58" s="3">
-        <v>9595500</v>
+        <v>7940500</v>
       </c>
       <c r="F58" s="3">
-        <v>9137200</v>
+        <v>9672600</v>
       </c>
       <c r="G58" s="3">
-        <v>10851600</v>
+        <v>9210600</v>
       </c>
       <c r="H58" s="3">
-        <v>13402100</v>
+        <v>10938800</v>
       </c>
       <c r="I58" s="3">
-        <v>11111800</v>
+        <v>13509700</v>
       </c>
       <c r="J58" s="3">
+        <v>11201100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7651300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3574100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4486100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4449900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3684700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6182400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8624100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4924800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5437000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3315200</v>
+        <v>2826600</v>
       </c>
       <c r="E59" s="3">
-        <v>3645400</v>
+        <v>3341800</v>
       </c>
       <c r="F59" s="3">
-        <v>2896500</v>
+        <v>3674700</v>
       </c>
       <c r="G59" s="3">
-        <v>3382500</v>
+        <v>2919800</v>
       </c>
       <c r="H59" s="3">
-        <v>2967800</v>
+        <v>3409700</v>
       </c>
       <c r="I59" s="3">
-        <v>3464400</v>
+        <v>2991700</v>
       </c>
       <c r="J59" s="3">
+        <v>3492300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3514600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2955800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2822200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3098900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3618200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3727700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3386000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3929300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3829200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31598600</v>
+        <v>29529100</v>
       </c>
       <c r="E60" s="3">
-        <v>33462200</v>
+        <v>31852400</v>
       </c>
       <c r="F60" s="3">
-        <v>31765000</v>
+        <v>33731000</v>
       </c>
       <c r="G60" s="3">
-        <v>33698600</v>
+        <v>32020200</v>
       </c>
       <c r="H60" s="3">
-        <v>34048600</v>
+        <v>33969300</v>
       </c>
       <c r="I60" s="3">
-        <v>32306500</v>
+        <v>34322200</v>
       </c>
       <c r="J60" s="3">
+        <v>32566000</v>
+      </c>
+      <c r="K60" s="3">
         <v>29705900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22655300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23526600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34811500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34654200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35787700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37548500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24699000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25020300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33978600</v>
+        <v>31066900</v>
       </c>
       <c r="E61" s="3">
-        <v>32677700</v>
+        <v>34251600</v>
       </c>
       <c r="F61" s="3">
-        <v>31157400</v>
+        <v>32940200</v>
       </c>
       <c r="G61" s="3">
-        <v>32799200</v>
+        <v>31407700</v>
       </c>
       <c r="H61" s="3">
-        <v>30791600</v>
+        <v>33062700</v>
       </c>
       <c r="I61" s="3">
-        <v>30832500</v>
+        <v>31038900</v>
       </c>
       <c r="J61" s="3">
+        <v>31080200</v>
+      </c>
+      <c r="K61" s="3">
         <v>26773700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30553500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31792800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18118700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18604700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18643800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15989500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19225100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19305500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19617700</v>
+        <v>19690100</v>
       </c>
       <c r="E62" s="3">
-        <v>18767100</v>
+        <v>19775300</v>
       </c>
       <c r="F62" s="3">
-        <v>18088200</v>
+        <v>18917900</v>
       </c>
       <c r="G62" s="3">
-        <v>19597900</v>
+        <v>18233500</v>
       </c>
       <c r="H62" s="3">
-        <v>15285500</v>
+        <v>19755300</v>
       </c>
       <c r="I62" s="3">
-        <v>14779600</v>
+        <v>15408300</v>
       </c>
       <c r="J62" s="3">
+        <v>14898400</v>
+      </c>
+      <c r="K62" s="3">
         <v>15363400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14382600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15283600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15031500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15728700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15941300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16645600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26711100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26936300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93838200</v>
+        <v>88725800</v>
       </c>
       <c r="E66" s="3">
-        <v>94156500</v>
+        <v>94592000</v>
       </c>
       <c r="F66" s="3">
-        <v>90192800</v>
+        <v>94912800</v>
       </c>
       <c r="G66" s="3">
-        <v>94400800</v>
+        <v>90917300</v>
       </c>
       <c r="H66" s="3">
-        <v>79271200</v>
+        <v>95159200</v>
       </c>
       <c r="I66" s="3">
-        <v>77069400</v>
+        <v>79908000</v>
       </c>
       <c r="J66" s="3">
+        <v>77688500</v>
+      </c>
+      <c r="K66" s="3">
         <v>70934300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66664000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69754900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72692100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73627000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74983500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74896100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75743100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>76317200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11846200</v>
+        <v>12861300</v>
       </c>
       <c r="E72" s="3">
-        <v>11191100</v>
+        <v>11941300</v>
       </c>
       <c r="F72" s="3">
-        <v>9093600</v>
+        <v>11281000</v>
       </c>
       <c r="G72" s="3">
-        <v>9591600</v>
+        <v>9166700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1172900</v>
+        <v>9668600</v>
       </c>
       <c r="I72" s="3">
-        <v>-636600</v>
+        <v>-1182300</v>
       </c>
       <c r="J72" s="3">
+        <v>-641700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-100400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>102200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-912700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17953500</v>
+        <v>19020400</v>
       </c>
       <c r="E76" s="3">
-        <v>17294400</v>
+        <v>18097700</v>
       </c>
       <c r="F76" s="3">
-        <v>15063600</v>
+        <v>17433400</v>
       </c>
       <c r="G76" s="3">
-        <v>15548300</v>
+        <v>15184600</v>
       </c>
       <c r="H76" s="3">
-        <v>4773300</v>
+        <v>15673200</v>
       </c>
       <c r="I76" s="3">
-        <v>5301700</v>
+        <v>4811700</v>
       </c>
       <c r="J76" s="3">
+        <v>5344200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5758600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5512600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4756200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-89200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-88700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1687800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1057800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2257000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1480100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2988900</v>
+        <v>1656300</v>
       </c>
       <c r="E81" s="3">
-        <v>2067000</v>
+        <v>3013000</v>
       </c>
       <c r="F81" s="3">
-        <v>1715700</v>
+        <v>2083600</v>
       </c>
       <c r="G81" s="3">
-        <v>2049900</v>
+        <v>1729500</v>
       </c>
       <c r="H81" s="3">
-        <v>1273200</v>
+        <v>2066300</v>
       </c>
       <c r="I81" s="3">
-        <v>1096300</v>
+        <v>1283500</v>
       </c>
       <c r="J81" s="3">
+        <v>1105100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1604800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1746400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>570100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>709800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-712200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1580800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-234800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1377400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>338400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="3">
-        <v>256200</v>
+      <c r="E83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F83" s="3">
-        <v>-182300</v>
+        <v>258300</v>
       </c>
       <c r="G83" s="3">
-        <v>677600</v>
+        <v>-183700</v>
       </c>
       <c r="H83" s="3">
-        <v>1024900</v>
+        <v>683000</v>
       </c>
       <c r="I83" s="3">
-        <v>1562500</v>
+        <v>1033200</v>
       </c>
       <c r="J83" s="3">
+        <v>1575000</v>
+      </c>
+      <c r="K83" s="3">
         <v>907400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>610900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>252100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>618000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-228300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>892100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1417800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>429300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>821700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3645400</v>
+        <v>1146300</v>
       </c>
       <c r="E89" s="3">
-        <v>1274600</v>
+        <v>3674700</v>
       </c>
       <c r="F89" s="3">
-        <v>4560700</v>
+        <v>1284800</v>
       </c>
       <c r="G89" s="3">
-        <v>3321800</v>
+        <v>4597300</v>
       </c>
       <c r="H89" s="3">
-        <v>1834600</v>
+        <v>3348500</v>
       </c>
       <c r="I89" s="3">
-        <v>875700</v>
+        <v>1849300</v>
       </c>
       <c r="J89" s="3">
+        <v>882700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5440300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2558000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1760800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1115700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3742100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2474300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1314700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1506400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3938500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294500</v>
+        <v>-388800</v>
       </c>
       <c r="E91" s="3">
-        <v>-260200</v>
+        <v>-296900</v>
       </c>
       <c r="F91" s="3">
-        <v>-634000</v>
+        <v>-262300</v>
       </c>
       <c r="G91" s="3">
-        <v>-375100</v>
+        <v>-639100</v>
       </c>
       <c r="H91" s="3">
-        <v>-368500</v>
+        <v>-378100</v>
       </c>
       <c r="I91" s="3">
-        <v>-293200</v>
+        <v>-371500</v>
       </c>
       <c r="J91" s="3">
+        <v>-295600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-663000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-370700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-365900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-333500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-696500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-485200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-494300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-547800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3739200</v>
+        <v>-745600</v>
       </c>
       <c r="E94" s="3">
-        <v>-76600</v>
+        <v>3769200</v>
       </c>
       <c r="F94" s="3">
-        <v>-488700</v>
+        <v>-77200</v>
       </c>
       <c r="G94" s="3">
-        <v>-618100</v>
+        <v>-492600</v>
       </c>
       <c r="H94" s="3">
-        <v>-744900</v>
+        <v>-623100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5219800</v>
+        <v>-750900</v>
       </c>
       <c r="J94" s="3">
+        <v>-5261700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-545500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-624400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-338700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-479600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-436900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-602600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-229100</v>
       </c>
       <c r="S94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1511000</v>
+        <v>-1259500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1242900</v>
+        <v>-1523100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1242900</v>
+        <v>-1252800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1241500</v>
+        <v>-1252800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1501700</v>
+        <v>-1251500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1234900</v>
+        <v>-1513800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1244900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="R96" s="3">
         <v>-1218000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3472400</v>
+        <v>-5693100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1389500</v>
+        <v>-3500300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3644100</v>
+        <v>-1400600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2443500</v>
+        <v>-3673300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1178100</v>
+        <v>-2463100</v>
       </c>
       <c r="I100" s="3">
-        <v>4835400</v>
+        <v>-1187600</v>
       </c>
       <c r="J100" s="3">
+        <v>4874300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-365900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-846500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18500</v>
+        <v>-59900</v>
       </c>
       <c r="E101" s="3">
-        <v>55500</v>
+        <v>-18600</v>
       </c>
       <c r="F101" s="3">
-        <v>-134700</v>
+        <v>55900</v>
       </c>
       <c r="G101" s="3">
-        <v>7900</v>
+        <v>-135800</v>
       </c>
       <c r="H101" s="3">
-        <v>71300</v>
+        <v>8000</v>
       </c>
       <c r="I101" s="3">
-        <v>-52800</v>
+        <v>71900</v>
       </c>
       <c r="J101" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K101" s="3">
         <v>52800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-67200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-40400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>105300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3893700</v>
+        <v>-5352200</v>
       </c>
       <c r="E102" s="3">
-        <v>-136000</v>
+        <v>3925000</v>
       </c>
       <c r="F102" s="3">
-        <v>293200</v>
+        <v>-137100</v>
       </c>
       <c r="G102" s="3">
-        <v>268100</v>
+        <v>295600</v>
       </c>
       <c r="H102" s="3">
-        <v>-17200</v>
+        <v>270300</v>
       </c>
       <c r="I102" s="3">
-        <v>438500</v>
+        <v>-17300</v>
       </c>
       <c r="J102" s="3">
+        <v>442000</v>
+      </c>
+      <c r="K102" s="3">
         <v>660400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-120700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-93100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>203000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-973000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>984800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-601300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-728200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1256200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,254 +665,266 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11511300</v>
+        <v>12000300</v>
       </c>
       <c r="E8" s="3">
-        <v>10150600</v>
+        <v>11872600</v>
       </c>
       <c r="F8" s="3">
-        <v>12102400</v>
+        <v>10469200</v>
       </c>
       <c r="G8" s="3">
-        <v>11848100</v>
+        <v>12482300</v>
       </c>
       <c r="H8" s="3">
-        <v>12495200</v>
+        <v>12220000</v>
       </c>
       <c r="I8" s="3">
-        <v>10396900</v>
+        <v>12887400</v>
       </c>
       <c r="J8" s="3">
+        <v>10723200</v>
+      </c>
+      <c r="K8" s="3">
         <v>10199900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10826500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9966100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9450400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9336700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9963600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10229700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9547500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9723200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9989200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3618700</v>
+        <v>4067400</v>
       </c>
       <c r="E9" s="3">
-        <v>3234000</v>
+        <v>3732300</v>
       </c>
       <c r="F9" s="3">
-        <v>3702600</v>
+        <v>3335500</v>
       </c>
       <c r="G9" s="3">
-        <v>4008800</v>
+        <v>3818800</v>
       </c>
       <c r="H9" s="3">
-        <v>3962200</v>
+        <v>4134700</v>
       </c>
       <c r="I9" s="3">
-        <v>3236600</v>
+        <v>4086600</v>
       </c>
       <c r="J9" s="3">
+        <v>3338200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3160700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3523900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3104900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2853200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2996700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3122500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3183800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2778200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3097100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3066800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7892500</v>
+        <v>7932900</v>
       </c>
       <c r="E10" s="3">
-        <v>6916600</v>
+        <v>8140300</v>
       </c>
       <c r="F10" s="3">
-        <v>8399800</v>
+        <v>7133700</v>
       </c>
       <c r="G10" s="3">
-        <v>7839300</v>
+        <v>8663500</v>
       </c>
       <c r="H10" s="3">
-        <v>8532900</v>
+        <v>8085300</v>
       </c>
       <c r="I10" s="3">
-        <v>7160300</v>
+        <v>8800800</v>
       </c>
       <c r="J10" s="3">
+        <v>7385000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7039100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7302600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6861200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6597200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6339900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6841100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7045900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6769400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6626100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6922400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1396600</v>
+        <v>1781000</v>
       </c>
       <c r="E12" s="3">
-        <v>1559100</v>
+        <v>1440500</v>
       </c>
       <c r="F12" s="3">
-        <v>1445900</v>
+        <v>1608000</v>
       </c>
       <c r="G12" s="3">
-        <v>1549700</v>
+        <v>1491300</v>
       </c>
       <c r="H12" s="3">
-        <v>1549700</v>
+        <v>1598400</v>
       </c>
       <c r="I12" s="3">
-        <v>1384700</v>
+        <v>1598400</v>
       </c>
       <c r="J12" s="3">
+        <v>1428100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1292800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1345900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1183600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1122200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1146700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1293900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1171300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1373400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1210100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1339200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,120 +1061,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>814800</v>
+        <v>769000</v>
       </c>
       <c r="E14" s="3">
-        <v>-1722800</v>
+        <v>840400</v>
       </c>
       <c r="F14" s="3">
-        <v>629800</v>
+        <v>-1776900</v>
       </c>
       <c r="G14" s="3">
-        <v>-304900</v>
+        <v>649500</v>
       </c>
       <c r="H14" s="3">
-        <v>579200</v>
+        <v>-314500</v>
       </c>
       <c r="I14" s="3">
-        <v>636400</v>
+        <v>597300</v>
       </c>
       <c r="J14" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K14" s="3">
         <v>728300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>488700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>570200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1529400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>686500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1712600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>566100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2504300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>156700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1663100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>21300</v>
+        <v>35700</v>
       </c>
       <c r="E15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>12900</v>
       </c>
       <c r="N15" s="3">
         <v>12900</v>
       </c>
       <c r="O15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="P15" s="3">
         <v>14300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9037500</v>
+        <v>10543400</v>
       </c>
       <c r="E17" s="3">
-        <v>6356100</v>
+        <v>9321200</v>
       </c>
       <c r="F17" s="3">
-        <v>9421000</v>
+        <v>6555600</v>
       </c>
       <c r="G17" s="3">
-        <v>9315800</v>
+        <v>9716700</v>
       </c>
       <c r="H17" s="3">
-        <v>9636700</v>
+        <v>9608200</v>
       </c>
       <c r="I17" s="3">
-        <v>8421100</v>
+        <v>9939100</v>
       </c>
       <c r="J17" s="3">
+        <v>8685400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8298600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8774000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7610100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8443300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7733600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9209700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7771100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9547500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7460900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9205700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2473700</v>
+        <v>1457000</v>
       </c>
       <c r="E18" s="3">
-        <v>3794500</v>
+        <v>2551400</v>
       </c>
       <c r="F18" s="3">
-        <v>2681400</v>
+        <v>3913600</v>
       </c>
       <c r="G18" s="3">
-        <v>2532300</v>
+        <v>2765600</v>
       </c>
       <c r="H18" s="3">
-        <v>2858500</v>
+        <v>2611800</v>
       </c>
       <c r="I18" s="3">
-        <v>1975800</v>
+        <v>2948200</v>
       </c>
       <c r="J18" s="3">
+        <v>2037800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1901200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2052500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2356100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1007100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1603100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>753900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2458600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>2262200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>783500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,120 +1342,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-249000</v>
+        <v>-329600</v>
       </c>
       <c r="E20" s="3">
-        <v>-278300</v>
+        <v>-256800</v>
       </c>
       <c r="F20" s="3">
-        <v>-238300</v>
+        <v>-287000</v>
       </c>
       <c r="G20" s="3">
-        <v>-254300</v>
+        <v>-245800</v>
       </c>
       <c r="H20" s="3">
-        <v>-261000</v>
+        <v>-262300</v>
       </c>
       <c r="I20" s="3">
-        <v>-292900</v>
+        <v>-269100</v>
       </c>
       <c r="J20" s="3">
+        <v>-302100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-177100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-237700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-256200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-213300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-171900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-177400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-226900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-232200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-221200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-226500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2220800</v>
+        <v>4089400</v>
       </c>
       <c r="E21" s="3">
-        <v>3520200</v>
+        <v>2290500</v>
       </c>
       <c r="F21" s="3">
-        <v>2701400</v>
+        <v>3630700</v>
       </c>
       <c r="G21" s="3">
-        <v>2094300</v>
+        <v>2786200</v>
       </c>
       <c r="H21" s="3">
-        <v>3280600</v>
+        <v>2160000</v>
       </c>
       <c r="I21" s="3">
-        <v>2716100</v>
+        <v>3383500</v>
       </c>
       <c r="J21" s="3">
+        <v>2801300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3299200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2722100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2710800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1045900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2049100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>348300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3123800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1185600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2470300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1378700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,120 +1517,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2224800</v>
+        <v>1127400</v>
       </c>
       <c r="E23" s="3">
-        <v>3516200</v>
+        <v>2294600</v>
       </c>
       <c r="F23" s="3">
-        <v>2443100</v>
+        <v>3626600</v>
       </c>
       <c r="G23" s="3">
-        <v>2278000</v>
+        <v>2519800</v>
       </c>
       <c r="H23" s="3">
-        <v>2597600</v>
+        <v>2349500</v>
       </c>
       <c r="I23" s="3">
-        <v>1682900</v>
+        <v>2679100</v>
       </c>
       <c r="J23" s="3">
+        <v>1735700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1724200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1814800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2099900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>793800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1431100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>576500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2231700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-232200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2041000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>557000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>320900</v>
+        <v>-24700</v>
       </c>
       <c r="E24" s="3">
-        <v>267600</v>
+        <v>330900</v>
       </c>
       <c r="F24" s="3">
-        <v>207700</v>
+        <v>276000</v>
       </c>
       <c r="G24" s="3">
-        <v>258300</v>
+        <v>214200</v>
       </c>
       <c r="H24" s="3">
-        <v>312900</v>
+        <v>266400</v>
       </c>
       <c r="I24" s="3">
-        <v>284900</v>
+        <v>322700</v>
       </c>
       <c r="J24" s="3">
+        <v>293900</v>
+      </c>
+      <c r="K24" s="3">
         <v>412700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>262800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>237700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>179700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>449900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-356100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>412200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-120000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>430600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>139600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1903900</v>
+        <v>1152100</v>
       </c>
       <c r="E26" s="3">
-        <v>3248600</v>
+        <v>1963700</v>
       </c>
       <c r="F26" s="3">
-        <v>2235400</v>
+        <v>3350600</v>
       </c>
       <c r="G26" s="3">
-        <v>2019700</v>
+        <v>2305600</v>
       </c>
       <c r="H26" s="3">
-        <v>2284700</v>
+        <v>2083100</v>
       </c>
       <c r="I26" s="3">
-        <v>1398000</v>
+        <v>2356400</v>
       </c>
       <c r="J26" s="3">
+        <v>1441800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1311400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1551900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1862200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>614100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>981200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>932600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1819500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-112200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1610400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>417400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1656300</v>
+        <v>929600</v>
       </c>
       <c r="E27" s="3">
-        <v>3013000</v>
+        <v>1708200</v>
       </c>
       <c r="F27" s="3">
-        <v>2083600</v>
+        <v>3107500</v>
       </c>
       <c r="G27" s="3">
-        <v>1729500</v>
+        <v>2149000</v>
       </c>
       <c r="H27" s="3">
-        <v>2066300</v>
+        <v>1783800</v>
       </c>
       <c r="I27" s="3">
-        <v>1283500</v>
+        <v>2131200</v>
       </c>
       <c r="J27" s="3">
+        <v>1323800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1105100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1439700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1746400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>570100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>709800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>693900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-234800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1377400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>338400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1840,11 +1900,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>165100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1852,11 +1912,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1870,8 +1930,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>249000</v>
+        <v>329600</v>
       </c>
       <c r="E32" s="3">
-        <v>278300</v>
+        <v>256800</v>
       </c>
       <c r="F32" s="3">
-        <v>238300</v>
+        <v>287000</v>
       </c>
       <c r="G32" s="3">
-        <v>254300</v>
+        <v>245800</v>
       </c>
       <c r="H32" s="3">
-        <v>261000</v>
+        <v>262300</v>
       </c>
       <c r="I32" s="3">
-        <v>292900</v>
+        <v>269100</v>
       </c>
       <c r="J32" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K32" s="3">
         <v>177100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>237700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>256200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>213300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>171900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>177400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>226900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>232200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>221200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>226500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1656300</v>
+        <v>929600</v>
       </c>
       <c r="E33" s="3">
-        <v>3013000</v>
+        <v>1708200</v>
       </c>
       <c r="F33" s="3">
-        <v>2083600</v>
+        <v>3107500</v>
       </c>
       <c r="G33" s="3">
-        <v>1729500</v>
+        <v>2149000</v>
       </c>
       <c r="H33" s="3">
-        <v>2066300</v>
+        <v>1783800</v>
       </c>
       <c r="I33" s="3">
-        <v>1283500</v>
+        <v>2131200</v>
       </c>
       <c r="J33" s="3">
+        <v>1323800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1105100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1604800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1746400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>570100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>709800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-712200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-234800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1377400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>338400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1656300</v>
+        <v>929600</v>
       </c>
       <c r="E35" s="3">
-        <v>3013000</v>
+        <v>1708200</v>
       </c>
       <c r="F35" s="3">
-        <v>2083600</v>
+        <v>3107500</v>
       </c>
       <c r="G35" s="3">
-        <v>1729500</v>
+        <v>2149000</v>
       </c>
       <c r="H35" s="3">
-        <v>2066300</v>
+        <v>1783800</v>
       </c>
       <c r="I35" s="3">
-        <v>1283500</v>
+        <v>2131200</v>
       </c>
       <c r="J35" s="3">
+        <v>1323800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1105100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1604800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1746400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>570100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>709800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-712200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-234800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1377400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>338400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,512 +2396,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5702400</v>
+        <v>8640100</v>
       </c>
       <c r="E41" s="3">
-        <v>10872200</v>
+        <v>5881400</v>
       </c>
       <c r="F41" s="3">
-        <v>6349400</v>
+        <v>11213500</v>
       </c>
       <c r="G41" s="3">
-        <v>6266900</v>
+        <v>6548700</v>
       </c>
       <c r="H41" s="3">
-        <v>5731700</v>
+        <v>6463600</v>
       </c>
       <c r="I41" s="3">
-        <v>5489400</v>
+        <v>5911600</v>
       </c>
       <c r="J41" s="3">
+        <v>5661700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5501300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5116700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4671500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5230700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5176400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4999400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6186300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5199000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5937400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6448300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110500</v>
+        <v>107100</v>
       </c>
       <c r="E42" s="3">
-        <v>115800</v>
+        <v>114000</v>
       </c>
       <c r="F42" s="3">
-        <v>114500</v>
+        <v>119500</v>
       </c>
       <c r="G42" s="3">
-        <v>105200</v>
+        <v>118100</v>
       </c>
       <c r="H42" s="3">
-        <v>114500</v>
+        <v>108500</v>
       </c>
       <c r="I42" s="3">
-        <v>111800</v>
+        <v>118100</v>
       </c>
       <c r="J42" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K42" s="3">
         <v>107800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>110900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>104700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>98300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>101700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>107000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>110900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>115900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>117200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11211700</v>
+        <v>10467800</v>
       </c>
       <c r="E43" s="3">
-        <v>9980200</v>
+        <v>11563600</v>
       </c>
       <c r="F43" s="3">
-        <v>11842800</v>
+        <v>10293400</v>
       </c>
       <c r="G43" s="3">
-        <v>9937600</v>
+        <v>12214500</v>
       </c>
       <c r="H43" s="3">
-        <v>11106500</v>
+        <v>10249500</v>
       </c>
       <c r="I43" s="3">
-        <v>9401000</v>
+        <v>11455200</v>
       </c>
       <c r="J43" s="3">
+        <v>9696100</v>
+      </c>
+      <c r="K43" s="3">
         <v>8944300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8785900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9297300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8805300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8283000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8162400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8778000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8337100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8494600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8232600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8574200</v>
+        <v>8233600</v>
       </c>
       <c r="E44" s="3">
-        <v>8515600</v>
+        <v>8843300</v>
       </c>
       <c r="F44" s="3">
-        <v>7924500</v>
+        <v>8782900</v>
       </c>
       <c r="G44" s="3">
-        <v>7917800</v>
+        <v>8173200</v>
       </c>
       <c r="H44" s="3">
-        <v>9021600</v>
+        <v>8166400</v>
       </c>
       <c r="I44" s="3">
-        <v>7933800</v>
+        <v>9304700</v>
       </c>
       <c r="J44" s="3">
+        <v>8182800</v>
+      </c>
+      <c r="K44" s="3">
         <v>7559700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7232600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7128500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7683200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7316000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7248100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7383700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7490700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7133100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6718300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>870700</v>
+        <v>354300</v>
       </c>
       <c r="E45" s="3">
-        <v>1109100</v>
+        <v>898100</v>
       </c>
       <c r="F45" s="3">
-        <v>3090200</v>
+        <v>1143900</v>
       </c>
       <c r="G45" s="3">
-        <v>1722800</v>
+        <v>3187200</v>
       </c>
       <c r="H45" s="3">
-        <v>1971800</v>
+        <v>1776900</v>
       </c>
       <c r="I45" s="3">
-        <v>1332700</v>
+        <v>2033700</v>
       </c>
       <c r="J45" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1218200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1110800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>256200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>210700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>358100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>236100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>573900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>286900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>424000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>488500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26469600</v>
+        <v>27803000</v>
       </c>
       <c r="E46" s="3">
-        <v>30592900</v>
+        <v>27300400</v>
       </c>
       <c r="F46" s="3">
-        <v>29321400</v>
+        <v>31553200</v>
       </c>
       <c r="G46" s="3">
-        <v>25950300</v>
+        <v>30241800</v>
       </c>
       <c r="H46" s="3">
-        <v>27946100</v>
+        <v>26764800</v>
       </c>
       <c r="I46" s="3">
-        <v>24268800</v>
+        <v>28823300</v>
       </c>
       <c r="J46" s="3">
+        <v>25030500</v>
+      </c>
+      <c r="K46" s="3">
         <v>23331500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22357000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21452000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22034700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21231800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20747700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23028900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21424600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22105000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22004900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3956900</v>
+        <v>4701800</v>
       </c>
       <c r="E47" s="3">
-        <v>3413700</v>
+        <v>4081100</v>
       </c>
       <c r="F47" s="3">
-        <v>2917100</v>
+        <v>3520900</v>
       </c>
       <c r="G47" s="3">
-        <v>2863800</v>
+        <v>3008700</v>
       </c>
       <c r="H47" s="3">
-        <v>2564300</v>
+        <v>2953700</v>
       </c>
       <c r="I47" s="3">
-        <v>2248700</v>
+        <v>2644800</v>
       </c>
       <c r="J47" s="3">
+        <v>2319300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2186200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2057800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1987800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1640600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1484100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1436000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1455600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1647300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1744700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1643400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14918300</v>
+        <v>15113300</v>
       </c>
       <c r="E48" s="3">
-        <v>15219200</v>
+        <v>15386600</v>
       </c>
       <c r="F48" s="3">
-        <v>15180600</v>
+        <v>15696900</v>
       </c>
       <c r="G48" s="3">
-        <v>15063500</v>
+        <v>15657100</v>
       </c>
       <c r="H48" s="3">
-        <v>15577400</v>
+        <v>15536300</v>
       </c>
       <c r="I48" s="3">
-        <v>15188600</v>
+        <v>16066300</v>
       </c>
       <c r="J48" s="3">
+        <v>15665400</v>
+      </c>
+      <c r="K48" s="3">
         <v>15034200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14605300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13452800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13992100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13782600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14164800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13868700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13906600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14237100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14231900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55322300</v>
+        <v>55505700</v>
       </c>
       <c r="E49" s="3">
-        <v>56266300</v>
+        <v>57058800</v>
       </c>
       <c r="F49" s="3">
-        <v>56448700</v>
+        <v>58032400</v>
       </c>
       <c r="G49" s="3">
-        <v>55275700</v>
+        <v>58220500</v>
       </c>
       <c r="H49" s="3">
-        <v>57917200</v>
+        <v>57010700</v>
       </c>
       <c r="I49" s="3">
-        <v>36160800</v>
+        <v>59735100</v>
       </c>
       <c r="J49" s="3">
+        <v>37295800</v>
+      </c>
+      <c r="K49" s="3">
         <v>35720100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30366300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28463500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29827700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29593700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30385200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30892600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31732600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32541800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32578700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7079100</v>
+        <v>7323200</v>
       </c>
       <c r="E52" s="3">
-        <v>7197500</v>
+        <v>7301300</v>
       </c>
       <c r="F52" s="3">
-        <v>8478400</v>
+        <v>7423500</v>
       </c>
       <c r="G52" s="3">
-        <v>6948600</v>
+        <v>8744500</v>
       </c>
       <c r="H52" s="3">
-        <v>6827400</v>
+        <v>7166700</v>
       </c>
       <c r="I52" s="3">
-        <v>6852700</v>
+        <v>7041700</v>
       </c>
       <c r="J52" s="3">
+        <v>7067800</v>
+      </c>
+      <c r="K52" s="3">
         <v>6760800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7306600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6820600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7016100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6510600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6804600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7425400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7242800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7371400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7338500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107746200</v>
+        <v>110447000</v>
       </c>
       <c r="E54" s="3">
-        <v>112689700</v>
+        <v>111128100</v>
       </c>
       <c r="F54" s="3">
-        <v>112346200</v>
+        <v>116226800</v>
       </c>
       <c r="G54" s="3">
-        <v>106101900</v>
+        <v>115872500</v>
       </c>
       <c r="H54" s="3">
-        <v>110832400</v>
+        <v>109432300</v>
       </c>
       <c r="I54" s="3">
-        <v>84719600</v>
+        <v>114311200</v>
       </c>
       <c r="J54" s="3">
+        <v>87378800</v>
+      </c>
+      <c r="K54" s="3">
         <v>83032800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76693000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72176700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74511100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72602900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73538300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76671300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75953900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78000100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77797300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,344 +3268,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20160100</v>
+        <v>21751300</v>
       </c>
       <c r="E57" s="3">
-        <v>20570100</v>
+        <v>20792800</v>
       </c>
       <c r="F57" s="3">
-        <v>20383700</v>
+        <v>21215800</v>
       </c>
       <c r="G57" s="3">
-        <v>19889800</v>
+        <v>21023500</v>
       </c>
       <c r="H57" s="3">
-        <v>19620800</v>
+        <v>20514100</v>
       </c>
       <c r="I57" s="3">
-        <v>17820800</v>
+        <v>20236700</v>
       </c>
       <c r="J57" s="3">
+        <v>18380100</v>
+      </c>
+      <c r="K57" s="3">
         <v>17872700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18539900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16125300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16218300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27262800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27351400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25877500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25538400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15844900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15754100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6542500</v>
+        <v>5115100</v>
       </c>
       <c r="E58" s="3">
-        <v>7940500</v>
+        <v>6747900</v>
       </c>
       <c r="F58" s="3">
-        <v>9672600</v>
+        <v>8189700</v>
       </c>
       <c r="G58" s="3">
-        <v>9210600</v>
+        <v>9976200</v>
       </c>
       <c r="H58" s="3">
-        <v>10938800</v>
+        <v>9499700</v>
       </c>
       <c r="I58" s="3">
-        <v>13509700</v>
+        <v>11282100</v>
       </c>
       <c r="J58" s="3">
+        <v>13933800</v>
+      </c>
+      <c r="K58" s="3">
         <v>11201100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7651300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3574100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4486100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4449900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3684700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6182400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8624100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4924800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5437000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2826600</v>
+        <v>3546900</v>
       </c>
       <c r="E59" s="3">
-        <v>3341800</v>
+        <v>2915300</v>
       </c>
       <c r="F59" s="3">
-        <v>3674700</v>
+        <v>3446700</v>
       </c>
       <c r="G59" s="3">
-        <v>2919800</v>
+        <v>3790000</v>
       </c>
       <c r="H59" s="3">
-        <v>3409700</v>
+        <v>3011400</v>
       </c>
       <c r="I59" s="3">
-        <v>2991700</v>
+        <v>3516700</v>
       </c>
       <c r="J59" s="3">
+        <v>3085600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3492300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3514600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2955800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2822200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3098900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3618200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3727700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3386000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3929300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3829200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29529100</v>
+        <v>30413400</v>
       </c>
       <c r="E60" s="3">
-        <v>31852400</v>
+        <v>30456000</v>
       </c>
       <c r="F60" s="3">
-        <v>33731000</v>
+        <v>32852200</v>
       </c>
       <c r="G60" s="3">
-        <v>32020200</v>
+        <v>34789800</v>
       </c>
       <c r="H60" s="3">
-        <v>33969300</v>
+        <v>33025200</v>
       </c>
       <c r="I60" s="3">
-        <v>34322200</v>
+        <v>35035600</v>
       </c>
       <c r="J60" s="3">
+        <v>35399500</v>
+      </c>
+      <c r="K60" s="3">
         <v>32566000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29705900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22655300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23526600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34811500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34654200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35787700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>37548500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24699000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25020300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31066900</v>
+        <v>32167000</v>
       </c>
       <c r="E61" s="3">
-        <v>34251600</v>
+        <v>32042000</v>
       </c>
       <c r="F61" s="3">
-        <v>32940200</v>
+        <v>35326700</v>
       </c>
       <c r="G61" s="3">
-        <v>31407700</v>
+        <v>33974100</v>
       </c>
       <c r="H61" s="3">
-        <v>33062700</v>
+        <v>32393600</v>
       </c>
       <c r="I61" s="3">
-        <v>31038900</v>
+        <v>34100400</v>
       </c>
       <c r="J61" s="3">
+        <v>32013200</v>
+      </c>
+      <c r="K61" s="3">
         <v>31080200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26773700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30553500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31792800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18118700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18604700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18643800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15989500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19225100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19305500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19690100</v>
+        <v>19293300</v>
       </c>
       <c r="E62" s="3">
-        <v>19775300</v>
+        <v>20308100</v>
       </c>
       <c r="F62" s="3">
-        <v>18917900</v>
+        <v>20396000</v>
       </c>
       <c r="G62" s="3">
-        <v>18233500</v>
+        <v>19511700</v>
       </c>
       <c r="H62" s="3">
-        <v>19755300</v>
+        <v>18805800</v>
       </c>
       <c r="I62" s="3">
-        <v>15408300</v>
+        <v>20375400</v>
       </c>
       <c r="J62" s="3">
+        <v>15891900</v>
+      </c>
+      <c r="K62" s="3">
         <v>14898400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15363400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14382600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15283600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15031500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15728700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15941300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16645600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26711100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26936300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88725800</v>
+        <v>90416300</v>
       </c>
       <c r="E66" s="3">
-        <v>94592000</v>
+        <v>91510800</v>
       </c>
       <c r="F66" s="3">
-        <v>94912800</v>
+        <v>97561000</v>
       </c>
       <c r="G66" s="3">
-        <v>90917300</v>
+        <v>97892000</v>
       </c>
       <c r="H66" s="3">
-        <v>95159200</v>
+        <v>93771000</v>
       </c>
       <c r="I66" s="3">
-        <v>79908000</v>
+        <v>98146000</v>
       </c>
       <c r="J66" s="3">
+        <v>82416100</v>
+      </c>
+      <c r="K66" s="3">
         <v>77688500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70934300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66664000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69754900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72692100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73627000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74983500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74896100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75743100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>76317200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12861300</v>
+        <v>13677000</v>
       </c>
       <c r="E72" s="3">
-        <v>11941300</v>
+        <v>13265000</v>
       </c>
       <c r="F72" s="3">
-        <v>11281000</v>
+        <v>12316100</v>
       </c>
       <c r="G72" s="3">
-        <v>9166700</v>
+        <v>11635000</v>
       </c>
       <c r="H72" s="3">
-        <v>9668600</v>
+        <v>9454400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1182300</v>
+        <v>9972100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1219400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-641700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>102200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-912700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19020400</v>
+        <v>20030700</v>
       </c>
       <c r="E76" s="3">
-        <v>18097700</v>
+        <v>19617400</v>
       </c>
       <c r="F76" s="3">
-        <v>17433400</v>
+        <v>18665800</v>
       </c>
       <c r="G76" s="3">
-        <v>15184600</v>
+        <v>17980500</v>
       </c>
       <c r="H76" s="3">
-        <v>15673200</v>
+        <v>15661200</v>
       </c>
       <c r="I76" s="3">
-        <v>4811700</v>
+        <v>16165200</v>
       </c>
       <c r="J76" s="3">
+        <v>4962700</v>
+      </c>
+      <c r="K76" s="3">
         <v>5344200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5758600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5512600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4756200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-89200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-88700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1687800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1057800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2257000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1480100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1656300</v>
+        <v>929600</v>
       </c>
       <c r="E81" s="3">
-        <v>3013000</v>
+        <v>1708200</v>
       </c>
       <c r="F81" s="3">
-        <v>2083600</v>
+        <v>3107500</v>
       </c>
       <c r="G81" s="3">
-        <v>1729500</v>
+        <v>2149000</v>
       </c>
       <c r="H81" s="3">
-        <v>2066300</v>
+        <v>1783800</v>
       </c>
       <c r="I81" s="3">
-        <v>1283500</v>
+        <v>2131200</v>
       </c>
       <c r="J81" s="3">
+        <v>1323800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1105100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1604800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1746400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>570100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>709800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-712200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1580800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-234800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1377400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>338400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4617,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4431,53 +4629,56 @@
       <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="3">
-        <v>258300</v>
+      <c r="F83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G83" s="3">
-        <v>-183700</v>
+        <v>266400</v>
       </c>
       <c r="H83" s="3">
-        <v>683000</v>
+        <v>-189500</v>
       </c>
       <c r="I83" s="3">
-        <v>1033200</v>
+        <v>704400</v>
       </c>
       <c r="J83" s="3">
+        <v>1065600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1575000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>907400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>610900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>252100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>618000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-228300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>892100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1417800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>429300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>821700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1146300</v>
+        <v>5293600</v>
       </c>
       <c r="E89" s="3">
-        <v>3674700</v>
+        <v>1182300</v>
       </c>
       <c r="F89" s="3">
-        <v>1284800</v>
+        <v>3790000</v>
       </c>
       <c r="G89" s="3">
-        <v>4597300</v>
+        <v>1325100</v>
       </c>
       <c r="H89" s="3">
-        <v>3348500</v>
+        <v>4741600</v>
       </c>
       <c r="I89" s="3">
-        <v>1849300</v>
+        <v>3453600</v>
       </c>
       <c r="J89" s="3">
+        <v>1907400</v>
+      </c>
+      <c r="K89" s="3">
         <v>882700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5440300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2558000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1760800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1115700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3742100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2474300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1314700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1506400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3938500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-388800</v>
+        <v>-705800</v>
       </c>
       <c r="E91" s="3">
-        <v>-296900</v>
+        <v>-401000</v>
       </c>
       <c r="F91" s="3">
-        <v>-262300</v>
+        <v>-306200</v>
       </c>
       <c r="G91" s="3">
-        <v>-639100</v>
+        <v>-270500</v>
       </c>
       <c r="H91" s="3">
-        <v>-378100</v>
+        <v>-659100</v>
       </c>
       <c r="I91" s="3">
-        <v>-371500</v>
+        <v>-390000</v>
       </c>
       <c r="J91" s="3">
+        <v>-383100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-295600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-663000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-370700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-365900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-333500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-696500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-485200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-494300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-547800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-745600</v>
+        <v>-71400</v>
       </c>
       <c r="E94" s="3">
-        <v>3769200</v>
+        <v>-769000</v>
       </c>
       <c r="F94" s="3">
-        <v>-77200</v>
+        <v>3887500</v>
       </c>
       <c r="G94" s="3">
-        <v>-492600</v>
+        <v>-79600</v>
       </c>
       <c r="H94" s="3">
-        <v>-623100</v>
+        <v>-508100</v>
       </c>
       <c r="I94" s="3">
-        <v>-750900</v>
+        <v>-642700</v>
       </c>
       <c r="J94" s="3">
+        <v>-774500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-545500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-624400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-338700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-479600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-436900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-602600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-583000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-229100</v>
       </c>
       <c r="T94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1259500</v>
+        <v>-1299000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1523100</v>
+        <v>-1299000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1252800</v>
+        <v>-1570900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1252800</v>
+        <v>-1292200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1251500</v>
+        <v>-1292200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1513800</v>
+        <v>-1290800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1561300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="S96" s="3">
         <v>-1218000</v>
       </c>
       <c r="T96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5693100</v>
+        <v>-2986700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3500300</v>
+        <v>-5871800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1400600</v>
+        <v>-3610100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3673300</v>
+        <v>-1444600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2463100</v>
+        <v>-3788600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1187600</v>
+        <v>-2540400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1224900</v>
+      </c>
+      <c r="K100" s="3">
         <v>4874300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-365900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-846500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-59900</v>
+        <v>-30200</v>
       </c>
       <c r="E101" s="3">
-        <v>-18600</v>
+        <v>-61800</v>
       </c>
       <c r="F101" s="3">
-        <v>55900</v>
+        <v>-19200</v>
       </c>
       <c r="G101" s="3">
-        <v>-135800</v>
+        <v>57700</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>-140100</v>
       </c>
       <c r="I101" s="3">
-        <v>71900</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-53300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>52800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-67200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-30000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-74300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>105300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5352200</v>
+        <v>2205300</v>
       </c>
       <c r="E102" s="3">
-        <v>3925000</v>
+        <v>-5520200</v>
       </c>
       <c r="F102" s="3">
-        <v>-137100</v>
+        <v>4048200</v>
       </c>
       <c r="G102" s="3">
-        <v>295600</v>
+        <v>-141400</v>
       </c>
       <c r="H102" s="3">
-        <v>270300</v>
+        <v>304800</v>
       </c>
       <c r="I102" s="3">
-        <v>-17300</v>
+        <v>278800</v>
       </c>
       <c r="J102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K102" s="3">
         <v>442000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>660400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-120700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-93100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>203000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-973000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>984800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-601300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-728200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1256200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,266 +665,278 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12000300</v>
+        <v>10497300</v>
       </c>
       <c r="E8" s="3">
-        <v>11872600</v>
+        <v>12366600</v>
       </c>
       <c r="F8" s="3">
-        <v>10469200</v>
+        <v>12235000</v>
       </c>
       <c r="G8" s="3">
-        <v>12482300</v>
+        <v>10788800</v>
       </c>
       <c r="H8" s="3">
-        <v>12220000</v>
+        <v>12863300</v>
       </c>
       <c r="I8" s="3">
-        <v>12887400</v>
+        <v>12593100</v>
       </c>
       <c r="J8" s="3">
+        <v>13280800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10723200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10199900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10826500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9966100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9450400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9336700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9963600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10229700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9547500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9723200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9989200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4067400</v>
+        <v>3411800</v>
       </c>
       <c r="E9" s="3">
-        <v>3732300</v>
+        <v>4191600</v>
       </c>
       <c r="F9" s="3">
-        <v>3335500</v>
+        <v>3846300</v>
       </c>
       <c r="G9" s="3">
-        <v>3818800</v>
+        <v>3437300</v>
       </c>
       <c r="H9" s="3">
-        <v>4134700</v>
+        <v>3935400</v>
       </c>
       <c r="I9" s="3">
-        <v>4086600</v>
+        <v>4260900</v>
       </c>
       <c r="J9" s="3">
+        <v>4211400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3338200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3160700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3523900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3104900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2853200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2996700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3122500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3183800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2778200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3097100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3066800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7932900</v>
+        <v>7085500</v>
       </c>
       <c r="E10" s="3">
-        <v>8140300</v>
+        <v>8175100</v>
       </c>
       <c r="F10" s="3">
-        <v>7133700</v>
+        <v>8388800</v>
       </c>
       <c r="G10" s="3">
-        <v>8663500</v>
+        <v>7351500</v>
       </c>
       <c r="H10" s="3">
-        <v>8085300</v>
+        <v>8927900</v>
       </c>
       <c r="I10" s="3">
-        <v>8800800</v>
+        <v>8332200</v>
       </c>
       <c r="J10" s="3">
+        <v>9069400</v>
+      </c>
+      <c r="K10" s="3">
         <v>7385000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7039100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7302600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6861200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6597200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6339900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6841100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7045900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6769400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6626100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6922400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +958,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1781000</v>
+        <v>1524100</v>
       </c>
       <c r="E12" s="3">
-        <v>1440500</v>
+        <v>1835400</v>
       </c>
       <c r="F12" s="3">
-        <v>1608000</v>
+        <v>1484500</v>
       </c>
       <c r="G12" s="3">
-        <v>1491300</v>
+        <v>1657100</v>
       </c>
       <c r="H12" s="3">
-        <v>1598400</v>
+        <v>1536800</v>
       </c>
       <c r="I12" s="3">
-        <v>1598400</v>
+        <v>1647200</v>
       </c>
       <c r="J12" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1428100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1292800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1345900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1183600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1122200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1146700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1293900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1171300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1373400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1210100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1339200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,126 +1080,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>769000</v>
+        <v>-21200</v>
       </c>
       <c r="E14" s="3">
-        <v>840400</v>
+        <v>792500</v>
       </c>
       <c r="F14" s="3">
-        <v>-1776900</v>
+        <v>866000</v>
       </c>
       <c r="G14" s="3">
-        <v>649500</v>
+        <v>-1831200</v>
       </c>
       <c r="H14" s="3">
-        <v>-314500</v>
+        <v>669300</v>
       </c>
       <c r="I14" s="3">
-        <v>597300</v>
+        <v>-324100</v>
       </c>
       <c r="J14" s="3">
+        <v>615600</v>
+      </c>
+      <c r="K14" s="3">
         <v>656400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>728300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>488700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>570200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1529400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>686500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1712600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>566100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2504300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>156700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1663100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="E15" s="3">
-        <v>22000</v>
+        <v>36800</v>
       </c>
       <c r="F15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>24100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K15" s="3">
         <v>23300</v>
       </c>
-      <c r="G15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>12900</v>
       </c>
       <c r="O15" s="3">
         <v>12900</v>
       </c>
       <c r="P15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>14300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1227,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10543400</v>
+        <v>8101500</v>
       </c>
       <c r="E17" s="3">
-        <v>9321200</v>
+        <v>10865200</v>
       </c>
       <c r="F17" s="3">
-        <v>6555600</v>
+        <v>9605800</v>
       </c>
       <c r="G17" s="3">
-        <v>9716700</v>
+        <v>6755700</v>
       </c>
       <c r="H17" s="3">
-        <v>9608200</v>
+        <v>10013300</v>
       </c>
       <c r="I17" s="3">
-        <v>9939100</v>
+        <v>9901500</v>
       </c>
       <c r="J17" s="3">
+        <v>10242600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8685400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8298600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8774000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7610100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8443300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7733600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9209700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7771100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9547500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7460900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9205700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1457000</v>
+        <v>2395800</v>
       </c>
       <c r="E18" s="3">
-        <v>2551400</v>
+        <v>1501400</v>
       </c>
       <c r="F18" s="3">
-        <v>3913600</v>
+        <v>2629300</v>
       </c>
       <c r="G18" s="3">
-        <v>2765600</v>
+        <v>4033100</v>
       </c>
       <c r="H18" s="3">
-        <v>2611800</v>
+        <v>2850000</v>
       </c>
       <c r="I18" s="3">
-        <v>2948200</v>
+        <v>2691500</v>
       </c>
       <c r="J18" s="3">
+        <v>3038200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2037800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1901200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2052500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2356100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1007100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1603100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>753900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2458600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>2262200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>783500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,126 +1375,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-329600</v>
+        <v>-247600</v>
       </c>
       <c r="E20" s="3">
-        <v>-256800</v>
+        <v>-339600</v>
       </c>
       <c r="F20" s="3">
-        <v>-287000</v>
+        <v>-264600</v>
       </c>
       <c r="G20" s="3">
-        <v>-245800</v>
+        <v>-295800</v>
       </c>
       <c r="H20" s="3">
-        <v>-262300</v>
+        <v>-253300</v>
       </c>
       <c r="I20" s="3">
-        <v>-269100</v>
+        <v>-270300</v>
       </c>
       <c r="J20" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-302100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-177100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-237700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-256200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-213300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-171900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-177400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-226900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-232200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-221200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-226500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4089400</v>
+        <v>2659000</v>
       </c>
       <c r="E21" s="3">
-        <v>2290500</v>
+        <v>4214200</v>
       </c>
       <c r="F21" s="3">
-        <v>3630700</v>
+        <v>2360400</v>
       </c>
       <c r="G21" s="3">
-        <v>2786200</v>
+        <v>3741600</v>
       </c>
       <c r="H21" s="3">
-        <v>2160000</v>
+        <v>2871300</v>
       </c>
       <c r="I21" s="3">
-        <v>3383500</v>
+        <v>2226000</v>
       </c>
       <c r="J21" s="3">
+        <v>3486800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2801300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3299200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2722100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2710800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1045900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2049100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>348300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3123800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1185600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2470300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1378700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,126 +1559,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1127400</v>
+        <v>2148100</v>
       </c>
       <c r="E23" s="3">
-        <v>2294600</v>
+        <v>1161800</v>
       </c>
       <c r="F23" s="3">
-        <v>3626600</v>
+        <v>2364600</v>
       </c>
       <c r="G23" s="3">
-        <v>2519800</v>
+        <v>3737300</v>
       </c>
       <c r="H23" s="3">
-        <v>2349500</v>
+        <v>2596700</v>
       </c>
       <c r="I23" s="3">
-        <v>2679100</v>
+        <v>2421300</v>
       </c>
       <c r="J23" s="3">
+        <v>2760900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1735700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1724200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1814800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2099900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>793800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1431100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>576500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2231700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-232200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2041000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>557000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-24700</v>
+        <v>365100</v>
       </c>
       <c r="E24" s="3">
-        <v>330900</v>
+        <v>-25500</v>
       </c>
       <c r="F24" s="3">
-        <v>276000</v>
+        <v>341000</v>
       </c>
       <c r="G24" s="3">
-        <v>214200</v>
+        <v>284400</v>
       </c>
       <c r="H24" s="3">
-        <v>266400</v>
+        <v>220800</v>
       </c>
       <c r="I24" s="3">
-        <v>322700</v>
+        <v>274500</v>
       </c>
       <c r="J24" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K24" s="3">
         <v>293900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>412700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>262800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>237700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>179700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>449900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>412200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-120000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>430600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>139600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1745,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1152100</v>
+        <v>1783000</v>
       </c>
       <c r="E26" s="3">
-        <v>1963700</v>
+        <v>1187300</v>
       </c>
       <c r="F26" s="3">
-        <v>3350600</v>
+        <v>2023600</v>
       </c>
       <c r="G26" s="3">
-        <v>2305600</v>
+        <v>3452900</v>
       </c>
       <c r="H26" s="3">
-        <v>2083100</v>
+        <v>2376000</v>
       </c>
       <c r="I26" s="3">
-        <v>2356400</v>
+        <v>2146700</v>
       </c>
       <c r="J26" s="3">
+        <v>2428300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1441800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1311400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1551900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1862200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>614100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>981200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>932600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1819500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-112200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1610400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>417400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>929600</v>
+        <v>1518400</v>
       </c>
       <c r="E27" s="3">
-        <v>1708200</v>
+        <v>958000</v>
       </c>
       <c r="F27" s="3">
-        <v>3107500</v>
+        <v>1760400</v>
       </c>
       <c r="G27" s="3">
-        <v>2149000</v>
+        <v>3202400</v>
       </c>
       <c r="H27" s="3">
-        <v>1783800</v>
+        <v>2214600</v>
       </c>
       <c r="I27" s="3">
-        <v>2131200</v>
+        <v>1838200</v>
       </c>
       <c r="J27" s="3">
+        <v>2196300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1323800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1105100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1439700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1746400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>570100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>709800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>693900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1580800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-234800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1377400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>338400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,8 +1931,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1903,11 +1963,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>165100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1915,11 +1975,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1933,8 +1993,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,126 +2117,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>329600</v>
+        <v>247600</v>
       </c>
       <c r="E32" s="3">
-        <v>256800</v>
+        <v>339600</v>
       </c>
       <c r="F32" s="3">
-        <v>287000</v>
+        <v>264600</v>
       </c>
       <c r="G32" s="3">
-        <v>245800</v>
+        <v>295800</v>
       </c>
       <c r="H32" s="3">
-        <v>262300</v>
+        <v>253300</v>
       </c>
       <c r="I32" s="3">
-        <v>269100</v>
+        <v>270300</v>
       </c>
       <c r="J32" s="3">
+        <v>277400</v>
+      </c>
+      <c r="K32" s="3">
         <v>302100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>177100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>237700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>256200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>213300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>171900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>177400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>226900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>232200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>221200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>226500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>929600</v>
+        <v>1518400</v>
       </c>
       <c r="E33" s="3">
-        <v>1708200</v>
+        <v>958000</v>
       </c>
       <c r="F33" s="3">
-        <v>3107500</v>
+        <v>1760400</v>
       </c>
       <c r="G33" s="3">
-        <v>2149000</v>
+        <v>3202400</v>
       </c>
       <c r="H33" s="3">
-        <v>1783800</v>
+        <v>2214600</v>
       </c>
       <c r="I33" s="3">
-        <v>2131200</v>
+        <v>1838200</v>
       </c>
       <c r="J33" s="3">
+        <v>2196300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1323800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1105100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1604800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1746400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>570100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>709800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-712200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1580800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-234800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1377400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>338400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,131 +2303,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>929600</v>
+        <v>1518400</v>
       </c>
       <c r="E35" s="3">
-        <v>1708200</v>
+        <v>958000</v>
       </c>
       <c r="F35" s="3">
-        <v>3107500</v>
+        <v>1760400</v>
       </c>
       <c r="G35" s="3">
-        <v>2149000</v>
+        <v>3202400</v>
       </c>
       <c r="H35" s="3">
-        <v>1783800</v>
+        <v>2214600</v>
       </c>
       <c r="I35" s="3">
-        <v>2131200</v>
+        <v>1838200</v>
       </c>
       <c r="J35" s="3">
+        <v>2196300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1323800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1105100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1604800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1746400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>570100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>709800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-712200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1580800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-234800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1377400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>338400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,539 +2482,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8640100</v>
+        <v>6731700</v>
       </c>
       <c r="E41" s="3">
-        <v>5881400</v>
+        <v>8903900</v>
       </c>
       <c r="F41" s="3">
-        <v>11213500</v>
+        <v>6060900</v>
       </c>
       <c r="G41" s="3">
-        <v>6548700</v>
+        <v>11555800</v>
       </c>
       <c r="H41" s="3">
-        <v>6463600</v>
+        <v>6748700</v>
       </c>
       <c r="I41" s="3">
-        <v>5911600</v>
+        <v>6660900</v>
       </c>
       <c r="J41" s="3">
+        <v>6092000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5661700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5501300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5116700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4671500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5230700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5176400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4999400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6186300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5199000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5937400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6448300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>107100</v>
+        <v>84900</v>
       </c>
       <c r="E42" s="3">
-        <v>114000</v>
+        <v>110400</v>
       </c>
       <c r="F42" s="3">
-        <v>119500</v>
+        <v>117500</v>
       </c>
       <c r="G42" s="3">
-        <v>118100</v>
+        <v>123100</v>
       </c>
       <c r="H42" s="3">
-        <v>108500</v>
+        <v>121700</v>
       </c>
       <c r="I42" s="3">
-        <v>118100</v>
+        <v>111800</v>
       </c>
       <c r="J42" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K42" s="3">
         <v>115300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>110900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>98500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>98300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>101700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>107000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>110900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>115900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>117200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10467800</v>
+        <v>10164700</v>
       </c>
       <c r="E43" s="3">
-        <v>11563600</v>
+        <v>10787400</v>
       </c>
       <c r="F43" s="3">
-        <v>10293400</v>
+        <v>11916600</v>
       </c>
       <c r="G43" s="3">
-        <v>12214500</v>
+        <v>10607700</v>
       </c>
       <c r="H43" s="3">
-        <v>10249500</v>
+        <v>12587400</v>
       </c>
       <c r="I43" s="3">
-        <v>11455200</v>
+        <v>10562400</v>
       </c>
       <c r="J43" s="3">
+        <v>11804800</v>
+      </c>
+      <c r="K43" s="3">
         <v>9696100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8944300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8785900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9297300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8805300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8283000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8162400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8778000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8337100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8494600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8232600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8233600</v>
+        <v>8796300</v>
       </c>
       <c r="E44" s="3">
-        <v>8843300</v>
+        <v>8485000</v>
       </c>
       <c r="F44" s="3">
-        <v>8782900</v>
+        <v>9113300</v>
       </c>
       <c r="G44" s="3">
-        <v>8173200</v>
+        <v>9051000</v>
       </c>
       <c r="H44" s="3">
-        <v>8166400</v>
+        <v>8422700</v>
       </c>
       <c r="I44" s="3">
-        <v>9304700</v>
+        <v>8415700</v>
       </c>
       <c r="J44" s="3">
+        <v>9588800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8182800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7559700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7232600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7128500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7683200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7316000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7248100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7383700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7490700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7133100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6718300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>354300</v>
+        <v>435900</v>
       </c>
       <c r="E45" s="3">
-        <v>898100</v>
+        <v>365100</v>
       </c>
       <c r="F45" s="3">
-        <v>1143900</v>
+        <v>925500</v>
       </c>
       <c r="G45" s="3">
-        <v>3187200</v>
+        <v>1178800</v>
       </c>
       <c r="H45" s="3">
-        <v>1776900</v>
+        <v>3284500</v>
       </c>
       <c r="I45" s="3">
-        <v>2033700</v>
+        <v>1831200</v>
       </c>
       <c r="J45" s="3">
+        <v>2095800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1374600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1218200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1110800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>256200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>210700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>358100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>236100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>573900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>286900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>424000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>488500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27803000</v>
+        <v>26213500</v>
       </c>
       <c r="E46" s="3">
-        <v>27300400</v>
+        <v>28651700</v>
       </c>
       <c r="F46" s="3">
-        <v>31553200</v>
+        <v>28133800</v>
       </c>
       <c r="G46" s="3">
-        <v>30241800</v>
+        <v>32516400</v>
       </c>
       <c r="H46" s="3">
-        <v>26764800</v>
+        <v>31165000</v>
       </c>
       <c r="I46" s="3">
-        <v>28823300</v>
+        <v>27581900</v>
       </c>
       <c r="J46" s="3">
+        <v>29703200</v>
+      </c>
+      <c r="K46" s="3">
         <v>25030500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23331500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22357000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21452000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22034700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21231800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20747700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23028900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21424600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22105000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22004900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4701800</v>
+        <v>5313700</v>
       </c>
       <c r="E47" s="3">
-        <v>4081100</v>
+        <v>4845300</v>
       </c>
       <c r="F47" s="3">
-        <v>3520900</v>
+        <v>4205700</v>
       </c>
       <c r="G47" s="3">
-        <v>3008700</v>
+        <v>3628300</v>
       </c>
       <c r="H47" s="3">
-        <v>2953700</v>
+        <v>3100500</v>
       </c>
       <c r="I47" s="3">
-        <v>2644800</v>
+        <v>3043900</v>
       </c>
       <c r="J47" s="3">
+        <v>2725500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2319300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2186200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2057800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1987800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1640600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1484100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1455600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1647300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1744700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1643400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15113300</v>
+        <v>15046900</v>
       </c>
       <c r="E48" s="3">
-        <v>15386600</v>
+        <v>15574700</v>
       </c>
       <c r="F48" s="3">
-        <v>15696900</v>
+        <v>15856300</v>
       </c>
       <c r="G48" s="3">
-        <v>15657100</v>
+        <v>16176100</v>
       </c>
       <c r="H48" s="3">
-        <v>15536300</v>
+        <v>16135100</v>
       </c>
       <c r="I48" s="3">
-        <v>16066300</v>
+        <v>16010600</v>
       </c>
       <c r="J48" s="3">
+        <v>16556800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15665400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15034200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14605300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13452800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13992100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13782600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14164800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13868700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13906600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14237100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14231900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55505700</v>
+        <v>56406300</v>
       </c>
       <c r="E49" s="3">
-        <v>57058800</v>
+        <v>57200200</v>
       </c>
       <c r="F49" s="3">
-        <v>58032400</v>
+        <v>58800700</v>
       </c>
       <c r="G49" s="3">
-        <v>58220500</v>
+        <v>59804000</v>
       </c>
       <c r="H49" s="3">
-        <v>57010700</v>
+        <v>59997800</v>
       </c>
       <c r="I49" s="3">
-        <v>59735100</v>
+        <v>58751100</v>
       </c>
       <c r="J49" s="3">
+        <v>61558700</v>
+      </c>
+      <c r="K49" s="3">
         <v>37295800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35720100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30366300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28463500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29827700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29593700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30385200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30892600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31732600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32541800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32578700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,67 +3162,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7323200</v>
+        <v>7510000</v>
       </c>
       <c r="E52" s="3">
-        <v>7301300</v>
+        <v>7546800</v>
       </c>
       <c r="F52" s="3">
-        <v>7423500</v>
+        <v>7524100</v>
       </c>
       <c r="G52" s="3">
-        <v>8744500</v>
+        <v>7650100</v>
       </c>
       <c r="H52" s="3">
-        <v>7166700</v>
+        <v>9011400</v>
       </c>
       <c r="I52" s="3">
-        <v>7041700</v>
+        <v>7385500</v>
       </c>
       <c r="J52" s="3">
+        <v>7256700</v>
+      </c>
+      <c r="K52" s="3">
         <v>7067800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6760800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7306600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6820600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7016100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6510600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6804600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7425400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7242800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7371400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7338500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,67 +3286,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110447000</v>
+        <v>110490400</v>
       </c>
       <c r="E54" s="3">
-        <v>111128100</v>
+        <v>113818700</v>
       </c>
       <c r="F54" s="3">
-        <v>116226800</v>
+        <v>114520600</v>
       </c>
       <c r="G54" s="3">
-        <v>115872500</v>
+        <v>119774900</v>
       </c>
       <c r="H54" s="3">
-        <v>109432300</v>
+        <v>119409800</v>
       </c>
       <c r="I54" s="3">
-        <v>114311200</v>
+        <v>112772900</v>
       </c>
       <c r="J54" s="3">
+        <v>117800800</v>
+      </c>
+      <c r="K54" s="3">
         <v>87378800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83032800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76693000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72176700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74511100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72602900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73538300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76671300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75953900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78000100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77797300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,362 +3398,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21751300</v>
+        <v>20674800</v>
       </c>
       <c r="E57" s="3">
-        <v>20792800</v>
+        <v>22415300</v>
       </c>
       <c r="F57" s="3">
-        <v>21215800</v>
+        <v>21427600</v>
       </c>
       <c r="G57" s="3">
-        <v>21023500</v>
+        <v>21863400</v>
       </c>
       <c r="H57" s="3">
-        <v>20514100</v>
+        <v>21665300</v>
       </c>
       <c r="I57" s="3">
-        <v>20236700</v>
+        <v>21140300</v>
       </c>
       <c r="J57" s="3">
+        <v>20854500</v>
+      </c>
+      <c r="K57" s="3">
         <v>18380100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17872700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18539900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16125300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16218300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27262800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27351400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25877500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25538400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15844900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15754100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5115100</v>
+        <v>4488700</v>
       </c>
       <c r="E58" s="3">
-        <v>6747900</v>
+        <v>5271300</v>
       </c>
       <c r="F58" s="3">
-        <v>8189700</v>
+        <v>6953900</v>
       </c>
       <c r="G58" s="3">
-        <v>9976200</v>
+        <v>8439700</v>
       </c>
       <c r="H58" s="3">
-        <v>9499700</v>
+        <v>10280800</v>
       </c>
       <c r="I58" s="3">
-        <v>11282100</v>
+        <v>9789700</v>
       </c>
       <c r="J58" s="3">
+        <v>11626500</v>
+      </c>
+      <c r="K58" s="3">
         <v>13933800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11201100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7651300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3574100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4486100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4449900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3684700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6182400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8624100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4924800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5437000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3546900</v>
+        <v>3527900</v>
       </c>
       <c r="E59" s="3">
-        <v>2915300</v>
+        <v>3655200</v>
       </c>
       <c r="F59" s="3">
-        <v>3446700</v>
+        <v>3004300</v>
       </c>
       <c r="G59" s="3">
-        <v>3790000</v>
+        <v>3551900</v>
       </c>
       <c r="H59" s="3">
-        <v>3011400</v>
+        <v>3905700</v>
       </c>
       <c r="I59" s="3">
-        <v>3516700</v>
+        <v>3103300</v>
       </c>
       <c r="J59" s="3">
+        <v>3624100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3085600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3492300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3514600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2955800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2822200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3098900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3618200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3727700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3386000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3929300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3829200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30413400</v>
+        <v>28691400</v>
       </c>
       <c r="E60" s="3">
-        <v>30456000</v>
+        <v>31341900</v>
       </c>
       <c r="F60" s="3">
-        <v>32852200</v>
+        <v>31385700</v>
       </c>
       <c r="G60" s="3">
-        <v>34789800</v>
+        <v>33855100</v>
       </c>
       <c r="H60" s="3">
-        <v>33025200</v>
+        <v>35851800</v>
       </c>
       <c r="I60" s="3">
-        <v>35035600</v>
+        <v>34033400</v>
       </c>
       <c r="J60" s="3">
+        <v>36105100</v>
+      </c>
+      <c r="K60" s="3">
         <v>35399500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32566000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29705900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22655300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23526600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34811500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34654200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35787700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>37548500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24699000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25020300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32167000</v>
+        <v>32614000</v>
       </c>
       <c r="E61" s="3">
-        <v>32042000</v>
+        <v>33149000</v>
       </c>
       <c r="F61" s="3">
-        <v>35326700</v>
+        <v>33020200</v>
       </c>
       <c r="G61" s="3">
-        <v>33974100</v>
+        <v>36405100</v>
       </c>
       <c r="H61" s="3">
-        <v>32393600</v>
+        <v>35011200</v>
       </c>
       <c r="I61" s="3">
-        <v>34100400</v>
+        <v>33382400</v>
       </c>
       <c r="J61" s="3">
+        <v>35141400</v>
+      </c>
+      <c r="K61" s="3">
         <v>32013200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31080200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26773700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30553500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31792800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18118700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18604700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18643800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15989500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19225100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19305500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19293300</v>
+        <v>19453500</v>
       </c>
       <c r="E62" s="3">
-        <v>20308100</v>
+        <v>19882300</v>
       </c>
       <c r="F62" s="3">
-        <v>20396000</v>
+        <v>20928100</v>
       </c>
       <c r="G62" s="3">
-        <v>19511700</v>
+        <v>21018600</v>
       </c>
       <c r="H62" s="3">
-        <v>18805800</v>
+        <v>20107300</v>
       </c>
       <c r="I62" s="3">
-        <v>20375400</v>
+        <v>19379900</v>
       </c>
       <c r="J62" s="3">
+        <v>20997400</v>
+      </c>
+      <c r="K62" s="3">
         <v>15891900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14898400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15363400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14382600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15283600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15031500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15728700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15941300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16645600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26711100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26936300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,67 +3954,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90416300</v>
+        <v>89454800</v>
       </c>
       <c r="E66" s="3">
-        <v>91510800</v>
+        <v>93176500</v>
       </c>
       <c r="F66" s="3">
-        <v>97561000</v>
+        <v>94304300</v>
       </c>
       <c r="G66" s="3">
-        <v>97892000</v>
+        <v>100539300</v>
       </c>
       <c r="H66" s="3">
-        <v>93771000</v>
+        <v>100880400</v>
       </c>
       <c r="I66" s="3">
-        <v>98146000</v>
+        <v>96633600</v>
       </c>
       <c r="J66" s="3">
+        <v>101142200</v>
+      </c>
+      <c r="K66" s="3">
         <v>82416100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77688500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70934300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66664000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69754900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72692100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73627000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74983500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74896100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75743100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>76317200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,67 +4288,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13677000</v>
+        <v>14466700</v>
       </c>
       <c r="E72" s="3">
-        <v>13265000</v>
+        <v>14094500</v>
       </c>
       <c r="F72" s="3">
-        <v>12316100</v>
+        <v>13670000</v>
       </c>
       <c r="G72" s="3">
-        <v>11635000</v>
+        <v>12692100</v>
       </c>
       <c r="H72" s="3">
-        <v>9454400</v>
+        <v>11990200</v>
       </c>
       <c r="I72" s="3">
-        <v>9972100</v>
+        <v>9743000</v>
       </c>
       <c r="J72" s="3">
+        <v>10276500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-641700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>102200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-912700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,67 +4536,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20030700</v>
+        <v>21035600</v>
       </c>
       <c r="E76" s="3">
-        <v>19617400</v>
+        <v>20642200</v>
       </c>
       <c r="F76" s="3">
-        <v>18665800</v>
+        <v>20216300</v>
       </c>
       <c r="G76" s="3">
-        <v>17980500</v>
+        <v>19235600</v>
       </c>
       <c r="H76" s="3">
-        <v>15661200</v>
+        <v>18529500</v>
       </c>
       <c r="I76" s="3">
-        <v>16165200</v>
+        <v>16139300</v>
       </c>
       <c r="J76" s="3">
+        <v>16658700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4962700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5344200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5758600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5512600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4756200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-89200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-88700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1687800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1057800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2257000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1480100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,131 +4660,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>929600</v>
+        <v>1518400</v>
       </c>
       <c r="E81" s="3">
-        <v>1708200</v>
+        <v>958000</v>
       </c>
       <c r="F81" s="3">
-        <v>3107500</v>
+        <v>1760400</v>
       </c>
       <c r="G81" s="3">
-        <v>2149000</v>
+        <v>3202400</v>
       </c>
       <c r="H81" s="3">
-        <v>1783800</v>
+        <v>2214600</v>
       </c>
       <c r="I81" s="3">
-        <v>2131200</v>
+        <v>1838200</v>
       </c>
       <c r="J81" s="3">
+        <v>2196300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1323800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1105100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1604800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1746400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>570100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>709800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-712200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1580800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-234800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1377400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>338400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,13 +4815,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>24</v>
+      <c r="D83" s="3">
+        <v>510900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>24</v>
@@ -4632,53 +4830,56 @@
       <c r="F83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G83" s="3">
-        <v>266400</v>
+      <c r="G83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H83" s="3">
-        <v>-189500</v>
+        <v>274500</v>
       </c>
       <c r="I83" s="3">
-        <v>704400</v>
+        <v>-195300</v>
       </c>
       <c r="J83" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1065600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1575000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>907400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>610900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>252100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>618000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-228300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>892100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1417800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>429300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>821700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,67 +5185,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5293600</v>
+        <v>468400</v>
       </c>
       <c r="E89" s="3">
-        <v>1182300</v>
+        <v>5455200</v>
       </c>
       <c r="F89" s="3">
-        <v>3790000</v>
+        <v>1218400</v>
       </c>
       <c r="G89" s="3">
-        <v>1325100</v>
+        <v>3905700</v>
       </c>
       <c r="H89" s="3">
-        <v>4741600</v>
+        <v>1365600</v>
       </c>
       <c r="I89" s="3">
-        <v>3453600</v>
+        <v>4886400</v>
       </c>
       <c r="J89" s="3">
+        <v>3559000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1907400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>882700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5440300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2558000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1760800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1115700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3742100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2474300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1314700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1506400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3938500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,67 +5273,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-705800</v>
+        <v>-284400</v>
       </c>
       <c r="E91" s="3">
-        <v>-401000</v>
+        <v>-727400</v>
       </c>
       <c r="F91" s="3">
-        <v>-306200</v>
+        <v>-413200</v>
       </c>
       <c r="G91" s="3">
-        <v>-270500</v>
+        <v>-315600</v>
       </c>
       <c r="H91" s="3">
-        <v>-659100</v>
+        <v>-278800</v>
       </c>
       <c r="I91" s="3">
-        <v>-390000</v>
+        <v>-679300</v>
       </c>
       <c r="J91" s="3">
+        <v>-401900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-383100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-295600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-663000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-370700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-365900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-333500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-696500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-485200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-494300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-547800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,67 +5457,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71400</v>
+        <v>-67900</v>
       </c>
       <c r="E94" s="3">
-        <v>-769000</v>
+        <v>-73600</v>
       </c>
       <c r="F94" s="3">
-        <v>3887500</v>
+        <v>-792500</v>
       </c>
       <c r="G94" s="3">
-        <v>-79600</v>
+        <v>4006200</v>
       </c>
       <c r="H94" s="3">
-        <v>-508100</v>
+        <v>-82100</v>
       </c>
       <c r="I94" s="3">
-        <v>-642700</v>
+        <v>-523600</v>
       </c>
       <c r="J94" s="3">
+        <v>-662300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-774500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-545500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-624400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-338700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-479600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-436900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-602600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-583000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-229100</v>
       </c>
       <c r="U94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,67 +5545,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1299000</v>
+        <v>-1338700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1299000</v>
+        <v>-1338700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1570900</v>
+        <v>-1338700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1292200</v>
+        <v>-1618900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1292200</v>
+        <v>-1331600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1290800</v>
+        <v>-1331600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1330200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="T96" s="3">
         <v>-1218000</v>
       </c>
       <c r="U96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,181 +5791,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2986700</v>
+        <v>-1947200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5871800</v>
+        <v>-3077900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3610100</v>
+        <v>-6051000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1444600</v>
+        <v>-3720300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3788600</v>
+        <v>-1488700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2540400</v>
+        <v>-3904300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2618000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4874300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-365900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-846500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30200</v>
+        <v>-49500</v>
       </c>
       <c r="E101" s="3">
-        <v>-61800</v>
+        <v>-31100</v>
       </c>
       <c r="F101" s="3">
-        <v>-19200</v>
+        <v>-63700</v>
       </c>
       <c r="G101" s="3">
-        <v>57700</v>
+        <v>-19800</v>
       </c>
       <c r="H101" s="3">
-        <v>-140100</v>
+        <v>59400</v>
       </c>
       <c r="I101" s="3">
-        <v>8200</v>
+        <v>-144300</v>
       </c>
       <c r="J101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K101" s="3">
         <v>74200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-53300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>52800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-67200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-40400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-74300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>105300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2205300</v>
+        <v>-1596200</v>
       </c>
       <c r="E102" s="3">
-        <v>-5520200</v>
+        <v>2272700</v>
       </c>
       <c r="F102" s="3">
-        <v>4048200</v>
+        <v>-5688700</v>
       </c>
       <c r="G102" s="3">
-        <v>-141400</v>
+        <v>4171700</v>
       </c>
       <c r="H102" s="3">
-        <v>304800</v>
+        <v>-145800</v>
       </c>
       <c r="I102" s="3">
-        <v>278800</v>
+        <v>314200</v>
       </c>
       <c r="J102" s="3">
+        <v>287300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-17900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>442000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>660400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-120700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>203000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-973000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>984800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-601300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-728200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1256200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,278 +665,290 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10497300</v>
+        <v>11035800</v>
       </c>
       <c r="E8" s="3">
-        <v>12366600</v>
+        <v>10116600</v>
       </c>
       <c r="F8" s="3">
-        <v>12235000</v>
+        <v>11918200</v>
       </c>
       <c r="G8" s="3">
-        <v>10788800</v>
+        <v>11791300</v>
       </c>
       <c r="H8" s="3">
-        <v>12863300</v>
+        <v>10397500</v>
       </c>
       <c r="I8" s="3">
-        <v>12593100</v>
+        <v>12396900</v>
       </c>
       <c r="J8" s="3">
+        <v>12136400</v>
+      </c>
+      <c r="K8" s="3">
         <v>13280800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10723200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10199900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10826500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9966100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9450400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9336700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9963600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10229700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9547500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9723200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9989200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3411800</v>
+        <v>3435400</v>
       </c>
       <c r="E9" s="3">
-        <v>4191600</v>
+        <v>3288100</v>
       </c>
       <c r="F9" s="3">
-        <v>3846300</v>
+        <v>4039500</v>
       </c>
       <c r="G9" s="3">
-        <v>3437300</v>
+        <v>3706800</v>
       </c>
       <c r="H9" s="3">
-        <v>3935400</v>
+        <v>3312600</v>
       </c>
       <c r="I9" s="3">
-        <v>4260900</v>
+        <v>3792700</v>
       </c>
       <c r="J9" s="3">
+        <v>4106400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4211400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3338200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3160700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3523900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3104900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2853200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2996700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3122500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3183800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2778200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3097100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3066800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7085500</v>
+        <v>7600400</v>
       </c>
       <c r="E10" s="3">
-        <v>8175100</v>
+        <v>6828500</v>
       </c>
       <c r="F10" s="3">
-        <v>8388800</v>
+        <v>7878600</v>
       </c>
       <c r="G10" s="3">
-        <v>7351500</v>
+        <v>8084500</v>
       </c>
       <c r="H10" s="3">
-        <v>8927900</v>
+        <v>7084900</v>
       </c>
       <c r="I10" s="3">
-        <v>8332200</v>
+        <v>8604200</v>
       </c>
       <c r="J10" s="3">
+        <v>8030000</v>
+      </c>
+      <c r="K10" s="3">
         <v>9069400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7385000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7039100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7302600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6861200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6597200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6339900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6841100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7045900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6769400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6626100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6922400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,70 +971,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1524100</v>
+        <v>1588800</v>
       </c>
       <c r="E12" s="3">
-        <v>1835400</v>
+        <v>1468800</v>
       </c>
       <c r="F12" s="3">
-        <v>1484500</v>
+        <v>1768800</v>
       </c>
       <c r="G12" s="3">
-        <v>1657100</v>
+        <v>1430600</v>
       </c>
       <c r="H12" s="3">
-        <v>1536800</v>
+        <v>1597000</v>
       </c>
       <c r="I12" s="3">
+        <v>1481100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1587500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1647200</v>
       </c>
-      <c r="J12" s="3">
-        <v>1647200</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1428100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1292800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1345900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1183600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1122200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1146700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1293900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1171300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1373400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1210100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1339200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,132 +1099,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-21200</v>
+        <v>391400</v>
       </c>
       <c r="E14" s="3">
-        <v>792500</v>
+        <v>-20500</v>
       </c>
       <c r="F14" s="3">
-        <v>866000</v>
+        <v>763700</v>
       </c>
       <c r="G14" s="3">
-        <v>-1831200</v>
+        <v>834600</v>
       </c>
       <c r="H14" s="3">
-        <v>669300</v>
+        <v>-1764700</v>
       </c>
       <c r="I14" s="3">
-        <v>-324100</v>
+        <v>645100</v>
       </c>
       <c r="J14" s="3">
+        <v>-312300</v>
+      </c>
+      <c r="K14" s="3">
         <v>615600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>656400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>728300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>488700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>570200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1529400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>686500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1712600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>566100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2504300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>156700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1663100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>36800</v>
+        <v>34100</v>
       </c>
       <c r="E15" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="F15" s="3">
+        <v>35500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>23200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
-        <v>24100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>19800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>12900</v>
       </c>
       <c r="P15" s="3">
         <v>12900</v>
       </c>
       <c r="Q15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="R15" s="3">
         <v>14300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,132 +1253,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8101500</v>
+        <v>8751400</v>
       </c>
       <c r="E17" s="3">
-        <v>10865200</v>
+        <v>7807700</v>
       </c>
       <c r="F17" s="3">
-        <v>9605800</v>
+        <v>10471200</v>
       </c>
       <c r="G17" s="3">
-        <v>6755700</v>
+        <v>9257400</v>
       </c>
       <c r="H17" s="3">
-        <v>10013300</v>
+        <v>6510700</v>
       </c>
       <c r="I17" s="3">
-        <v>9901500</v>
+        <v>9650200</v>
       </c>
       <c r="J17" s="3">
+        <v>9542400</v>
+      </c>
+      <c r="K17" s="3">
         <v>10242600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8685400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8298600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8774000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7610100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8443300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7733600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9209700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7771100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9547500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7460900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9205700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2395800</v>
+        <v>2284300</v>
       </c>
       <c r="E18" s="3">
-        <v>1501400</v>
+        <v>2308900</v>
       </c>
       <c r="F18" s="3">
-        <v>2629300</v>
+        <v>1447000</v>
       </c>
       <c r="G18" s="3">
-        <v>4033100</v>
+        <v>2533900</v>
       </c>
       <c r="H18" s="3">
-        <v>2850000</v>
+        <v>3886800</v>
       </c>
       <c r="I18" s="3">
-        <v>2691500</v>
+        <v>2746700</v>
       </c>
       <c r="J18" s="3">
+        <v>2593900</v>
+      </c>
+      <c r="K18" s="3">
         <v>3038200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2037800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1901200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2052500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2356100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1007100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1603100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>753900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2458600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>2262200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>783500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1376,132 +1408,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-247600</v>
+        <v>-279600</v>
       </c>
       <c r="E20" s="3">
-        <v>-339600</v>
+        <v>-238700</v>
       </c>
       <c r="F20" s="3">
-        <v>-264600</v>
+        <v>-327300</v>
       </c>
       <c r="G20" s="3">
-        <v>-295800</v>
+        <v>-255000</v>
       </c>
       <c r="H20" s="3">
-        <v>-253300</v>
+        <v>-285000</v>
       </c>
       <c r="I20" s="3">
-        <v>-270300</v>
+        <v>-244100</v>
       </c>
       <c r="J20" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-277400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-302100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-177100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-237700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-256200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-213300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-171900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-177400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-226900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-232200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-221200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-226500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2659000</v>
+        <v>2910300</v>
       </c>
       <c r="E21" s="3">
-        <v>4214200</v>
+        <v>2562600</v>
       </c>
       <c r="F21" s="3">
-        <v>2360400</v>
+        <v>4061400</v>
       </c>
       <c r="G21" s="3">
-        <v>3741600</v>
+        <v>2274800</v>
       </c>
       <c r="H21" s="3">
-        <v>2871300</v>
+        <v>3605900</v>
       </c>
       <c r="I21" s="3">
-        <v>2226000</v>
+        <v>2767100</v>
       </c>
       <c r="J21" s="3">
+        <v>2145200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3486800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2801300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3299200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2722100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2710800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1045900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2049100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>348300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3123800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1185600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2470300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1378700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,132 +1601,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2148100</v>
+        <v>2004800</v>
       </c>
       <c r="E23" s="3">
-        <v>1161800</v>
+        <v>2070200</v>
       </c>
       <c r="F23" s="3">
-        <v>2364600</v>
+        <v>1119700</v>
       </c>
       <c r="G23" s="3">
-        <v>3737300</v>
+        <v>2278900</v>
       </c>
       <c r="H23" s="3">
-        <v>2596700</v>
+        <v>3601800</v>
       </c>
       <c r="I23" s="3">
-        <v>2421300</v>
+        <v>2502600</v>
       </c>
       <c r="J23" s="3">
+        <v>2333400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2760900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1735700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1724200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1814800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2099900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>793800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1431100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>576500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2231700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-232200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2041000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>557000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>365100</v>
+        <v>-92700</v>
       </c>
       <c r="E24" s="3">
-        <v>-25500</v>
+        <v>351900</v>
       </c>
       <c r="F24" s="3">
-        <v>341000</v>
+        <v>-24500</v>
       </c>
       <c r="G24" s="3">
-        <v>284400</v>
+        <v>328700</v>
       </c>
       <c r="H24" s="3">
-        <v>220800</v>
+        <v>274100</v>
       </c>
       <c r="I24" s="3">
-        <v>274500</v>
+        <v>212800</v>
       </c>
       <c r="J24" s="3">
+        <v>264600</v>
+      </c>
+      <c r="K24" s="3">
         <v>332600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>293900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>412700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>262800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>237700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>179700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>449900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-356100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>412200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-120000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>430600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>139600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1748,132 +1796,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1783000</v>
+        <v>2097500</v>
       </c>
       <c r="E26" s="3">
-        <v>1187300</v>
+        <v>1718400</v>
       </c>
       <c r="F26" s="3">
-        <v>2023600</v>
+        <v>1144200</v>
       </c>
       <c r="G26" s="3">
-        <v>3452900</v>
+        <v>1950200</v>
       </c>
       <c r="H26" s="3">
-        <v>2376000</v>
+        <v>3327600</v>
       </c>
       <c r="I26" s="3">
-        <v>2146700</v>
+        <v>2289800</v>
       </c>
       <c r="J26" s="3">
+        <v>2068900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2428300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1441800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1311400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1551900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1862200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>614100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>981200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>932600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1819500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-112200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1610400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>417400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1518400</v>
+        <v>1902500</v>
       </c>
       <c r="E27" s="3">
-        <v>958000</v>
+        <v>1463300</v>
       </c>
       <c r="F27" s="3">
-        <v>1760400</v>
+        <v>923300</v>
       </c>
       <c r="G27" s="3">
-        <v>3202400</v>
+        <v>1696600</v>
       </c>
       <c r="H27" s="3">
-        <v>2214600</v>
+        <v>3086300</v>
       </c>
       <c r="I27" s="3">
-        <v>1838200</v>
+        <v>2134300</v>
       </c>
       <c r="J27" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2196300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1323800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1105100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1439700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1746400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>570100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>709800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>693900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1580800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-234800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1377400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>338400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +1991,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1966,11 +2026,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>165100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1978,11 +2038,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1996,8 +2056,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2121,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,132 +2186,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>247600</v>
+        <v>279600</v>
       </c>
       <c r="E32" s="3">
-        <v>339600</v>
+        <v>238700</v>
       </c>
       <c r="F32" s="3">
-        <v>264600</v>
+        <v>327300</v>
       </c>
       <c r="G32" s="3">
-        <v>295800</v>
+        <v>255000</v>
       </c>
       <c r="H32" s="3">
-        <v>253300</v>
+        <v>285000</v>
       </c>
       <c r="I32" s="3">
-        <v>270300</v>
+        <v>244100</v>
       </c>
       <c r="J32" s="3">
+        <v>260500</v>
+      </c>
+      <c r="K32" s="3">
         <v>277400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>302100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>177100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>237700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>256200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>213300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>171900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>177400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>226900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>232200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>221200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>226500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1518400</v>
+        <v>1902500</v>
       </c>
       <c r="E33" s="3">
-        <v>958000</v>
+        <v>1463300</v>
       </c>
       <c r="F33" s="3">
-        <v>1760400</v>
+        <v>923300</v>
       </c>
       <c r="G33" s="3">
-        <v>3202400</v>
+        <v>1696600</v>
       </c>
       <c r="H33" s="3">
-        <v>2214600</v>
+        <v>3086300</v>
       </c>
       <c r="I33" s="3">
-        <v>1838200</v>
+        <v>2134300</v>
       </c>
       <c r="J33" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2196300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1323800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1105100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1604800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1746400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>570100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>709800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-712200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1580800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-234800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1377400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>338400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,137 +2381,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1518400</v>
+        <v>1902500</v>
       </c>
       <c r="E35" s="3">
-        <v>958000</v>
+        <v>1463300</v>
       </c>
       <c r="F35" s="3">
-        <v>1760400</v>
+        <v>923300</v>
       </c>
       <c r="G35" s="3">
-        <v>3202400</v>
+        <v>1696600</v>
       </c>
       <c r="H35" s="3">
-        <v>2214600</v>
+        <v>3086300</v>
       </c>
       <c r="I35" s="3">
-        <v>1838200</v>
+        <v>2134300</v>
       </c>
       <c r="J35" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2196300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1323800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1105100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1604800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1746400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>570100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>709800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-712200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1580800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-234800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1377400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>338400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2543,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,566 +2568,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6731700</v>
+        <v>4777400</v>
       </c>
       <c r="E41" s="3">
-        <v>8903900</v>
+        <v>6487500</v>
       </c>
       <c r="F41" s="3">
-        <v>6060900</v>
+        <v>8581000</v>
       </c>
       <c r="G41" s="3">
-        <v>11555800</v>
+        <v>5841100</v>
       </c>
       <c r="H41" s="3">
-        <v>6748700</v>
+        <v>11136700</v>
       </c>
       <c r="I41" s="3">
-        <v>6660900</v>
+        <v>6503900</v>
       </c>
       <c r="J41" s="3">
+        <v>6419400</v>
+      </c>
+      <c r="K41" s="3">
         <v>6092000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5661700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5501300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5116700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4671500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5230700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5176400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4999400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6186300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5199000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5937400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6448300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84900</v>
+        <v>80500</v>
       </c>
       <c r="E42" s="3">
-        <v>110400</v>
+        <v>81800</v>
       </c>
       <c r="F42" s="3">
-        <v>117500</v>
+        <v>106400</v>
       </c>
       <c r="G42" s="3">
-        <v>123100</v>
+        <v>113200</v>
       </c>
       <c r="H42" s="3">
+        <v>118600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>117300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K42" s="3">
         <v>121700</v>
       </c>
-      <c r="I42" s="3">
-        <v>111800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>121700</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>115300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>107800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>110900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>98500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>98300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>101700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>107000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>110900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>115900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>117200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10164700</v>
+        <v>10238000</v>
       </c>
       <c r="E43" s="3">
-        <v>10787400</v>
+        <v>9796100</v>
       </c>
       <c r="F43" s="3">
-        <v>11916600</v>
+        <v>10396200</v>
       </c>
       <c r="G43" s="3">
-        <v>10607700</v>
+        <v>11484500</v>
       </c>
       <c r="H43" s="3">
-        <v>12587400</v>
+        <v>10223000</v>
       </c>
       <c r="I43" s="3">
-        <v>10562400</v>
+        <v>12130900</v>
       </c>
       <c r="J43" s="3">
+        <v>10179300</v>
+      </c>
+      <c r="K43" s="3">
         <v>11804800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9696100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8944300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8785900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9297300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8805300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8283000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8162400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8778000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8337100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8494600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8232600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8796300</v>
+        <v>8632800</v>
       </c>
       <c r="E44" s="3">
-        <v>8485000</v>
+        <v>8477300</v>
       </c>
       <c r="F44" s="3">
-        <v>9113300</v>
+        <v>8177300</v>
       </c>
       <c r="G44" s="3">
-        <v>9051000</v>
+        <v>8782800</v>
       </c>
       <c r="H44" s="3">
-        <v>8422700</v>
+        <v>8722800</v>
       </c>
       <c r="I44" s="3">
-        <v>8415700</v>
+        <v>8117300</v>
       </c>
       <c r="J44" s="3">
+        <v>8110500</v>
+      </c>
+      <c r="K44" s="3">
         <v>9588800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8182800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7559700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7232600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7128500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7683200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7316000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7248100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7383700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7490700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7133100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6718300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>435900</v>
+        <v>227800</v>
       </c>
       <c r="E45" s="3">
-        <v>365100</v>
+        <v>420000</v>
       </c>
       <c r="F45" s="3">
-        <v>925500</v>
+        <v>351900</v>
       </c>
       <c r="G45" s="3">
-        <v>1178800</v>
+        <v>891900</v>
       </c>
       <c r="H45" s="3">
-        <v>3284500</v>
+        <v>1136000</v>
       </c>
       <c r="I45" s="3">
-        <v>1831200</v>
+        <v>3165400</v>
       </c>
       <c r="J45" s="3">
+        <v>1764700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2095800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1374600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1218200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1110800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>256200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>210700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>358100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>236100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>573900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>286900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>424000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>488500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26213500</v>
+        <v>23956300</v>
       </c>
       <c r="E46" s="3">
-        <v>28651700</v>
+        <v>25262800</v>
       </c>
       <c r="F46" s="3">
-        <v>28133800</v>
+        <v>27612700</v>
       </c>
       <c r="G46" s="3">
-        <v>32516400</v>
+        <v>27113500</v>
       </c>
       <c r="H46" s="3">
-        <v>31165000</v>
+        <v>31337200</v>
       </c>
       <c r="I46" s="3">
-        <v>27581900</v>
+        <v>30034700</v>
       </c>
       <c r="J46" s="3">
+        <v>26581600</v>
+      </c>
+      <c r="K46" s="3">
         <v>29703200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25030500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23331500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22357000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21452000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22034700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21231800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20747700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23028900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21424600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22105000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22004900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5313700</v>
+        <v>4411900</v>
       </c>
       <c r="E47" s="3">
-        <v>4845300</v>
+        <v>5121000</v>
       </c>
       <c r="F47" s="3">
-        <v>4205700</v>
+        <v>4669600</v>
       </c>
       <c r="G47" s="3">
-        <v>3628300</v>
+        <v>4053200</v>
       </c>
       <c r="H47" s="3">
-        <v>3100500</v>
+        <v>3496800</v>
       </c>
       <c r="I47" s="3">
-        <v>3043900</v>
+        <v>2988100</v>
       </c>
       <c r="J47" s="3">
+        <v>2933500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2725500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2319300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2186200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2057800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1987800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1640600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1484100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1436000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1455600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1647300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1744700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1643400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15046900</v>
+        <v>14441200</v>
       </c>
       <c r="E48" s="3">
-        <v>15574700</v>
+        <v>14501200</v>
       </c>
       <c r="F48" s="3">
-        <v>15856300</v>
+        <v>15009900</v>
       </c>
       <c r="G48" s="3">
-        <v>16176100</v>
+        <v>15281300</v>
       </c>
       <c r="H48" s="3">
-        <v>16135100</v>
+        <v>15589500</v>
       </c>
       <c r="I48" s="3">
-        <v>16010600</v>
+        <v>15549900</v>
       </c>
       <c r="J48" s="3">
+        <v>15429900</v>
+      </c>
+      <c r="K48" s="3">
         <v>16556800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15665400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15034200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14605300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13452800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13992100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13782600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14164800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13868700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13906600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14237100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14231900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56406300</v>
+        <v>54235200</v>
       </c>
       <c r="E49" s="3">
-        <v>57200200</v>
+        <v>54360700</v>
       </c>
       <c r="F49" s="3">
-        <v>58800700</v>
+        <v>55125800</v>
       </c>
       <c r="G49" s="3">
-        <v>59804000</v>
+        <v>56668200</v>
       </c>
       <c r="H49" s="3">
-        <v>59997800</v>
+        <v>57635100</v>
       </c>
       <c r="I49" s="3">
-        <v>58751100</v>
+        <v>57822000</v>
       </c>
       <c r="J49" s="3">
+        <v>56620500</v>
+      </c>
+      <c r="K49" s="3">
         <v>61558700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37295800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35720100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30366300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28463500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29827700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29593700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30385200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30892600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31732600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32541800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32578700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3216,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,70 +3281,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7510000</v>
+        <v>7982300</v>
       </c>
       <c r="E52" s="3">
-        <v>7546800</v>
+        <v>7237600</v>
       </c>
       <c r="F52" s="3">
-        <v>7524100</v>
+        <v>7273100</v>
       </c>
       <c r="G52" s="3">
-        <v>7650100</v>
+        <v>7251300</v>
       </c>
       <c r="H52" s="3">
-        <v>9011400</v>
+        <v>7372600</v>
       </c>
       <c r="I52" s="3">
-        <v>7385500</v>
+        <v>8684600</v>
       </c>
       <c r="J52" s="3">
+        <v>7117600</v>
+      </c>
+      <c r="K52" s="3">
         <v>7256700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7067800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6760800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7306600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6820600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7016100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6510600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6804600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7425400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7242800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7371400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7338500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,70 +3411,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110490400</v>
+        <v>105026800</v>
       </c>
       <c r="E54" s="3">
-        <v>113818700</v>
+        <v>106483400</v>
       </c>
       <c r="F54" s="3">
-        <v>114520600</v>
+        <v>109691000</v>
       </c>
       <c r="G54" s="3">
-        <v>119774900</v>
+        <v>110367400</v>
       </c>
       <c r="H54" s="3">
-        <v>119409800</v>
+        <v>115431200</v>
       </c>
       <c r="I54" s="3">
-        <v>112772900</v>
+        <v>115079300</v>
       </c>
       <c r="J54" s="3">
+        <v>108683200</v>
+      </c>
+      <c r="K54" s="3">
         <v>117800800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87378800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83032800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76693000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72176700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>74511100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72602900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73538300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76671300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75953900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78000100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77797300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3503,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,380 +3528,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20674800</v>
+        <v>19457200</v>
       </c>
       <c r="E57" s="3">
-        <v>22415300</v>
+        <v>19925000</v>
       </c>
       <c r="F57" s="3">
-        <v>21427600</v>
+        <v>21602400</v>
       </c>
       <c r="G57" s="3">
-        <v>21863400</v>
+        <v>20650500</v>
       </c>
       <c r="H57" s="3">
-        <v>21665300</v>
+        <v>21070600</v>
       </c>
       <c r="I57" s="3">
-        <v>21140300</v>
+        <v>20879600</v>
       </c>
       <c r="J57" s="3">
+        <v>20373700</v>
+      </c>
+      <c r="K57" s="3">
         <v>20854500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18380100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17872700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18539900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16125300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16218300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27262800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27351400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25877500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25538400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15844900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15754100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4488700</v>
+        <v>6874900</v>
       </c>
       <c r="E58" s="3">
-        <v>5271300</v>
+        <v>4325900</v>
       </c>
       <c r="F58" s="3">
-        <v>6953900</v>
+        <v>5080100</v>
       </c>
       <c r="G58" s="3">
-        <v>8439700</v>
+        <v>6701700</v>
       </c>
       <c r="H58" s="3">
-        <v>10280800</v>
+        <v>8133600</v>
       </c>
       <c r="I58" s="3">
-        <v>9789700</v>
+        <v>9907900</v>
       </c>
       <c r="J58" s="3">
+        <v>9434700</v>
+      </c>
+      <c r="K58" s="3">
         <v>11626500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13933800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11201100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7651300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3574100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4486100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4449900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3684700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6182400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8624100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4924800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5437000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3527900</v>
+        <v>2835300</v>
       </c>
       <c r="E59" s="3">
-        <v>3655200</v>
+        <v>3399900</v>
       </c>
       <c r="F59" s="3">
-        <v>3004300</v>
+        <v>3522700</v>
       </c>
       <c r="G59" s="3">
-        <v>3551900</v>
+        <v>2895300</v>
       </c>
       <c r="H59" s="3">
-        <v>3905700</v>
+        <v>3423100</v>
       </c>
       <c r="I59" s="3">
-        <v>3103300</v>
+        <v>3764100</v>
       </c>
       <c r="J59" s="3">
+        <v>2990800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3624100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3085600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3492300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3514600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2955800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2822200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3098900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3618200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3727700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3386000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3929300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3829200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28691400</v>
+        <v>29167400</v>
       </c>
       <c r="E60" s="3">
-        <v>31341900</v>
+        <v>27650800</v>
       </c>
       <c r="F60" s="3">
-        <v>31385700</v>
+        <v>30205200</v>
       </c>
       <c r="G60" s="3">
-        <v>33855100</v>
+        <v>30247500</v>
       </c>
       <c r="H60" s="3">
-        <v>35851800</v>
+        <v>32627300</v>
       </c>
       <c r="I60" s="3">
-        <v>34033400</v>
+        <v>34551600</v>
       </c>
       <c r="J60" s="3">
+        <v>32799100</v>
+      </c>
+      <c r="K60" s="3">
         <v>36105100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35399500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32566000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29705900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22655300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23526600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34811500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34654200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35787700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>37548500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24699000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25020300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32614000</v>
+        <v>27878600</v>
       </c>
       <c r="E61" s="3">
-        <v>33149000</v>
+        <v>31431300</v>
       </c>
       <c r="F61" s="3">
-        <v>33020200</v>
+        <v>31946800</v>
       </c>
       <c r="G61" s="3">
-        <v>36405100</v>
+        <v>31822700</v>
       </c>
       <c r="H61" s="3">
-        <v>35011200</v>
+        <v>35084900</v>
       </c>
       <c r="I61" s="3">
-        <v>33382400</v>
+        <v>33741500</v>
       </c>
       <c r="J61" s="3">
+        <v>32171800</v>
+      </c>
+      <c r="K61" s="3">
         <v>35141400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32013200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31080200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26773700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30553500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31792800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18118700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18604700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18643800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15989500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19225100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19305500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19453500</v>
+        <v>18553000</v>
       </c>
       <c r="E62" s="3">
-        <v>19882300</v>
+        <v>18748000</v>
       </c>
       <c r="F62" s="3">
-        <v>20928100</v>
+        <v>19161200</v>
       </c>
       <c r="G62" s="3">
-        <v>21018600</v>
+        <v>20169100</v>
       </c>
       <c r="H62" s="3">
-        <v>20107300</v>
+        <v>20256400</v>
       </c>
       <c r="I62" s="3">
-        <v>19379900</v>
+        <v>19378100</v>
       </c>
       <c r="J62" s="3">
+        <v>18677100</v>
+      </c>
+      <c r="K62" s="3">
         <v>20997400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15891900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14898400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15363400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14382600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15283600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15031500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15728700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15941300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16645600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26711100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26936300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3981,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3895,8 +4046,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,70 +4111,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89454800</v>
+        <v>84055800</v>
       </c>
       <c r="E66" s="3">
-        <v>93176500</v>
+        <v>86210600</v>
       </c>
       <c r="F66" s="3">
-        <v>94304300</v>
+        <v>89797400</v>
       </c>
       <c r="G66" s="3">
-        <v>100539300</v>
+        <v>90884300</v>
       </c>
       <c r="H66" s="3">
-        <v>100880400</v>
+        <v>96893200</v>
       </c>
       <c r="I66" s="3">
-        <v>96633600</v>
+        <v>97221900</v>
       </c>
       <c r="J66" s="3">
+        <v>93129100</v>
+      </c>
+      <c r="K66" s="3">
         <v>101142200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82416100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77688500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70934300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66664000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69754900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72692100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73627000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74983500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74896100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75743100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>76317200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4203,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4266,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4331,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4396,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,70 +4461,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14466700</v>
+        <v>14634800</v>
       </c>
       <c r="E72" s="3">
-        <v>14094500</v>
+        <v>13942000</v>
       </c>
       <c r="F72" s="3">
-        <v>13670000</v>
+        <v>13583300</v>
       </c>
       <c r="G72" s="3">
-        <v>12692100</v>
+        <v>13174200</v>
       </c>
       <c r="H72" s="3">
-        <v>11990200</v>
+        <v>12231800</v>
       </c>
       <c r="I72" s="3">
-        <v>9743000</v>
+        <v>11555400</v>
       </c>
       <c r="J72" s="3">
+        <v>9389700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10276500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-641700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>102200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-912700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4591,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4656,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,70 +4721,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21035600</v>
+        <v>20971000</v>
       </c>
       <c r="E76" s="3">
-        <v>20642200</v>
+        <v>20272700</v>
       </c>
       <c r="F76" s="3">
-        <v>20216300</v>
+        <v>19893600</v>
       </c>
       <c r="G76" s="3">
-        <v>19235600</v>
+        <v>19483100</v>
       </c>
       <c r="H76" s="3">
-        <v>18529500</v>
+        <v>18538000</v>
       </c>
       <c r="I76" s="3">
-        <v>16139300</v>
+        <v>17857500</v>
       </c>
       <c r="J76" s="3">
+        <v>15554000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16658700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4962700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5344200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5758600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5512600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4756200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-88700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1687800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1057800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2257000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1480100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,137 +4851,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1518400</v>
+        <v>1902500</v>
       </c>
       <c r="E81" s="3">
-        <v>958000</v>
+        <v>1463300</v>
       </c>
       <c r="F81" s="3">
-        <v>1760400</v>
+        <v>923300</v>
       </c>
       <c r="G81" s="3">
-        <v>3202400</v>
+        <v>1696600</v>
       </c>
       <c r="H81" s="3">
-        <v>2214600</v>
+        <v>3086300</v>
       </c>
       <c r="I81" s="3">
-        <v>1838200</v>
+        <v>2134300</v>
       </c>
       <c r="J81" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2196300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1323800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1105100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1604800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1746400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>570100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>709800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-712200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1580800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-234800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1377400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>338400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,16 +5013,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>510900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>24</v>
+        <v>905600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>492300</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>24</v>
@@ -4833,53 +5031,56 @@
       <c r="G83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="3">
-        <v>274500</v>
+      <c r="H83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I83" s="3">
-        <v>-195300</v>
+        <v>264600</v>
       </c>
       <c r="J83" s="3">
+        <v>-188200</v>
+      </c>
+      <c r="K83" s="3">
         <v>726000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1065600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1575000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>907400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>610900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>252100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>618000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-228300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>892100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1417800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>429300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>821700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5141,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5206,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5271,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5336,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5401,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>468400</v>
+        <v>1762000</v>
       </c>
       <c r="E89" s="3">
-        <v>5455200</v>
+        <v>451400</v>
       </c>
       <c r="F89" s="3">
-        <v>1218400</v>
+        <v>5257400</v>
       </c>
       <c r="G89" s="3">
-        <v>3905700</v>
+        <v>1174200</v>
       </c>
       <c r="H89" s="3">
-        <v>1365600</v>
+        <v>3764100</v>
       </c>
       <c r="I89" s="3">
-        <v>4886400</v>
+        <v>1316100</v>
       </c>
       <c r="J89" s="3">
+        <v>4709200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3559000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1907400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>882700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5440300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2558000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1760800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1115700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3742100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2474300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1314700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1506400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3938500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,70 +5493,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284400</v>
+        <v>-325900</v>
       </c>
       <c r="E91" s="3">
-        <v>-727400</v>
+        <v>-274100</v>
       </c>
       <c r="F91" s="3">
-        <v>-413200</v>
+        <v>-701000</v>
       </c>
       <c r="G91" s="3">
-        <v>-315600</v>
+        <v>-398200</v>
       </c>
       <c r="H91" s="3">
-        <v>-278800</v>
+        <v>-304100</v>
       </c>
       <c r="I91" s="3">
-        <v>-679300</v>
+        <v>-268700</v>
       </c>
       <c r="J91" s="3">
+        <v>-654600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-401900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-383100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-295600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-663000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-370700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-365900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-333500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-696500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-485200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-494300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-547800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5621,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,70 +5686,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67900</v>
+        <v>-252300</v>
       </c>
       <c r="E94" s="3">
-        <v>-73600</v>
+        <v>-65500</v>
       </c>
       <c r="F94" s="3">
-        <v>-792500</v>
+        <v>-70900</v>
       </c>
       <c r="G94" s="3">
-        <v>4006200</v>
+        <v>-763700</v>
       </c>
       <c r="H94" s="3">
-        <v>-82100</v>
+        <v>3860900</v>
       </c>
       <c r="I94" s="3">
-        <v>-523600</v>
+        <v>-79100</v>
       </c>
       <c r="J94" s="3">
+        <v>-504600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-662300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-774500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-545500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-624400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-338700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-479600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-436900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-602600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-583000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-229100</v>
       </c>
       <c r="V94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,70 +5778,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1338700</v>
+        <v>-1569700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1338700</v>
+        <v>-1290100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1338700</v>
+        <v>-1290100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1618900</v>
+        <v>-1290100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1331600</v>
+        <v>-1560200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1331600</v>
+        <v>-1283300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1283300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="U96" s="3">
         <v>-1218000</v>
       </c>
       <c r="V96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5906,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5971,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,190 +6036,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1947200</v>
+        <v>-2789000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3077900</v>
+        <v>-1876600</v>
       </c>
       <c r="F100" s="3">
-        <v>-6051000</v>
+        <v>-2966200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3720300</v>
+        <v>-5831600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1488700</v>
+        <v>-3585400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3904300</v>
+        <v>-1434700</v>
       </c>
       <c r="J100" s="3">
+        <v>-3762700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4874300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-365900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-846500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-49500</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-31100</v>
+        <v>-47700</v>
       </c>
       <c r="F101" s="3">
-        <v>-63700</v>
+        <v>-30000</v>
       </c>
       <c r="G101" s="3">
-        <v>-19800</v>
+        <v>-61400</v>
       </c>
       <c r="H101" s="3">
-        <v>59400</v>
+        <v>-19100</v>
       </c>
       <c r="I101" s="3">
-        <v>-144300</v>
+        <v>57300</v>
       </c>
       <c r="J101" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="K101" s="3">
         <v>8500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>74200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-53300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>52800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-30000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-40400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-74300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>14500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>105300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1596200</v>
+        <v>-1277900</v>
       </c>
       <c r="E102" s="3">
-        <v>2272700</v>
+        <v>-1538400</v>
       </c>
       <c r="F102" s="3">
-        <v>-5688700</v>
+        <v>2190200</v>
       </c>
       <c r="G102" s="3">
-        <v>4171700</v>
+        <v>-5482400</v>
       </c>
       <c r="H102" s="3">
-        <v>-145800</v>
+        <v>4020500</v>
       </c>
       <c r="I102" s="3">
-        <v>314200</v>
+        <v>-140500</v>
       </c>
       <c r="J102" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K102" s="3">
         <v>287300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>442000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>660400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-120700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>203000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-973000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>984800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-601300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-728200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1256200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,290 +665,302 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11035800</v>
+        <v>12082400</v>
       </c>
       <c r="E8" s="3">
-        <v>10116600</v>
+        <v>10771300</v>
       </c>
       <c r="F8" s="3">
-        <v>11918200</v>
+        <v>9874100</v>
       </c>
       <c r="G8" s="3">
-        <v>11791300</v>
+        <v>11632500</v>
       </c>
       <c r="H8" s="3">
-        <v>10397500</v>
+        <v>11508700</v>
       </c>
       <c r="I8" s="3">
-        <v>12396900</v>
+        <v>10148300</v>
       </c>
       <c r="J8" s="3">
+        <v>12099700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12136400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13280800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10723200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10199900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10826500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9966100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9450400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9336700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9963600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10229700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9547500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9723200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9989200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3435400</v>
+        <v>3756400</v>
       </c>
       <c r="E9" s="3">
-        <v>3288100</v>
+        <v>3353000</v>
       </c>
       <c r="F9" s="3">
-        <v>4039500</v>
+        <v>3209300</v>
       </c>
       <c r="G9" s="3">
-        <v>3706800</v>
+        <v>3942700</v>
       </c>
       <c r="H9" s="3">
-        <v>3312600</v>
+        <v>3617900</v>
       </c>
       <c r="I9" s="3">
-        <v>3792700</v>
+        <v>3233200</v>
       </c>
       <c r="J9" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4106400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4211400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3338200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3160700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3523900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3104900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2853200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2996700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3122500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3183800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2778200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3097100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3066800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7600400</v>
+        <v>8326000</v>
       </c>
       <c r="E10" s="3">
-        <v>6828500</v>
+        <v>7418200</v>
       </c>
       <c r="F10" s="3">
-        <v>7878600</v>
+        <v>6664800</v>
       </c>
       <c r="G10" s="3">
-        <v>8084500</v>
+        <v>7689800</v>
       </c>
       <c r="H10" s="3">
-        <v>7084900</v>
+        <v>7890800</v>
       </c>
       <c r="I10" s="3">
-        <v>8604200</v>
+        <v>6915100</v>
       </c>
       <c r="J10" s="3">
+        <v>8397900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8030000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9069400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7385000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7039100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7302600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6861200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6597200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6339900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6841100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7045900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6769400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6626100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6922400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,73 +984,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1588800</v>
+        <v>1556100</v>
       </c>
       <c r="E12" s="3">
-        <v>1468800</v>
+        <v>1550700</v>
       </c>
       <c r="F12" s="3">
-        <v>1768800</v>
+        <v>1433600</v>
       </c>
       <c r="G12" s="3">
-        <v>1430600</v>
+        <v>1726400</v>
       </c>
       <c r="H12" s="3">
-        <v>1597000</v>
+        <v>1396300</v>
       </c>
       <c r="I12" s="3">
-        <v>1481100</v>
+        <v>1558700</v>
       </c>
       <c r="J12" s="3">
+        <v>1445600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1587500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1647200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1428100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1292800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1345900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1183600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1122200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1146700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1293900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1171300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1373400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1210100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1339200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,138 +1118,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>391400</v>
+        <v>978400</v>
       </c>
       <c r="E14" s="3">
-        <v>-20500</v>
+        <v>382000</v>
       </c>
       <c r="F14" s="3">
-        <v>763700</v>
+        <v>-20000</v>
       </c>
       <c r="G14" s="3">
-        <v>834600</v>
+        <v>745400</v>
       </c>
       <c r="H14" s="3">
-        <v>-1764700</v>
+        <v>814600</v>
       </c>
       <c r="I14" s="3">
-        <v>645100</v>
+        <v>-1722400</v>
       </c>
       <c r="J14" s="3">
+        <v>629600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-312300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>615600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>656400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>728300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>488700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>570200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1529400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>686500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1712600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>566100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2504300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>156700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1663100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="E15" s="3">
-        <v>35500</v>
+        <v>33300</v>
       </c>
       <c r="F15" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="G15" s="3">
+        <v>34600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K15" s="3">
         <v>21800</v>
       </c>
-      <c r="H15" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>21800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>12900</v>
       </c>
       <c r="Q15" s="3">
         <v>12900</v>
       </c>
       <c r="R15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="S15" s="3">
         <v>14300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>14500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1254,138 +1279,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8751400</v>
+        <v>9502700</v>
       </c>
       <c r="E17" s="3">
-        <v>7807700</v>
+        <v>8541700</v>
       </c>
       <c r="F17" s="3">
-        <v>10471200</v>
+        <v>7620500</v>
       </c>
       <c r="G17" s="3">
-        <v>9257400</v>
+        <v>10220200</v>
       </c>
       <c r="H17" s="3">
-        <v>6510700</v>
+        <v>9035500</v>
       </c>
       <c r="I17" s="3">
-        <v>9650200</v>
+        <v>6354700</v>
       </c>
       <c r="J17" s="3">
+        <v>9418900</v>
+      </c>
+      <c r="K17" s="3">
         <v>9542400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10242600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8685400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8298600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8774000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7610100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8443300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7733600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9209700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7771100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9547500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7460900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9205700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2284300</v>
+        <v>2579700</v>
       </c>
       <c r="E18" s="3">
-        <v>2308900</v>
+        <v>2229600</v>
       </c>
       <c r="F18" s="3">
-        <v>1447000</v>
+        <v>2253600</v>
       </c>
       <c r="G18" s="3">
-        <v>2533900</v>
+        <v>1412300</v>
       </c>
       <c r="H18" s="3">
-        <v>3886800</v>
+        <v>2473200</v>
       </c>
       <c r="I18" s="3">
-        <v>2746700</v>
+        <v>3793600</v>
       </c>
       <c r="J18" s="3">
+        <v>2680800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2593900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3038200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2037800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1901200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2052500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2356100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1007100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1603100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>753900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2458600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>2262200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>783500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1409,138 +1441,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-279600</v>
+        <v>-252900</v>
       </c>
       <c r="E20" s="3">
-        <v>-238700</v>
+        <v>-272900</v>
       </c>
       <c r="F20" s="3">
-        <v>-327300</v>
+        <v>-232900</v>
       </c>
       <c r="G20" s="3">
-        <v>-255000</v>
+        <v>-319500</v>
       </c>
       <c r="H20" s="3">
-        <v>-285000</v>
+        <v>-248900</v>
       </c>
       <c r="I20" s="3">
-        <v>-244100</v>
+        <v>-278200</v>
       </c>
       <c r="J20" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-260500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-277400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-302100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-177100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-237700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-256200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-213300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-171900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-177400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-226900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-232200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-221200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-226500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2910300</v>
+        <v>3639200</v>
       </c>
       <c r="E21" s="3">
-        <v>2562600</v>
+        <v>2840600</v>
       </c>
       <c r="F21" s="3">
-        <v>4061400</v>
+        <v>2501100</v>
       </c>
       <c r="G21" s="3">
-        <v>2274800</v>
+        <v>3964000</v>
       </c>
       <c r="H21" s="3">
-        <v>3605900</v>
+        <v>2220300</v>
       </c>
       <c r="I21" s="3">
-        <v>2767100</v>
+        <v>3519400</v>
       </c>
       <c r="J21" s="3">
+        <v>2700800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2145200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3486800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2801300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3299200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2722100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2710800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1045900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2049100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>348300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3123800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1185600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2470300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1378700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1604,138 +1643,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2004800</v>
+        <v>2326800</v>
       </c>
       <c r="E23" s="3">
-        <v>2070200</v>
+        <v>1956700</v>
       </c>
       <c r="F23" s="3">
-        <v>1119700</v>
+        <v>2020600</v>
       </c>
       <c r="G23" s="3">
-        <v>2278900</v>
+        <v>1092800</v>
       </c>
       <c r="H23" s="3">
-        <v>3601800</v>
+        <v>2224300</v>
       </c>
       <c r="I23" s="3">
-        <v>2502600</v>
+        <v>3515400</v>
       </c>
       <c r="J23" s="3">
+        <v>2442600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2333400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2760900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1735700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1724200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1814800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2099900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>793800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1431100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>576500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2231700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-232200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2041000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>557000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-92700</v>
+        <v>505800</v>
       </c>
       <c r="E24" s="3">
-        <v>351900</v>
+        <v>-90500</v>
       </c>
       <c r="F24" s="3">
-        <v>-24500</v>
+        <v>343400</v>
       </c>
       <c r="G24" s="3">
-        <v>328700</v>
+        <v>-24000</v>
       </c>
       <c r="H24" s="3">
-        <v>274100</v>
+        <v>320800</v>
       </c>
       <c r="I24" s="3">
-        <v>212800</v>
+        <v>267600</v>
       </c>
       <c r="J24" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K24" s="3">
         <v>264600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>332600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>293900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>412700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>262800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>237700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>179700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>449900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-356100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>412200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-120000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>430600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>139600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1799,138 +1847,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2097500</v>
+        <v>1820900</v>
       </c>
       <c r="E26" s="3">
-        <v>1718400</v>
+        <v>2047200</v>
       </c>
       <c r="F26" s="3">
-        <v>1144200</v>
+        <v>1677200</v>
       </c>
       <c r="G26" s="3">
-        <v>1950200</v>
+        <v>1116800</v>
       </c>
       <c r="H26" s="3">
-        <v>3327600</v>
+        <v>1903500</v>
       </c>
       <c r="I26" s="3">
-        <v>2289800</v>
+        <v>3247900</v>
       </c>
       <c r="J26" s="3">
+        <v>2234900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2068900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2428300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1441800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1311400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1551900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1862200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>614100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>981200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>932600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1819500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-112200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1610400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>417400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1902500</v>
+        <v>1554700</v>
       </c>
       <c r="E27" s="3">
-        <v>1463300</v>
+        <v>1856900</v>
       </c>
       <c r="F27" s="3">
-        <v>923300</v>
+        <v>1428300</v>
       </c>
       <c r="G27" s="3">
-        <v>1696600</v>
+        <v>901200</v>
       </c>
       <c r="H27" s="3">
-        <v>3086300</v>
+        <v>1655900</v>
       </c>
       <c r="I27" s="3">
-        <v>2134300</v>
+        <v>3012300</v>
       </c>
       <c r="J27" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1771600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2196300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1323800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1105100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1439700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1746400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>570100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>709800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>693900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1580800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-234800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1377400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>338400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,8 +2051,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2029,11 +2089,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>165100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2041,11 +2101,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2059,8 +2119,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2187,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2189,138 +2255,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>279600</v>
+        <v>252900</v>
       </c>
       <c r="E32" s="3">
-        <v>238700</v>
+        <v>272900</v>
       </c>
       <c r="F32" s="3">
-        <v>327300</v>
+        <v>232900</v>
       </c>
       <c r="G32" s="3">
-        <v>255000</v>
+        <v>319500</v>
       </c>
       <c r="H32" s="3">
-        <v>285000</v>
+        <v>248900</v>
       </c>
       <c r="I32" s="3">
-        <v>244100</v>
+        <v>278200</v>
       </c>
       <c r="J32" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K32" s="3">
         <v>260500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>277400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>302100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>177100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>237700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>256200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>213300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>171900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>177400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>226900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>232200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>221200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>226500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1902500</v>
+        <v>1554700</v>
       </c>
       <c r="E33" s="3">
-        <v>1463300</v>
+        <v>1856900</v>
       </c>
       <c r="F33" s="3">
-        <v>923300</v>
+        <v>1428300</v>
       </c>
       <c r="G33" s="3">
-        <v>1696600</v>
+        <v>901200</v>
       </c>
       <c r="H33" s="3">
-        <v>3086300</v>
+        <v>1655900</v>
       </c>
       <c r="I33" s="3">
-        <v>2134300</v>
+        <v>3012300</v>
       </c>
       <c r="J33" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1771600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2196300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1323800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1105100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1604800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1746400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>570100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>709800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-712200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1580800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-234800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1377400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>338400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2384,143 +2459,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1902500</v>
+        <v>1554700</v>
       </c>
       <c r="E35" s="3">
-        <v>1463300</v>
+        <v>1856900</v>
       </c>
       <c r="F35" s="3">
-        <v>923300</v>
+        <v>1428300</v>
       </c>
       <c r="G35" s="3">
-        <v>1696600</v>
+        <v>901200</v>
       </c>
       <c r="H35" s="3">
-        <v>3086300</v>
+        <v>1655900</v>
       </c>
       <c r="I35" s="3">
-        <v>2134300</v>
+        <v>3012300</v>
       </c>
       <c r="J35" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1771600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2196300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1323800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1105100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1604800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1746400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>570100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>709800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-712200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1580800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-234800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1377400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>338400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2544,8 +2628,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2569,593 +2654,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4777400</v>
+        <v>4596300</v>
       </c>
       <c r="E41" s="3">
-        <v>6487500</v>
+        <v>4662800</v>
       </c>
       <c r="F41" s="3">
-        <v>8581000</v>
+        <v>6332000</v>
       </c>
       <c r="G41" s="3">
-        <v>5841100</v>
+        <v>8375300</v>
       </c>
       <c r="H41" s="3">
-        <v>11136700</v>
+        <v>5701100</v>
       </c>
       <c r="I41" s="3">
-        <v>6503900</v>
+        <v>10869800</v>
       </c>
       <c r="J41" s="3">
+        <v>6348000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6419400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6092000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5661700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5501300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5116700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4671500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5230700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5176400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4999400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6186300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5199000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5937400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6448300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80500</v>
+        <v>81200</v>
       </c>
       <c r="E42" s="3">
-        <v>81800</v>
+        <v>78500</v>
       </c>
       <c r="F42" s="3">
-        <v>106400</v>
+        <v>79900</v>
       </c>
       <c r="G42" s="3">
-        <v>113200</v>
+        <v>103800</v>
       </c>
       <c r="H42" s="3">
-        <v>118600</v>
+        <v>110500</v>
       </c>
       <c r="I42" s="3">
-        <v>117300</v>
+        <v>115800</v>
       </c>
       <c r="J42" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K42" s="3">
         <v>107700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>115300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>107800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>110900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>98500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>104700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>98300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>101700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>107000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>110900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>115900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>117200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10238000</v>
+        <v>11026800</v>
       </c>
       <c r="E43" s="3">
-        <v>9796100</v>
+        <v>9992600</v>
       </c>
       <c r="F43" s="3">
-        <v>10396200</v>
+        <v>9561300</v>
       </c>
       <c r="G43" s="3">
-        <v>11484500</v>
+        <v>10147000</v>
       </c>
       <c r="H43" s="3">
-        <v>10223000</v>
+        <v>11209200</v>
       </c>
       <c r="I43" s="3">
-        <v>12130900</v>
+        <v>9977900</v>
       </c>
       <c r="J43" s="3">
+        <v>11840100</v>
+      </c>
+      <c r="K43" s="3">
         <v>10179300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11804800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9696100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8944300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8785900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9297300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8805300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8283000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8162400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8778000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8337100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8494600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8232600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8632800</v>
+        <v>8311400</v>
       </c>
       <c r="E44" s="3">
-        <v>8477300</v>
+        <v>8425900</v>
       </c>
       <c r="F44" s="3">
-        <v>8177300</v>
+        <v>8274100</v>
       </c>
       <c r="G44" s="3">
-        <v>8782800</v>
+        <v>7981300</v>
       </c>
       <c r="H44" s="3">
-        <v>8722800</v>
+        <v>8572300</v>
       </c>
       <c r="I44" s="3">
-        <v>8117300</v>
+        <v>8513700</v>
       </c>
       <c r="J44" s="3">
+        <v>7922700</v>
+      </c>
+      <c r="K44" s="3">
         <v>8110500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9588800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8182800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7559700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7232600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7128500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7683200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7316000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7248100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7383700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7490700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7133100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6718300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227800</v>
+        <v>282200</v>
       </c>
       <c r="E45" s="3">
-        <v>420000</v>
+        <v>222300</v>
       </c>
       <c r="F45" s="3">
-        <v>351900</v>
+        <v>410000</v>
       </c>
       <c r="G45" s="3">
-        <v>891900</v>
+        <v>343400</v>
       </c>
       <c r="H45" s="3">
-        <v>1136000</v>
+        <v>870500</v>
       </c>
       <c r="I45" s="3">
-        <v>3165400</v>
+        <v>1108800</v>
       </c>
       <c r="J45" s="3">
+        <v>3089500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1764700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2095800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1374600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1218200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1110800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>256200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>210700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>358100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>236100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>573900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>286900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>424000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>488500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23956300</v>
+        <v>24297900</v>
       </c>
       <c r="E46" s="3">
-        <v>25262800</v>
+        <v>23382100</v>
       </c>
       <c r="F46" s="3">
-        <v>27612700</v>
+        <v>24657300</v>
       </c>
       <c r="G46" s="3">
-        <v>27113500</v>
+        <v>26950800</v>
       </c>
       <c r="H46" s="3">
-        <v>31337200</v>
+        <v>26463600</v>
       </c>
       <c r="I46" s="3">
-        <v>30034700</v>
+        <v>30586000</v>
       </c>
       <c r="J46" s="3">
+        <v>29314800</v>
+      </c>
+      <c r="K46" s="3">
         <v>26581600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29703200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25030500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23331500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22357000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21452000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22034700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21231800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20747700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23028900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21424600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22105000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22004900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4411900</v>
+        <v>3751000</v>
       </c>
       <c r="E47" s="3">
-        <v>5121000</v>
+        <v>4306100</v>
       </c>
       <c r="F47" s="3">
-        <v>4669600</v>
+        <v>4998300</v>
       </c>
       <c r="G47" s="3">
-        <v>4053200</v>
+        <v>4557700</v>
       </c>
       <c r="H47" s="3">
-        <v>3496800</v>
+        <v>3956000</v>
       </c>
       <c r="I47" s="3">
-        <v>2988100</v>
+        <v>3412900</v>
       </c>
       <c r="J47" s="3">
+        <v>2916400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2933500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2725500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2319300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2186200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2057800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1987800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1640600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1484100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1436000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1455600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1647300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1744700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1643400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14441200</v>
+        <v>14198800</v>
       </c>
       <c r="E48" s="3">
-        <v>14501200</v>
+        <v>14095000</v>
       </c>
       <c r="F48" s="3">
-        <v>15009900</v>
+        <v>14153600</v>
       </c>
       <c r="G48" s="3">
-        <v>15281300</v>
+        <v>14650100</v>
       </c>
       <c r="H48" s="3">
-        <v>15589500</v>
+        <v>14915000</v>
       </c>
       <c r="I48" s="3">
-        <v>15549900</v>
+        <v>15215800</v>
       </c>
       <c r="J48" s="3">
+        <v>15177200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15429900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16556800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15665400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15034200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14605300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13452800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13992100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13782600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14164800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13868700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13906600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14237100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14231900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54235200</v>
+        <v>54339500</v>
       </c>
       <c r="E49" s="3">
-        <v>54360700</v>
+        <v>52935200</v>
       </c>
       <c r="F49" s="3">
-        <v>55125800</v>
+        <v>53057600</v>
       </c>
       <c r="G49" s="3">
-        <v>56668200</v>
+        <v>53804400</v>
       </c>
       <c r="H49" s="3">
-        <v>57635100</v>
+        <v>55309900</v>
       </c>
       <c r="I49" s="3">
-        <v>57822000</v>
+        <v>56253600</v>
       </c>
       <c r="J49" s="3">
+        <v>56436000</v>
+      </c>
+      <c r="K49" s="3">
         <v>56620500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>61558700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37295800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35720100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30366300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28463500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29827700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29593700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30385200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30892600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31732600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32541800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32578700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3219,8 +3332,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3284,73 +3400,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7982300</v>
+        <v>8155600</v>
       </c>
       <c r="E52" s="3">
-        <v>7237600</v>
+        <v>7790900</v>
       </c>
       <c r="F52" s="3">
-        <v>7273100</v>
+        <v>7064100</v>
       </c>
       <c r="G52" s="3">
-        <v>7251300</v>
+        <v>7098800</v>
       </c>
       <c r="H52" s="3">
-        <v>7372600</v>
+        <v>7077500</v>
       </c>
       <c r="I52" s="3">
-        <v>8684600</v>
+        <v>7195900</v>
       </c>
       <c r="J52" s="3">
+        <v>8476400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7117600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7256700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7067800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6760800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7306600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6820600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7016100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6510600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6804600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7425400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7242800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7371400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7338500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3414,73 +3536,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105026800</v>
+        <v>104742900</v>
       </c>
       <c r="E54" s="3">
-        <v>106483400</v>
+        <v>102509300</v>
       </c>
       <c r="F54" s="3">
-        <v>109691000</v>
+        <v>103931000</v>
       </c>
       <c r="G54" s="3">
-        <v>110367400</v>
+        <v>107061700</v>
       </c>
       <c r="H54" s="3">
-        <v>115431200</v>
+        <v>107721900</v>
       </c>
       <c r="I54" s="3">
-        <v>115079300</v>
+        <v>112664300</v>
       </c>
       <c r="J54" s="3">
+        <v>112320900</v>
+      </c>
+      <c r="K54" s="3">
         <v>108683200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117800800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87378800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83032800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76693000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72176700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74511100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72602900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73538300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76671300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75953900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78000100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77797300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3504,8 +3632,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3529,398 +3658,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19457200</v>
+        <v>20272700</v>
       </c>
       <c r="E57" s="3">
-        <v>19925000</v>
+        <v>18990800</v>
       </c>
       <c r="F57" s="3">
-        <v>21602400</v>
+        <v>19447400</v>
       </c>
       <c r="G57" s="3">
-        <v>20650500</v>
+        <v>21084600</v>
       </c>
       <c r="H57" s="3">
-        <v>21070600</v>
+        <v>20155500</v>
       </c>
       <c r="I57" s="3">
-        <v>20879600</v>
+        <v>20565500</v>
       </c>
       <c r="J57" s="3">
+        <v>20379100</v>
+      </c>
+      <c r="K57" s="3">
         <v>20373700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20854500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18380100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17872700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18539900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16125300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16218300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27262800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27351400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25877500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25538400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15844900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15754100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6874900</v>
+        <v>6481100</v>
       </c>
       <c r="E58" s="3">
-        <v>4325900</v>
+        <v>6710100</v>
       </c>
       <c r="F58" s="3">
-        <v>5080100</v>
+        <v>4222200</v>
       </c>
       <c r="G58" s="3">
-        <v>6701700</v>
+        <v>4958300</v>
       </c>
       <c r="H58" s="3">
-        <v>8133600</v>
+        <v>6541000</v>
       </c>
       <c r="I58" s="3">
-        <v>9907900</v>
+        <v>7938700</v>
       </c>
       <c r="J58" s="3">
+        <v>9670400</v>
+      </c>
+      <c r="K58" s="3">
         <v>9434700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11626500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13933800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11201100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7651300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3574100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4486100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4449900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3684700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6182400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8624100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4924800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5437000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2835300</v>
+        <v>3085500</v>
       </c>
       <c r="E59" s="3">
-        <v>3399900</v>
+        <v>2767400</v>
       </c>
       <c r="F59" s="3">
-        <v>3522700</v>
+        <v>3318400</v>
       </c>
       <c r="G59" s="3">
-        <v>2895300</v>
+        <v>3438200</v>
       </c>
       <c r="H59" s="3">
-        <v>3423100</v>
+        <v>2825900</v>
       </c>
       <c r="I59" s="3">
-        <v>3764100</v>
+        <v>3341100</v>
       </c>
       <c r="J59" s="3">
+        <v>3673800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2990800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3624100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3085600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3492300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3514600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2955800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2822200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3098900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3618200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3727700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3386000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3929300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3829200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29167400</v>
+        <v>29839300</v>
       </c>
       <c r="E60" s="3">
-        <v>27650800</v>
+        <v>28468200</v>
       </c>
       <c r="F60" s="3">
-        <v>30205200</v>
+        <v>26988100</v>
       </c>
       <c r="G60" s="3">
-        <v>30247500</v>
+        <v>29481200</v>
       </c>
       <c r="H60" s="3">
-        <v>32627300</v>
+        <v>29522500</v>
       </c>
       <c r="I60" s="3">
-        <v>34551600</v>
+        <v>31845200</v>
       </c>
       <c r="J60" s="3">
+        <v>33723400</v>
+      </c>
+      <c r="K60" s="3">
         <v>32799100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36105100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35399500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32566000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29705900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22655300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23526600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34811500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34654200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35787700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>37548500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24699000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25020300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27878600</v>
+        <v>27601700</v>
       </c>
       <c r="E61" s="3">
-        <v>31431300</v>
+        <v>27210300</v>
       </c>
       <c r="F61" s="3">
-        <v>31946800</v>
+        <v>30677900</v>
       </c>
       <c r="G61" s="3">
-        <v>31822700</v>
+        <v>31181000</v>
       </c>
       <c r="H61" s="3">
-        <v>35084900</v>
+        <v>31059900</v>
       </c>
       <c r="I61" s="3">
-        <v>33741500</v>
+        <v>34243900</v>
       </c>
       <c r="J61" s="3">
+        <v>32932700</v>
+      </c>
+      <c r="K61" s="3">
         <v>32171800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35141400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32013200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31080200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26773700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30553500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31792800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18118700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18604700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18643800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15989500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19225100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19305500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18553000</v>
+        <v>18353200</v>
       </c>
       <c r="E62" s="3">
-        <v>18748000</v>
+        <v>18108300</v>
       </c>
       <c r="F62" s="3">
-        <v>19161200</v>
+        <v>18298600</v>
       </c>
       <c r="G62" s="3">
-        <v>20169100</v>
+        <v>18702000</v>
       </c>
       <c r="H62" s="3">
-        <v>20256400</v>
+        <v>19685600</v>
       </c>
       <c r="I62" s="3">
-        <v>19378100</v>
+        <v>19770800</v>
       </c>
       <c r="J62" s="3">
+        <v>18913600</v>
+      </c>
+      <c r="K62" s="3">
         <v>18677100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20997400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15891900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14898400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15363400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14382600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15283600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15031500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15728700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15941300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16645600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26711100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26936300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3984,8 +4132,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4049,8 +4200,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4114,73 +4268,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84055800</v>
+        <v>84209400</v>
       </c>
       <c r="E66" s="3">
-        <v>86210600</v>
+        <v>82041000</v>
       </c>
       <c r="F66" s="3">
-        <v>89797400</v>
+        <v>84144200</v>
       </c>
       <c r="G66" s="3">
-        <v>90884300</v>
+        <v>87644900</v>
       </c>
       <c r="H66" s="3">
-        <v>96893200</v>
+        <v>88705800</v>
       </c>
       <c r="I66" s="3">
-        <v>97221900</v>
+        <v>94570700</v>
       </c>
       <c r="J66" s="3">
+        <v>94891500</v>
+      </c>
+      <c r="K66" s="3">
         <v>93129100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101142200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82416100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77688500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70934300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66664000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69754900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72692100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73627000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74983500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74896100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>75743100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>76317200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4204,8 +4364,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4269,8 +4430,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4334,8 +4498,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4399,8 +4566,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4464,73 +4634,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14634800</v>
+        <v>14347900</v>
       </c>
       <c r="E72" s="3">
-        <v>13942000</v>
+        <v>14284000</v>
       </c>
       <c r="F72" s="3">
-        <v>13583300</v>
+        <v>13607800</v>
       </c>
       <c r="G72" s="3">
-        <v>13174200</v>
+        <v>13257800</v>
       </c>
       <c r="H72" s="3">
-        <v>12231800</v>
+        <v>12858400</v>
       </c>
       <c r="I72" s="3">
-        <v>11555400</v>
+        <v>11938600</v>
       </c>
       <c r="J72" s="3">
+        <v>11278400</v>
+      </c>
+      <c r="K72" s="3">
         <v>9389700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10276500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-641700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>102200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-912700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4594,8 +4770,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4659,8 +4838,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4724,73 +4906,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20971000</v>
+        <v>20533500</v>
       </c>
       <c r="E76" s="3">
-        <v>20272700</v>
+        <v>20468300</v>
       </c>
       <c r="F76" s="3">
-        <v>19893600</v>
+        <v>19786800</v>
       </c>
       <c r="G76" s="3">
-        <v>19483100</v>
+        <v>19416800</v>
       </c>
       <c r="H76" s="3">
-        <v>18538000</v>
+        <v>19016100</v>
       </c>
       <c r="I76" s="3">
-        <v>17857500</v>
+        <v>18093600</v>
       </c>
       <c r="J76" s="3">
+        <v>17429400</v>
+      </c>
+      <c r="K76" s="3">
         <v>15554000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16658700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4962700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5344200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5758600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5512600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4756200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-89200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-88700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1687800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1057800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2257000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1480100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4854,143 +5042,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1902500</v>
+        <v>1554700</v>
       </c>
       <c r="E81" s="3">
-        <v>1463300</v>
+        <v>1856900</v>
       </c>
       <c r="F81" s="3">
-        <v>923300</v>
+        <v>1428300</v>
       </c>
       <c r="G81" s="3">
-        <v>1696600</v>
+        <v>901200</v>
       </c>
       <c r="H81" s="3">
-        <v>3086300</v>
+        <v>1655900</v>
       </c>
       <c r="I81" s="3">
-        <v>2134300</v>
+        <v>3012300</v>
       </c>
       <c r="J81" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1771600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2196300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1323800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1105100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1604800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1746400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>570100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>709800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-712200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1580800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-234800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1377400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>338400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5014,19 +5211,20 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>905600</v>
+        <v>1312500</v>
       </c>
       <c r="E83" s="3">
-        <v>492300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>24</v>
+        <v>883900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>480500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>24</v>
@@ -5034,53 +5232,56 @@
       <c r="H83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="3">
-        <v>264600</v>
+      <c r="I83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J83" s="3">
+        <v>258200</v>
+      </c>
+      <c r="K83" s="3">
         <v>-188200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>726000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1065600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1575000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>907400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>610900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>252100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>618000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-228300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>892100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1417800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>429300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>821700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5144,8 +5345,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5209,8 +5413,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5274,8 +5481,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5339,8 +5549,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5404,73 +5617,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1762000</v>
+        <v>3410300</v>
       </c>
       <c r="E89" s="3">
-        <v>451400</v>
+        <v>1719800</v>
       </c>
       <c r="F89" s="3">
-        <v>5257400</v>
+        <v>440600</v>
       </c>
       <c r="G89" s="3">
-        <v>1174200</v>
+        <v>5131400</v>
       </c>
       <c r="H89" s="3">
-        <v>3764100</v>
+        <v>1146100</v>
       </c>
       <c r="I89" s="3">
-        <v>1316100</v>
+        <v>3673800</v>
       </c>
       <c r="J89" s="3">
+        <v>1284500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4709200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3559000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1907400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>882700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5440300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2558000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1760800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1115700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3742100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2474300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1314700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1506400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3938500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5494,73 +5713,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-325900</v>
+        <v>-371400</v>
       </c>
       <c r="E91" s="3">
-        <v>-274100</v>
+        <v>-318100</v>
       </c>
       <c r="F91" s="3">
-        <v>-701000</v>
+        <v>-267600</v>
       </c>
       <c r="G91" s="3">
-        <v>-398200</v>
+        <v>-684200</v>
       </c>
       <c r="H91" s="3">
-        <v>-304100</v>
+        <v>-388700</v>
       </c>
       <c r="I91" s="3">
-        <v>-268700</v>
+        <v>-296800</v>
       </c>
       <c r="J91" s="3">
+        <v>-262200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-654600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-401900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-383100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-295600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-663000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-370700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-365900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-333500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-696500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-485200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-494300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-547800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5624,8 +5847,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5689,73 +5915,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252300</v>
+        <v>-1574700</v>
       </c>
       <c r="E94" s="3">
-        <v>-65500</v>
+        <v>-246300</v>
       </c>
       <c r="F94" s="3">
-        <v>-70900</v>
+        <v>-63900</v>
       </c>
       <c r="G94" s="3">
-        <v>-763700</v>
+        <v>-69200</v>
       </c>
       <c r="H94" s="3">
-        <v>3860900</v>
+        <v>-745400</v>
       </c>
       <c r="I94" s="3">
-        <v>-79100</v>
+        <v>3768300</v>
       </c>
       <c r="J94" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-504600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-662300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-774500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-545500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-624400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-338700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-479600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-436900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-602600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-583000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-229100</v>
       </c>
       <c r="W94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5779,73 +6011,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1569700</v>
+        <v>-1265900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1290100</v>
+        <v>-1532100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1290100</v>
+        <v>-1259200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1290100</v>
+        <v>-1259200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1560200</v>
+        <v>-1259200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1522800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1252600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1283300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="V96" s="3">
         <v>-1218000</v>
       </c>
       <c r="W96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5909,8 +6145,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5974,8 +6213,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6039,199 +6281,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2789000</v>
+        <v>-1855600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1876600</v>
+        <v>-2722100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2966200</v>
+        <v>-1831600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5831600</v>
+        <v>-2895100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3585400</v>
+        <v>-5691800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1434700</v>
+        <v>-3499500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1400300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4874300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-365900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-846500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>17300</v>
       </c>
       <c r="E101" s="3">
-        <v>-47700</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>74200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>52800</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>23300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-30000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>57300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-139100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>8500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>74200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-53300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>52800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>23300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-67200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-40400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-74300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>14500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>105300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1277900</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1538400</v>
+        <v>-1247200</v>
       </c>
       <c r="F102" s="3">
-        <v>2190200</v>
+        <v>-1501500</v>
       </c>
       <c r="G102" s="3">
-        <v>-5482400</v>
+        <v>2137700</v>
       </c>
       <c r="H102" s="3">
-        <v>4020500</v>
+        <v>-5351000</v>
       </c>
       <c r="I102" s="3">
-        <v>-140500</v>
+        <v>3924100</v>
       </c>
       <c r="J102" s="3">
+        <v>-137100</v>
+      </c>
+      <c r="K102" s="3">
         <v>302800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>287300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>442000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>660400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-120700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>203000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-973000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>984800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-601300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-728200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1256200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,302 +665,314 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12082400</v>
+        <v>12419300</v>
       </c>
       <c r="E8" s="3">
-        <v>10771300</v>
+        <v>11832700</v>
       </c>
       <c r="F8" s="3">
-        <v>9874100</v>
+        <v>10548700</v>
       </c>
       <c r="G8" s="3">
-        <v>11632500</v>
+        <v>9670000</v>
       </c>
       <c r="H8" s="3">
-        <v>11508700</v>
+        <v>11392100</v>
       </c>
       <c r="I8" s="3">
-        <v>10148300</v>
+        <v>11270800</v>
       </c>
       <c r="J8" s="3">
+        <v>9938600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12099700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12136400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13280800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10723200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10199900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10826500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9966100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9450400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9336700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9963600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10229700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9547500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9723200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9989200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3756400</v>
+        <v>4790700</v>
       </c>
       <c r="E9" s="3">
-        <v>3353000</v>
+        <v>3678700</v>
       </c>
       <c r="F9" s="3">
-        <v>3209300</v>
+        <v>3283700</v>
       </c>
       <c r="G9" s="3">
-        <v>3942700</v>
+        <v>3143000</v>
       </c>
       <c r="H9" s="3">
-        <v>3617900</v>
+        <v>3861200</v>
       </c>
       <c r="I9" s="3">
-        <v>3233200</v>
+        <v>3543200</v>
       </c>
       <c r="J9" s="3">
+        <v>3166400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3701800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4106400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4211400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3338200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3160700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3523900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3104900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2853200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2996700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3122500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3183800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2778200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3097100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3066800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8326000</v>
+        <v>7628600</v>
       </c>
       <c r="E10" s="3">
-        <v>7418200</v>
+        <v>8154000</v>
       </c>
       <c r="F10" s="3">
-        <v>6664800</v>
+        <v>7264900</v>
       </c>
       <c r="G10" s="3">
-        <v>7689800</v>
+        <v>6527100</v>
       </c>
       <c r="H10" s="3">
-        <v>7890800</v>
+        <v>7530800</v>
       </c>
       <c r="I10" s="3">
-        <v>6915100</v>
+        <v>7727700</v>
       </c>
       <c r="J10" s="3">
+        <v>6772200</v>
+      </c>
+      <c r="K10" s="3">
         <v>8397900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8030000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9069400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7385000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7039100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7302600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6861200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6597200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6339900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6841100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7045900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6769400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6626100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6922400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -985,76 +997,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1556100</v>
+        <v>1776800</v>
       </c>
       <c r="E12" s="3">
-        <v>1550700</v>
+        <v>1523900</v>
       </c>
       <c r="F12" s="3">
-        <v>1433600</v>
+        <v>1518700</v>
       </c>
       <c r="G12" s="3">
-        <v>1726400</v>
+        <v>1404000</v>
       </c>
       <c r="H12" s="3">
-        <v>1396300</v>
+        <v>1690800</v>
       </c>
       <c r="I12" s="3">
-        <v>1558700</v>
+        <v>1367500</v>
       </c>
       <c r="J12" s="3">
+        <v>1526500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1445600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1587500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1647200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1428100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1292800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1345900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1183600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1122200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1146700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1293900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1171300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1373400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1210100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1339200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,144 +1137,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>978400</v>
+        <v>1037700</v>
       </c>
       <c r="E14" s="3">
-        <v>382000</v>
+        <v>958100</v>
       </c>
       <c r="F14" s="3">
-        <v>-20000</v>
+        <v>421100</v>
       </c>
       <c r="G14" s="3">
-        <v>745400</v>
+        <v>-19600</v>
       </c>
       <c r="H14" s="3">
-        <v>814600</v>
+        <v>730000</v>
       </c>
       <c r="I14" s="3">
-        <v>-1722400</v>
+        <v>797800</v>
       </c>
       <c r="J14" s="3">
+        <v>-1686800</v>
+      </c>
+      <c r="K14" s="3">
         <v>629600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-312300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>615600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>656400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>728300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>488700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>570200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1529400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>686500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1712600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>566100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2504300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>156700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1663100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="E15" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="F15" s="3">
-        <v>34600</v>
+        <v>32600</v>
       </c>
       <c r="G15" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="H15" s="3">
-        <v>21300</v>
+        <v>33900</v>
       </c>
       <c r="I15" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="O15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3">
-        <v>21800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>19800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>22600</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>12900</v>
       </c>
       <c r="R15" s="3">
         <v>12900</v>
       </c>
       <c r="S15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="T15" s="3">
         <v>14300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>14300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1280,144 +1305,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9502700</v>
+        <v>11252600</v>
       </c>
       <c r="E17" s="3">
-        <v>8541700</v>
+        <v>9306300</v>
       </c>
       <c r="F17" s="3">
-        <v>7620500</v>
+        <v>8412100</v>
       </c>
       <c r="G17" s="3">
-        <v>10220200</v>
+        <v>7463100</v>
       </c>
       <c r="H17" s="3">
-        <v>9035500</v>
+        <v>10009000</v>
       </c>
       <c r="I17" s="3">
-        <v>6354700</v>
+        <v>8848800</v>
       </c>
       <c r="J17" s="3">
+        <v>6223300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9418900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9542400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10242600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8685400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8298600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8774000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7610100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8443300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7733600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9209700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7771100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9547500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7460900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9205700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2579700</v>
+        <v>1166700</v>
       </c>
       <c r="E18" s="3">
-        <v>2229600</v>
+        <v>2526400</v>
       </c>
       <c r="F18" s="3">
-        <v>2253600</v>
+        <v>2136600</v>
       </c>
       <c r="G18" s="3">
-        <v>1412300</v>
+        <v>2207000</v>
       </c>
       <c r="H18" s="3">
-        <v>2473200</v>
+        <v>1383100</v>
       </c>
       <c r="I18" s="3">
-        <v>3793600</v>
+        <v>2422100</v>
       </c>
       <c r="J18" s="3">
+        <v>3715200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2680800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2593900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3038200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2037800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1901200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2052500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2356100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1007100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1603100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>753900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2458600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>2262200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>783500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,144 +1474,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-252900</v>
+        <v>-246400</v>
       </c>
       <c r="E20" s="3">
-        <v>-272900</v>
+        <v>-247700</v>
       </c>
       <c r="F20" s="3">
-        <v>-232900</v>
+        <v>-220300</v>
       </c>
       <c r="G20" s="3">
-        <v>-319500</v>
+        <v>-228100</v>
       </c>
       <c r="H20" s="3">
-        <v>-248900</v>
+        <v>-312900</v>
       </c>
       <c r="I20" s="3">
-        <v>-278200</v>
+        <v>-243800</v>
       </c>
       <c r="J20" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-238300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-260500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-277400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-302100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-177100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-237700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-256200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-213300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-171900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-177400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-226900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-232200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-221200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-226500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3639200</v>
+        <v>1397400</v>
       </c>
       <c r="E21" s="3">
-        <v>2840600</v>
+        <v>3564000</v>
       </c>
       <c r="F21" s="3">
-        <v>2501100</v>
+        <v>2781900</v>
       </c>
       <c r="G21" s="3">
-        <v>3964000</v>
+        <v>2449400</v>
       </c>
       <c r="H21" s="3">
-        <v>2220300</v>
+        <v>3882100</v>
       </c>
       <c r="I21" s="3">
-        <v>3519400</v>
+        <v>2174400</v>
       </c>
       <c r="J21" s="3">
+        <v>3446700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2700800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2145200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3486800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2801300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3299200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2722100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2710800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1045900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2049100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>348300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3123800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1185600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2470300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1378700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1646,144 +1685,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2326800</v>
+        <v>920300</v>
       </c>
       <c r="E23" s="3">
-        <v>1956700</v>
+        <v>2278700</v>
       </c>
       <c r="F23" s="3">
-        <v>2020600</v>
+        <v>1916300</v>
       </c>
       <c r="G23" s="3">
-        <v>1092800</v>
+        <v>1978800</v>
       </c>
       <c r="H23" s="3">
-        <v>2224300</v>
+        <v>1070200</v>
       </c>
       <c r="I23" s="3">
-        <v>3515400</v>
+        <v>2178300</v>
       </c>
       <c r="J23" s="3">
+        <v>3442800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2442600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2333400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2760900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1735700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1724200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1814800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2099900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>793800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1431100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>576500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2231700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-232200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2041000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>557000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>505800</v>
+        <v>-292000</v>
       </c>
       <c r="E24" s="3">
-        <v>-90500</v>
+        <v>495400</v>
       </c>
       <c r="F24" s="3">
-        <v>343400</v>
+        <v>-88600</v>
       </c>
       <c r="G24" s="3">
-        <v>-24000</v>
+        <v>336300</v>
       </c>
       <c r="H24" s="3">
-        <v>320800</v>
+        <v>-23500</v>
       </c>
       <c r="I24" s="3">
-        <v>267600</v>
+        <v>314200</v>
       </c>
       <c r="J24" s="3">
+        <v>262000</v>
+      </c>
+      <c r="K24" s="3">
         <v>207700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>264600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>332600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>293900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>412700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>262800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>237700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>179700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>449900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-356100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>412200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-120000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>430600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>139600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1850,144 +1898,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1820900</v>
+        <v>1212300</v>
       </c>
       <c r="E26" s="3">
-        <v>2047200</v>
+        <v>1783300</v>
       </c>
       <c r="F26" s="3">
-        <v>1677200</v>
+        <v>2004900</v>
       </c>
       <c r="G26" s="3">
-        <v>1116800</v>
+        <v>1642500</v>
       </c>
       <c r="H26" s="3">
-        <v>1903500</v>
+        <v>1093700</v>
       </c>
       <c r="I26" s="3">
-        <v>3247900</v>
+        <v>1864100</v>
       </c>
       <c r="J26" s="3">
+        <v>3180800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2234900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2068900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2428300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1441800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1311400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1551900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1862200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>614100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>981200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>932600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1819500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-112200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1610400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>417400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1554700</v>
+        <v>976400</v>
       </c>
       <c r="E27" s="3">
-        <v>1856900</v>
+        <v>1522600</v>
       </c>
       <c r="F27" s="3">
-        <v>1428300</v>
+        <v>1818500</v>
       </c>
       <c r="G27" s="3">
-        <v>901200</v>
+        <v>1398800</v>
       </c>
       <c r="H27" s="3">
-        <v>1655900</v>
+        <v>882500</v>
       </c>
       <c r="I27" s="3">
-        <v>3012300</v>
+        <v>1621700</v>
       </c>
       <c r="J27" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2083200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1771600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2196300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1323800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1105100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1439700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>570100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>709800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>693900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1580800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-234800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1377400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>338400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2054,8 +2111,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2092,11 +2152,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>165100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2104,11 +2164,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2122,8 +2182,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2190,8 +2253,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2258,144 +2324,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>252900</v>
+        <v>246400</v>
       </c>
       <c r="E32" s="3">
-        <v>272900</v>
+        <v>247700</v>
       </c>
       <c r="F32" s="3">
-        <v>232900</v>
+        <v>220300</v>
       </c>
       <c r="G32" s="3">
-        <v>319500</v>
+        <v>228100</v>
       </c>
       <c r="H32" s="3">
-        <v>248900</v>
+        <v>312900</v>
       </c>
       <c r="I32" s="3">
-        <v>278200</v>
+        <v>243800</v>
       </c>
       <c r="J32" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K32" s="3">
         <v>238300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>260500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>277400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>302100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>177100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>237700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>256200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>213300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>171900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>177400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>226900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>232200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>221200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>226500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1554700</v>
+        <v>976400</v>
       </c>
       <c r="E33" s="3">
-        <v>1856900</v>
+        <v>1522600</v>
       </c>
       <c r="F33" s="3">
-        <v>1428300</v>
+        <v>1818500</v>
       </c>
       <c r="G33" s="3">
-        <v>901200</v>
+        <v>1398800</v>
       </c>
       <c r="H33" s="3">
-        <v>1655900</v>
+        <v>882500</v>
       </c>
       <c r="I33" s="3">
-        <v>3012300</v>
+        <v>1621700</v>
       </c>
       <c r="J33" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2083200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1771600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2196300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1323800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1105100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1604800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>570100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>709800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-712200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1580800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-234800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1377400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>338400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2462,149 +2537,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1554700</v>
+        <v>976400</v>
       </c>
       <c r="E35" s="3">
-        <v>1856900</v>
+        <v>1522600</v>
       </c>
       <c r="F35" s="3">
-        <v>1428300</v>
+        <v>1818500</v>
       </c>
       <c r="G35" s="3">
-        <v>901200</v>
+        <v>1398800</v>
       </c>
       <c r="H35" s="3">
-        <v>1655900</v>
+        <v>882500</v>
       </c>
       <c r="I35" s="3">
-        <v>3012300</v>
+        <v>1621700</v>
       </c>
       <c r="J35" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2083200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1771600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2196300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1323800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1105100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1604800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>570100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>709800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-712200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1580800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-234800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1377400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>338400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2629,8 +2713,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2655,620 +2740,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4596300</v>
+        <v>5571500</v>
       </c>
       <c r="E41" s="3">
-        <v>4662800</v>
+        <v>4501300</v>
       </c>
       <c r="F41" s="3">
-        <v>6332000</v>
+        <v>4566500</v>
       </c>
       <c r="G41" s="3">
-        <v>8375300</v>
+        <v>6201200</v>
       </c>
       <c r="H41" s="3">
-        <v>5701100</v>
+        <v>8202200</v>
       </c>
       <c r="I41" s="3">
-        <v>10869800</v>
+        <v>5583300</v>
       </c>
       <c r="J41" s="3">
+        <v>10645100</v>
+      </c>
+      <c r="K41" s="3">
         <v>6348000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6419400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6092000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5661700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5501300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5116700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4671500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5230700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5176400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4999400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6186300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5199000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5937400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6448300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>81200</v>
+        <v>79500</v>
       </c>
       <c r="E42" s="3">
-        <v>78500</v>
+        <v>79500</v>
       </c>
       <c r="F42" s="3">
-        <v>79900</v>
+        <v>76900</v>
       </c>
       <c r="G42" s="3">
-        <v>103800</v>
+        <v>78200</v>
       </c>
       <c r="H42" s="3">
-        <v>110500</v>
+        <v>101700</v>
       </c>
       <c r="I42" s="3">
-        <v>115800</v>
+        <v>108200</v>
       </c>
       <c r="J42" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K42" s="3">
         <v>114500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>115300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>107800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>110900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>98500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>98300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>101700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>107000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>110900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>115900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>117200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11026800</v>
+        <v>10879800</v>
       </c>
       <c r="E43" s="3">
-        <v>9992600</v>
+        <v>10798900</v>
       </c>
       <c r="F43" s="3">
-        <v>9561300</v>
+        <v>9786100</v>
       </c>
       <c r="G43" s="3">
-        <v>10147000</v>
+        <v>9363700</v>
       </c>
       <c r="H43" s="3">
-        <v>11209200</v>
+        <v>9937300</v>
       </c>
       <c r="I43" s="3">
-        <v>9977900</v>
+        <v>10977500</v>
       </c>
       <c r="J43" s="3">
+        <v>9771700</v>
+      </c>
+      <c r="K43" s="3">
         <v>11840100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10179300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11804800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9696100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8944300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8785900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9297300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8805300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8283000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8162400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8778000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8337100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8494600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8232600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8311400</v>
+        <v>7538700</v>
       </c>
       <c r="E44" s="3">
-        <v>8425900</v>
+        <v>8139600</v>
       </c>
       <c r="F44" s="3">
-        <v>8274100</v>
+        <v>8251700</v>
       </c>
       <c r="G44" s="3">
-        <v>7981300</v>
+        <v>8103100</v>
       </c>
       <c r="H44" s="3">
-        <v>8572300</v>
+        <v>7816300</v>
       </c>
       <c r="I44" s="3">
-        <v>8513700</v>
+        <v>8395100</v>
       </c>
       <c r="J44" s="3">
+        <v>8337800</v>
+      </c>
+      <c r="K44" s="3">
         <v>7922700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8110500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9588800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8182800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7559700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7232600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7128500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7683200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7316000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7248100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7383700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7490700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7133100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6718300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282200</v>
+        <v>273800</v>
       </c>
       <c r="E45" s="3">
-        <v>222300</v>
+        <v>276400</v>
       </c>
       <c r="F45" s="3">
-        <v>410000</v>
+        <v>217700</v>
       </c>
       <c r="G45" s="3">
-        <v>343400</v>
+        <v>401500</v>
       </c>
       <c r="H45" s="3">
-        <v>870500</v>
+        <v>336300</v>
       </c>
       <c r="I45" s="3">
-        <v>1108800</v>
+        <v>852500</v>
       </c>
       <c r="J45" s="3">
+        <v>1085900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3089500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1764700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2095800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1374600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1218200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1110800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>256200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>210700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>358100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>236100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>573900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>286900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>424000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>488500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24297900</v>
+        <v>24343200</v>
       </c>
       <c r="E46" s="3">
-        <v>23382100</v>
+        <v>23795700</v>
       </c>
       <c r="F46" s="3">
-        <v>24657300</v>
+        <v>22898900</v>
       </c>
       <c r="G46" s="3">
-        <v>26950800</v>
+        <v>24147700</v>
       </c>
       <c r="H46" s="3">
-        <v>26463600</v>
+        <v>26393800</v>
       </c>
       <c r="I46" s="3">
-        <v>30586000</v>
+        <v>25916700</v>
       </c>
       <c r="J46" s="3">
+        <v>29953900</v>
+      </c>
+      <c r="K46" s="3">
         <v>29314800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26581600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29703200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25030500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23331500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22357000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21452000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22034700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21231800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20747700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23028900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21424600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22105000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22004900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3751000</v>
+        <v>2886100</v>
       </c>
       <c r="E47" s="3">
-        <v>4306100</v>
+        <v>3673500</v>
       </c>
       <c r="F47" s="3">
-        <v>4998300</v>
+        <v>4217100</v>
       </c>
       <c r="G47" s="3">
-        <v>4557700</v>
+        <v>4895000</v>
       </c>
       <c r="H47" s="3">
-        <v>3956000</v>
+        <v>4463500</v>
       </c>
       <c r="I47" s="3">
-        <v>3412900</v>
+        <v>3874300</v>
       </c>
       <c r="J47" s="3">
+        <v>3342400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2916400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2933500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2725500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2319300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2186200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2057800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1987800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1640600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1484100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1436000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1455600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1647300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1744700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1643400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14198800</v>
+        <v>13911900</v>
       </c>
       <c r="E48" s="3">
-        <v>14095000</v>
+        <v>13905400</v>
       </c>
       <c r="F48" s="3">
-        <v>14153600</v>
+        <v>13803700</v>
       </c>
       <c r="G48" s="3">
-        <v>14650100</v>
+        <v>13861100</v>
       </c>
       <c r="H48" s="3">
-        <v>14915000</v>
+        <v>14347300</v>
       </c>
       <c r="I48" s="3">
-        <v>15215800</v>
+        <v>14606700</v>
       </c>
       <c r="J48" s="3">
+        <v>14901300</v>
+      </c>
+      <c r="K48" s="3">
         <v>15177200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15429900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16556800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15665400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15034200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14605300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13452800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13992100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13782600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14164800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13868700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13906600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14237100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14231900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54339500</v>
+        <v>52966200</v>
       </c>
       <c r="E49" s="3">
-        <v>52935200</v>
+        <v>53216500</v>
       </c>
       <c r="F49" s="3">
-        <v>53057600</v>
+        <v>51841200</v>
       </c>
       <c r="G49" s="3">
-        <v>53804400</v>
+        <v>51961100</v>
       </c>
       <c r="H49" s="3">
-        <v>55309900</v>
+        <v>52692400</v>
       </c>
       <c r="I49" s="3">
-        <v>56253600</v>
+        <v>54166800</v>
       </c>
       <c r="J49" s="3">
+        <v>55091000</v>
+      </c>
+      <c r="K49" s="3">
         <v>56436000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56620500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61558700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37295800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35720100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30366300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28463500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29827700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29593700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30385200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30892600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31732600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32541800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32578700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3335,8 +3448,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3403,76 +3519,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8155600</v>
+        <v>9010400</v>
       </c>
       <c r="E52" s="3">
-        <v>7790900</v>
+        <v>7987100</v>
       </c>
       <c r="F52" s="3">
-        <v>7064100</v>
+        <v>7629900</v>
       </c>
       <c r="G52" s="3">
-        <v>7098800</v>
+        <v>6918200</v>
       </c>
       <c r="H52" s="3">
-        <v>7077500</v>
+        <v>6952000</v>
       </c>
       <c r="I52" s="3">
-        <v>7195900</v>
+        <v>6931200</v>
       </c>
       <c r="J52" s="3">
+        <v>7047200</v>
+      </c>
+      <c r="K52" s="3">
         <v>8476400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7117600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7256700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7067800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6760800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7306600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6820600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7016100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6510600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6804600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7425400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7242800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7371400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7338500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3539,76 +3661,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104742900</v>
+        <v>103117900</v>
       </c>
       <c r="E54" s="3">
-        <v>102509300</v>
+        <v>102578200</v>
       </c>
       <c r="F54" s="3">
-        <v>103931000</v>
+        <v>100390800</v>
       </c>
       <c r="G54" s="3">
-        <v>107061700</v>
+        <v>101783000</v>
       </c>
       <c r="H54" s="3">
-        <v>107721900</v>
+        <v>104849000</v>
       </c>
       <c r="I54" s="3">
-        <v>112664300</v>
+        <v>105495600</v>
       </c>
       <c r="J54" s="3">
+        <v>110335900</v>
+      </c>
+      <c r="K54" s="3">
         <v>112320900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108683200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117800800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87378800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83032800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76693000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72176700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74511100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72602900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73538300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76671300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>75953900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78000100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77797300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3633,8 +3761,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3659,416 +3788,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20272700</v>
+        <v>22883200</v>
       </c>
       <c r="E57" s="3">
-        <v>18990800</v>
+        <v>19853700</v>
       </c>
       <c r="F57" s="3">
-        <v>19447400</v>
+        <v>18598300</v>
       </c>
       <c r="G57" s="3">
-        <v>21084600</v>
+        <v>19045400</v>
       </c>
       <c r="H57" s="3">
-        <v>20155500</v>
+        <v>20648900</v>
       </c>
       <c r="I57" s="3">
-        <v>20565500</v>
+        <v>19739000</v>
       </c>
       <c r="J57" s="3">
+        <v>20140500</v>
+      </c>
+      <c r="K57" s="3">
         <v>20379100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20373700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20854500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18380100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17872700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18539900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16125300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16218300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27262800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27351400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25877500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25538400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15844900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15754100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6481100</v>
+        <v>4694200</v>
       </c>
       <c r="E58" s="3">
-        <v>6710100</v>
+        <v>6347200</v>
       </c>
       <c r="F58" s="3">
-        <v>4222200</v>
+        <v>6571400</v>
       </c>
       <c r="G58" s="3">
-        <v>4958300</v>
+        <v>4135000</v>
       </c>
       <c r="H58" s="3">
-        <v>6541000</v>
+        <v>4855900</v>
       </c>
       <c r="I58" s="3">
-        <v>7938700</v>
+        <v>6405800</v>
       </c>
       <c r="J58" s="3">
+        <v>7774600</v>
+      </c>
+      <c r="K58" s="3">
         <v>9670400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9434700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11626500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13933800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11201100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7651300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3574100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4486100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4449900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3684700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6182400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8624100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4924800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5437000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3085500</v>
+        <v>3278500</v>
       </c>
       <c r="E59" s="3">
-        <v>2767400</v>
+        <v>3021700</v>
       </c>
       <c r="F59" s="3">
-        <v>3318400</v>
+        <v>2710200</v>
       </c>
       <c r="G59" s="3">
-        <v>3438200</v>
+        <v>3249800</v>
       </c>
       <c r="H59" s="3">
-        <v>2825900</v>
+        <v>3367200</v>
       </c>
       <c r="I59" s="3">
-        <v>3341100</v>
+        <v>2767500</v>
       </c>
       <c r="J59" s="3">
+        <v>3272000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3673800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2990800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3624100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3085600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3492300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3514600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2955800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2822200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3098900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3618200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3727700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3386000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3929300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3829200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29839300</v>
+        <v>30856000</v>
       </c>
       <c r="E60" s="3">
-        <v>28468200</v>
+        <v>29222600</v>
       </c>
       <c r="F60" s="3">
-        <v>26988100</v>
+        <v>27879900</v>
       </c>
       <c r="G60" s="3">
-        <v>29481200</v>
+        <v>26430300</v>
       </c>
       <c r="H60" s="3">
-        <v>29522500</v>
+        <v>28871900</v>
       </c>
       <c r="I60" s="3">
-        <v>31845200</v>
+        <v>28912300</v>
       </c>
       <c r="J60" s="3">
+        <v>31187100</v>
+      </c>
+      <c r="K60" s="3">
         <v>33723400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32799100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36105100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35399500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32566000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29705900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22655300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23526600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34811500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34654200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35787700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>37548500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24699000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25020300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27601700</v>
+        <v>26817500</v>
       </c>
       <c r="E61" s="3">
-        <v>27210300</v>
+        <v>27031200</v>
       </c>
       <c r="F61" s="3">
-        <v>30677900</v>
+        <v>26648000</v>
       </c>
       <c r="G61" s="3">
-        <v>31181000</v>
+        <v>30043800</v>
       </c>
       <c r="H61" s="3">
-        <v>31059900</v>
+        <v>30536600</v>
       </c>
       <c r="I61" s="3">
-        <v>34243900</v>
+        <v>30418000</v>
       </c>
       <c r="J61" s="3">
+        <v>33536200</v>
+      </c>
+      <c r="K61" s="3">
         <v>32932700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32171800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35141400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32013200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31080200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26773700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30553500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31792800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18118700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18604700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18643800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15989500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19225100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19305500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18353200</v>
+        <v>17623200</v>
       </c>
       <c r="E62" s="3">
-        <v>18108300</v>
+        <v>17973900</v>
       </c>
       <c r="F62" s="3">
-        <v>18298600</v>
+        <v>17734000</v>
       </c>
       <c r="G62" s="3">
-        <v>18702000</v>
+        <v>17920500</v>
       </c>
       <c r="H62" s="3">
-        <v>19685600</v>
+        <v>18315400</v>
       </c>
       <c r="I62" s="3">
-        <v>19770800</v>
+        <v>19278800</v>
       </c>
       <c r="J62" s="3">
+        <v>19362200</v>
+      </c>
+      <c r="K62" s="3">
         <v>18913600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18677100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20997400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15891900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14898400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15363400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14382600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15283600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15031500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15728700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15941300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16645600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26711100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26936300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4135,8 +4283,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4203,8 +4354,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4271,76 +4425,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84209400</v>
+        <v>83492300</v>
       </c>
       <c r="E66" s="3">
-        <v>82041000</v>
+        <v>82469000</v>
       </c>
       <c r="F66" s="3">
-        <v>84144200</v>
+        <v>80345500</v>
       </c>
       <c r="G66" s="3">
-        <v>87644900</v>
+        <v>82405100</v>
       </c>
       <c r="H66" s="3">
-        <v>88705800</v>
+        <v>85833600</v>
       </c>
       <c r="I66" s="3">
-        <v>94570700</v>
+        <v>86872500</v>
       </c>
       <c r="J66" s="3">
+        <v>92616200</v>
+      </c>
+      <c r="K66" s="3">
         <v>94891500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93129100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101142200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82416100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77688500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70934300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66664000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69754900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72692100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73627000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74983500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74896100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75743100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>76317200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4365,8 +4525,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4433,8 +4594,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4501,8 +4665,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4569,8 +4736,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4637,76 +4807,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14347900</v>
+        <v>13566500</v>
       </c>
       <c r="E72" s="3">
-        <v>14284000</v>
+        <v>14051400</v>
       </c>
       <c r="F72" s="3">
-        <v>13607800</v>
+        <v>13988800</v>
       </c>
       <c r="G72" s="3">
-        <v>13257800</v>
+        <v>13326600</v>
       </c>
       <c r="H72" s="3">
-        <v>12858400</v>
+        <v>12983800</v>
       </c>
       <c r="I72" s="3">
-        <v>11938600</v>
+        <v>12592700</v>
       </c>
       <c r="J72" s="3">
+        <v>11691900</v>
+      </c>
+      <c r="K72" s="3">
         <v>11278400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9389700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10276500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-641700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>102200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-912700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4773,8 +4949,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4841,8 +5020,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4909,76 +5091,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20533500</v>
+        <v>19625500</v>
       </c>
       <c r="E76" s="3">
-        <v>20468300</v>
+        <v>20109200</v>
       </c>
       <c r="F76" s="3">
-        <v>19786800</v>
+        <v>20045300</v>
       </c>
       <c r="G76" s="3">
-        <v>19416800</v>
+        <v>19377900</v>
       </c>
       <c r="H76" s="3">
-        <v>19016100</v>
+        <v>19015500</v>
       </c>
       <c r="I76" s="3">
-        <v>18093600</v>
+        <v>18623100</v>
       </c>
       <c r="J76" s="3">
+        <v>17719700</v>
+      </c>
+      <c r="K76" s="3">
         <v>17429400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15554000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16658700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4962700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5344200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5758600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5512600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4756200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-89200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-88700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1687800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1057800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2257000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1480100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5045,149 +5233,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1554700</v>
+        <v>976400</v>
       </c>
       <c r="E81" s="3">
-        <v>1856900</v>
+        <v>1522600</v>
       </c>
       <c r="F81" s="3">
-        <v>1428300</v>
+        <v>1818500</v>
       </c>
       <c r="G81" s="3">
-        <v>901200</v>
+        <v>1398800</v>
       </c>
       <c r="H81" s="3">
-        <v>1655900</v>
+        <v>882500</v>
       </c>
       <c r="I81" s="3">
-        <v>3012300</v>
+        <v>1621700</v>
       </c>
       <c r="J81" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2083200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1771600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2196300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1323800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1105100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1604800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>570100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>709800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-712200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1580800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-234800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1377400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>338400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5212,22 +5409,23 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1312500</v>
+        <v>477100</v>
       </c>
       <c r="E83" s="3">
-        <v>883900</v>
+        <v>1285300</v>
       </c>
       <c r="F83" s="3">
-        <v>480500</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>24</v>
+        <v>865600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>470600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>24</v>
@@ -5235,53 +5433,56 @@
       <c r="I83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="3">
         <v>258200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-188200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>726000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1065600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1575000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>907400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>610900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>252100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>618000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-228300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>892100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1417800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>429300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>821700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5348,8 +5549,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5416,8 +5620,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5484,8 +5691,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5552,8 +5762,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5620,76 +5833,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3410300</v>
+        <v>4910600</v>
       </c>
       <c r="E89" s="3">
-        <v>1719800</v>
+        <v>3339800</v>
       </c>
       <c r="F89" s="3">
-        <v>440600</v>
+        <v>1684200</v>
       </c>
       <c r="G89" s="3">
-        <v>5131400</v>
+        <v>431500</v>
       </c>
       <c r="H89" s="3">
-        <v>1146100</v>
+        <v>5025300</v>
       </c>
       <c r="I89" s="3">
-        <v>3673800</v>
+        <v>1122400</v>
       </c>
       <c r="J89" s="3">
+        <v>3597900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1284500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4709200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3559000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1907400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>882700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5440300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2558000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1760800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1115700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3742100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2474300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1314700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1506400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3938500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5714,76 +5933,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371400</v>
+        <v>-590500</v>
       </c>
       <c r="E91" s="3">
-        <v>-318100</v>
+        <v>-363700</v>
       </c>
       <c r="F91" s="3">
-        <v>-267600</v>
+        <v>-311600</v>
       </c>
       <c r="G91" s="3">
-        <v>-684200</v>
+        <v>-262000</v>
       </c>
       <c r="H91" s="3">
-        <v>-388700</v>
+        <v>-670000</v>
       </c>
       <c r="I91" s="3">
-        <v>-296800</v>
+        <v>-380600</v>
       </c>
       <c r="J91" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-262200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-654600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-401900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-383100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-295600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-663000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-370700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-365900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-333500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-696500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-485200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-494300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-547800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5850,8 +6073,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5918,76 +6144,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1574700</v>
+        <v>-470600</v>
       </c>
       <c r="E94" s="3">
-        <v>-246300</v>
+        <v>-1542100</v>
       </c>
       <c r="F94" s="3">
-        <v>-63900</v>
+        <v>-241200</v>
       </c>
       <c r="G94" s="3">
-        <v>-69200</v>
+        <v>-62600</v>
       </c>
       <c r="H94" s="3">
-        <v>-745400</v>
+        <v>-67800</v>
       </c>
       <c r="I94" s="3">
-        <v>3768300</v>
+        <v>-730000</v>
       </c>
       <c r="J94" s="3">
+        <v>3690500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-77200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-504600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-662300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-774500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-545500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-624400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-338700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-479600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-436900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-602600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-583000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-229100</v>
       </c>
       <c r="X94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6012,76 +6244,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1265900</v>
+        <v>-1239700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1532100</v>
+        <v>-1239700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1259200</v>
+        <v>-1500400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1259200</v>
+        <v>-1233200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1259200</v>
+        <v>-1233200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1522800</v>
+        <v>-1233200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1491300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="W96" s="3">
         <v>-1218000</v>
       </c>
       <c r="X96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6148,8 +6384,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6216,8 +6455,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6284,208 +6526,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1855600</v>
+        <v>-3616200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2722100</v>
+        <v>-1817200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1831600</v>
+        <v>-2665800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2895100</v>
+        <v>-1793700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5691800</v>
+        <v>-2835300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3499500</v>
+        <v>-5574200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3427100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4874300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-365900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-846500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17300</v>
+        <v>-10400</v>
       </c>
       <c r="E101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-46600</v>
-      </c>
       <c r="G101" s="3">
-        <v>-29300</v>
+        <v>-45600</v>
       </c>
       <c r="H101" s="3">
-        <v>-59900</v>
+        <v>-28700</v>
       </c>
       <c r="I101" s="3">
-        <v>-18600</v>
+        <v>-58700</v>
       </c>
       <c r="J101" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K101" s="3">
         <v>55900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-139100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>74200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-53300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>52800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-67200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-30000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-40400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-74300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>105300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>813400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1247200</v>
+        <v>-2600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1501500</v>
+        <v>-1221500</v>
       </c>
       <c r="G102" s="3">
-        <v>2137700</v>
+        <v>-1470400</v>
       </c>
       <c r="H102" s="3">
-        <v>-5351000</v>
+        <v>2093600</v>
       </c>
       <c r="I102" s="3">
-        <v>3924100</v>
+        <v>-5240400</v>
       </c>
       <c r="J102" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-137100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>302800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>287300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>442000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>660400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-93100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>203000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-973000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>984800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-601300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-728200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1256200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,314 +665,331 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12419300</v>
+        <v>11930600</v>
       </c>
       <c r="E8" s="3">
-        <v>11832700</v>
+        <v>11622000</v>
       </c>
       <c r="F8" s="3">
-        <v>10548700</v>
+        <v>11073000</v>
       </c>
       <c r="G8" s="3">
-        <v>9670000</v>
+        <v>9871400</v>
       </c>
       <c r="H8" s="3">
-        <v>11392100</v>
+        <v>9049200</v>
       </c>
       <c r="I8" s="3">
-        <v>11270800</v>
+        <v>10660700</v>
       </c>
       <c r="J8" s="3">
+        <v>10547300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9938600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12099700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12136400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13280800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10723200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10199900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10826500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9966100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9450400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9336700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9963600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10229700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9547500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9723200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9989200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4790700</v>
+        <v>4446500</v>
       </c>
       <c r="E9" s="3">
-        <v>3678700</v>
+        <v>4483100</v>
       </c>
       <c r="F9" s="3">
-        <v>3283700</v>
+        <v>3442600</v>
       </c>
       <c r="G9" s="3">
-        <v>3143000</v>
+        <v>3072900</v>
       </c>
       <c r="H9" s="3">
-        <v>3861200</v>
+        <v>2941200</v>
       </c>
       <c r="I9" s="3">
-        <v>3543200</v>
+        <v>3613300</v>
       </c>
       <c r="J9" s="3">
+        <v>3315700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3166400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3701800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4106400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4211400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3338200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3160700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3523900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3104900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2853200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2996700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3122500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3183800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2778200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3097100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3066800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7628600</v>
+        <v>7484100</v>
       </c>
       <c r="E10" s="3">
-        <v>8154000</v>
+        <v>7138900</v>
       </c>
       <c r="F10" s="3">
-        <v>7264900</v>
+        <v>7630500</v>
       </c>
       <c r="G10" s="3">
-        <v>6527100</v>
+        <v>6798500</v>
       </c>
       <c r="H10" s="3">
-        <v>7530800</v>
+        <v>6108000</v>
       </c>
       <c r="I10" s="3">
-        <v>7727700</v>
+        <v>7047400</v>
       </c>
       <c r="J10" s="3">
+        <v>7231600</v>
+      </c>
+      <c r="K10" s="3">
         <v>6772200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8397900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8030000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9069400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7385000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7039100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7302600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6861200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6597200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6339900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6841100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7045900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6769400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6626100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6922400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1776800</v>
+        <v>1407800</v>
       </c>
       <c r="E12" s="3">
-        <v>1523900</v>
+        <v>1662700</v>
       </c>
       <c r="F12" s="3">
-        <v>1518700</v>
+        <v>1426100</v>
       </c>
       <c r="G12" s="3">
-        <v>1404000</v>
+        <v>1421200</v>
       </c>
       <c r="H12" s="3">
-        <v>1690800</v>
+        <v>1313800</v>
       </c>
       <c r="I12" s="3">
-        <v>1367500</v>
+        <v>1582200</v>
       </c>
       <c r="J12" s="3">
+        <v>1279700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1526500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1445600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1587500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1647200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1428100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1292800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1345900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1183600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1122200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1146700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1293900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1171300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1373400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1210100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1339200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,150 +1161,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1037700</v>
+        <v>-469700</v>
       </c>
       <c r="E14" s="3">
-        <v>958100</v>
+        <v>971000</v>
       </c>
       <c r="F14" s="3">
-        <v>421100</v>
+        <v>896600</v>
       </c>
       <c r="G14" s="3">
-        <v>-19600</v>
+        <v>394000</v>
       </c>
       <c r="H14" s="3">
-        <v>730000</v>
+        <v>-18300</v>
       </c>
       <c r="I14" s="3">
-        <v>797800</v>
+        <v>683100</v>
       </c>
       <c r="J14" s="3">
+        <v>746600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>629600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-312300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>615600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>656400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>728300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>488700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>570200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1529400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>686500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1712600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>566100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2504300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>156700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1663100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>32600</v>
+        <v>28100</v>
       </c>
       <c r="E15" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F15" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="G15" s="3">
-        <v>33900</v>
+        <v>30500</v>
       </c>
       <c r="H15" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="I15" s="3">
-        <v>20900</v>
+        <v>31700</v>
       </c>
       <c r="J15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K15" s="3">
         <v>22200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>12900</v>
       </c>
       <c r="S15" s="3">
         <v>12900</v>
       </c>
       <c r="T15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="U15" s="3">
         <v>14300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1306,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11252600</v>
+        <v>8513700</v>
       </c>
       <c r="E17" s="3">
-        <v>9306300</v>
+        <v>10530200</v>
       </c>
       <c r="F17" s="3">
-        <v>8412100</v>
+        <v>8708900</v>
       </c>
       <c r="G17" s="3">
-        <v>7463100</v>
+        <v>7872000</v>
       </c>
       <c r="H17" s="3">
-        <v>10009000</v>
+        <v>6983900</v>
       </c>
       <c r="I17" s="3">
-        <v>8848800</v>
+        <v>9366400</v>
       </c>
       <c r="J17" s="3">
+        <v>8280700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6223300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9418900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9542400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10242600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8685400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8298600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8774000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7610100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8443300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7733600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9209700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7771100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9547500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7460900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9205700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1166700</v>
+        <v>3416900</v>
       </c>
       <c r="E18" s="3">
-        <v>2526400</v>
+        <v>1091800</v>
       </c>
       <c r="F18" s="3">
-        <v>2136600</v>
+        <v>2364200</v>
       </c>
       <c r="G18" s="3">
-        <v>2207000</v>
+        <v>1999400</v>
       </c>
       <c r="H18" s="3">
-        <v>1383100</v>
+        <v>2065300</v>
       </c>
       <c r="I18" s="3">
-        <v>2422100</v>
+        <v>1294300</v>
       </c>
       <c r="J18" s="3">
+        <v>2266600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3715200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2680800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2593900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3038200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2037800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1901200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2052500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2356100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1007100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1603100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>753900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2458600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>2262200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>783500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1475,150 +1512,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-246400</v>
+        <v>-247600</v>
       </c>
       <c r="E20" s="3">
-        <v>-247700</v>
+        <v>-230600</v>
       </c>
       <c r="F20" s="3">
-        <v>-220300</v>
+        <v>-231800</v>
       </c>
       <c r="G20" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-213500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-292800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-228100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-312900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-243800</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-272500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-238300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-260500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-277400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-302100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-177100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-237700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-256200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-213300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-171900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-177400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-226900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-232200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-221200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-226500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1397400</v>
+        <v>4028100</v>
       </c>
       <c r="E21" s="3">
-        <v>3564000</v>
+        <v>1307700</v>
       </c>
       <c r="F21" s="3">
-        <v>2781900</v>
+        <v>3335200</v>
       </c>
       <c r="G21" s="3">
-        <v>2449400</v>
+        <v>2603300</v>
       </c>
       <c r="H21" s="3">
-        <v>3882100</v>
+        <v>2292200</v>
       </c>
       <c r="I21" s="3">
-        <v>2174400</v>
+        <v>3632900</v>
       </c>
       <c r="J21" s="3">
+        <v>2034800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3446700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2145200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3486800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2801300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3299200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2722100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2710800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1045900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2049100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>348300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3123800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1185600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2470300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1378700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1688,150 +1732,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>920300</v>
+        <v>3169300</v>
       </c>
       <c r="E23" s="3">
-        <v>2278700</v>
+        <v>861200</v>
       </c>
       <c r="F23" s="3">
-        <v>1916300</v>
+        <v>2132400</v>
       </c>
       <c r="G23" s="3">
-        <v>1978800</v>
+        <v>1793300</v>
       </c>
       <c r="H23" s="3">
-        <v>1070200</v>
+        <v>1851800</v>
       </c>
       <c r="I23" s="3">
-        <v>2178300</v>
+        <v>1001500</v>
       </c>
       <c r="J23" s="3">
+        <v>2038500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3442800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2442600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2333400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2760900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1735700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1724200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1814800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2099900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>793800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1431100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>576500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2231700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-232200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2041000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>557000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-292000</v>
+        <v>525800</v>
       </c>
       <c r="E24" s="3">
-        <v>495400</v>
+        <v>-273300</v>
       </c>
       <c r="F24" s="3">
-        <v>-88600</v>
+        <v>463600</v>
       </c>
       <c r="G24" s="3">
-        <v>336300</v>
+        <v>-83000</v>
       </c>
       <c r="H24" s="3">
-        <v>-23500</v>
+        <v>314700</v>
       </c>
       <c r="I24" s="3">
-        <v>314200</v>
+        <v>-22000</v>
       </c>
       <c r="J24" s="3">
+        <v>294000</v>
+      </c>
+      <c r="K24" s="3">
         <v>262000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>207700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>264600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>332600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>293900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>412700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>262800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>237700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>179700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>449900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-356100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>412200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-120000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>430600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>139600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1901,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1212300</v>
+        <v>2643500</v>
       </c>
       <c r="E26" s="3">
-        <v>1783300</v>
+        <v>1134500</v>
       </c>
       <c r="F26" s="3">
-        <v>2004900</v>
+        <v>1668800</v>
       </c>
       <c r="G26" s="3">
-        <v>1642500</v>
+        <v>1876200</v>
       </c>
       <c r="H26" s="3">
-        <v>1093700</v>
+        <v>1537100</v>
       </c>
       <c r="I26" s="3">
-        <v>1864100</v>
+        <v>1023500</v>
       </c>
       <c r="J26" s="3">
+        <v>1744500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3180800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2234900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2068900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2428300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1441800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1311400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1551900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1862200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>614100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>981200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>932600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1819500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-112200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1610400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>417400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>976400</v>
+        <v>2198300</v>
       </c>
       <c r="E27" s="3">
-        <v>1522600</v>
+        <v>913700</v>
       </c>
       <c r="F27" s="3">
-        <v>1818500</v>
+        <v>1424800</v>
       </c>
       <c r="G27" s="3">
-        <v>1398800</v>
+        <v>1701800</v>
       </c>
       <c r="H27" s="3">
-        <v>882500</v>
+        <v>1309000</v>
       </c>
       <c r="I27" s="3">
-        <v>1621700</v>
+        <v>825900</v>
       </c>
       <c r="J27" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2950000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2083200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1771600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2196300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1323800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1105100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1439700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1746400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>570100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>709800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>693900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1580800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-234800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1377400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>338400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2114,31 +2176,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2155,11 +2220,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>165100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2167,11 +2232,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2185,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2327,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>246400</v>
+        <v>247600</v>
       </c>
       <c r="E32" s="3">
-        <v>247700</v>
+        <v>230600</v>
       </c>
       <c r="F32" s="3">
-        <v>220300</v>
+        <v>231800</v>
       </c>
       <c r="G32" s="3">
+        <v>206200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>213500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>292800</v>
+      </c>
+      <c r="J32" s="3">
         <v>228100</v>
       </c>
-      <c r="H32" s="3">
-        <v>312900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>243800</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>272500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>238300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>260500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>277400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>302100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>177100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>237700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>256200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>213300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>171900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>177400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>226900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>232200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>221200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>226500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>976400</v>
+        <v>2198300</v>
       </c>
       <c r="E33" s="3">
-        <v>1522600</v>
+        <v>913700</v>
       </c>
       <c r="F33" s="3">
-        <v>1818500</v>
+        <v>1424800</v>
       </c>
       <c r="G33" s="3">
-        <v>1398800</v>
+        <v>1701800</v>
       </c>
       <c r="H33" s="3">
-        <v>882500</v>
+        <v>1309000</v>
       </c>
       <c r="I33" s="3">
-        <v>1621700</v>
+        <v>825900</v>
       </c>
       <c r="J33" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2950000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2083200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1771600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2196300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1323800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1105100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1604800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1746400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>570100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>709800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-712200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1580800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-234800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1377400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>338400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2540,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>976400</v>
+        <v>2198300</v>
       </c>
       <c r="E35" s="3">
-        <v>1522600</v>
+        <v>913700</v>
       </c>
       <c r="F35" s="3">
-        <v>1818500</v>
+        <v>1424800</v>
       </c>
       <c r="G35" s="3">
-        <v>1398800</v>
+        <v>1701800</v>
       </c>
       <c r="H35" s="3">
-        <v>882500</v>
+        <v>1309000</v>
       </c>
       <c r="I35" s="3">
-        <v>1621700</v>
+        <v>825900</v>
       </c>
       <c r="J35" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2950000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2083200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1771600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2196300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1323800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1105100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1604800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1746400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>570100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>709800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-712200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1580800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-234800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1377400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>338400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2714,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2741,647 +2831,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5571500</v>
+        <v>13378600</v>
       </c>
       <c r="E41" s="3">
-        <v>4501300</v>
+        <v>5213900</v>
       </c>
       <c r="F41" s="3">
-        <v>4566500</v>
+        <v>4212300</v>
       </c>
       <c r="G41" s="3">
-        <v>6201200</v>
+        <v>4273300</v>
       </c>
       <c r="H41" s="3">
-        <v>8202200</v>
+        <v>5803100</v>
       </c>
       <c r="I41" s="3">
-        <v>5583300</v>
+        <v>7675600</v>
       </c>
       <c r="J41" s="3">
+        <v>5224800</v>
+      </c>
+      <c r="K41" s="3">
         <v>10645100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6348000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6419400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6092000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5661700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5501300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5116700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4671500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5230700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5176400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4999400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6186300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5199000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5937400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6448300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79500</v>
+        <v>3671900</v>
       </c>
       <c r="E42" s="3">
-        <v>79500</v>
+        <v>74400</v>
       </c>
       <c r="F42" s="3">
-        <v>76900</v>
+        <v>74400</v>
       </c>
       <c r="G42" s="3">
-        <v>78200</v>
+        <v>72000</v>
       </c>
       <c r="H42" s="3">
+        <v>73200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>95200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K42" s="3">
+        <v>113400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>114500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>107700</v>
+      </c>
+      <c r="N42" s="3">
+        <v>121700</v>
+      </c>
+      <c r="O42" s="3">
+        <v>115300</v>
+      </c>
+      <c r="P42" s="3">
+        <v>107800</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>110900</v>
+      </c>
+      <c r="R42" s="3">
+        <v>98500</v>
+      </c>
+      <c r="S42" s="3">
+        <v>104700</v>
+      </c>
+      <c r="T42" s="3">
+        <v>98300</v>
+      </c>
+      <c r="U42" s="3">
         <v>101700</v>
       </c>
-      <c r="I42" s="3">
-        <v>108200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>113400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>114500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>107700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>121700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>115300</v>
-      </c>
-      <c r="O42" s="3">
-        <v>107800</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="V42" s="3">
+        <v>107000</v>
+      </c>
+      <c r="W42" s="3">
         <v>110900</v>
       </c>
-      <c r="Q42" s="3">
-        <v>98500</v>
-      </c>
-      <c r="R42" s="3">
-        <v>104700</v>
-      </c>
-      <c r="S42" s="3">
-        <v>98300</v>
-      </c>
-      <c r="T42" s="3">
-        <v>101700</v>
-      </c>
-      <c r="U42" s="3">
-        <v>107000</v>
-      </c>
-      <c r="V42" s="3">
-        <v>110900</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>115900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>117200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10879800</v>
+        <v>10731500</v>
       </c>
       <c r="E43" s="3">
-        <v>10798900</v>
+        <v>10181300</v>
       </c>
       <c r="F43" s="3">
-        <v>9786100</v>
+        <v>10105700</v>
       </c>
       <c r="G43" s="3">
-        <v>9363700</v>
+        <v>9157800</v>
       </c>
       <c r="H43" s="3">
-        <v>9937300</v>
+        <v>8762500</v>
       </c>
       <c r="I43" s="3">
-        <v>10977500</v>
+        <v>9299300</v>
       </c>
       <c r="J43" s="3">
+        <v>10272800</v>
+      </c>
+      <c r="K43" s="3">
         <v>9771700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11840100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10179300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11804800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9696100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8944300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8785900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9297300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8805300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8283000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8162400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8778000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8337100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8494600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8232600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7538700</v>
+        <v>7323100</v>
       </c>
       <c r="E44" s="3">
-        <v>8139600</v>
+        <v>7054700</v>
       </c>
       <c r="F44" s="3">
-        <v>8251700</v>
+        <v>7617100</v>
       </c>
       <c r="G44" s="3">
-        <v>8103100</v>
+        <v>7722000</v>
       </c>
       <c r="H44" s="3">
-        <v>7816300</v>
+        <v>7582900</v>
       </c>
       <c r="I44" s="3">
-        <v>8395100</v>
+        <v>7314500</v>
       </c>
       <c r="J44" s="3">
+        <v>7856200</v>
+      </c>
+      <c r="K44" s="3">
         <v>8337800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7922700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8110500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9588800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8182800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7559700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7232600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7128500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7683200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7316000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7248100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7383700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7490700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7133100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6718300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>273800</v>
+        <v>257400</v>
       </c>
       <c r="E45" s="3">
-        <v>276400</v>
+        <v>256200</v>
       </c>
       <c r="F45" s="3">
-        <v>217700</v>
+        <v>258600</v>
       </c>
       <c r="G45" s="3">
-        <v>401500</v>
+        <v>203700</v>
       </c>
       <c r="H45" s="3">
-        <v>336300</v>
+        <v>375700</v>
       </c>
       <c r="I45" s="3">
-        <v>852500</v>
+        <v>314700</v>
       </c>
       <c r="J45" s="3">
+        <v>797800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1085900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3089500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1764700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2095800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1374600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1218200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1110800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>256200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>210700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>358100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>236100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>573900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>286900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>424000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>488500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24343200</v>
+        <v>35362500</v>
       </c>
       <c r="E46" s="3">
-        <v>23795700</v>
+        <v>22780400</v>
       </c>
       <c r="F46" s="3">
-        <v>22898900</v>
+        <v>22268100</v>
       </c>
       <c r="G46" s="3">
-        <v>24147700</v>
+        <v>21428800</v>
       </c>
       <c r="H46" s="3">
-        <v>26393800</v>
+        <v>22597400</v>
       </c>
       <c r="I46" s="3">
-        <v>25916700</v>
+        <v>24699300</v>
       </c>
       <c r="J46" s="3">
+        <v>24252800</v>
+      </c>
+      <c r="K46" s="3">
         <v>29953900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29314800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26581600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29703200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25030500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23331500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22357000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21452000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22034700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21231800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20747700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23028900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21424600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22105000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22004900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2886100</v>
+        <v>2121400</v>
       </c>
       <c r="E47" s="3">
-        <v>3673500</v>
+        <v>2700900</v>
       </c>
       <c r="F47" s="3">
-        <v>4217100</v>
+        <v>3437700</v>
       </c>
       <c r="G47" s="3">
-        <v>4895000</v>
+        <v>3946400</v>
       </c>
       <c r="H47" s="3">
-        <v>4463500</v>
+        <v>4580700</v>
       </c>
       <c r="I47" s="3">
-        <v>3874300</v>
+        <v>4176900</v>
       </c>
       <c r="J47" s="3">
+        <v>3625500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3342400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2916400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2933500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2725500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2319300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2186200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2057800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1987800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1640600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1484100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1436000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1455600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1647300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1744700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1643400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13911900</v>
+        <v>13057800</v>
       </c>
       <c r="E48" s="3">
-        <v>13905400</v>
+        <v>13018800</v>
       </c>
       <c r="F48" s="3">
-        <v>13803700</v>
+        <v>13012700</v>
       </c>
       <c r="G48" s="3">
-        <v>13861100</v>
+        <v>12917500</v>
       </c>
       <c r="H48" s="3">
-        <v>14347300</v>
+        <v>12971200</v>
       </c>
       <c r="I48" s="3">
-        <v>14606700</v>
+        <v>13426200</v>
       </c>
       <c r="J48" s="3">
+        <v>13669000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14901300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15177200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15429900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16556800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15665400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15034200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14605300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13452800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13992100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13782600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14164800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13868700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13906600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14237100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14231900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52966200</v>
+        <v>50226900</v>
       </c>
       <c r="E49" s="3">
-        <v>53216500</v>
+        <v>49565800</v>
       </c>
       <c r="F49" s="3">
-        <v>51841200</v>
+        <v>49800000</v>
       </c>
       <c r="G49" s="3">
-        <v>51961100</v>
+        <v>48513000</v>
       </c>
       <c r="H49" s="3">
-        <v>52692400</v>
+        <v>48625200</v>
       </c>
       <c r="I49" s="3">
-        <v>54166800</v>
+        <v>49309600</v>
       </c>
       <c r="J49" s="3">
+        <v>50689300</v>
+      </c>
+      <c r="K49" s="3">
         <v>55091000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56436000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56620500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61558700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37295800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35720100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30366300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28463500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29827700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29593700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30385200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30892600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31732600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32541800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32578700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3451,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3522,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9010400</v>
+        <v>8643000</v>
       </c>
       <c r="E52" s="3">
-        <v>7987100</v>
+        <v>8431900</v>
       </c>
       <c r="F52" s="3">
-        <v>7629900</v>
+        <v>7474300</v>
       </c>
       <c r="G52" s="3">
-        <v>6918200</v>
+        <v>7140100</v>
       </c>
       <c r="H52" s="3">
-        <v>6952000</v>
+        <v>6474000</v>
       </c>
       <c r="I52" s="3">
-        <v>6931200</v>
+        <v>6505700</v>
       </c>
       <c r="J52" s="3">
+        <v>6486200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7047200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8476400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7117600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7256700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7067800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6760800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7306600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6820600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7016100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6510600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6804600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7425400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7242800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7371400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7338500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3664,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103117900</v>
+        <v>109411600</v>
       </c>
       <c r="E54" s="3">
-        <v>102578200</v>
+        <v>96497700</v>
       </c>
       <c r="F54" s="3">
-        <v>100390800</v>
+        <v>95992700</v>
       </c>
       <c r="G54" s="3">
-        <v>101783000</v>
+        <v>93945700</v>
       </c>
       <c r="H54" s="3">
-        <v>104849000</v>
+        <v>95248600</v>
       </c>
       <c r="I54" s="3">
-        <v>105495600</v>
+        <v>98117800</v>
       </c>
       <c r="J54" s="3">
+        <v>98722800</v>
+      </c>
+      <c r="K54" s="3">
         <v>110335900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112320900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108683200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117800800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87378800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83032800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76693000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72176700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74511100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>72602900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73538300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76671300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>75953900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>78000100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77797300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3762,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3789,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22883200</v>
+        <v>21442200</v>
       </c>
       <c r="E57" s="3">
-        <v>19853700</v>
+        <v>21414100</v>
       </c>
       <c r="F57" s="3">
-        <v>18598300</v>
+        <v>18579100</v>
       </c>
       <c r="G57" s="3">
-        <v>19045400</v>
+        <v>17404300</v>
       </c>
       <c r="H57" s="3">
-        <v>20648900</v>
+        <v>17822700</v>
       </c>
       <c r="I57" s="3">
-        <v>19739000</v>
+        <v>19323200</v>
       </c>
       <c r="J57" s="3">
+        <v>18471700</v>
+      </c>
+      <c r="K57" s="3">
         <v>20140500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20379100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20373700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20854500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18380100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17872700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18539900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16125300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16218300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27262800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27351400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25877500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25538400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15844900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15754100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4694200</v>
+        <v>5004000</v>
       </c>
       <c r="E58" s="3">
-        <v>6347200</v>
+        <v>4392900</v>
       </c>
       <c r="F58" s="3">
-        <v>6571400</v>
+        <v>5939700</v>
       </c>
       <c r="G58" s="3">
-        <v>4135000</v>
+        <v>6149500</v>
       </c>
       <c r="H58" s="3">
-        <v>4855900</v>
+        <v>3869500</v>
       </c>
       <c r="I58" s="3">
-        <v>6405800</v>
+        <v>4544100</v>
       </c>
       <c r="J58" s="3">
+        <v>5994600</v>
+      </c>
+      <c r="K58" s="3">
         <v>7774600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9670400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9434700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11626500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13933800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11201100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7651300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3574100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4486100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4449900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3684700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6182400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8624100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4924800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5437000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3278500</v>
+        <v>3170500</v>
       </c>
       <c r="E59" s="3">
-        <v>3021700</v>
+        <v>3068000</v>
       </c>
       <c r="F59" s="3">
-        <v>2710200</v>
+        <v>2827700</v>
       </c>
       <c r="G59" s="3">
-        <v>3249800</v>
+        <v>2536200</v>
       </c>
       <c r="H59" s="3">
-        <v>3367200</v>
+        <v>3041200</v>
       </c>
       <c r="I59" s="3">
-        <v>2767500</v>
+        <v>3151000</v>
       </c>
       <c r="J59" s="3">
+        <v>2589800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3272000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3673800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2990800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3624100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3085600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3492300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3514600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2955800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2822200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3098900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3618200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3727700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3386000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3929300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3829200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30856000</v>
+        <v>29616700</v>
       </c>
       <c r="E60" s="3">
-        <v>29222600</v>
+        <v>28875000</v>
       </c>
       <c r="F60" s="3">
-        <v>27879900</v>
+        <v>27346500</v>
       </c>
       <c r="G60" s="3">
-        <v>26430300</v>
+        <v>26090000</v>
       </c>
       <c r="H60" s="3">
-        <v>28871900</v>
+        <v>24733500</v>
       </c>
       <c r="I60" s="3">
-        <v>28912300</v>
+        <v>27018300</v>
       </c>
       <c r="J60" s="3">
+        <v>27056200</v>
+      </c>
+      <c r="K60" s="3">
         <v>31187100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33723400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32799100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36105100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35399500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32566000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29705900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22655300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23526600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34811500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34654200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35787700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>37548500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24699000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>25020300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26817500</v>
+        <v>35652800</v>
       </c>
       <c r="E61" s="3">
-        <v>27031200</v>
+        <v>25095800</v>
       </c>
       <c r="F61" s="3">
-        <v>26648000</v>
+        <v>25295800</v>
       </c>
       <c r="G61" s="3">
-        <v>30043800</v>
+        <v>24937200</v>
       </c>
       <c r="H61" s="3">
-        <v>30536600</v>
+        <v>28115000</v>
       </c>
       <c r="I61" s="3">
-        <v>30418000</v>
+        <v>28576200</v>
       </c>
       <c r="J61" s="3">
+        <v>28465100</v>
+      </c>
+      <c r="K61" s="3">
         <v>33536200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32932700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32171800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35141400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32013200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31080200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26773700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30553500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31792800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18118700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18604700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18643800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15989500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19225100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19305500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17623200</v>
+        <v>16533300</v>
       </c>
       <c r="E62" s="3">
-        <v>17973900</v>
+        <v>16491800</v>
       </c>
       <c r="F62" s="3">
-        <v>17734000</v>
+        <v>16820000</v>
       </c>
       <c r="G62" s="3">
-        <v>17920500</v>
+        <v>16595500</v>
       </c>
       <c r="H62" s="3">
-        <v>18315400</v>
+        <v>16770000</v>
       </c>
       <c r="I62" s="3">
-        <v>19278800</v>
+        <v>17139600</v>
       </c>
       <c r="J62" s="3">
+        <v>18041100</v>
+      </c>
+      <c r="K62" s="3">
         <v>19362200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18913600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18677100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20997400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15891900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14898400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15363400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14382600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15283600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15031500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15728700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15941300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16645600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26711100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26936300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4286,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4357,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4428,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83492300</v>
+        <v>89672400</v>
       </c>
       <c r="E66" s="3">
-        <v>82469000</v>
+        <v>78132200</v>
       </c>
       <c r="F66" s="3">
-        <v>80345500</v>
+        <v>77174500</v>
       </c>
       <c r="G66" s="3">
-        <v>82405100</v>
+        <v>75187300</v>
       </c>
       <c r="H66" s="3">
-        <v>85833600</v>
+        <v>77114800</v>
       </c>
       <c r="I66" s="3">
-        <v>86872500</v>
+        <v>80323100</v>
       </c>
       <c r="J66" s="3">
+        <v>81295400</v>
+      </c>
+      <c r="K66" s="3">
         <v>92616200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94891500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93129100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101142200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82416100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77688500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70934300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66664000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69754900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72692100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73627000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74983500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74896100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75743100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>76317200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4526,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4597,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4668,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4739,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4810,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13566500</v>
+        <v>13904400</v>
       </c>
       <c r="E72" s="3">
-        <v>14051400</v>
+        <v>12695500</v>
       </c>
       <c r="F72" s="3">
-        <v>13988800</v>
+        <v>13149300</v>
       </c>
       <c r="G72" s="3">
-        <v>13326600</v>
+        <v>13090700</v>
       </c>
       <c r="H72" s="3">
-        <v>12983800</v>
+        <v>12471000</v>
       </c>
       <c r="I72" s="3">
-        <v>12592700</v>
+        <v>12150200</v>
       </c>
       <c r="J72" s="3">
+        <v>11784200</v>
+      </c>
+      <c r="K72" s="3">
         <v>11691900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11278400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9389700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10276500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-641700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>102200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-912700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4952,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5023,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5094,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19625500</v>
+        <v>19739200</v>
       </c>
       <c r="E76" s="3">
-        <v>20109200</v>
+        <v>18365600</v>
       </c>
       <c r="F76" s="3">
-        <v>20045300</v>
+        <v>18818200</v>
       </c>
       <c r="G76" s="3">
-        <v>19377900</v>
+        <v>18758400</v>
       </c>
       <c r="H76" s="3">
-        <v>19015500</v>
+        <v>18133800</v>
       </c>
       <c r="I76" s="3">
-        <v>18623100</v>
+        <v>17794700</v>
       </c>
       <c r="J76" s="3">
+        <v>17427500</v>
+      </c>
+      <c r="K76" s="3">
         <v>17719700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17429400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15554000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16658700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4962700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5344200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5758600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5512600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4756200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-89200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-88700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1687800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1057800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2257000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1480100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5236,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>976400</v>
+        <v>2198300</v>
       </c>
       <c r="E81" s="3">
-        <v>1522600</v>
+        <v>913700</v>
       </c>
       <c r="F81" s="3">
-        <v>1818500</v>
+        <v>1424800</v>
       </c>
       <c r="G81" s="3">
-        <v>1398800</v>
+        <v>1701800</v>
       </c>
       <c r="H81" s="3">
-        <v>882500</v>
+        <v>1309000</v>
       </c>
       <c r="I81" s="3">
-        <v>1621700</v>
+        <v>825900</v>
       </c>
       <c r="J81" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2950000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2083200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1771600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2196300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1323800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1105100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1604800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1746400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>570100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>709800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-712200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1580800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-234800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1377400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>338400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5410,25 +5612,26 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>477100</v>
+        <v>858800</v>
       </c>
       <c r="E83" s="3">
-        <v>1285300</v>
+        <v>446500</v>
       </c>
       <c r="F83" s="3">
-        <v>865600</v>
+        <v>1202800</v>
       </c>
       <c r="G83" s="3">
-        <v>470600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>24</v>
+        <v>810000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>440400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>24</v>
@@ -5436,53 +5639,56 @@
       <c r="J83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="3">
         <v>258200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-188200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>726000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1065600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1575000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>907400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>610900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>252100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>618000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-228300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>892100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1417800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>429300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>821700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5552,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5623,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5694,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5765,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5836,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4910600</v>
+        <v>3101000</v>
       </c>
       <c r="E89" s="3">
-        <v>3339800</v>
+        <v>4595400</v>
       </c>
       <c r="F89" s="3">
-        <v>1684200</v>
+        <v>3125400</v>
       </c>
       <c r="G89" s="3">
-        <v>431500</v>
+        <v>1576100</v>
       </c>
       <c r="H89" s="3">
-        <v>5025300</v>
+        <v>403800</v>
       </c>
       <c r="I89" s="3">
-        <v>1122400</v>
+        <v>4702700</v>
       </c>
       <c r="J89" s="3">
+        <v>1050300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3597900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1284500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4709200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3559000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1907400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>882700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5440300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2558000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1760800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1115700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3742100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2474300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1314700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1506400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3938500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5934,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-590500</v>
+        <v>-270800</v>
       </c>
       <c r="E91" s="3">
-        <v>-363700</v>
+        <v>-552600</v>
       </c>
       <c r="F91" s="3">
-        <v>-311600</v>
+        <v>-340400</v>
       </c>
       <c r="G91" s="3">
-        <v>-262000</v>
+        <v>-291600</v>
       </c>
       <c r="H91" s="3">
-        <v>-670000</v>
+        <v>-245200</v>
       </c>
       <c r="I91" s="3">
-        <v>-380600</v>
+        <v>-627000</v>
       </c>
       <c r="J91" s="3">
+        <v>-356200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-290700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-262200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-654600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-401900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-383100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-295600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-663000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-370700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-365900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-333500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-696500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-485200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-494300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-547800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6076,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6147,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-470600</v>
+        <v>-4383100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1542100</v>
+        <v>-440400</v>
       </c>
       <c r="F94" s="3">
-        <v>-241200</v>
+        <v>-1443100</v>
       </c>
       <c r="G94" s="3">
-        <v>-62600</v>
+        <v>-225700</v>
       </c>
       <c r="H94" s="3">
-        <v>-67800</v>
+        <v>-58600</v>
       </c>
       <c r="I94" s="3">
-        <v>-730000</v>
+        <v>-63400</v>
       </c>
       <c r="J94" s="3">
+        <v>-683100</v>
+      </c>
+      <c r="K94" s="3">
         <v>3690500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-504600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-662300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-774500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-545500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-624400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-338700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-479600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-436900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-602600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-583000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-229100</v>
       </c>
       <c r="Y94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6245,79 +6482,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1239700</v>
+        <v>-1161300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1239700</v>
+        <v>-1160100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1500400</v>
+        <v>-1160100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1233200</v>
+        <v>-1404100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1233200</v>
+        <v>-1154000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1233200</v>
+        <v>-1154000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1154000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="X96" s="3">
         <v>-1218000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6387,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6458,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6529,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3616200</v>
+        <v>9726300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1817200</v>
+        <v>-3384000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2665800</v>
+        <v>-1700500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1793700</v>
+        <v>-2494700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2835300</v>
+        <v>-1678600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5574200</v>
+        <v>-2653300</v>
       </c>
       <c r="J100" s="3">
+        <v>-5216300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4874300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-365900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-846500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10400</v>
+        <v>14600</v>
       </c>
       <c r="E101" s="3">
-        <v>16900</v>
+        <v>-9800</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>15900</v>
       </c>
       <c r="G101" s="3">
-        <v>-45600</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-28700</v>
+        <v>-42700</v>
       </c>
       <c r="I101" s="3">
-        <v>-58700</v>
+        <v>-26800</v>
       </c>
       <c r="J101" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>55900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-139100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>74200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-53300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>52800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-67200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-30000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-40400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-74300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>14500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>105300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>813400</v>
+        <v>8458800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2600</v>
+        <v>761200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1221500</v>
+        <v>-2400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1470400</v>
+        <v>-1143000</v>
       </c>
       <c r="H102" s="3">
-        <v>2093600</v>
+        <v>-1376000</v>
       </c>
       <c r="I102" s="3">
-        <v>-5240400</v>
+        <v>1959200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4904000</v>
+      </c>
+      <c r="K102" s="3">
         <v>3843000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-137100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>302800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>287300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>442000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>660400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-120700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>203000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-973000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>984800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-601300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-728200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1256200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11930600</v>
+        <v>8196300</v>
       </c>
       <c r="E8" s="3">
-        <v>11622000</v>
+        <v>8505100</v>
       </c>
       <c r="F8" s="3">
-        <v>11073000</v>
+        <v>11269500</v>
       </c>
       <c r="G8" s="3">
-        <v>9871400</v>
+        <v>10737200</v>
       </c>
       <c r="H8" s="3">
-        <v>9049200</v>
+        <v>6905800</v>
       </c>
       <c r="I8" s="3">
-        <v>10660700</v>
+        <v>6097800</v>
       </c>
       <c r="J8" s="3">
+        <v>10337400</v>
+      </c>
+      <c r="K8" s="3">
         <v>10547300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9938600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12099700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12136400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13280800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10723200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10199900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10826500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9966100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9450400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9336700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9963600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10229700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9547500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9723200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9989200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4446500</v>
+        <v>2526700</v>
       </c>
       <c r="E9" s="3">
-        <v>4483100</v>
+        <v>3182000</v>
       </c>
       <c r="F9" s="3">
-        <v>3442600</v>
+        <v>4347200</v>
       </c>
       <c r="G9" s="3">
-        <v>3072900</v>
+        <v>3338100</v>
       </c>
       <c r="H9" s="3">
-        <v>2941200</v>
+        <v>1990800</v>
       </c>
       <c r="I9" s="3">
-        <v>3613300</v>
+        <v>1892600</v>
       </c>
       <c r="J9" s="3">
+        <v>3503700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3315700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3166400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3701800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4106400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4211400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3338200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3160700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3523900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3104900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2853200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2996700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3122500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3183800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2778200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3097100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3066800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7484100</v>
+        <v>5669600</v>
       </c>
       <c r="E10" s="3">
-        <v>7138900</v>
+        <v>5323100</v>
       </c>
       <c r="F10" s="3">
-        <v>7630500</v>
+        <v>6922300</v>
       </c>
       <c r="G10" s="3">
-        <v>6798500</v>
+        <v>7399000</v>
       </c>
       <c r="H10" s="3">
-        <v>6108000</v>
+        <v>4914900</v>
       </c>
       <c r="I10" s="3">
-        <v>7047400</v>
+        <v>4205200</v>
       </c>
       <c r="J10" s="3">
+        <v>6833600</v>
+      </c>
+      <c r="K10" s="3">
         <v>7231600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6772200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8397900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8030000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9069400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7385000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7039100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7302600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6861200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6597200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6339900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6841100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7045900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6769400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6626100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6922400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1028,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1407800</v>
+        <v>1366200</v>
       </c>
       <c r="E12" s="3">
-        <v>1662700</v>
+        <v>1287000</v>
       </c>
       <c r="F12" s="3">
-        <v>1426100</v>
+        <v>1612300</v>
       </c>
       <c r="G12" s="3">
-        <v>1421200</v>
+        <v>1382800</v>
       </c>
       <c r="H12" s="3">
-        <v>1313800</v>
+        <v>1308300</v>
       </c>
       <c r="I12" s="3">
-        <v>1582200</v>
+        <v>1208900</v>
       </c>
       <c r="J12" s="3">
+        <v>1534200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1279700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1526500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1445600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1587500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1647200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1428100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1292800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1345900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1183600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1122200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1146700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1293900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1171300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1373400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1210100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1339200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,156 +1180,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-469700</v>
+        <v>869400</v>
       </c>
       <c r="E14" s="3">
-        <v>971000</v>
+        <v>-469600</v>
       </c>
       <c r="F14" s="3">
-        <v>896600</v>
+        <v>941600</v>
       </c>
       <c r="G14" s="3">
-        <v>394000</v>
+        <v>869400</v>
       </c>
       <c r="H14" s="3">
-        <v>-18300</v>
+        <v>335900</v>
       </c>
       <c r="I14" s="3">
-        <v>683100</v>
+        <v>-48500</v>
       </c>
       <c r="J14" s="3">
+        <v>662400</v>
+      </c>
+      <c r="K14" s="3">
         <v>746600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>629600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-312300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>615600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>656400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>728300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>488700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>570200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1529400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>686500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1712600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>566100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2504300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>156700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1663100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>28100</v>
+        <v>30800</v>
       </c>
       <c r="E15" s="3">
-        <v>30500</v>
+        <v>27200</v>
       </c>
       <c r="F15" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="G15" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="H15" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="I15" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="J15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K15" s="3">
         <v>19500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>12900</v>
       </c>
       <c r="T15" s="3">
         <v>12900</v>
       </c>
       <c r="U15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="V15" s="3">
         <v>14300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>14500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8513700</v>
+        <v>6917600</v>
       </c>
       <c r="E17" s="3">
-        <v>10530200</v>
+        <v>5792700</v>
       </c>
       <c r="F17" s="3">
-        <v>8708900</v>
+        <v>10210800</v>
       </c>
       <c r="G17" s="3">
-        <v>7872000</v>
+        <v>8444700</v>
       </c>
       <c r="H17" s="3">
-        <v>6983900</v>
+        <v>5440200</v>
       </c>
       <c r="I17" s="3">
-        <v>9366400</v>
+        <v>4666500</v>
       </c>
       <c r="J17" s="3">
+        <v>9082300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8280700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6223300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9418900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9542400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10242600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8685400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8298600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8774000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7610100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8443300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7733600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9209700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7771100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9547500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7460900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9205700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3416900</v>
+        <v>1278700</v>
       </c>
       <c r="E18" s="3">
-        <v>1091800</v>
+        <v>2712400</v>
       </c>
       <c r="F18" s="3">
-        <v>2364200</v>
+        <v>1058700</v>
       </c>
       <c r="G18" s="3">
-        <v>1999400</v>
+        <v>2292500</v>
       </c>
       <c r="H18" s="3">
-        <v>2065300</v>
+        <v>1465600</v>
       </c>
       <c r="I18" s="3">
-        <v>1294300</v>
+        <v>1431300</v>
       </c>
       <c r="J18" s="3">
+        <v>1255100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2266600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3715200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2680800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2593900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3038200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2037800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1901200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2052500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2356100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1007100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1603100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>753900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2458600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2262200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>783500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,156 +1545,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-247600</v>
+        <v>-218800</v>
       </c>
       <c r="E20" s="3">
-        <v>-230600</v>
+        <v>-235400</v>
       </c>
       <c r="F20" s="3">
-        <v>-231800</v>
+        <v>-223600</v>
       </c>
       <c r="G20" s="3">
-        <v>-206200</v>
+        <v>-224800</v>
       </c>
       <c r="H20" s="3">
-        <v>-213500</v>
+        <v>-199900</v>
       </c>
       <c r="I20" s="3">
-        <v>-292800</v>
+        <v>-208200</v>
       </c>
       <c r="J20" s="3">
+        <v>-283900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-228100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-272500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-238300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-260500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-277400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-302100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-177100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-237700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-256200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-213300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-171900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-177400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-226900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-232200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-221200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-226500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4028100</v>
+        <v>1806300</v>
       </c>
       <c r="E21" s="3">
-        <v>1307700</v>
+        <v>3309800</v>
       </c>
       <c r="F21" s="3">
-        <v>3335200</v>
+        <v>1268100</v>
       </c>
       <c r="G21" s="3">
-        <v>2603300</v>
+        <v>3374800</v>
       </c>
       <c r="H21" s="3">
-        <v>2292200</v>
+        <v>1910400</v>
       </c>
       <c r="I21" s="3">
-        <v>3632900</v>
+        <v>1650100</v>
       </c>
       <c r="J21" s="3">
+        <v>3522700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2034800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3446700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2145200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3486800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2801300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3299200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2722100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2710800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1045900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2049100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>348300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3123800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1185600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2470300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1378700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1735,156 +1774,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3169300</v>
+        <v>1059900</v>
       </c>
       <c r="E23" s="3">
-        <v>861200</v>
+        <v>2477000</v>
       </c>
       <c r="F23" s="3">
-        <v>2132400</v>
+        <v>835100</v>
       </c>
       <c r="G23" s="3">
-        <v>1793300</v>
+        <v>2067700</v>
       </c>
       <c r="H23" s="3">
-        <v>1851800</v>
+        <v>1265700</v>
       </c>
       <c r="I23" s="3">
-        <v>1001500</v>
+        <v>1223100</v>
       </c>
       <c r="J23" s="3">
+        <v>971200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2038500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3442800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2442600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2333400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2760900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1735700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1724200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1814800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2099900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>793800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1431100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>576500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2231700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-232200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2041000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>557000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>525800</v>
+        <v>177400</v>
       </c>
       <c r="E24" s="3">
-        <v>-273300</v>
+        <v>382100</v>
       </c>
       <c r="F24" s="3">
-        <v>463600</v>
+        <v>-265000</v>
       </c>
       <c r="G24" s="3">
-        <v>-83000</v>
+        <v>449500</v>
       </c>
       <c r="H24" s="3">
-        <v>314700</v>
+        <v>-237800</v>
       </c>
       <c r="I24" s="3">
-        <v>-22000</v>
+        <v>183300</v>
       </c>
       <c r="J24" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K24" s="3">
         <v>294000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>262000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>207700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>264600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>332600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>293900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>412700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>262800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>237700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>179700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>449900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-356100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>412200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-120000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>430600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>139600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2643500</v>
+        <v>882400</v>
       </c>
       <c r="E26" s="3">
-        <v>1134500</v>
+        <v>2094900</v>
       </c>
       <c r="F26" s="3">
-        <v>1668800</v>
+        <v>1100100</v>
       </c>
       <c r="G26" s="3">
-        <v>1876200</v>
+        <v>1618200</v>
       </c>
       <c r="H26" s="3">
-        <v>1537100</v>
+        <v>1503500</v>
       </c>
       <c r="I26" s="3">
-        <v>1023500</v>
+        <v>1039800</v>
       </c>
       <c r="J26" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1744500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3180800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2234900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2068900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2428300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1441800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1311400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1551900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1862200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>614100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>981200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>932600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1819500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-112200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1610400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>417400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2198300</v>
+        <v>720400</v>
       </c>
       <c r="E27" s="3">
-        <v>913700</v>
+        <v>1663200</v>
       </c>
       <c r="F27" s="3">
-        <v>1424800</v>
+        <v>886000</v>
       </c>
       <c r="G27" s="3">
-        <v>1701800</v>
+        <v>1381600</v>
       </c>
       <c r="H27" s="3">
-        <v>1309000</v>
+        <v>1334300</v>
       </c>
       <c r="I27" s="3">
-        <v>825900</v>
+        <v>818600</v>
       </c>
       <c r="J27" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1517600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2950000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2083200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1771600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2196300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1323800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1105100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1439700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1746400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>570100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>709800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>693900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1580800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-234800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1377400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>338400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,34 +2236,37 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>270900</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>468400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>315800</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+        <v>450700</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2223,11 +2283,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>165100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2235,11 +2295,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>247600</v>
+        <v>218800</v>
       </c>
       <c r="E32" s="3">
-        <v>230600</v>
+        <v>235400</v>
       </c>
       <c r="F32" s="3">
-        <v>231800</v>
+        <v>223600</v>
       </c>
       <c r="G32" s="3">
-        <v>206200</v>
+        <v>224800</v>
       </c>
       <c r="H32" s="3">
-        <v>213500</v>
+        <v>199900</v>
       </c>
       <c r="I32" s="3">
-        <v>292800</v>
+        <v>208200</v>
       </c>
       <c r="J32" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K32" s="3">
         <v>228100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>272500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>238300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>260500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>277400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>302100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>177100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>237700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>256200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>213300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>171900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>177400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>226900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>232200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>221200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>226500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2198300</v>
+        <v>991300</v>
       </c>
       <c r="E33" s="3">
-        <v>913700</v>
+        <v>2131600</v>
       </c>
       <c r="F33" s="3">
-        <v>1424800</v>
+        <v>886000</v>
       </c>
       <c r="G33" s="3">
-        <v>1701800</v>
+        <v>1381600</v>
       </c>
       <c r="H33" s="3">
-        <v>1309000</v>
+        <v>1650100</v>
       </c>
       <c r="I33" s="3">
-        <v>825900</v>
+        <v>1269300</v>
       </c>
       <c r="J33" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1517600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2950000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2083200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1771600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2196300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1323800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1105100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1604800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1746400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>570100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>709800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-712200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1580800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-234800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1377400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>338400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2198300</v>
+        <v>991300</v>
       </c>
       <c r="E35" s="3">
-        <v>913700</v>
+        <v>2131600</v>
       </c>
       <c r="F35" s="3">
-        <v>1424800</v>
+        <v>886000</v>
       </c>
       <c r="G35" s="3">
-        <v>1701800</v>
+        <v>1381600</v>
       </c>
       <c r="H35" s="3">
-        <v>1309000</v>
+        <v>1650100</v>
       </c>
       <c r="I35" s="3">
-        <v>825900</v>
+        <v>1269300</v>
       </c>
       <c r="J35" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1517600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2950000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2083200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1771600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2196300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1323800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1105100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1604800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1746400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>570100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>709800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-712200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1580800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-234800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1377400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>338400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,674 +2917,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13378600</v>
+        <v>7647400</v>
       </c>
       <c r="E41" s="3">
-        <v>5213900</v>
+        <v>12972900</v>
       </c>
       <c r="F41" s="3">
-        <v>4212300</v>
+        <v>5055700</v>
       </c>
       <c r="G41" s="3">
-        <v>4273300</v>
+        <v>4084600</v>
       </c>
       <c r="H41" s="3">
-        <v>5803100</v>
+        <v>4143700</v>
       </c>
       <c r="I41" s="3">
-        <v>7675600</v>
+        <v>5627100</v>
       </c>
       <c r="J41" s="3">
+        <v>7442800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5224800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10645100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6348000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6419400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6092000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5661700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5501300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5116700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4671500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5230700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5176400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4999400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6186300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5199000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5937400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6448300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3671900</v>
+        <v>79300</v>
       </c>
       <c r="E42" s="3">
-        <v>74400</v>
+        <v>3560500</v>
       </c>
       <c r="F42" s="3">
-        <v>74400</v>
+        <v>72200</v>
       </c>
       <c r="G42" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="H42" s="3">
-        <v>73200</v>
+        <v>69800</v>
       </c>
       <c r="I42" s="3">
-        <v>95200</v>
+        <v>71000</v>
       </c>
       <c r="J42" s="3">
+        <v>92300</v>
+      </c>
+      <c r="K42" s="3">
         <v>101300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>113400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>107700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>121700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>115300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>107800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>110900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>98500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>104700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>98300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>101700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>107000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>110900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>115900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>117200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10731500</v>
+        <v>8126500</v>
       </c>
       <c r="E43" s="3">
-        <v>10181300</v>
+        <v>10406000</v>
       </c>
       <c r="F43" s="3">
-        <v>10105700</v>
+        <v>9872500</v>
       </c>
       <c r="G43" s="3">
-        <v>9157800</v>
+        <v>9799100</v>
       </c>
       <c r="H43" s="3">
-        <v>8762500</v>
+        <v>8880000</v>
       </c>
       <c r="I43" s="3">
-        <v>9299300</v>
+        <v>8496800</v>
       </c>
       <c r="J43" s="3">
+        <v>9017200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10272800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9771700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11840100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10179300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11804800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9696100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8944300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8785900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9297300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8805300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8283000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8162400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8778000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8337100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8494600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8232600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7323100</v>
+        <v>5517000</v>
       </c>
       <c r="E44" s="3">
-        <v>7054700</v>
+        <v>7100900</v>
       </c>
       <c r="F44" s="3">
-        <v>7617100</v>
+        <v>6840700</v>
       </c>
       <c r="G44" s="3">
-        <v>7722000</v>
+        <v>7386000</v>
       </c>
       <c r="H44" s="3">
-        <v>7582900</v>
+        <v>7487800</v>
       </c>
       <c r="I44" s="3">
-        <v>7314500</v>
+        <v>7352900</v>
       </c>
       <c r="J44" s="3">
+        <v>7092700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7856200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8337800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7922700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8110500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9588800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8182800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7559700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7232600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7128500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7683200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7316000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7248100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7383700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7490700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7133100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6718300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257400</v>
+        <v>42728700</v>
       </c>
       <c r="E45" s="3">
+        <v>249600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>248400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>250800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>197500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>364300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>797800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1085900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3089500</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1764700</v>
+      </c>
+      <c r="O45" s="3">
+        <v>2095800</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1218200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="S45" s="3">
         <v>256200</v>
       </c>
-      <c r="F45" s="3">
-        <v>258600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>203700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>375700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>314700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>797800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1085900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3089500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1764700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2095800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1374600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1218200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1110800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>256200</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>210700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>358100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>236100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>573900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>286900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>424000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>488500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35362500</v>
+        <v>64099000</v>
       </c>
       <c r="E46" s="3">
-        <v>22780400</v>
+        <v>34289900</v>
       </c>
       <c r="F46" s="3">
-        <v>22268100</v>
+        <v>22089500</v>
       </c>
       <c r="G46" s="3">
-        <v>21428800</v>
+        <v>21592700</v>
       </c>
       <c r="H46" s="3">
-        <v>22597400</v>
+        <v>20778800</v>
       </c>
       <c r="I46" s="3">
-        <v>24699300</v>
+        <v>21912000</v>
       </c>
       <c r="J46" s="3">
+        <v>23950200</v>
+      </c>
+      <c r="K46" s="3">
         <v>24252800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29953900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29314800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26581600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29703200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25030500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23331500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22357000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21452000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22034700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21231800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20747700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23028900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21424600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22105000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>22004900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2121400</v>
+        <v>2044100</v>
       </c>
       <c r="E47" s="3">
-        <v>2700900</v>
+        <v>2057100</v>
       </c>
       <c r="F47" s="3">
-        <v>3437700</v>
+        <v>2618900</v>
       </c>
       <c r="G47" s="3">
-        <v>3946400</v>
+        <v>3333400</v>
       </c>
       <c r="H47" s="3">
-        <v>4580700</v>
+        <v>3826700</v>
       </c>
       <c r="I47" s="3">
-        <v>4176900</v>
+        <v>4441800</v>
       </c>
       <c r="J47" s="3">
+        <v>4050200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3625500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3342400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2916400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2933500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2725500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2319300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2186200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2057800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1987800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1640600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1484100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1436000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1455600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1647300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1744700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1643400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13057800</v>
+        <v>10827100</v>
       </c>
       <c r="E48" s="3">
-        <v>13018800</v>
+        <v>12661800</v>
       </c>
       <c r="F48" s="3">
-        <v>13012700</v>
+        <v>12623900</v>
       </c>
       <c r="G48" s="3">
-        <v>12917500</v>
+        <v>12618000</v>
       </c>
       <c r="H48" s="3">
-        <v>12971200</v>
+        <v>12525700</v>
       </c>
       <c r="I48" s="3">
-        <v>13426200</v>
+        <v>12577800</v>
       </c>
       <c r="J48" s="3">
+        <v>13019000</v>
+      </c>
+      <c r="K48" s="3">
         <v>13669000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14901300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15177200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15429900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16556800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15665400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15034200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14605300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13452800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13992100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13782600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14164800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13868700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13906600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14237100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14231900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50226900</v>
+        <v>20437000</v>
       </c>
       <c r="E49" s="3">
-        <v>49565800</v>
+        <v>48703500</v>
       </c>
       <c r="F49" s="3">
-        <v>49800000</v>
+        <v>48062400</v>
       </c>
       <c r="G49" s="3">
-        <v>48513000</v>
+        <v>48289500</v>
       </c>
       <c r="H49" s="3">
-        <v>48625200</v>
+        <v>47041600</v>
       </c>
       <c r="I49" s="3">
-        <v>49309600</v>
+        <v>47150400</v>
       </c>
       <c r="J49" s="3">
+        <v>47814000</v>
+      </c>
+      <c r="K49" s="3">
         <v>50689300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55091000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56436000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56620500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>61558700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37295800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35720100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30366300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28463500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29827700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29593700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30385200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30892600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31732600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32541800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32578700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8643000</v>
+        <v>7924200</v>
       </c>
       <c r="E52" s="3">
-        <v>8431900</v>
+        <v>8380800</v>
       </c>
       <c r="F52" s="3">
-        <v>7474300</v>
+        <v>8176200</v>
       </c>
       <c r="G52" s="3">
-        <v>7140100</v>
+        <v>7247600</v>
       </c>
       <c r="H52" s="3">
-        <v>6474000</v>
+        <v>6923500</v>
       </c>
       <c r="I52" s="3">
-        <v>6505700</v>
+        <v>6277700</v>
       </c>
       <c r="J52" s="3">
+        <v>6308400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6486200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7047200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8476400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7117600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7256700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7067800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6760800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7306600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6820600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7016100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6510600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6804600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7425400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7242800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7371400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7338500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109411600</v>
+        <v>105331300</v>
       </c>
       <c r="E54" s="3">
-        <v>96497700</v>
+        <v>106093100</v>
       </c>
       <c r="F54" s="3">
-        <v>95992700</v>
+        <v>93570900</v>
       </c>
       <c r="G54" s="3">
-        <v>93945700</v>
+        <v>93081200</v>
       </c>
       <c r="H54" s="3">
-        <v>95248600</v>
+        <v>91096300</v>
       </c>
       <c r="I54" s="3">
-        <v>98117800</v>
+        <v>92359600</v>
       </c>
       <c r="J54" s="3">
+        <v>95141800</v>
+      </c>
+      <c r="K54" s="3">
         <v>98722800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110335900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112320900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108683200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117800800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87378800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83032800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76693000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72176700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74511100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>72602900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73538300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76671300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>75953900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>78000100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>77797300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4053,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21442200</v>
+        <v>17514000</v>
       </c>
       <c r="E57" s="3">
-        <v>21414100</v>
+        <v>20791800</v>
       </c>
       <c r="F57" s="3">
-        <v>18579100</v>
+        <v>20764600</v>
       </c>
       <c r="G57" s="3">
-        <v>17404300</v>
+        <v>18015600</v>
       </c>
       <c r="H57" s="3">
-        <v>17822700</v>
+        <v>16876400</v>
       </c>
       <c r="I57" s="3">
-        <v>19323200</v>
+        <v>17282200</v>
       </c>
       <c r="J57" s="3">
+        <v>18737100</v>
+      </c>
+      <c r="K57" s="3">
         <v>18471700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20140500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20379100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20373700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20854500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18380100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17872700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18539900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16125300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16218300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27262800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27351400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25877500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25538400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15844900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15754100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5004000</v>
+        <v>3935500</v>
       </c>
       <c r="E58" s="3">
-        <v>4392900</v>
+        <v>4852300</v>
       </c>
       <c r="F58" s="3">
-        <v>5939700</v>
+        <v>4259600</v>
       </c>
       <c r="G58" s="3">
-        <v>6149500</v>
+        <v>5759500</v>
       </c>
       <c r="H58" s="3">
-        <v>3869500</v>
+        <v>5963000</v>
       </c>
       <c r="I58" s="3">
-        <v>4544100</v>
+        <v>3752200</v>
       </c>
       <c r="J58" s="3">
+        <v>4406300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5994600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7774600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9670400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9434700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11626500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13933800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11201100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7651300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3574100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4486100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4449900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3684700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6182400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8624100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4924800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5437000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3170500</v>
+        <v>23305500</v>
       </c>
       <c r="E59" s="3">
-        <v>3068000</v>
+        <v>3074400</v>
       </c>
       <c r="F59" s="3">
-        <v>2827700</v>
+        <v>2975000</v>
       </c>
       <c r="G59" s="3">
-        <v>2536200</v>
+        <v>2742000</v>
       </c>
       <c r="H59" s="3">
-        <v>3041200</v>
+        <v>2459200</v>
       </c>
       <c r="I59" s="3">
-        <v>3151000</v>
+        <v>2949000</v>
       </c>
       <c r="J59" s="3">
+        <v>3055400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2589800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3272000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3673800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2990800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3624100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3085600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3492300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3514600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2955800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2822200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3098900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3618200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3727700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3386000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3929300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3829200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29616700</v>
+        <v>44755000</v>
       </c>
       <c r="E60" s="3">
-        <v>28875000</v>
+        <v>28718400</v>
       </c>
       <c r="F60" s="3">
-        <v>27346500</v>
+        <v>27999200</v>
       </c>
       <c r="G60" s="3">
-        <v>26090000</v>
+        <v>26517100</v>
       </c>
       <c r="H60" s="3">
-        <v>24733500</v>
+        <v>25298700</v>
       </c>
       <c r="I60" s="3">
-        <v>27018300</v>
+        <v>23983300</v>
       </c>
       <c r="J60" s="3">
+        <v>26198900</v>
+      </c>
+      <c r="K60" s="3">
         <v>27056200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31187100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33723400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32799100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36105100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35399500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32566000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29705900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22655300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23526600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34811500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34654200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35787700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>37548500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24699000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>25020300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35652800</v>
+        <v>22219600</v>
       </c>
       <c r="E61" s="3">
-        <v>25095800</v>
+        <v>34571400</v>
       </c>
       <c r="F61" s="3">
-        <v>25295800</v>
+        <v>24334600</v>
       </c>
       <c r="G61" s="3">
-        <v>24937200</v>
+        <v>24528600</v>
       </c>
       <c r="H61" s="3">
-        <v>28115000</v>
+        <v>24180800</v>
       </c>
       <c r="I61" s="3">
-        <v>28576200</v>
+        <v>27262300</v>
       </c>
       <c r="J61" s="3">
+        <v>27709400</v>
+      </c>
+      <c r="K61" s="3">
         <v>28465100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33536200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32932700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32171800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35141400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32013200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31080200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26773700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30553500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31792800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18118700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18604700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18643800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15989500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19225100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19305500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16533300</v>
+        <v>11575900</v>
       </c>
       <c r="E62" s="3">
-        <v>16491800</v>
+        <v>16031800</v>
       </c>
       <c r="F62" s="3">
-        <v>16820000</v>
+        <v>15991600</v>
       </c>
       <c r="G62" s="3">
-        <v>16595500</v>
+        <v>16309800</v>
       </c>
       <c r="H62" s="3">
-        <v>16770000</v>
+        <v>16092200</v>
       </c>
       <c r="I62" s="3">
-        <v>17139600</v>
+        <v>16261300</v>
       </c>
       <c r="J62" s="3">
+        <v>16619700</v>
+      </c>
+      <c r="K62" s="3">
         <v>18041100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19362200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18913600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18677100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20997400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15891900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14898400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15363400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14382600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15283600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15031500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15728700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15941300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16645600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26711100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26936300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89672400</v>
+        <v>85962500</v>
       </c>
       <c r="E66" s="3">
-        <v>78132200</v>
+        <v>86952600</v>
       </c>
       <c r="F66" s="3">
-        <v>77174500</v>
+        <v>75762400</v>
       </c>
       <c r="G66" s="3">
-        <v>75187300</v>
+        <v>74833800</v>
       </c>
       <c r="H66" s="3">
-        <v>77114800</v>
+        <v>72906900</v>
       </c>
       <c r="I66" s="3">
-        <v>80323100</v>
+        <v>74775800</v>
       </c>
       <c r="J66" s="3">
+        <v>77886900</v>
+      </c>
+      <c r="K66" s="3">
         <v>81295400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92616200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94891500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93129100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>101142200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82416100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77688500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70934300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66664000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69754900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72692100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73627000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74983500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>74896100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75743100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>76317200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13904400</v>
+        <v>13707400</v>
       </c>
       <c r="E72" s="3">
-        <v>12695500</v>
+        <v>13482700</v>
       </c>
       <c r="F72" s="3">
-        <v>13149300</v>
+        <v>12310400</v>
       </c>
       <c r="G72" s="3">
-        <v>13090700</v>
+        <v>12750500</v>
       </c>
       <c r="H72" s="3">
-        <v>12471000</v>
+        <v>12693700</v>
       </c>
       <c r="I72" s="3">
-        <v>12150200</v>
+        <v>12092800</v>
       </c>
       <c r="J72" s="3">
+        <v>11781700</v>
+      </c>
+      <c r="K72" s="3">
         <v>11784200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11691900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11278400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9389700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10276500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-641700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>102200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-912700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19739200</v>
+        <v>19368800</v>
       </c>
       <c r="E76" s="3">
-        <v>18365600</v>
+        <v>19140500</v>
       </c>
       <c r="F76" s="3">
-        <v>18818200</v>
+        <v>17808600</v>
       </c>
       <c r="G76" s="3">
-        <v>18758400</v>
+        <v>18247400</v>
       </c>
       <c r="H76" s="3">
-        <v>18133800</v>
+        <v>18189500</v>
       </c>
       <c r="I76" s="3">
-        <v>17794700</v>
+        <v>17583800</v>
       </c>
       <c r="J76" s="3">
+        <v>17255000</v>
+      </c>
+      <c r="K76" s="3">
         <v>17427500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17719700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17429400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15554000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16658700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4962700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5344200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5758600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5512600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4756200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-89200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-88700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1687800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1057800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2257000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1480100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2198300</v>
+        <v>991300</v>
       </c>
       <c r="E81" s="3">
-        <v>913700</v>
+        <v>2131600</v>
       </c>
       <c r="F81" s="3">
-        <v>1424800</v>
+        <v>886000</v>
       </c>
       <c r="G81" s="3">
-        <v>1701800</v>
+        <v>1381600</v>
       </c>
       <c r="H81" s="3">
-        <v>1309000</v>
+        <v>1650100</v>
       </c>
       <c r="I81" s="3">
-        <v>825900</v>
+        <v>1269300</v>
       </c>
       <c r="J81" s="3">
+        <v>800800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1517600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2950000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2083200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1771600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2196300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1323800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1105100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1604800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1746400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>570100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>709800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-712200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1580800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-234800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1377400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>338400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,28 +5810,29 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>858800</v>
+        <v>746400</v>
       </c>
       <c r="E83" s="3">
-        <v>446500</v>
+        <v>832800</v>
       </c>
       <c r="F83" s="3">
-        <v>1202800</v>
+        <v>432900</v>
       </c>
       <c r="G83" s="3">
-        <v>810000</v>
+        <v>1166300</v>
       </c>
       <c r="H83" s="3">
-        <v>440400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>24</v>
+        <v>785400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>427000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>24</v>
@@ -5642,53 +5840,56 @@
       <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="3">
         <v>258200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-188200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>726000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1065600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1575000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>907400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>610900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>252100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>618000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-228300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>892100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1417800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>429300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>821700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3101000</v>
+        <v>1934000</v>
       </c>
       <c r="E89" s="3">
-        <v>4595400</v>
+        <v>3006900</v>
       </c>
       <c r="F89" s="3">
-        <v>3125400</v>
+        <v>4456000</v>
       </c>
       <c r="G89" s="3">
-        <v>1576100</v>
+        <v>3030600</v>
       </c>
       <c r="H89" s="3">
-        <v>403800</v>
+        <v>1528300</v>
       </c>
       <c r="I89" s="3">
-        <v>4702700</v>
+        <v>391500</v>
       </c>
       <c r="J89" s="3">
+        <v>4560100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1050300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3597900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1284500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4709200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3559000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1907400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>882700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5440300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2558000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1760800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1115700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3742100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2474300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1314700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1506400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3938500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270800</v>
+        <v>-246000</v>
       </c>
       <c r="E91" s="3">
-        <v>-552600</v>
+        <v>-262600</v>
       </c>
       <c r="F91" s="3">
-        <v>-340400</v>
+        <v>-535900</v>
       </c>
       <c r="G91" s="3">
-        <v>-291600</v>
+        <v>-434100</v>
       </c>
       <c r="H91" s="3">
-        <v>-245200</v>
+        <v>-178600</v>
       </c>
       <c r="I91" s="3">
-        <v>-627000</v>
+        <v>-237800</v>
       </c>
       <c r="J91" s="3">
+        <v>-608000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-356200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-290700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-262200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-654600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-401900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-383100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-295600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-663000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-370700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-365900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-333500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-696500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-485200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-494300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-547800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4383100</v>
+        <v>-644700</v>
       </c>
       <c r="E94" s="3">
-        <v>-440400</v>
+        <v>-4250200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1443100</v>
+        <v>-427000</v>
       </c>
       <c r="G94" s="3">
-        <v>-225700</v>
+        <v>-1399400</v>
       </c>
       <c r="H94" s="3">
-        <v>-58600</v>
+        <v>-218800</v>
       </c>
       <c r="I94" s="3">
-        <v>-63400</v>
+        <v>-56800</v>
       </c>
       <c r="J94" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-683100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3690500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-504600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-662300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-774500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-545500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-624400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-338700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-479600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-436900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-602600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-583000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-229100</v>
       </c>
       <c r="Z94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,82 +6715,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1161300</v>
+        <v>-1367400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1160100</v>
+        <v>-1126100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1160100</v>
+        <v>-1124900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1404100</v>
+        <v>-1124900</v>
       </c>
       <c r="H96" s="3">
+        <v>-1361500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1154000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1154000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1154000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="Y96" s="3">
         <v>-1218000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9726300</v>
+        <v>-5306500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3384000</v>
+        <v>9431300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1700500</v>
+        <v>-3281400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2494700</v>
+        <v>-1649000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1678600</v>
+        <v>-2419000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2653300</v>
+        <v>-1627700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2572800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5216300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4874300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-365900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-846500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14600</v>
+        <v>84000</v>
       </c>
       <c r="E101" s="3">
-        <v>-9800</v>
+        <v>14200</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>-9500</v>
       </c>
       <c r="G101" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-42700</v>
-      </c>
       <c r="I101" s="3">
-        <v>-26800</v>
+        <v>-41400</v>
       </c>
       <c r="J101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-54900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>55900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-139100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>74200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-53300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>52800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-67200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-30000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-40400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-74300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>14500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>105300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8458800</v>
+        <v>-3933100</v>
       </c>
       <c r="E102" s="3">
-        <v>761200</v>
+        <v>8202200</v>
       </c>
       <c r="F102" s="3">
+        <v>738100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-1143000</v>
-      </c>
       <c r="H102" s="3">
-        <v>-1376000</v>
+        <v>-1108400</v>
       </c>
       <c r="I102" s="3">
-        <v>1959200</v>
+        <v>-1334300</v>
       </c>
       <c r="J102" s="3">
+        <v>1899700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4904000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3843000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-137100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>302800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>287300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>442000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>660400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-120700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>203000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-973000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>984800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-601300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-728200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1256200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,356 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8196300</v>
+        <v>9170100</v>
       </c>
       <c r="E8" s="3">
-        <v>8505100</v>
+        <v>8115900</v>
       </c>
       <c r="F8" s="3">
-        <v>11269500</v>
+        <v>8421600</v>
       </c>
       <c r="G8" s="3">
-        <v>10737200</v>
+        <v>11159000</v>
       </c>
       <c r="H8" s="3">
-        <v>6905800</v>
+        <v>7762200</v>
       </c>
       <c r="I8" s="3">
-        <v>6097800</v>
+        <v>6838000</v>
       </c>
       <c r="J8" s="3">
+        <v>6038100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10337400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10547300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9938600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12099700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12136400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13280800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10723200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10199900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10826500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9966100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9450400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9336700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9963600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10229700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9547500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9723200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9989200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2526700</v>
+        <v>2794700</v>
       </c>
       <c r="E9" s="3">
-        <v>3182000</v>
+        <v>2501900</v>
       </c>
       <c r="F9" s="3">
-        <v>4347200</v>
+        <v>3150800</v>
       </c>
       <c r="G9" s="3">
-        <v>3338100</v>
+        <v>4304500</v>
       </c>
       <c r="H9" s="3">
-        <v>1990800</v>
+        <v>2298100</v>
       </c>
       <c r="I9" s="3">
-        <v>1892600</v>
+        <v>1971300</v>
       </c>
       <c r="J9" s="3">
+        <v>1874100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3503700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3315700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3166400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3701800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4106400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4211400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3338200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3160700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3523900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3104900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2853200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2996700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3122500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3183800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2778200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3097100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3066800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5669600</v>
+        <v>6375400</v>
       </c>
       <c r="E10" s="3">
-        <v>5323100</v>
+        <v>5614000</v>
       </c>
       <c r="F10" s="3">
-        <v>6922300</v>
+        <v>5270900</v>
       </c>
       <c r="G10" s="3">
-        <v>7399000</v>
+        <v>6854400</v>
       </c>
       <c r="H10" s="3">
-        <v>4914900</v>
+        <v>5464100</v>
       </c>
       <c r="I10" s="3">
-        <v>4205200</v>
+        <v>4866800</v>
       </c>
       <c r="J10" s="3">
+        <v>4164000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6833600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7231600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6772200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8397900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8030000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9069400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7385000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7039100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7302600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6861200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6597200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6339900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6841100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7045900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6769400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6626100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6922400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1042,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1366200</v>
+        <v>1519200</v>
       </c>
       <c r="E12" s="3">
-        <v>1287000</v>
+        <v>1352900</v>
       </c>
       <c r="F12" s="3">
-        <v>1612300</v>
+        <v>1274400</v>
       </c>
       <c r="G12" s="3">
-        <v>1382800</v>
+        <v>1596500</v>
       </c>
       <c r="H12" s="3">
-        <v>1308300</v>
+        <v>1302500</v>
       </c>
       <c r="I12" s="3">
-        <v>1208900</v>
+        <v>1295500</v>
       </c>
       <c r="J12" s="3">
+        <v>1197100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1534200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1279700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1526500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1445600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1587500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1647200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1428100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1292800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1345900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1183600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1122200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1146700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1293900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1171300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1373400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1210100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1339200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,162 +1200,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>869400</v>
+        <v>1424300</v>
       </c>
       <c r="E14" s="3">
-        <v>-469600</v>
+        <v>860900</v>
       </c>
       <c r="F14" s="3">
-        <v>941600</v>
+        <v>-465000</v>
       </c>
       <c r="G14" s="3">
-        <v>869400</v>
+        <v>932400</v>
       </c>
       <c r="H14" s="3">
-        <v>335900</v>
+        <v>835100</v>
       </c>
       <c r="I14" s="3">
-        <v>-48500</v>
+        <v>332600</v>
       </c>
       <c r="J14" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K14" s="3">
         <v>662400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>746600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>629600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-312300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>615600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>656400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>728300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>488700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>570200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1529400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>686500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1712600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>566100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2504300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>156700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1663100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>30500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K15" s="3">
         <v>30800</v>
       </c>
-      <c r="E15" s="3">
-        <v>27200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>29600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>29600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>29600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>30800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>12900</v>
       </c>
       <c r="U15" s="3">
         <v>12900</v>
       </c>
       <c r="V15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="W15" s="3">
         <v>14300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>15700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>14300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>14500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6917600</v>
+        <v>7775100</v>
       </c>
       <c r="E17" s="3">
-        <v>5792700</v>
+        <v>6849800</v>
       </c>
       <c r="F17" s="3">
-        <v>10210800</v>
+        <v>5735900</v>
       </c>
       <c r="G17" s="3">
-        <v>8444700</v>
+        <v>10110700</v>
       </c>
       <c r="H17" s="3">
-        <v>5440200</v>
+        <v>6145800</v>
       </c>
       <c r="I17" s="3">
-        <v>4666500</v>
+        <v>5386800</v>
       </c>
       <c r="J17" s="3">
+        <v>4620800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9082300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8280700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6223300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9418900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9542400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10242600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8685400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8298600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8774000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7610100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8443300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7733600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9209700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7771100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9547500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7460900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9205700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1278700</v>
+        <v>1395000</v>
       </c>
       <c r="E18" s="3">
-        <v>2712400</v>
+        <v>1266200</v>
       </c>
       <c r="F18" s="3">
-        <v>1058700</v>
+        <v>2685800</v>
       </c>
       <c r="G18" s="3">
-        <v>2292500</v>
+        <v>1048300</v>
       </c>
       <c r="H18" s="3">
-        <v>1465600</v>
+        <v>1616400</v>
       </c>
       <c r="I18" s="3">
-        <v>1431300</v>
+        <v>1451200</v>
       </c>
       <c r="J18" s="3">
+        <v>1417300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1255100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2266600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3715200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2680800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2593900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3038200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2037800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1901200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2052500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2356100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1007100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1603100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>753900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2458600</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>2262200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>783500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,162 +1579,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-218800</v>
+        <v>-209700</v>
       </c>
       <c r="E20" s="3">
-        <v>-235400</v>
+        <v>-216700</v>
       </c>
       <c r="F20" s="3">
-        <v>-223600</v>
+        <v>-233100</v>
       </c>
       <c r="G20" s="3">
-        <v>-224800</v>
+        <v>-221400</v>
       </c>
       <c r="H20" s="3">
-        <v>-199900</v>
+        <v>-220200</v>
       </c>
       <c r="I20" s="3">
-        <v>-208200</v>
+        <v>-197900</v>
       </c>
       <c r="J20" s="3">
+        <v>-206100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-283900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-228100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-272500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-238300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-260500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-277400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-302100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-177100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-237700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-256200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-213300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-171900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-177400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-226900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-232200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-221200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-226500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1806300</v>
+        <v>2305100</v>
       </c>
       <c r="E21" s="3">
-        <v>3309800</v>
+        <v>1788600</v>
       </c>
       <c r="F21" s="3">
-        <v>1268100</v>
+        <v>3277300</v>
       </c>
       <c r="G21" s="3">
-        <v>3374800</v>
+        <v>1485200</v>
       </c>
       <c r="H21" s="3">
-        <v>1910400</v>
+        <v>2460900</v>
       </c>
       <c r="I21" s="3">
-        <v>1650100</v>
+        <v>1891600</v>
       </c>
       <c r="J21" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="K21" s="3">
         <v>3522700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2034800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3446700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2145200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3486800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2801300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3299200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2722100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2710800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1045900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2049100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>348300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3123800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1185600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2470300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1378700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1777,162 +1817,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1059900</v>
+        <v>1185400</v>
       </c>
       <c r="E23" s="3">
-        <v>2477000</v>
+        <v>1049500</v>
       </c>
       <c r="F23" s="3">
-        <v>835100</v>
+        <v>2452700</v>
       </c>
       <c r="G23" s="3">
-        <v>2067700</v>
+        <v>826900</v>
       </c>
       <c r="H23" s="3">
-        <v>1265700</v>
+        <v>1396200</v>
       </c>
       <c r="I23" s="3">
-        <v>1223100</v>
+        <v>1253300</v>
       </c>
       <c r="J23" s="3">
+        <v>1211100</v>
+      </c>
+      <c r="K23" s="3">
         <v>971200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2038500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3442800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2442600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2333400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2760900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1735700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1724200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1814800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2099900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>793800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1431100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>576500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2231700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-232200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2041000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>557000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>177400</v>
+        <v>272900</v>
       </c>
       <c r="E24" s="3">
-        <v>382100</v>
+        <v>175700</v>
       </c>
       <c r="F24" s="3">
-        <v>-265000</v>
+        <v>378300</v>
       </c>
       <c r="G24" s="3">
-        <v>449500</v>
+        <v>-262400</v>
       </c>
       <c r="H24" s="3">
-        <v>-237800</v>
+        <v>288100</v>
       </c>
       <c r="I24" s="3">
-        <v>183300</v>
+        <v>-235400</v>
       </c>
       <c r="J24" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-21300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>294000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>262000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>207700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>264600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>332600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>293900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>412700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>262800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>237700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>179700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>449900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-356100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>412200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-120000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>430600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>139600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>882400</v>
+        <v>912400</v>
       </c>
       <c r="E26" s="3">
-        <v>2094900</v>
+        <v>873800</v>
       </c>
       <c r="F26" s="3">
-        <v>1100100</v>
+        <v>2074400</v>
       </c>
       <c r="G26" s="3">
-        <v>1618200</v>
+        <v>1089300</v>
       </c>
       <c r="H26" s="3">
-        <v>1503500</v>
+        <v>1108000</v>
       </c>
       <c r="I26" s="3">
-        <v>1039800</v>
+        <v>1488700</v>
       </c>
       <c r="J26" s="3">
+        <v>1029600</v>
+      </c>
+      <c r="K26" s="3">
         <v>992500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1744500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3180800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2234900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2068900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2428300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1441800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1311400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1551900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1862200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>614100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>981200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>932600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1819500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-112200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1610400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>417400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>720400</v>
+        <v>867900</v>
       </c>
       <c r="E27" s="3">
-        <v>1663200</v>
+        <v>713300</v>
       </c>
       <c r="F27" s="3">
-        <v>886000</v>
+        <v>1646800</v>
       </c>
       <c r="G27" s="3">
-        <v>1381600</v>
+        <v>877300</v>
       </c>
       <c r="H27" s="3">
-        <v>1334300</v>
+        <v>873800</v>
       </c>
       <c r="I27" s="3">
-        <v>818600</v>
+        <v>1321200</v>
       </c>
       <c r="J27" s="3">
+        <v>810500</v>
+      </c>
+      <c r="K27" s="3">
         <v>800800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1517600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2950000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2083200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1771600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2196300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1323800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1105100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1439700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1746400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>570100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>709800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>693900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1580800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-234800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1377400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>338400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,37 +2297,40 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>270900</v>
+        <v>11214000</v>
       </c>
       <c r="E29" s="3">
-        <v>468400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>268200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>463800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>315800</v>
+        <v>494300</v>
       </c>
       <c r="I29" s="3">
-        <v>450700</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>312700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>446300</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2286,11 +2347,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>165100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2298,11 +2359,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2316,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>218800</v>
+        <v>209700</v>
       </c>
       <c r="E32" s="3">
-        <v>235400</v>
+        <v>216700</v>
       </c>
       <c r="F32" s="3">
-        <v>223600</v>
+        <v>233100</v>
       </c>
       <c r="G32" s="3">
-        <v>224800</v>
+        <v>221400</v>
       </c>
       <c r="H32" s="3">
-        <v>199900</v>
+        <v>220200</v>
       </c>
       <c r="I32" s="3">
-        <v>208200</v>
+        <v>197900</v>
       </c>
       <c r="J32" s="3">
+        <v>206100</v>
+      </c>
+      <c r="K32" s="3">
         <v>283900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>228100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>272500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>238300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>260500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>277400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>302100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>177100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>237700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>256200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>213300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>171900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>177400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>226900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>232200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>221200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>226500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>991300</v>
+        <v>12082000</v>
       </c>
       <c r="E33" s="3">
-        <v>2131600</v>
+        <v>981500</v>
       </c>
       <c r="F33" s="3">
-        <v>886000</v>
+        <v>2110700</v>
       </c>
       <c r="G33" s="3">
-        <v>1381600</v>
+        <v>877300</v>
       </c>
       <c r="H33" s="3">
-        <v>1650100</v>
+        <v>1368100</v>
       </c>
       <c r="I33" s="3">
-        <v>1269300</v>
+        <v>1634000</v>
       </c>
       <c r="J33" s="3">
+        <v>1256800</v>
+      </c>
+      <c r="K33" s="3">
         <v>800800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1517600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2950000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2083200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1771600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2196300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1323800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1105100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1604800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1746400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>570100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>709800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-712200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1580800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-234800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1377400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>338400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>991300</v>
+        <v>12082000</v>
       </c>
       <c r="E35" s="3">
-        <v>2131600</v>
+        <v>981500</v>
       </c>
       <c r="F35" s="3">
-        <v>886000</v>
+        <v>2110700</v>
       </c>
       <c r="G35" s="3">
-        <v>1381600</v>
+        <v>877300</v>
       </c>
       <c r="H35" s="3">
-        <v>1650100</v>
+        <v>1368100</v>
       </c>
       <c r="I35" s="3">
-        <v>1269300</v>
+        <v>1634000</v>
       </c>
       <c r="J35" s="3">
+        <v>1256800</v>
+      </c>
+      <c r="K35" s="3">
         <v>800800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1517600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2950000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2083200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1771600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2196300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1323800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1105100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1604800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1746400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>570100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>709800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-712200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1580800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-234800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1377400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>338400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,701 +3004,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7647400</v>
+        <v>4223700</v>
       </c>
       <c r="E41" s="3">
-        <v>12972900</v>
+        <v>7572500</v>
       </c>
       <c r="F41" s="3">
-        <v>5055700</v>
+        <v>12845600</v>
       </c>
       <c r="G41" s="3">
-        <v>4084600</v>
+        <v>5006100</v>
       </c>
       <c r="H41" s="3">
-        <v>4143700</v>
+        <v>4044500</v>
       </c>
       <c r="I41" s="3">
-        <v>5627100</v>
+        <v>4103100</v>
       </c>
       <c r="J41" s="3">
+        <v>5571900</v>
+      </c>
+      <c r="K41" s="3">
         <v>7442800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5224800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10645100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6348000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6419400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6092000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5661700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5501300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5116700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4671500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5230700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5176400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4999400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6186300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5199000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5937400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6448300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79300</v>
+        <v>4164000</v>
       </c>
       <c r="E42" s="3">
-        <v>3560500</v>
+        <v>78500</v>
       </c>
       <c r="F42" s="3">
-        <v>72200</v>
+        <v>3525600</v>
       </c>
       <c r="G42" s="3">
-        <v>72200</v>
+        <v>71400</v>
       </c>
       <c r="H42" s="3">
-        <v>69800</v>
+        <v>71400</v>
       </c>
       <c r="I42" s="3">
-        <v>71000</v>
+        <v>69100</v>
       </c>
       <c r="J42" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K42" s="3">
         <v>92300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>101300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>113400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>107700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>121700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>115300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>107800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>110900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>98500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>104700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>98300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>101700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>107000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>110900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>115900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>117200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8126500</v>
+        <v>9480500</v>
       </c>
       <c r="E43" s="3">
-        <v>10406000</v>
+        <v>8046800</v>
       </c>
       <c r="F43" s="3">
-        <v>9872500</v>
+        <v>10303900</v>
       </c>
       <c r="G43" s="3">
-        <v>9799100</v>
+        <v>9775700</v>
       </c>
       <c r="H43" s="3">
-        <v>8880000</v>
+        <v>9703000</v>
       </c>
       <c r="I43" s="3">
-        <v>8496800</v>
+        <v>8792900</v>
       </c>
       <c r="J43" s="3">
+        <v>8413400</v>
+      </c>
+      <c r="K43" s="3">
         <v>9017200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10272800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9771700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11840100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10179300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11804800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9696100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8944300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8785900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9297300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8805300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8283000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8162400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8778000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8337100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8494600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8232600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5517000</v>
+        <v>5457100</v>
       </c>
       <c r="E44" s="3">
-        <v>7100900</v>
+        <v>5462900</v>
       </c>
       <c r="F44" s="3">
-        <v>6840700</v>
+        <v>7031300</v>
       </c>
       <c r="G44" s="3">
-        <v>7386000</v>
+        <v>6773600</v>
       </c>
       <c r="H44" s="3">
-        <v>7487800</v>
+        <v>7313600</v>
       </c>
       <c r="I44" s="3">
-        <v>7352900</v>
+        <v>7414300</v>
       </c>
       <c r="J44" s="3">
+        <v>7280800</v>
+      </c>
+      <c r="K44" s="3">
         <v>7092700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7856200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8337800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7922700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8110500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9588800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8182800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7559700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7232600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7128500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7683200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7316000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7248100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7383700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7490700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7133100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6718300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42728700</v>
+        <v>392400</v>
       </c>
       <c r="E45" s="3">
-        <v>249600</v>
+        <v>42309700</v>
       </c>
       <c r="F45" s="3">
-        <v>248400</v>
+        <v>247100</v>
       </c>
       <c r="G45" s="3">
-        <v>250800</v>
+        <v>246000</v>
       </c>
       <c r="H45" s="3">
-        <v>197500</v>
+        <v>248300</v>
       </c>
       <c r="I45" s="3">
-        <v>364300</v>
+        <v>195600</v>
       </c>
       <c r="J45" s="3">
+        <v>360800</v>
+      </c>
+      <c r="K45" s="3">
         <v>305200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>797800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1085900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3089500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1764700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2095800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1374600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1218200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1110800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>256200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>210700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>358100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>236100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>573900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>286900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>424000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>488500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64099000</v>
+        <v>23717700</v>
       </c>
       <c r="E46" s="3">
-        <v>34289900</v>
+        <v>63470400</v>
       </c>
       <c r="F46" s="3">
-        <v>22089500</v>
+        <v>33953600</v>
       </c>
       <c r="G46" s="3">
-        <v>21592700</v>
+        <v>21872900</v>
       </c>
       <c r="H46" s="3">
-        <v>20778800</v>
+        <v>21380900</v>
       </c>
       <c r="I46" s="3">
-        <v>21912000</v>
+        <v>20575100</v>
       </c>
       <c r="J46" s="3">
+        <v>21697200</v>
+      </c>
+      <c r="K46" s="3">
         <v>23950200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24252800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29953900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29314800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26581600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29703200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25030500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23331500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22357000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21452000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22034700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21231800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20747700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>23028900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21424600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>22105000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22004900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2044100</v>
+        <v>1909200</v>
       </c>
       <c r="E47" s="3">
-        <v>2057100</v>
+        <v>2024000</v>
       </c>
       <c r="F47" s="3">
-        <v>2618900</v>
+        <v>2036900</v>
       </c>
       <c r="G47" s="3">
-        <v>3333400</v>
+        <v>2593300</v>
       </c>
       <c r="H47" s="3">
-        <v>3826700</v>
+        <v>3300700</v>
       </c>
       <c r="I47" s="3">
-        <v>4441800</v>
+        <v>3789200</v>
       </c>
       <c r="J47" s="3">
+        <v>4398200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4050200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3625500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3342400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2916400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2933500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2725500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2319300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2186200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2057800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1987800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1640600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1484100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1436000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1455600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1647300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1744700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1643400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10827100</v>
+        <v>11303000</v>
       </c>
       <c r="E48" s="3">
-        <v>12661800</v>
+        <v>10720900</v>
       </c>
       <c r="F48" s="3">
-        <v>12623900</v>
+        <v>12537600</v>
       </c>
       <c r="G48" s="3">
-        <v>12618000</v>
+        <v>12500100</v>
       </c>
       <c r="H48" s="3">
-        <v>12525700</v>
+        <v>12494300</v>
       </c>
       <c r="I48" s="3">
-        <v>12577800</v>
+        <v>12402900</v>
       </c>
       <c r="J48" s="3">
+        <v>12454400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13019000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13669000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14901300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15177200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15429900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16556800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15665400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15034200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14605300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13452800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13992100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13782600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14164800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13868700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13906600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14237100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14231900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20437000</v>
+        <v>26686900</v>
       </c>
       <c r="E49" s="3">
-        <v>48703500</v>
+        <v>20236600</v>
       </c>
       <c r="F49" s="3">
-        <v>48062400</v>
+        <v>48225900</v>
       </c>
       <c r="G49" s="3">
-        <v>48289500</v>
+        <v>47591100</v>
       </c>
       <c r="H49" s="3">
-        <v>47041600</v>
+        <v>47816000</v>
       </c>
       <c r="I49" s="3">
-        <v>47150400</v>
+        <v>46580300</v>
       </c>
       <c r="J49" s="3">
+        <v>46688000</v>
+      </c>
+      <c r="K49" s="3">
         <v>47814000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50689300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55091000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56436000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56620500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>61558700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>37295800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35720100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30366300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28463500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29827700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29593700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30385200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30892600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31732600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32541800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>32578700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7924200</v>
+        <v>7027800</v>
       </c>
       <c r="E52" s="3">
-        <v>8380800</v>
+        <v>7846500</v>
       </c>
       <c r="F52" s="3">
-        <v>8176200</v>
+        <v>8298700</v>
       </c>
       <c r="G52" s="3">
-        <v>7247600</v>
+        <v>8096000</v>
       </c>
       <c r="H52" s="3">
-        <v>6923500</v>
+        <v>7176600</v>
       </c>
       <c r="I52" s="3">
-        <v>6277700</v>
+        <v>6855600</v>
       </c>
       <c r="J52" s="3">
+        <v>6216100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6308400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6486200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7047200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8476400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7117600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7256700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7067800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6760800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7306600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6820600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7016100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6510600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6804600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7425400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7242800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7371400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7338500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105331300</v>
+        <v>70644600</v>
       </c>
       <c r="E54" s="3">
-        <v>106093100</v>
+        <v>104298400</v>
       </c>
       <c r="F54" s="3">
-        <v>93570900</v>
+        <v>105052700</v>
       </c>
       <c r="G54" s="3">
-        <v>93081200</v>
+        <v>92653300</v>
       </c>
       <c r="H54" s="3">
-        <v>91096300</v>
+        <v>92168400</v>
       </c>
       <c r="I54" s="3">
-        <v>92359600</v>
+        <v>90203000</v>
       </c>
       <c r="J54" s="3">
+        <v>91453900</v>
+      </c>
+      <c r="K54" s="3">
         <v>95141800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98722800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110335900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112320900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108683200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117800800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>87378800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83032800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76693000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>72176700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74511100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>72602900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73538300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76671300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>75953900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>78000100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>77797300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17514000</v>
+        <v>18875500</v>
       </c>
       <c r="E57" s="3">
-        <v>20791800</v>
+        <v>17342300</v>
       </c>
       <c r="F57" s="3">
-        <v>20764600</v>
+        <v>20587900</v>
       </c>
       <c r="G57" s="3">
-        <v>18015600</v>
+        <v>20561000</v>
       </c>
       <c r="H57" s="3">
-        <v>16876400</v>
+        <v>17838900</v>
       </c>
       <c r="I57" s="3">
-        <v>17282200</v>
+        <v>16710900</v>
       </c>
       <c r="J57" s="3">
+        <v>17112700</v>
+      </c>
+      <c r="K57" s="3">
         <v>18737100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18471700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20140500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20379100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20373700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20854500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18380100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17872700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18539900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16125300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16218300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27262800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27351400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25877500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>25538400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15844900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15754100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3935500</v>
+        <v>3271400</v>
       </c>
       <c r="E58" s="3">
-        <v>4852300</v>
+        <v>3896900</v>
       </c>
       <c r="F58" s="3">
-        <v>4259600</v>
+        <v>4804700</v>
       </c>
       <c r="G58" s="3">
-        <v>5759500</v>
+        <v>4217900</v>
       </c>
       <c r="H58" s="3">
-        <v>5963000</v>
+        <v>5703100</v>
       </c>
       <c r="I58" s="3">
-        <v>3752200</v>
+        <v>5904500</v>
       </c>
       <c r="J58" s="3">
+        <v>3715400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4406300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5994600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7774600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9670400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9434700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11626500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13933800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11201100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7651300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3574100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4486100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4449900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3684700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6182400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8624100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4924800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5437000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23305500</v>
+        <v>2395300</v>
       </c>
       <c r="E59" s="3">
-        <v>3074400</v>
+        <v>23077000</v>
       </c>
       <c r="F59" s="3">
-        <v>2975000</v>
+        <v>3044200</v>
       </c>
       <c r="G59" s="3">
-        <v>2742000</v>
+        <v>2945800</v>
       </c>
       <c r="H59" s="3">
-        <v>2459200</v>
+        <v>2715100</v>
       </c>
       <c r="I59" s="3">
-        <v>2949000</v>
+        <v>2435100</v>
       </c>
       <c r="J59" s="3">
+        <v>2920100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3055400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2589800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3272000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3673800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2990800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3624100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3085600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3492300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3514600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2955800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2822200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3098900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3618200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3727700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3386000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3929300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3829200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44755000</v>
+        <v>24542200</v>
       </c>
       <c r="E60" s="3">
-        <v>28718400</v>
+        <v>44316100</v>
       </c>
       <c r="F60" s="3">
-        <v>27999200</v>
+        <v>28436800</v>
       </c>
       <c r="G60" s="3">
-        <v>26517100</v>
+        <v>27724700</v>
       </c>
       <c r="H60" s="3">
-        <v>25298700</v>
+        <v>26257000</v>
       </c>
       <c r="I60" s="3">
-        <v>23983300</v>
+        <v>25050600</v>
       </c>
       <c r="J60" s="3">
+        <v>23748100</v>
+      </c>
+      <c r="K60" s="3">
         <v>26198900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27056200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31187100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33723400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32799100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36105100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35399500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32566000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29705900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22655300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23526600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34811500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34654200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35787700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>37548500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24699000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>25020300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22219600</v>
+        <v>22631900</v>
       </c>
       <c r="E61" s="3">
-        <v>34571400</v>
+        <v>22001700</v>
       </c>
       <c r="F61" s="3">
-        <v>24334600</v>
+        <v>34232400</v>
       </c>
       <c r="G61" s="3">
-        <v>24528600</v>
+        <v>24096000</v>
       </c>
       <c r="H61" s="3">
-        <v>24180800</v>
+        <v>24288100</v>
       </c>
       <c r="I61" s="3">
-        <v>27262300</v>
+        <v>23943700</v>
       </c>
       <c r="J61" s="3">
+        <v>26995000</v>
+      </c>
+      <c r="K61" s="3">
         <v>27709400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28465100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33536200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32932700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32171800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35141400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32013200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31080200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26773700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30553500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31792800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18118700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18604700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18643800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15989500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19225100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19305500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11575900</v>
+        <v>13261500</v>
       </c>
       <c r="E62" s="3">
-        <v>16031800</v>
+        <v>11462300</v>
       </c>
       <c r="F62" s="3">
-        <v>15991600</v>
+        <v>15874600</v>
       </c>
       <c r="G62" s="3">
-        <v>16309800</v>
+        <v>15834800</v>
       </c>
       <c r="H62" s="3">
-        <v>16092200</v>
+        <v>16149900</v>
       </c>
       <c r="I62" s="3">
-        <v>16261300</v>
+        <v>15934400</v>
       </c>
       <c r="J62" s="3">
+        <v>16101900</v>
+      </c>
+      <c r="K62" s="3">
         <v>16619700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18041100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19362200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18913600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18677100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20997400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15891900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14898400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15363400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14382600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15283600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15031500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15728700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15941300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16645600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26711100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>26936300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85962500</v>
+        <v>59924900</v>
       </c>
       <c r="E66" s="3">
-        <v>86952600</v>
+        <v>85119500</v>
       </c>
       <c r="F66" s="3">
-        <v>75762400</v>
+        <v>86099900</v>
       </c>
       <c r="G66" s="3">
-        <v>74833800</v>
+        <v>75019400</v>
       </c>
       <c r="H66" s="3">
-        <v>72906900</v>
+        <v>74100000</v>
       </c>
       <c r="I66" s="3">
-        <v>74775800</v>
+        <v>72191900</v>
       </c>
       <c r="J66" s="3">
+        <v>74042600</v>
+      </c>
+      <c r="K66" s="3">
         <v>77886900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81295400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92616200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94891500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93129100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>101142200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82416100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77688500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>70934300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66664000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69754900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72692100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>73627000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>74983500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>74896100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>75743100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>76317200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13707400</v>
+        <v>5112700</v>
       </c>
       <c r="E72" s="3">
-        <v>13482700</v>
+        <v>13573000</v>
       </c>
       <c r="F72" s="3">
-        <v>12310400</v>
+        <v>13350500</v>
       </c>
       <c r="G72" s="3">
-        <v>12750500</v>
+        <v>12189700</v>
       </c>
       <c r="H72" s="3">
-        <v>12693700</v>
+        <v>12625400</v>
       </c>
       <c r="I72" s="3">
-        <v>12092800</v>
+        <v>12569200</v>
       </c>
       <c r="J72" s="3">
+        <v>11974200</v>
+      </c>
+      <c r="K72" s="3">
         <v>11781700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11784200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11691900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11278400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9389700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10276500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-641700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>102200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-912700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19368800</v>
+        <v>10719700</v>
       </c>
       <c r="E76" s="3">
-        <v>19140500</v>
+        <v>19178900</v>
       </c>
       <c r="F76" s="3">
-        <v>17808600</v>
+        <v>18952800</v>
       </c>
       <c r="G76" s="3">
-        <v>18247400</v>
+        <v>17633900</v>
       </c>
       <c r="H76" s="3">
-        <v>18189500</v>
+        <v>18068500</v>
       </c>
       <c r="I76" s="3">
-        <v>17583800</v>
+        <v>18011100</v>
       </c>
       <c r="J76" s="3">
+        <v>17411400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17255000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17427500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17719700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17429400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15554000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16658700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4962700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5344200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5758600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5512600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4756200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-89200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-88700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1687800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1057800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2257000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1480100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>991300</v>
+        <v>12082000</v>
       </c>
       <c r="E81" s="3">
-        <v>2131600</v>
+        <v>981500</v>
       </c>
       <c r="F81" s="3">
-        <v>886000</v>
+        <v>2110700</v>
       </c>
       <c r="G81" s="3">
-        <v>1381600</v>
+        <v>877300</v>
       </c>
       <c r="H81" s="3">
-        <v>1650100</v>
+        <v>1368100</v>
       </c>
       <c r="I81" s="3">
-        <v>1269300</v>
+        <v>1634000</v>
       </c>
       <c r="J81" s="3">
+        <v>1256800</v>
+      </c>
+      <c r="K81" s="3">
         <v>800800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1517600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2950000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2083200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1771600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2196300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1323800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1105100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1604800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1746400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>570100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>709800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-712200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1580800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-234800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1377400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>338400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,31 +6009,32 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>746400</v>
+        <v>1119800</v>
       </c>
       <c r="E83" s="3">
-        <v>832800</v>
+        <v>739100</v>
       </c>
       <c r="F83" s="3">
-        <v>432900</v>
+        <v>824600</v>
       </c>
       <c r="G83" s="3">
-        <v>1166300</v>
+        <v>428700</v>
       </c>
       <c r="H83" s="3">
-        <v>785400</v>
+        <v>1154900</v>
       </c>
       <c r="I83" s="3">
-        <v>427000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>24</v>
+        <v>777700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>422800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -5843,53 +6042,56 @@
       <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="3">
         <v>258200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-188200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>726000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1065600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1575000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>907400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>610900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>252100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>618000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-228300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>892100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1417800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>429300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>821700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1934000</v>
+        <v>1547300</v>
       </c>
       <c r="E89" s="3">
-        <v>3006900</v>
+        <v>1915100</v>
       </c>
       <c r="F89" s="3">
-        <v>4456000</v>
+        <v>2977400</v>
       </c>
       <c r="G89" s="3">
-        <v>3030600</v>
+        <v>4412300</v>
       </c>
       <c r="H89" s="3">
-        <v>1528300</v>
+        <v>3000900</v>
       </c>
       <c r="I89" s="3">
-        <v>391500</v>
+        <v>1513300</v>
       </c>
       <c r="J89" s="3">
+        <v>387700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4560100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1050300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3597900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1284500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4709200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3559000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1907400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>882700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5440300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2558000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1760800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1115700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3742100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2474300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1314700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1506400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3938500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246000</v>
+        <v>-322100</v>
       </c>
       <c r="E91" s="3">
-        <v>-262600</v>
+        <v>-243600</v>
       </c>
       <c r="F91" s="3">
-        <v>-535900</v>
+        <v>-260000</v>
       </c>
       <c r="G91" s="3">
-        <v>-434100</v>
+        <v>-698100</v>
       </c>
       <c r="H91" s="3">
-        <v>-178600</v>
+        <v>-262400</v>
       </c>
       <c r="I91" s="3">
-        <v>-237800</v>
+        <v>-176900</v>
       </c>
       <c r="J91" s="3">
+        <v>-235400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-608000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-356200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-290700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-262200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-654600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-401900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-383100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-295600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-663000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-370700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-365900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-333500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-696500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-485200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-494300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-547800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-644700</v>
+        <v>-4795300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4250200</v>
+        <v>-638400</v>
       </c>
       <c r="F94" s="3">
-        <v>-427000</v>
+        <v>-4208500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1399400</v>
+        <v>-422800</v>
       </c>
       <c r="H94" s="3">
-        <v>-218800</v>
+        <v>-1385600</v>
       </c>
       <c r="I94" s="3">
-        <v>-56800</v>
+        <v>-216700</v>
       </c>
       <c r="J94" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-683100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3690500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-504600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-662300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-774500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-545500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-624400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-338700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-479600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-436900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-602600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-583000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-229100</v>
       </c>
       <c r="AA94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,85 +6949,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1367400</v>
+        <v>-825800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1126100</v>
+        <v>-1354000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1124900</v>
+        <v>-1115100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1124900</v>
+        <v>-1113900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1361500</v>
+        <v>-1113900</v>
       </c>
       <c r="I96" s="3">
+        <v>-1348200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1108000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1119000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1154000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="Z96" s="3">
         <v>-1218000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7267,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5306500</v>
+        <v>-1553100</v>
       </c>
       <c r="E100" s="3">
-        <v>9431300</v>
+        <v>-5254500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3281400</v>
+        <v>9338800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1649000</v>
+        <v>-3249200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2419000</v>
+        <v>-1632800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1627700</v>
+        <v>-2395300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1611700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2572800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5216300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4874300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-365900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-846500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84000</v>
+        <v>26900</v>
       </c>
       <c r="E101" s="3">
-        <v>14200</v>
+        <v>83200</v>
       </c>
       <c r="F101" s="3">
-        <v>-9500</v>
+        <v>14100</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>-9400</v>
       </c>
       <c r="H101" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-41400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>55900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-139100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>74200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-53300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>52800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-67200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-30000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-40400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-74300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>14500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>105300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3933100</v>
+        <v>-4774200</v>
       </c>
       <c r="E102" s="3">
-        <v>8202200</v>
+        <v>-3894600</v>
       </c>
       <c r="F102" s="3">
-        <v>738100</v>
+        <v>8121800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2400</v>
+        <v>730900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1108400</v>
+        <v>-2300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1334300</v>
+        <v>-1097500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1321200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1899700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4904000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3843000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-137100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>302800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>287300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>442000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>660400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-120700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-93100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>203000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-973000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>984800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-601300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-728200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1256200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -779,25 +779,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9170100</v>
+        <v>26173200</v>
       </c>
       <c r="E8" s="3">
-        <v>8115900</v>
+        <v>8262900</v>
       </c>
       <c r="F8" s="3">
-        <v>8421600</v>
+        <v>8574100</v>
       </c>
       <c r="G8" s="3">
-        <v>11159000</v>
+        <v>8438200</v>
       </c>
       <c r="H8" s="3">
-        <v>7762200</v>
+        <v>21012000</v>
       </c>
       <c r="I8" s="3">
-        <v>6838000</v>
+        <v>6961900</v>
       </c>
       <c r="J8" s="3">
-        <v>6038100</v>
+        <v>6147400</v>
       </c>
       <c r="K8" s="3">
         <v>10337400</v>
@@ -859,25 +859,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2794700</v>
+        <v>8600400</v>
       </c>
       <c r="E9" s="3">
-        <v>2501900</v>
+        <v>2547200</v>
       </c>
       <c r="F9" s="3">
-        <v>3150800</v>
+        <v>3207900</v>
       </c>
       <c r="G9" s="3">
-        <v>4304500</v>
+        <v>3292500</v>
       </c>
       <c r="H9" s="3">
-        <v>2298100</v>
+        <v>6254700</v>
       </c>
       <c r="I9" s="3">
-        <v>1971300</v>
+        <v>2007000</v>
       </c>
       <c r="J9" s="3">
-        <v>1874100</v>
+        <v>1908000</v>
       </c>
       <c r="K9" s="3">
         <v>3503700</v>
@@ -939,25 +939,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6375400</v>
+        <v>17572800</v>
       </c>
       <c r="E10" s="3">
-        <v>5614000</v>
+        <v>5715700</v>
       </c>
       <c r="F10" s="3">
-        <v>5270900</v>
+        <v>5366300</v>
       </c>
       <c r="G10" s="3">
-        <v>6854400</v>
+        <v>5145700</v>
       </c>
       <c r="H10" s="3">
-        <v>5464100</v>
+        <v>14757300</v>
       </c>
       <c r="I10" s="3">
-        <v>4866800</v>
+        <v>4954900</v>
       </c>
       <c r="J10" s="3">
-        <v>4164000</v>
+        <v>4239400</v>
       </c>
       <c r="K10" s="3">
         <v>6833600</v>
@@ -1049,25 +1049,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1519200</v>
+        <v>4221500</v>
       </c>
       <c r="E12" s="3">
-        <v>1352900</v>
+        <v>1377300</v>
       </c>
       <c r="F12" s="3">
-        <v>1274400</v>
+        <v>1297500</v>
       </c>
       <c r="G12" s="3">
-        <v>1596500</v>
+        <v>1532400</v>
       </c>
       <c r="H12" s="3">
-        <v>1302500</v>
+        <v>3863700</v>
       </c>
       <c r="I12" s="3">
-        <v>1295500</v>
+        <v>1318900</v>
       </c>
       <c r="J12" s="3">
-        <v>1197100</v>
+        <v>1218700</v>
       </c>
       <c r="K12" s="3">
         <v>1534200</v>
@@ -1209,25 +1209,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1424300</v>
+        <v>1687400</v>
       </c>
       <c r="E14" s="3">
-        <v>860900</v>
+        <v>876500</v>
       </c>
       <c r="F14" s="3">
-        <v>-465000</v>
+        <v>-473400</v>
       </c>
       <c r="G14" s="3">
-        <v>932400</v>
+        <v>909900</v>
       </c>
       <c r="H14" s="3">
-        <v>835100</v>
+        <v>1018400</v>
       </c>
       <c r="I14" s="3">
-        <v>332600</v>
+        <v>338700</v>
       </c>
       <c r="J14" s="3">
-        <v>-48000</v>
+        <v>-48900</v>
       </c>
       <c r="K14" s="3">
         <v>662400</v>
@@ -1289,25 +1289,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>30500</v>
+        <v>89400</v>
       </c>
       <c r="E15" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="F15" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="G15" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="H15" s="3">
-        <v>30500</v>
+        <v>90600</v>
       </c>
       <c r="I15" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="J15" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="K15" s="3">
         <v>30800</v>
@@ -1396,25 +1396,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7775100</v>
+        <v>20729400</v>
       </c>
       <c r="E17" s="3">
-        <v>6849800</v>
+        <v>6973800</v>
       </c>
       <c r="F17" s="3">
-        <v>5735900</v>
+        <v>5839700</v>
       </c>
       <c r="G17" s="3">
-        <v>10110700</v>
+        <v>7851500</v>
       </c>
       <c r="H17" s="3">
-        <v>6145800</v>
+        <v>16445900</v>
       </c>
       <c r="I17" s="3">
-        <v>5386800</v>
+        <v>5484400</v>
       </c>
       <c r="J17" s="3">
-        <v>4620800</v>
+        <v>4704500</v>
       </c>
       <c r="K17" s="3">
         <v>9082300</v>
@@ -1476,25 +1476,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1395000</v>
+        <v>5443800</v>
       </c>
       <c r="E18" s="3">
-        <v>1266200</v>
+        <v>1289100</v>
       </c>
       <c r="F18" s="3">
-        <v>2685800</v>
+        <v>2734400</v>
       </c>
       <c r="G18" s="3">
-        <v>1048300</v>
+        <v>586700</v>
       </c>
       <c r="H18" s="3">
-        <v>1616400</v>
+        <v>4566100</v>
       </c>
       <c r="I18" s="3">
-        <v>1451200</v>
+        <v>1477500</v>
       </c>
       <c r="J18" s="3">
-        <v>1417300</v>
+        <v>1442900</v>
       </c>
       <c r="K18" s="3">
         <v>1255100</v>
@@ -1586,25 +1586,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-209700</v>
+        <v>-671400</v>
       </c>
       <c r="E20" s="3">
-        <v>-216700</v>
+        <v>-220600</v>
       </c>
       <c r="F20" s="3">
-        <v>-233100</v>
+        <v>-237300</v>
       </c>
       <c r="G20" s="3">
-        <v>-221400</v>
+        <v>-225400</v>
       </c>
       <c r="H20" s="3">
-        <v>-220200</v>
+        <v>-635600</v>
       </c>
       <c r="I20" s="3">
-        <v>-197900</v>
+        <v>-201500</v>
       </c>
       <c r="J20" s="3">
-        <v>-206100</v>
+        <v>-209900</v>
       </c>
       <c r="K20" s="3">
         <v>-283900</v>
@@ -1666,25 +1666,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2305100</v>
+        <v>7504500</v>
       </c>
       <c r="E21" s="3">
-        <v>1788600</v>
+        <v>1821000</v>
       </c>
       <c r="F21" s="3">
-        <v>3277300</v>
+        <v>3336600</v>
       </c>
       <c r="G21" s="3">
-        <v>1485200</v>
+        <v>1031500</v>
       </c>
       <c r="H21" s="3">
-        <v>2460900</v>
+        <v>6094900</v>
       </c>
       <c r="I21" s="3">
-        <v>1891600</v>
+        <v>1925900</v>
       </c>
       <c r="J21" s="3">
-        <v>1634000</v>
+        <v>1663600</v>
       </c>
       <c r="K21" s="3">
         <v>3522700</v>
@@ -1826,25 +1826,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1185400</v>
+        <v>4772400</v>
       </c>
       <c r="E23" s="3">
-        <v>1049500</v>
+        <v>1068500</v>
       </c>
       <c r="F23" s="3">
-        <v>2452700</v>
+        <v>2497100</v>
       </c>
       <c r="G23" s="3">
-        <v>826900</v>
+        <v>361300</v>
       </c>
       <c r="H23" s="3">
-        <v>1396200</v>
+        <v>3930500</v>
       </c>
       <c r="I23" s="3">
-        <v>1253300</v>
+        <v>1276000</v>
       </c>
       <c r="J23" s="3">
-        <v>1211100</v>
+        <v>1233100</v>
       </c>
       <c r="K23" s="3">
         <v>971200</v>
@@ -1906,25 +1906,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>272900</v>
+        <v>841900</v>
       </c>
       <c r="E24" s="3">
-        <v>175700</v>
+        <v>178900</v>
       </c>
       <c r="F24" s="3">
-        <v>378300</v>
+        <v>385200</v>
       </c>
       <c r="G24" s="3">
-        <v>-262400</v>
+        <v>-139500</v>
       </c>
       <c r="H24" s="3">
-        <v>288100</v>
+        <v>238500</v>
       </c>
       <c r="I24" s="3">
-        <v>-235400</v>
+        <v>-239700</v>
       </c>
       <c r="J24" s="3">
-        <v>181600</v>
+        <v>184800</v>
       </c>
       <c r="K24" s="3">
         <v>-21300</v>
@@ -2066,25 +2066,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>912400</v>
+        <v>3930500</v>
       </c>
       <c r="E26" s="3">
-        <v>873800</v>
+        <v>889600</v>
       </c>
       <c r="F26" s="3">
-        <v>2074400</v>
+        <v>2111900</v>
       </c>
       <c r="G26" s="3">
-        <v>1089300</v>
+        <v>500900</v>
       </c>
       <c r="H26" s="3">
-        <v>1108000</v>
+        <v>3692000</v>
       </c>
       <c r="I26" s="3">
-        <v>1488700</v>
+        <v>1515700</v>
       </c>
       <c r="J26" s="3">
-        <v>1029600</v>
+        <v>1048200</v>
       </c>
       <c r="K26" s="3">
         <v>992500</v>
@@ -2146,25 +2146,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>867900</v>
+        <v>3531000</v>
       </c>
       <c r="E27" s="3">
-        <v>713300</v>
+        <v>726200</v>
       </c>
       <c r="F27" s="3">
-        <v>1646800</v>
+        <v>1676700</v>
       </c>
       <c r="G27" s="3">
-        <v>877300</v>
+        <v>508000</v>
       </c>
       <c r="H27" s="3">
-        <v>873800</v>
+        <v>3446400</v>
       </c>
       <c r="I27" s="3">
-        <v>1321200</v>
+        <v>1345200</v>
       </c>
       <c r="J27" s="3">
-        <v>810500</v>
+        <v>825200</v>
       </c>
       <c r="K27" s="3">
         <v>800800</v>
@@ -2306,25 +2306,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>11214000</v>
+        <v>12521400</v>
       </c>
       <c r="E29" s="3">
-        <v>268200</v>
+        <v>273100</v>
       </c>
       <c r="F29" s="3">
-        <v>463800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>472200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>385200</v>
       </c>
       <c r="H29" s="3">
-        <v>494300</v>
+        <v>889600</v>
       </c>
       <c r="I29" s="3">
-        <v>312700</v>
+        <v>318400</v>
       </c>
       <c r="J29" s="3">
-        <v>446300</v>
+        <v>454300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2546,25 +2546,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>209700</v>
+        <v>671400</v>
       </c>
       <c r="E32" s="3">
-        <v>216700</v>
+        <v>220600</v>
       </c>
       <c r="F32" s="3">
-        <v>233100</v>
+        <v>237300</v>
       </c>
       <c r="G32" s="3">
-        <v>221400</v>
+        <v>225400</v>
       </c>
       <c r="H32" s="3">
-        <v>220200</v>
+        <v>635600</v>
       </c>
       <c r="I32" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="J32" s="3">
-        <v>206100</v>
+        <v>209900</v>
       </c>
       <c r="K32" s="3">
         <v>283900</v>
@@ -2626,25 +2626,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12082000</v>
+        <v>16052400</v>
       </c>
       <c r="E33" s="3">
-        <v>981500</v>
+        <v>999300</v>
       </c>
       <c r="F33" s="3">
-        <v>2110700</v>
+        <v>2148900</v>
       </c>
       <c r="G33" s="3">
-        <v>877300</v>
+        <v>893200</v>
       </c>
       <c r="H33" s="3">
-        <v>1368100</v>
+        <v>4336000</v>
       </c>
       <c r="I33" s="3">
-        <v>1634000</v>
+        <v>1663600</v>
       </c>
       <c r="J33" s="3">
-        <v>1256800</v>
+        <v>1279600</v>
       </c>
       <c r="K33" s="3">
         <v>800800</v>
@@ -2786,25 +2786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12082000</v>
+        <v>16052400</v>
       </c>
       <c r="E35" s="3">
-        <v>981500</v>
+        <v>999300</v>
       </c>
       <c r="F35" s="3">
-        <v>2110700</v>
+        <v>2148900</v>
       </c>
       <c r="G35" s="3">
-        <v>877300</v>
+        <v>893200</v>
       </c>
       <c r="H35" s="3">
-        <v>1368100</v>
+        <v>4336000</v>
       </c>
       <c r="I35" s="3">
-        <v>1634000</v>
+        <v>1663600</v>
       </c>
       <c r="J35" s="3">
-        <v>1256800</v>
+        <v>1279600</v>
       </c>
       <c r="K35" s="3">
         <v>800800</v>
@@ -3011,25 +3011,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4223700</v>
+        <v>4300200</v>
       </c>
       <c r="E41" s="3">
-        <v>7572500</v>
+        <v>7709600</v>
       </c>
       <c r="F41" s="3">
-        <v>12845600</v>
+        <v>13078300</v>
       </c>
       <c r="G41" s="3">
-        <v>5006100</v>
+        <v>5096800</v>
       </c>
       <c r="H41" s="3">
-        <v>4044500</v>
+        <v>4117700</v>
       </c>
       <c r="I41" s="3">
-        <v>4103100</v>
+        <v>4177400</v>
       </c>
       <c r="J41" s="3">
-        <v>5571900</v>
+        <v>5672800</v>
       </c>
       <c r="K41" s="3">
         <v>7442800</v>
@@ -3091,25 +3091,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4164000</v>
+        <v>4239400</v>
       </c>
       <c r="E42" s="3">
-        <v>78500</v>
+        <v>79900</v>
       </c>
       <c r="F42" s="3">
-        <v>3525600</v>
+        <v>3589500</v>
       </c>
       <c r="G42" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="H42" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="I42" s="3">
-        <v>69100</v>
+        <v>70400</v>
       </c>
       <c r="J42" s="3">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="K42" s="3">
         <v>92300</v>
@@ -3171,25 +3171,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9480500</v>
+        <v>9652200</v>
       </c>
       <c r="E43" s="3">
-        <v>8046800</v>
+        <v>8192500</v>
       </c>
       <c r="F43" s="3">
-        <v>10303900</v>
+        <v>10490500</v>
       </c>
       <c r="G43" s="3">
-        <v>9775700</v>
+        <v>9952700</v>
       </c>
       <c r="H43" s="3">
-        <v>9703000</v>
+        <v>9878800</v>
       </c>
       <c r="I43" s="3">
-        <v>8792900</v>
+        <v>8952200</v>
       </c>
       <c r="J43" s="3">
-        <v>8413400</v>
+        <v>8565800</v>
       </c>
       <c r="K43" s="3">
         <v>9017200</v>
@@ -3251,25 +3251,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5457100</v>
+        <v>5555900</v>
       </c>
       <c r="E44" s="3">
-        <v>5462900</v>
+        <v>5561900</v>
       </c>
       <c r="F44" s="3">
-        <v>7031300</v>
+        <v>7158600</v>
       </c>
       <c r="G44" s="3">
-        <v>6773600</v>
+        <v>6896300</v>
       </c>
       <c r="H44" s="3">
-        <v>7313600</v>
+        <v>7446000</v>
       </c>
       <c r="I44" s="3">
-        <v>7414300</v>
+        <v>7548600</v>
       </c>
       <c r="J44" s="3">
-        <v>7280800</v>
+        <v>7412600</v>
       </c>
       <c r="K44" s="3">
         <v>7092700</v>
@@ -3331,25 +3331,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>392400</v>
+        <v>399500</v>
       </c>
       <c r="E45" s="3">
-        <v>42309700</v>
+        <v>43075800</v>
       </c>
       <c r="F45" s="3">
-        <v>247100</v>
+        <v>251600</v>
       </c>
       <c r="G45" s="3">
-        <v>246000</v>
+        <v>250400</v>
       </c>
       <c r="H45" s="3">
-        <v>248300</v>
+        <v>252800</v>
       </c>
       <c r="I45" s="3">
-        <v>195600</v>
+        <v>199100</v>
       </c>
       <c r="J45" s="3">
-        <v>360800</v>
+        <v>367300</v>
       </c>
       <c r="K45" s="3">
         <v>305200</v>
@@ -3411,25 +3411,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23717700</v>
+        <v>24147100</v>
       </c>
       <c r="E46" s="3">
-        <v>63470400</v>
+        <v>64619700</v>
       </c>
       <c r="F46" s="3">
-        <v>33953600</v>
+        <v>34568500</v>
       </c>
       <c r="G46" s="3">
-        <v>21872900</v>
+        <v>22268900</v>
       </c>
       <c r="H46" s="3">
-        <v>21380900</v>
+        <v>21768100</v>
       </c>
       <c r="I46" s="3">
-        <v>20575100</v>
+        <v>20947600</v>
       </c>
       <c r="J46" s="3">
-        <v>21697200</v>
+        <v>22090100</v>
       </c>
       <c r="K46" s="3">
         <v>23950200</v>
@@ -3491,25 +3491,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1909200</v>
+        <v>1943800</v>
       </c>
       <c r="E47" s="3">
-        <v>2024000</v>
+        <v>2060700</v>
       </c>
       <c r="F47" s="3">
-        <v>2036900</v>
+        <v>2073800</v>
       </c>
       <c r="G47" s="3">
-        <v>2593300</v>
+        <v>2640200</v>
       </c>
       <c r="H47" s="3">
-        <v>3300700</v>
+        <v>3360500</v>
       </c>
       <c r="I47" s="3">
-        <v>3789200</v>
+        <v>3857800</v>
       </c>
       <c r="J47" s="3">
-        <v>4398200</v>
+        <v>4477900</v>
       </c>
       <c r="K47" s="3">
         <v>4050200</v>
@@ -3571,25 +3571,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11303000</v>
+        <v>11507700</v>
       </c>
       <c r="E48" s="3">
-        <v>10720900</v>
+        <v>10915000</v>
       </c>
       <c r="F48" s="3">
-        <v>12537600</v>
+        <v>12764600</v>
       </c>
       <c r="G48" s="3">
-        <v>12500100</v>
+        <v>12726500</v>
       </c>
       <c r="H48" s="3">
-        <v>12494300</v>
+        <v>12720500</v>
       </c>
       <c r="I48" s="3">
-        <v>12402900</v>
+        <v>12627500</v>
       </c>
       <c r="J48" s="3">
-        <v>12454400</v>
+        <v>12680000</v>
       </c>
       <c r="K48" s="3">
         <v>13019000</v>
@@ -3651,25 +3651,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26686900</v>
+        <v>27170100</v>
       </c>
       <c r="E49" s="3">
-        <v>20236600</v>
+        <v>20603000</v>
       </c>
       <c r="F49" s="3">
-        <v>48225900</v>
+        <v>49099200</v>
       </c>
       <c r="G49" s="3">
-        <v>47591100</v>
+        <v>48452900</v>
       </c>
       <c r="H49" s="3">
-        <v>47816000</v>
+        <v>48681800</v>
       </c>
       <c r="I49" s="3">
-        <v>46580300</v>
+        <v>47423700</v>
       </c>
       <c r="J49" s="3">
-        <v>46688000</v>
+        <v>47533400</v>
       </c>
       <c r="K49" s="3">
         <v>47814000</v>
@@ -3891,25 +3891,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7027800</v>
+        <v>7155100</v>
       </c>
       <c r="E52" s="3">
-        <v>7846500</v>
+        <v>7988600</v>
       </c>
       <c r="F52" s="3">
-        <v>8298700</v>
+        <v>8448900</v>
       </c>
       <c r="G52" s="3">
-        <v>8096000</v>
+        <v>8242600</v>
       </c>
       <c r="H52" s="3">
-        <v>7176600</v>
+        <v>7306500</v>
       </c>
       <c r="I52" s="3">
-        <v>6855600</v>
+        <v>6979800</v>
       </c>
       <c r="J52" s="3">
-        <v>6216100</v>
+        <v>6328700</v>
       </c>
       <c r="K52" s="3">
         <v>6308400</v>
@@ -4051,25 +4051,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70644600</v>
+        <v>71923900</v>
       </c>
       <c r="E54" s="3">
-        <v>104298400</v>
+        <v>106187100</v>
       </c>
       <c r="F54" s="3">
-        <v>105052700</v>
+        <v>106955000</v>
       </c>
       <c r="G54" s="3">
-        <v>92653300</v>
+        <v>94331100</v>
       </c>
       <c r="H54" s="3">
-        <v>92168400</v>
+        <v>93837400</v>
       </c>
       <c r="I54" s="3">
-        <v>90203000</v>
+        <v>91836400</v>
       </c>
       <c r="J54" s="3">
-        <v>91453900</v>
+        <v>93110000</v>
       </c>
       <c r="K54" s="3">
         <v>95141800</v>
@@ -4191,25 +4191,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18875500</v>
+        <v>19217300</v>
       </c>
       <c r="E57" s="3">
-        <v>17342300</v>
+        <v>17656300</v>
       </c>
       <c r="F57" s="3">
-        <v>20587900</v>
+        <v>20960700</v>
       </c>
       <c r="G57" s="3">
-        <v>20561000</v>
+        <v>20933300</v>
       </c>
       <c r="H57" s="3">
-        <v>17838900</v>
+        <v>18161900</v>
       </c>
       <c r="I57" s="3">
-        <v>16710900</v>
+        <v>17013500</v>
       </c>
       <c r="J57" s="3">
-        <v>17112700</v>
+        <v>17422600</v>
       </c>
       <c r="K57" s="3">
         <v>18737100</v>
@@ -4271,25 +4271,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3271400</v>
+        <v>3330700</v>
       </c>
       <c r="E58" s="3">
-        <v>3896900</v>
+        <v>3967500</v>
       </c>
       <c r="F58" s="3">
-        <v>4804700</v>
+        <v>4891700</v>
       </c>
       <c r="G58" s="3">
-        <v>4217900</v>
+        <v>4294200</v>
       </c>
       <c r="H58" s="3">
-        <v>5703100</v>
+        <v>5806300</v>
       </c>
       <c r="I58" s="3">
-        <v>5904500</v>
+        <v>6011400</v>
       </c>
       <c r="J58" s="3">
-        <v>3715400</v>
+        <v>3782600</v>
       </c>
       <c r="K58" s="3">
         <v>4406300</v>
@@ -4351,25 +4351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2395300</v>
+        <v>2438700</v>
       </c>
       <c r="E59" s="3">
-        <v>23077000</v>
+        <v>23494800</v>
       </c>
       <c r="F59" s="3">
-        <v>3044200</v>
+        <v>3099300</v>
       </c>
       <c r="G59" s="3">
-        <v>2945800</v>
+        <v>2999200</v>
       </c>
       <c r="H59" s="3">
-        <v>2715100</v>
+        <v>2764200</v>
       </c>
       <c r="I59" s="3">
-        <v>2435100</v>
+        <v>2479200</v>
       </c>
       <c r="J59" s="3">
-        <v>2920100</v>
+        <v>2972900</v>
       </c>
       <c r="K59" s="3">
         <v>3055400</v>
@@ -4431,25 +4431,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24542200</v>
+        <v>24986700</v>
       </c>
       <c r="E60" s="3">
-        <v>44316100</v>
+        <v>45118600</v>
       </c>
       <c r="F60" s="3">
-        <v>28436800</v>
+        <v>28951800</v>
       </c>
       <c r="G60" s="3">
-        <v>27724700</v>
+        <v>28226700</v>
       </c>
       <c r="H60" s="3">
-        <v>26257000</v>
+        <v>26732500</v>
       </c>
       <c r="I60" s="3">
-        <v>25050600</v>
+        <v>25504200</v>
       </c>
       <c r="J60" s="3">
-        <v>23748100</v>
+        <v>24178100</v>
       </c>
       <c r="K60" s="3">
         <v>26198900</v>
@@ -4511,25 +4511,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22631900</v>
+        <v>23041700</v>
       </c>
       <c r="E61" s="3">
-        <v>22001700</v>
+        <v>22400100</v>
       </c>
       <c r="F61" s="3">
-        <v>34232400</v>
+        <v>34852300</v>
       </c>
       <c r="G61" s="3">
-        <v>24096000</v>
+        <v>24532300</v>
       </c>
       <c r="H61" s="3">
-        <v>24288100</v>
+        <v>24727900</v>
       </c>
       <c r="I61" s="3">
-        <v>23943700</v>
+        <v>24377300</v>
       </c>
       <c r="J61" s="3">
-        <v>26995000</v>
+        <v>27483800</v>
       </c>
       <c r="K61" s="3">
         <v>27709400</v>
@@ -4591,25 +4591,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13261500</v>
+        <v>13501600</v>
       </c>
       <c r="E62" s="3">
-        <v>11462300</v>
+        <v>11669900</v>
       </c>
       <c r="F62" s="3">
-        <v>15874600</v>
+        <v>16162100</v>
       </c>
       <c r="G62" s="3">
-        <v>15834800</v>
+        <v>16121500</v>
       </c>
       <c r="H62" s="3">
-        <v>16149900</v>
+        <v>16442300</v>
       </c>
       <c r="I62" s="3">
-        <v>15934400</v>
+        <v>16222900</v>
       </c>
       <c r="J62" s="3">
-        <v>16101900</v>
+        <v>16393400</v>
       </c>
       <c r="K62" s="3">
         <v>16619700</v>
@@ -4911,25 +4911,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59924900</v>
+        <v>61010000</v>
       </c>
       <c r="E66" s="3">
-        <v>85119500</v>
+        <v>86660900</v>
       </c>
       <c r="F66" s="3">
-        <v>86099900</v>
+        <v>87659000</v>
       </c>
       <c r="G66" s="3">
-        <v>75019400</v>
+        <v>76377900</v>
       </c>
       <c r="H66" s="3">
-        <v>74100000</v>
+        <v>75441800</v>
       </c>
       <c r="I66" s="3">
-        <v>72191900</v>
+        <v>73499200</v>
       </c>
       <c r="J66" s="3">
-        <v>74042600</v>
+        <v>75383300</v>
       </c>
       <c r="K66" s="3">
         <v>77886900</v>
@@ -5341,25 +5341,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5112700</v>
+        <v>5205300</v>
       </c>
       <c r="E72" s="3">
-        <v>13573000</v>
+        <v>13818800</v>
       </c>
       <c r="F72" s="3">
-        <v>13350500</v>
+        <v>13592200</v>
       </c>
       <c r="G72" s="3">
-        <v>12189700</v>
+        <v>12410500</v>
       </c>
       <c r="H72" s="3">
-        <v>12625400</v>
+        <v>12854100</v>
       </c>
       <c r="I72" s="3">
-        <v>12569200</v>
+        <v>12796800</v>
       </c>
       <c r="J72" s="3">
-        <v>11974200</v>
+        <v>12191000</v>
       </c>
       <c r="K72" s="3">
         <v>11781700</v>
@@ -5661,25 +5661,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10719700</v>
+        <v>10913900</v>
       </c>
       <c r="E76" s="3">
-        <v>19178900</v>
+        <v>19526200</v>
       </c>
       <c r="F76" s="3">
-        <v>18952800</v>
+        <v>19296000</v>
       </c>
       <c r="G76" s="3">
-        <v>17633900</v>
+        <v>17953200</v>
       </c>
       <c r="H76" s="3">
-        <v>18068500</v>
+        <v>18395700</v>
       </c>
       <c r="I76" s="3">
-        <v>18011100</v>
+        <v>18337200</v>
       </c>
       <c r="J76" s="3">
-        <v>17411400</v>
+        <v>17726700</v>
       </c>
       <c r="K76" s="3">
         <v>17255000</v>
@@ -5906,25 +5906,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12082000</v>
+        <v>16052400</v>
       </c>
       <c r="E81" s="3">
-        <v>981500</v>
+        <v>999300</v>
       </c>
       <c r="F81" s="3">
-        <v>2110700</v>
+        <v>2148900</v>
       </c>
       <c r="G81" s="3">
-        <v>877300</v>
+        <v>893200</v>
       </c>
       <c r="H81" s="3">
-        <v>1368100</v>
+        <v>4336000</v>
       </c>
       <c r="I81" s="3">
-        <v>1634000</v>
+        <v>1663600</v>
       </c>
       <c r="J81" s="3">
-        <v>1256800</v>
+        <v>1279600</v>
       </c>
       <c r="K81" s="3">
         <v>800800</v>
@@ -6016,25 +6016,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1119800</v>
+        <v>2732000</v>
       </c>
       <c r="E83" s="3">
-        <v>739100</v>
+        <v>752500</v>
       </c>
       <c r="F83" s="3">
-        <v>824600</v>
+        <v>839500</v>
       </c>
       <c r="G83" s="3">
-        <v>428700</v>
+        <v>436500</v>
       </c>
       <c r="H83" s="3">
-        <v>1154900</v>
+        <v>2398100</v>
       </c>
       <c r="I83" s="3">
-        <v>777700</v>
+        <v>791800</v>
       </c>
       <c r="J83" s="3">
-        <v>422800</v>
+        <v>430500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -6496,25 +6496,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1547300</v>
+        <v>6556400</v>
       </c>
       <c r="E89" s="3">
-        <v>1915100</v>
+        <v>1949800</v>
       </c>
       <c r="F89" s="3">
-        <v>2977400</v>
+        <v>3031400</v>
       </c>
       <c r="G89" s="3">
-        <v>4412300</v>
+        <v>4492200</v>
       </c>
       <c r="H89" s="3">
-        <v>3000900</v>
+        <v>4990700</v>
       </c>
       <c r="I89" s="3">
-        <v>1513300</v>
+        <v>1540700</v>
       </c>
       <c r="J89" s="3">
-        <v>387700</v>
+        <v>394700</v>
       </c>
       <c r="K89" s="3">
         <v>4560100</v>
@@ -6606,25 +6606,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-322100</v>
+        <v>-840700</v>
       </c>
       <c r="E91" s="3">
-        <v>-243600</v>
+        <v>-248000</v>
       </c>
       <c r="F91" s="3">
-        <v>-260000</v>
+        <v>-264700</v>
       </c>
       <c r="G91" s="3">
-        <v>-698100</v>
+        <v>-710700</v>
       </c>
       <c r="H91" s="3">
-        <v>-262400</v>
+        <v>-686900</v>
       </c>
       <c r="I91" s="3">
-        <v>-176900</v>
+        <v>-180100</v>
       </c>
       <c r="J91" s="3">
-        <v>-235400</v>
+        <v>-239700</v>
       </c>
       <c r="K91" s="3">
         <v>-608000</v>
@@ -6846,25 +6846,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4795300</v>
+        <v>-9816700</v>
       </c>
       <c r="E94" s="3">
-        <v>-638400</v>
+        <v>-649900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4208500</v>
+        <v>-4284700</v>
       </c>
       <c r="G94" s="3">
-        <v>-422800</v>
+        <v>-430500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1385600</v>
+        <v>-1688600</v>
       </c>
       <c r="I94" s="3">
-        <v>-216700</v>
+        <v>-220600</v>
       </c>
       <c r="J94" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="K94" s="3">
         <v>-61500</v>
@@ -6956,25 +6956,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-825800</v>
+        <v>-3354500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1354000</v>
+        <v>-1378500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1115100</v>
+        <v>-1135300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1113900</v>
+        <v>-1134100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1113900</v>
+        <v>-3634800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1348200</v>
+        <v>-1372600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1108000</v>
+        <v>-1128100</v>
       </c>
       <c r="K96" s="3">
         <v>-1119000</v>
@@ -7276,25 +7276,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1553100</v>
+        <v>2577000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5254500</v>
+        <v>-5349600</v>
       </c>
       <c r="F100" s="3">
-        <v>9338800</v>
+        <v>9507900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3249200</v>
+        <v>-3308000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1632800</v>
+        <v>-5741900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2395300</v>
+        <v>-2438700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1611700</v>
+        <v>-1640900</v>
       </c>
       <c r="K100" s="3">
         <v>-2572800</v>
@@ -7356,25 +7356,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26900</v>
+        <v>126400</v>
       </c>
       <c r="E101" s="3">
-        <v>83200</v>
+        <v>84700</v>
       </c>
       <c r="F101" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="H101" s="3">
-        <v>15200</v>
+        <v>-25000</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="K101" s="3">
         <v>-26000</v>
@@ -7436,25 +7436,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4774200</v>
+        <v>-556900</v>
       </c>
       <c r="E102" s="3">
-        <v>-3894600</v>
+        <v>-3965100</v>
       </c>
       <c r="F102" s="3">
-        <v>8121800</v>
+        <v>8268900</v>
       </c>
       <c r="G102" s="3">
-        <v>730900</v>
+        <v>744100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2300</v>
+        <v>-2464900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1097500</v>
+        <v>-1117400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1321200</v>
+        <v>-1345200</v>
       </c>
       <c r="K102" s="3">
         <v>1899700</v>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,381 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26173200</v>
+        <v>8624800</v>
       </c>
       <c r="E8" s="3">
-        <v>8262900</v>
+        <v>9152100</v>
       </c>
       <c r="F8" s="3">
-        <v>8574100</v>
+        <v>9714200</v>
       </c>
       <c r="G8" s="3">
-        <v>8438200</v>
+        <v>8597500</v>
       </c>
       <c r="H8" s="3">
-        <v>21012000</v>
+        <v>8921400</v>
       </c>
       <c r="I8" s="3">
+        <v>8779900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8222800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6961900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6147400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10337400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10547300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9938600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12099700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12136400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13280800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10723200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10199900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>10826500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>9966100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>9450400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>9336700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>9963600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>10229700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>9547500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>9723200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>9989200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8600400</v>
+        <v>2361200</v>
       </c>
       <c r="E9" s="3">
-        <v>2547200</v>
+        <v>2701200</v>
       </c>
       <c r="F9" s="3">
-        <v>3207900</v>
+        <v>2960500</v>
       </c>
       <c r="G9" s="3">
-        <v>3292500</v>
+        <v>2650300</v>
       </c>
       <c r="H9" s="3">
-        <v>6254700</v>
+        <v>3337800</v>
       </c>
       <c r="I9" s="3">
+        <v>3425800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2434400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2007000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1908000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3503700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3315700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3166400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3701800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4106400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4211400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3338200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3160700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3523900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3104900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2853200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2996700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3122500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3183800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2778200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3097100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3066800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17572800</v>
+        <v>6263600</v>
       </c>
       <c r="E10" s="3">
-        <v>5715700</v>
+        <v>6450900</v>
       </c>
       <c r="F10" s="3">
-        <v>5366300</v>
+        <v>6753700</v>
       </c>
       <c r="G10" s="3">
-        <v>5145700</v>
+        <v>5947200</v>
       </c>
       <c r="H10" s="3">
-        <v>14757300</v>
+        <v>5583600</v>
       </c>
       <c r="I10" s="3">
+        <v>5354100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5788300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4954900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4239400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6833600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7231600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6772200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8397900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8030000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9069400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7385000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7039100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7302600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6861200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>6597200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6339900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6841100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>7045900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>6769400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>6626100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>6922400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,88 +1068,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4221500</v>
+        <v>1516300</v>
       </c>
       <c r="E12" s="3">
-        <v>1377300</v>
+        <v>1888500</v>
       </c>
       <c r="F12" s="3">
-        <v>1297500</v>
+        <v>1609300</v>
       </c>
       <c r="G12" s="3">
-        <v>1532400</v>
+        <v>1433100</v>
       </c>
       <c r="H12" s="3">
-        <v>3863700</v>
+        <v>1350000</v>
       </c>
       <c r="I12" s="3">
+        <v>1594400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1379800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1318900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1218700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1534200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1279700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1526500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1445600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1587500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1647200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1428100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1292800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1345900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1183600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1122200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1146700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1293900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1171300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1373400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1210100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>1339200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,168 +1236,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1687400</v>
+        <v>-198500</v>
       </c>
       <c r="E14" s="3">
-        <v>876500</v>
+        <v>-541000</v>
       </c>
       <c r="F14" s="3">
-        <v>-473400</v>
+        <v>1508800</v>
       </c>
       <c r="G14" s="3">
-        <v>909900</v>
+        <v>912000</v>
       </c>
       <c r="H14" s="3">
-        <v>1018400</v>
+        <v>-492600</v>
       </c>
       <c r="I14" s="3">
+        <v>946700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>884700</v>
+      </c>
+      <c r="K14" s="3">
         <v>338700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-48900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>662400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>746600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>629600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-312300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>615600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>656400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>728300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>488700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>570200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1529400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>686500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1712600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>566100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>2504300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>156700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>1663100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>89400</v>
+        <v>22300</v>
       </c>
       <c r="E15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="I15" s="3">
         <v>31000</v>
       </c>
-      <c r="F15" s="3">
-        <v>27400</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K15" s="3">
         <v>29800</v>
       </c>
-      <c r="H15" s="3">
-        <v>90600</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>29800</v>
       </c>
-      <c r="J15" s="3">
-        <v>29800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>30800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>19500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>22200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>21800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>19800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>23300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>22600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>12300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>12900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>12900</v>
-      </c>
-      <c r="W15" s="3">
-        <v>14300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>15700</v>
       </c>
       <c r="Y15" s="3">
         <v>14300</v>
       </c>
       <c r="Z15" s="3">
-        <v>14500</v>
+        <v>15700</v>
       </c>
       <c r="AA15" s="3">
-        <v>13200</v>
+        <v>14300</v>
       </c>
       <c r="AB15" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1441,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20729400</v>
+        <v>6040200</v>
       </c>
       <c r="E17" s="3">
-        <v>6973800</v>
+        <v>6834300</v>
       </c>
       <c r="F17" s="3">
-        <v>5839700</v>
+        <v>8236400</v>
       </c>
       <c r="G17" s="3">
-        <v>7851500</v>
+        <v>7256200</v>
       </c>
       <c r="H17" s="3">
-        <v>16445900</v>
+        <v>6076200</v>
       </c>
       <c r="I17" s="3">
+        <v>8169400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6510500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5484400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4704500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9082300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8280700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6223300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9418900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9542400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10242600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8685400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8298600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8774000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7610100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8443300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7733600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9209700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7771100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>9547500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>7460900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>9205700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5443800</v>
+        <v>2584600</v>
       </c>
       <c r="E18" s="3">
-        <v>1289100</v>
+        <v>2317800</v>
       </c>
       <c r="F18" s="3">
-        <v>2734400</v>
+        <v>1477800</v>
       </c>
       <c r="G18" s="3">
-        <v>586700</v>
+        <v>1341300</v>
       </c>
       <c r="H18" s="3">
-        <v>4566100</v>
+        <v>2845200</v>
       </c>
       <c r="I18" s="3">
+        <v>610500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1712300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1477500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1442900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1255100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2266600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3715200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2680800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2593900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3038200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2037800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1901200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2052500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2356100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1007100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1603100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>753900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2458600</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>2262200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>783500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,191 +1645,205 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-671400</v>
+        <v>-218400</v>
       </c>
       <c r="E20" s="3">
-        <v>-220600</v>
+        <v>-300300</v>
       </c>
       <c r="F20" s="3">
-        <v>-237300</v>
+        <v>-222100</v>
       </c>
       <c r="G20" s="3">
-        <v>-225400</v>
+        <v>-229500</v>
       </c>
       <c r="H20" s="3">
-        <v>-635600</v>
+        <v>-246900</v>
       </c>
       <c r="I20" s="3">
+        <v>-234500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-233300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-201500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-209900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-283900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-228100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-272500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-238300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-260500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-277400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-302100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-177100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-237700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-256200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-213300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-171900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-177400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-226900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-232200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-221200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-226500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7504500</v>
+        <v>3160300</v>
       </c>
       <c r="E21" s="3">
-        <v>1821000</v>
+        <v>2027500</v>
       </c>
       <c r="F21" s="3">
-        <v>3336600</v>
+        <v>2441900</v>
       </c>
       <c r="G21" s="3">
-        <v>1031500</v>
+        <v>1894700</v>
       </c>
       <c r="H21" s="3">
-        <v>6094900</v>
+        <v>3471800</v>
       </c>
       <c r="I21" s="3">
+        <v>1255700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2606900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1925900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1663600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3522700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2034800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3446700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2700800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2145200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3486800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2801300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3299200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2722100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2710800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1045900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2049100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>348300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3123800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1185600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2470300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1378700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1820,168 +1899,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>4772400</v>
+        <v>2366200</v>
       </c>
       <c r="E23" s="3">
-        <v>1068500</v>
+        <v>2017500</v>
       </c>
       <c r="F23" s="3">
-        <v>2497100</v>
+        <v>1255700</v>
       </c>
       <c r="G23" s="3">
-        <v>361300</v>
+        <v>1111800</v>
       </c>
       <c r="H23" s="3">
-        <v>3930500</v>
+        <v>2598200</v>
       </c>
       <c r="I23" s="3">
+        <v>376000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1276000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1233100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>971200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2038500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3442800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2442600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2333400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2760900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1735700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1724200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1814800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2099900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>793800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1431100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>576500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2231700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-232200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2041000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>557000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>841900</v>
+        <v>342500</v>
       </c>
       <c r="E24" s="3">
-        <v>178900</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>385200</v>
+        <v>289100</v>
       </c>
       <c r="G24" s="3">
-        <v>-139500</v>
+        <v>186100</v>
       </c>
       <c r="H24" s="3">
-        <v>238500</v>
+        <v>400800</v>
       </c>
       <c r="I24" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-239700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>184800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-21300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>294000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>262000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>207700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>264600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>332600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>293900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>412700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>262800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>237700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>179700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>449900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-356100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>412200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-120000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>430600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>139600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2060,168 +2157,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3930500</v>
+        <v>2023700</v>
       </c>
       <c r="E26" s="3">
-        <v>889600</v>
+        <v>2016300</v>
       </c>
       <c r="F26" s="3">
-        <v>2111900</v>
+        <v>966600</v>
       </c>
       <c r="G26" s="3">
-        <v>500900</v>
+        <v>925600</v>
       </c>
       <c r="H26" s="3">
-        <v>3692000</v>
+        <v>2197500</v>
       </c>
       <c r="I26" s="3">
+        <v>521100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1173800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1515700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1048200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>992500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1744500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3180800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2234900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2068900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2428300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1441800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1311400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1551900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1862200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>614100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>981200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>932600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1819500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-112200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1610400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>417400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3531000</v>
+        <v>1848800</v>
       </c>
       <c r="E27" s="3">
-        <v>726200</v>
+        <v>1861200</v>
       </c>
       <c r="F27" s="3">
-        <v>1676700</v>
+        <v>919400</v>
       </c>
       <c r="G27" s="3">
-        <v>508000</v>
+        <v>755600</v>
       </c>
       <c r="H27" s="3">
-        <v>3446400</v>
+        <v>1744600</v>
       </c>
       <c r="I27" s="3">
+        <v>296600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>925600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1345200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>825200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1517600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2950000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2083200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1771600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2196300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1323800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1105100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1439700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1746400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>570100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>709800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>693900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1580800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-234800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1377400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>338400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2300,43 +2415,49 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>12521400</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>273100</v>
+        <v>621600</v>
       </c>
       <c r="F29" s="3">
-        <v>472200</v>
+        <v>11879400</v>
       </c>
       <c r="G29" s="3">
-        <v>385200</v>
+        <v>284100</v>
       </c>
       <c r="H29" s="3">
-        <v>889600</v>
+        <v>491400</v>
       </c>
       <c r="I29" s="3">
+        <v>632800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>523600</v>
+      </c>
+      <c r="K29" s="3">
         <v>318400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>454300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2350,26 +2471,26 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>165100</v>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="U29" s="3">
+        <v>165100</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>-1406000</v>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
+      <c r="Y29" s="3">
+        <v>-1406000</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2380,8 +2501,14 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2587,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2673,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>671400</v>
+        <v>218400</v>
       </c>
       <c r="E32" s="3">
-        <v>220600</v>
+        <v>300300</v>
       </c>
       <c r="F32" s="3">
-        <v>237300</v>
+        <v>222100</v>
       </c>
       <c r="G32" s="3">
-        <v>225400</v>
+        <v>229500</v>
       </c>
       <c r="H32" s="3">
-        <v>635600</v>
+        <v>246900</v>
       </c>
       <c r="I32" s="3">
+        <v>234500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>233300</v>
+      </c>
+      <c r="K32" s="3">
         <v>201500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>209900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>283900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>228100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>272500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>238300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>260500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>277400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>302100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>177100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>237700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>256200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>213300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>171900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>177400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>226900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>232200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>221200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>226500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16052400</v>
+        <v>1848800</v>
       </c>
       <c r="E33" s="3">
-        <v>999300</v>
+        <v>2482800</v>
       </c>
       <c r="F33" s="3">
-        <v>2148900</v>
+        <v>12798900</v>
       </c>
       <c r="G33" s="3">
-        <v>893200</v>
+        <v>1039800</v>
       </c>
       <c r="H33" s="3">
-        <v>4336000</v>
+        <v>2235900</v>
       </c>
       <c r="I33" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1449300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1663600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1279600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1517600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2950000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2083200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1771600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2196300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1323800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1105100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1604800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1746400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>570100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>709800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-712200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1580800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-234800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1377400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>338400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2931,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16052400</v>
+        <v>1848800</v>
       </c>
       <c r="E35" s="3">
-        <v>999300</v>
+        <v>2482800</v>
       </c>
       <c r="F35" s="3">
-        <v>2148900</v>
+        <v>12798900</v>
       </c>
       <c r="G35" s="3">
-        <v>893200</v>
+        <v>1039800</v>
       </c>
       <c r="H35" s="3">
-        <v>4336000</v>
+        <v>2235900</v>
       </c>
       <c r="I35" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1449300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1663600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1279600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1517600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2950000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2083200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1771600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2196300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1323800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1105100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1604800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1746400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>570100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>709800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-712200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1580800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-234800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1377400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>338400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3144,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,728 +3176,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4300200</v>
+        <v>3585900</v>
       </c>
       <c r="E41" s="3">
-        <v>7709600</v>
+        <v>4619500</v>
       </c>
       <c r="F41" s="3">
-        <v>13078300</v>
+        <v>4474300</v>
       </c>
       <c r="G41" s="3">
-        <v>5096800</v>
+        <v>8021800</v>
       </c>
       <c r="H41" s="3">
-        <v>4117700</v>
+        <v>13607900</v>
       </c>
       <c r="I41" s="3">
+        <v>5303200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4284500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4177400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5672800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7442800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5224800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10645100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6348000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6419400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6092000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5661700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5501300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5116700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4671500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5230700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5176400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4999400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6186300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5199000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5937400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6448300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4239400</v>
+        <v>5068700</v>
       </c>
       <c r="E42" s="3">
-        <v>79900</v>
+        <v>5154300</v>
       </c>
       <c r="F42" s="3">
-        <v>3589500</v>
+        <v>4411000</v>
       </c>
       <c r="G42" s="3">
-        <v>72700</v>
+        <v>83100</v>
       </c>
       <c r="H42" s="3">
-        <v>72700</v>
+        <v>3734800</v>
       </c>
       <c r="I42" s="3">
+        <v>75700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K42" s="3">
         <v>70400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>71600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>92300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>101300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>113400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>114500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>107700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>121700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>115300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>107800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>110900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>98500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>104700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>98300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>101700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>107000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>110900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>115900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>117200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9652200</v>
+        <v>8845700</v>
       </c>
       <c r="E43" s="3">
-        <v>8192500</v>
+        <v>9253900</v>
       </c>
       <c r="F43" s="3">
-        <v>10490500</v>
+        <v>10043000</v>
       </c>
       <c r="G43" s="3">
-        <v>9952700</v>
+        <v>8524300</v>
       </c>
       <c r="H43" s="3">
-        <v>9878800</v>
+        <v>10915300</v>
       </c>
       <c r="I43" s="3">
+        <v>10355700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10278800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8952200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8565800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9017200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10272800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>9771700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>11840100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10179300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11804800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9696100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>8944300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>8785900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>9297300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>8805300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8283000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>8162400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>8778000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>8337100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8494600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>8232600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5555900</v>
+        <v>6644500</v>
       </c>
       <c r="E44" s="3">
-        <v>5561900</v>
+        <v>6385200</v>
       </c>
       <c r="F44" s="3">
-        <v>7158600</v>
+        <v>5780900</v>
       </c>
       <c r="G44" s="3">
-        <v>6896300</v>
+        <v>5787100</v>
       </c>
       <c r="H44" s="3">
-        <v>7446000</v>
+        <v>7448500</v>
       </c>
       <c r="I44" s="3">
+        <v>7175500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7747600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7548600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7412600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7092700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7856200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>8337800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>7922700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>8110500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>9588800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>8182800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7559700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>7232600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>7128500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>7683200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>7316000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>7248100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>7383700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>7490700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>7133100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>6718300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>399500</v>
+        <v>322600</v>
       </c>
       <c r="E45" s="3">
-        <v>43075800</v>
+        <v>357400</v>
       </c>
       <c r="F45" s="3">
-        <v>251600</v>
+        <v>415700</v>
       </c>
       <c r="G45" s="3">
-        <v>250400</v>
+        <v>44820200</v>
       </c>
       <c r="H45" s="3">
-        <v>252800</v>
+        <v>261800</v>
       </c>
       <c r="I45" s="3">
+        <v>260600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K45" s="3">
         <v>199100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>367300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>305200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>797800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1085900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3089500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1764700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2095800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1374600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1218200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1110800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>256200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>210700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>358100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>236100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>573900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>286900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>424000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>488500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24147100</v>
+        <v>24467300</v>
       </c>
       <c r="E46" s="3">
-        <v>64619700</v>
+        <v>25770200</v>
       </c>
       <c r="F46" s="3">
-        <v>34568500</v>
+        <v>25125000</v>
       </c>
       <c r="G46" s="3">
-        <v>22268900</v>
+        <v>67236500</v>
       </c>
       <c r="H46" s="3">
-        <v>21768100</v>
+        <v>35968300</v>
       </c>
       <c r="I46" s="3">
+        <v>23170700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22649600</v>
+      </c>
+      <c r="K46" s="3">
         <v>20947600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22090100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23950200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>24252800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>29953900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>29314800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26581600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>29703200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>25030500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>23331500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>22357000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>21452000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>22034700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>21231800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>20747700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>23028900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>21424600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>22105000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>22004900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1943800</v>
+        <v>1662700</v>
       </c>
       <c r="E47" s="3">
-        <v>2060700</v>
+        <v>1912100</v>
       </c>
       <c r="F47" s="3">
-        <v>2073800</v>
+        <v>2022500</v>
       </c>
       <c r="G47" s="3">
-        <v>2640200</v>
+        <v>2144100</v>
       </c>
       <c r="H47" s="3">
-        <v>3360500</v>
+        <v>2157800</v>
       </c>
       <c r="I47" s="3">
+        <v>2747100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3496600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3857800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4477900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4050200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3625500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3342400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2916400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2933500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2725500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2319300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2186200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2057800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1987800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1640600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1484100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1436000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1455600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1647300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1744700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1643400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11507700</v>
+        <v>11680900</v>
       </c>
       <c r="E48" s="3">
-        <v>10915000</v>
+        <v>11936500</v>
       </c>
       <c r="F48" s="3">
-        <v>12764600</v>
+        <v>11973700</v>
       </c>
       <c r="G48" s="3">
-        <v>12726500</v>
+        <v>11357000</v>
       </c>
       <c r="H48" s="3">
-        <v>12720500</v>
+        <v>13281500</v>
       </c>
       <c r="I48" s="3">
+        <v>13241800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13235600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12627500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12680000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13019000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13669000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14901300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15177200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15429900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16556800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15665400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>15034200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14605300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>13452800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13992100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>13782600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>14164800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>13868700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>13906600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>14237100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>14231900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27170100</v>
+        <v>26077900</v>
       </c>
       <c r="E49" s="3">
-        <v>20603000</v>
+        <v>26508500</v>
       </c>
       <c r="F49" s="3">
-        <v>49099200</v>
+        <v>28270400</v>
       </c>
       <c r="G49" s="3">
-        <v>48452900</v>
+        <v>21437300</v>
       </c>
       <c r="H49" s="3">
-        <v>48681800</v>
+        <v>51087500</v>
       </c>
       <c r="I49" s="3">
+        <v>50414900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>50653200</v>
+      </c>
+      <c r="K49" s="3">
         <v>47423700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>47533400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>47814000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>50689300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>55091000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>56436000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>56620500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>61558700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>37295800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>35720100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>30366300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>28463500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>29827700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>29593700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>30385200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>30892600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>31732600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>32541800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>32578700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +4032,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4118,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7155100</v>
+        <v>8817100</v>
       </c>
       <c r="E52" s="3">
-        <v>7988600</v>
+        <v>8502000</v>
       </c>
       <c r="F52" s="3">
-        <v>8448900</v>
+        <v>7444800</v>
       </c>
       <c r="G52" s="3">
-        <v>8242600</v>
+        <v>8312100</v>
       </c>
       <c r="H52" s="3">
-        <v>7306500</v>
+        <v>8791100</v>
       </c>
       <c r="I52" s="3">
+        <v>8576400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7602400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6979800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6328700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6308400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6486200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7047200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8476400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7117600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7256700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7067800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>6760800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7306600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6820600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>7016100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>6510600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>6804600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>7425400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>7242800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>7371400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>7338500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4290,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71923900</v>
+        <v>72705900</v>
       </c>
       <c r="E54" s="3">
-        <v>106187100</v>
+        <v>74629200</v>
       </c>
       <c r="F54" s="3">
-        <v>106955000</v>
+        <v>74836400</v>
       </c>
       <c r="G54" s="3">
-        <v>94331100</v>
+        <v>110487000</v>
       </c>
       <c r="H54" s="3">
-        <v>93837400</v>
+        <v>111286100</v>
       </c>
       <c r="I54" s="3">
+        <v>98151000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>97637300</v>
+      </c>
+      <c r="K54" s="3">
         <v>91836400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>93110000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95141800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>98722800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>110335900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>112320900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>108683200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>117800800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>87378800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>83032800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>76693000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>72176700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>74511100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>72602900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>73538300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>76671300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>75953900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>78000100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>77797300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4412,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,488 +4444,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19217300</v>
+        <v>17703700</v>
       </c>
       <c r="E57" s="3">
-        <v>17656300</v>
+        <v>20179100</v>
       </c>
       <c r="F57" s="3">
-        <v>20960700</v>
+        <v>19995500</v>
       </c>
       <c r="G57" s="3">
-        <v>20933300</v>
+        <v>18371300</v>
       </c>
       <c r="H57" s="3">
-        <v>18161900</v>
+        <v>21809500</v>
       </c>
       <c r="I57" s="3">
+        <v>21781000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>18897400</v>
+      </c>
+      <c r="K57" s="3">
         <v>17013500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17422600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>18737100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>18471700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>20140500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>20379100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>20373700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>20854500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>18380100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>17872700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>18539900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>16125300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>16218300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>27262800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>27351400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>25877500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>25538400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>15844900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>15754100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3330700</v>
+        <v>5287000</v>
       </c>
       <c r="E58" s="3">
-        <v>3967500</v>
+        <v>4903600</v>
       </c>
       <c r="F58" s="3">
-        <v>4891700</v>
+        <v>3465600</v>
       </c>
       <c r="G58" s="3">
-        <v>4294200</v>
+        <v>4128100</v>
       </c>
       <c r="H58" s="3">
-        <v>5806300</v>
+        <v>5089800</v>
       </c>
       <c r="I58" s="3">
+        <v>4468100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6041500</v>
+      </c>
+      <c r="K58" s="3">
         <v>6011400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3782600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4406300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5994600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7774600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9670400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9434700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11626500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13933800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>11201100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7651300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3574100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4486100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4449900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3684700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>6182400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>8624100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4924800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5437000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2438700</v>
+        <v>2688800</v>
       </c>
       <c r="E59" s="3">
-        <v>23494800</v>
+        <v>3219900</v>
       </c>
       <c r="F59" s="3">
-        <v>3099300</v>
+        <v>2537400</v>
       </c>
       <c r="G59" s="3">
-        <v>2999200</v>
+        <v>24446200</v>
       </c>
       <c r="H59" s="3">
-        <v>2764200</v>
+        <v>3224800</v>
       </c>
       <c r="I59" s="3">
+        <v>3120600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2876200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2479200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2972900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3055400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2589800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3272000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3673800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2990800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3624100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3085600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3492300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3514600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2955800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2822200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3098900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3618200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3727700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3386000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3929300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>3829200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24986700</v>
+        <v>25679600</v>
       </c>
       <c r="E60" s="3">
-        <v>45118600</v>
+        <v>28302600</v>
       </c>
       <c r="F60" s="3">
-        <v>28951800</v>
+        <v>25998500</v>
       </c>
       <c r="G60" s="3">
-        <v>28226700</v>
+        <v>46945700</v>
       </c>
       <c r="H60" s="3">
-        <v>26732500</v>
+        <v>30124100</v>
       </c>
       <c r="I60" s="3">
+        <v>29369700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>27815000</v>
+      </c>
+      <c r="K60" s="3">
         <v>25504200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24178100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26198900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>27056200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>31187100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>33723400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>32799100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>36105100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>35399500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>32566000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>29705900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>22655300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>23526600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>34811500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>34654200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>35787700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>37548500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>24699000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>25020300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23041700</v>
+        <v>20651900</v>
       </c>
       <c r="E61" s="3">
-        <v>22400100</v>
+        <v>21137000</v>
       </c>
       <c r="F61" s="3">
-        <v>34852300</v>
+        <v>23974700</v>
       </c>
       <c r="G61" s="3">
-        <v>24532300</v>
+        <v>23307200</v>
       </c>
       <c r="H61" s="3">
-        <v>24727900</v>
+        <v>36263600</v>
       </c>
       <c r="I61" s="3">
+        <v>25525700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>25729200</v>
+      </c>
+      <c r="K61" s="3">
         <v>24377300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>27483800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>27709400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>28465100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>33536200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>32932700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>32171800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>35141400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>32013200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>31080200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>26773700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>30553500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>31792800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>18118700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>18604700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>18643800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15989500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>19225100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>19305500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13501600</v>
+        <v>12338500</v>
       </c>
       <c r="E62" s="3">
-        <v>11669900</v>
+        <v>12662400</v>
       </c>
       <c r="F62" s="3">
-        <v>16162100</v>
+        <v>14048300</v>
       </c>
       <c r="G62" s="3">
-        <v>16121500</v>
+        <v>12142500</v>
       </c>
       <c r="H62" s="3">
-        <v>16442300</v>
+        <v>16816600</v>
       </c>
       <c r="I62" s="3">
+        <v>16774400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>17108200</v>
+      </c>
+      <c r="K62" s="3">
         <v>16222900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16393400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16619700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>18041100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>19362200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18913600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18677100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>20997400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>15891900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14898400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15363400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>14382600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>15283600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>15031500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>15728700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>15941300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>16645600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>26711100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>26936300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +5042,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4825,8 +5128,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5214,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61010000</v>
+        <v>58039700</v>
       </c>
       <c r="E66" s="3">
-        <v>86660900</v>
+        <v>61479200</v>
       </c>
       <c r="F66" s="3">
-        <v>87659000</v>
+        <v>63480600</v>
       </c>
       <c r="G66" s="3">
-        <v>76377900</v>
+        <v>90170200</v>
       </c>
       <c r="H66" s="3">
-        <v>75441800</v>
+        <v>91208700</v>
       </c>
       <c r="I66" s="3">
+        <v>79470800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>78496700</v>
+      </c>
+      <c r="K66" s="3">
         <v>73499200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75383300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>77886900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>81295400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>92616200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>94891500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>93129100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>101142200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>82416100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>77688500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>70934300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>66664000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>69754900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>72692100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>73627000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>74983500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>74896100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>75743100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>76317200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5336,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5418,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5504,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5590,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5676,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5205300</v>
+        <v>8714100</v>
       </c>
       <c r="E72" s="3">
-        <v>13818800</v>
+        <v>7210300</v>
       </c>
       <c r="F72" s="3">
-        <v>13592200</v>
+        <v>5416100</v>
       </c>
       <c r="G72" s="3">
-        <v>12410500</v>
+        <v>14378400</v>
       </c>
       <c r="H72" s="3">
-        <v>12854100</v>
+        <v>14142600</v>
       </c>
       <c r="I72" s="3">
+        <v>12913000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13374600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12796800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12191000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11781700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>11784200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11691900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11278400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9389700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10276500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-641700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>102200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-912700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5848,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5934,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +6020,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10913900</v>
+        <v>14666300</v>
       </c>
       <c r="E76" s="3">
-        <v>19526200</v>
+        <v>13150000</v>
       </c>
       <c r="F76" s="3">
-        <v>19296000</v>
+        <v>11355800</v>
       </c>
       <c r="G76" s="3">
-        <v>17953200</v>
+        <v>20316900</v>
       </c>
       <c r="H76" s="3">
-        <v>18395700</v>
+        <v>20077400</v>
       </c>
       <c r="I76" s="3">
+        <v>18680200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>19140600</v>
+      </c>
+      <c r="K76" s="3">
         <v>18337200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17726700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17255000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17427500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17719700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17429400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15554000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>16658700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4962700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5344200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5758600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5512600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4756200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-89200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-88700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1687800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1057800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2257000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1480100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6192,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16052400</v>
+        <v>1848800</v>
       </c>
       <c r="E81" s="3">
-        <v>999300</v>
+        <v>2482800</v>
       </c>
       <c r="F81" s="3">
-        <v>2148900</v>
+        <v>12798900</v>
       </c>
       <c r="G81" s="3">
-        <v>893200</v>
+        <v>1039800</v>
       </c>
       <c r="H81" s="3">
-        <v>4336000</v>
+        <v>2235900</v>
       </c>
       <c r="I81" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1449300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1663600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1279600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1517600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2950000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2083200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1771600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2196300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1323800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1105100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1604800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1746400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>570100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>709800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-712200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1580800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-234800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1377400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>338400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6405,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2732000</v>
+        <v>794100</v>
       </c>
       <c r="E83" s="3">
-        <v>752500</v>
+        <v>9900</v>
       </c>
       <c r="F83" s="3">
-        <v>839500</v>
+        <v>1186200</v>
       </c>
       <c r="G83" s="3">
-        <v>436500</v>
+        <v>782900</v>
       </c>
       <c r="H83" s="3">
-        <v>2398100</v>
+        <v>873500</v>
       </c>
       <c r="I83" s="3">
+        <v>636500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1223400</v>
+      </c>
+      <c r="K83" s="3">
         <v>791800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>430500</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P83" s="3">
         <v>258200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>-188200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>726000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1065600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1575000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>907400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>610900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>252100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>618000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>-228300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>892100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1417800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>429300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>821700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6573,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6659,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6745,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6831,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6917,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6556400</v>
+        <v>65800</v>
       </c>
       <c r="E89" s="3">
-        <v>1949800</v>
+        <v>2363700</v>
       </c>
       <c r="F89" s="3">
-        <v>3031400</v>
+        <v>1639100</v>
       </c>
       <c r="G89" s="3">
-        <v>4492200</v>
+        <v>2028700</v>
       </c>
       <c r="H89" s="3">
-        <v>4990700</v>
+        <v>3154100</v>
       </c>
       <c r="I89" s="3">
+        <v>4674100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3178900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1540700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>394700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4560100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1050300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3597900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1284500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4709200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3559000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1907400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>882700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5440300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2558000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1760800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1115700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3742100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2474300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1314700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1506400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>3938500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +7039,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-840700</v>
+        <v>-529000</v>
       </c>
       <c r="E91" s="3">
-        <v>-248000</v>
+        <v>-751000</v>
       </c>
       <c r="F91" s="3">
-        <v>-264700</v>
+        <v>-480000</v>
       </c>
       <c r="G91" s="3">
-        <v>-710700</v>
+        <v>-426000</v>
       </c>
       <c r="H91" s="3">
-        <v>-686900</v>
+        <v>-601000</v>
       </c>
       <c r="I91" s="3">
+        <v>-824000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1199000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-180100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-239700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-608000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-356200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-290700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-262200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-654600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-401900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-383100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-295600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-663000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-370700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-365900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-333500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-696500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-485200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-494300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-547800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +7207,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7293,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9816700</v>
+        <v>-506200</v>
       </c>
       <c r="E94" s="3">
-        <v>-649900</v>
+        <v>-670000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4284700</v>
+        <v>-5079800</v>
       </c>
       <c r="G94" s="3">
-        <v>-430500</v>
+        <v>-676200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1688600</v>
+        <v>-4458200</v>
       </c>
       <c r="I94" s="3">
+        <v>-447900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1467900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-220600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-57200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-61500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-683100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3690500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-77200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-504600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-662300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-774500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-545500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-624400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-338700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-479600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-436900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-602600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-583000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-262000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-229100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-229100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,88 +7415,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3354500</v>
+        <v>-688600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1378500</v>
+        <v>-811500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1135300</v>
+        <v>-874800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1134100</v>
+        <v>-1434400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3634800</v>
+        <v>-1181200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1180000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1180000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1372600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1128100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1119000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1154000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-1466000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-1218000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-1218000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7583,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7669,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,244 +7755,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2577000</v>
+        <v>-394600</v>
       </c>
       <c r="E100" s="3">
-        <v>-5349600</v>
+        <v>-1660200</v>
       </c>
       <c r="F100" s="3">
-        <v>9507900</v>
+        <v>-1645300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3308000</v>
+        <v>-5566200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5741900</v>
+        <v>9892900</v>
       </c>
       <c r="I100" s="3">
+        <v>-3442000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1729700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2438700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1640900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2572800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5216300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4874300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-365900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-846500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>126400</v>
+        <v>-38500</v>
       </c>
       <c r="E101" s="3">
-        <v>84700</v>
+        <v>57100</v>
       </c>
       <c r="F101" s="3">
-        <v>14300</v>
+        <v>28500</v>
       </c>
       <c r="G101" s="3">
-        <v>-9500</v>
+        <v>88100</v>
       </c>
       <c r="H101" s="3">
-        <v>-25000</v>
+        <v>14900</v>
       </c>
       <c r="I101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-41700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-54900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-18300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>55900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-139100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>8500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>74200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-53300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>52800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>23300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-67200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-30000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-40400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-74300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>14500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>105300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-556900</v>
+        <v>-873500</v>
       </c>
       <c r="E102" s="3">
-        <v>-3965100</v>
+        <v>90600</v>
       </c>
       <c r="F102" s="3">
-        <v>8268900</v>
+        <v>-5057500</v>
       </c>
       <c r="G102" s="3">
-        <v>744100</v>
+        <v>-4125700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2464900</v>
+        <v>8603700</v>
       </c>
       <c r="I102" s="3">
+        <v>774300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1117400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1345200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1899700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4904000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3843000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-137100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>302800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>287300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-17900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>442000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>660400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-120700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-93100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>203000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-973000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>984800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-601300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-728200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1256200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,394 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8624800</v>
+        <v>9096700</v>
       </c>
       <c r="E8" s="3">
-        <v>9152100</v>
+        <v>8809000</v>
       </c>
       <c r="F8" s="3">
-        <v>9714200</v>
+        <v>9347600</v>
       </c>
       <c r="G8" s="3">
-        <v>8597500</v>
+        <v>9921700</v>
       </c>
       <c r="H8" s="3">
-        <v>8921400</v>
+        <v>8781100</v>
       </c>
       <c r="I8" s="3">
-        <v>8779900</v>
+        <v>9111900</v>
       </c>
       <c r="J8" s="3">
+        <v>8967400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8222800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6961900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6147400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10337400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10547300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9938600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12099700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12136400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13280800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10723200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10199900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10826500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9966100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9450400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9336700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9963600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10229700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9547500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9723200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9989200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2361200</v>
+        <v>2397700</v>
       </c>
       <c r="E9" s="3">
-        <v>2701200</v>
+        <v>2411700</v>
       </c>
       <c r="F9" s="3">
-        <v>2960500</v>
+        <v>2758900</v>
       </c>
       <c r="G9" s="3">
-        <v>2650300</v>
+        <v>3023800</v>
       </c>
       <c r="H9" s="3">
-        <v>3337800</v>
+        <v>2707000</v>
       </c>
       <c r="I9" s="3">
-        <v>3425800</v>
+        <v>3409000</v>
       </c>
       <c r="J9" s="3">
+        <v>3499000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2434400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2007000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1908000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3503700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3315700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3166400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3701800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4106400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4211400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3338200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3160700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3523900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3104900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2853200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2996700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3122500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3183800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2778200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3097100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3066800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6263600</v>
+        <v>6698900</v>
       </c>
       <c r="E10" s="3">
-        <v>6450900</v>
+        <v>6397300</v>
       </c>
       <c r="F10" s="3">
-        <v>6753700</v>
+        <v>6588700</v>
       </c>
       <c r="G10" s="3">
-        <v>5947200</v>
+        <v>6897900</v>
       </c>
       <c r="H10" s="3">
-        <v>5583600</v>
+        <v>6074200</v>
       </c>
       <c r="I10" s="3">
-        <v>5354100</v>
+        <v>5702900</v>
       </c>
       <c r="J10" s="3">
+        <v>5468400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5788300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4954900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4239400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6833600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7231600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6772200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8397900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8030000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9069400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7385000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7039100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7302600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6861200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6597200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6339900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6841100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7045900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6769400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6626100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6922400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,94 +1083,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1516300</v>
+        <v>1666500</v>
       </c>
       <c r="E12" s="3">
-        <v>1888500</v>
+        <v>1548600</v>
       </c>
       <c r="F12" s="3">
-        <v>1609300</v>
+        <v>1928800</v>
       </c>
       <c r="G12" s="3">
-        <v>1433100</v>
+        <v>1643700</v>
       </c>
       <c r="H12" s="3">
-        <v>1350000</v>
+        <v>1463700</v>
       </c>
       <c r="I12" s="3">
-        <v>1594400</v>
+        <v>1378800</v>
       </c>
       <c r="J12" s="3">
+        <v>1628500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1379800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1318900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1218700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1534200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1279700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1526500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1445600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1587500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1647200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1428100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1292800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1345900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1183600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1122200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1146700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1293900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1171300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1373400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1210100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1339200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,180 +1259,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-198500</v>
+        <v>-196400</v>
       </c>
       <c r="E14" s="3">
-        <v>-541000</v>
+        <v>-202800</v>
       </c>
       <c r="F14" s="3">
-        <v>1508800</v>
+        <v>-552500</v>
       </c>
       <c r="G14" s="3">
-        <v>912000</v>
+        <v>1541000</v>
       </c>
       <c r="H14" s="3">
-        <v>-492600</v>
+        <v>931500</v>
       </c>
       <c r="I14" s="3">
-        <v>946700</v>
+        <v>-503100</v>
       </c>
       <c r="J14" s="3">
+        <v>966900</v>
+      </c>
+      <c r="K14" s="3">
         <v>884700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>338700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-48900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>662400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>746600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>629600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-312300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>615600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>656400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>728300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>488700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>570200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1529400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>686500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1712600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>566100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2504300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>156700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1663100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>22300</v>
+        <v>25300</v>
       </c>
       <c r="E15" s="3">
-        <v>19900</v>
+        <v>22800</v>
       </c>
       <c r="F15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>32900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>29100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K15" s="3">
         <v>32300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>32300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>28500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>32300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>29800</v>
       </c>
       <c r="L15" s="3">
         <v>29800</v>
       </c>
       <c r="M15" s="3">
+        <v>29800</v>
+      </c>
+      <c r="N15" s="3">
         <v>30800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>12900</v>
       </c>
       <c r="X15" s="3">
         <v>12900</v>
       </c>
       <c r="Y15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>14300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>15700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>14300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>14500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6040200</v>
+        <v>6383400</v>
       </c>
       <c r="E17" s="3">
-        <v>6834300</v>
+        <v>6169200</v>
       </c>
       <c r="F17" s="3">
-        <v>8236400</v>
+        <v>6980300</v>
       </c>
       <c r="G17" s="3">
-        <v>7256200</v>
+        <v>8412300</v>
       </c>
       <c r="H17" s="3">
-        <v>6076200</v>
+        <v>7411200</v>
       </c>
       <c r="I17" s="3">
-        <v>8169400</v>
+        <v>6206000</v>
       </c>
       <c r="J17" s="3">
+        <v>8343900</v>
+      </c>
+      <c r="K17" s="3">
         <v>6510500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5484400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4704500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9082300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8280700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6223300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9418900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9542400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10242600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8685400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8298600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8774000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7610100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8443300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7733600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9209700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7771100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9547500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7460900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9205700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2584600</v>
+        <v>2713300</v>
       </c>
       <c r="E18" s="3">
-        <v>2317800</v>
+        <v>2639800</v>
       </c>
       <c r="F18" s="3">
-        <v>1477800</v>
+        <v>2367300</v>
       </c>
       <c r="G18" s="3">
-        <v>1341300</v>
+        <v>1509400</v>
       </c>
       <c r="H18" s="3">
-        <v>2845200</v>
+        <v>1370000</v>
       </c>
       <c r="I18" s="3">
-        <v>610500</v>
+        <v>2905900</v>
       </c>
       <c r="J18" s="3">
+        <v>623500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1712300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1477500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1442900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1255100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2266600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3715200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2680800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2593900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3038200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2037800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1901200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2052500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2356100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1007100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1603100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>753900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2458600</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>2262200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>783500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1647,180 +1680,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-218400</v>
+        <v>-195200</v>
       </c>
       <c r="E20" s="3">
-        <v>-300300</v>
+        <v>-223000</v>
       </c>
       <c r="F20" s="3">
-        <v>-222100</v>
+        <v>-306700</v>
       </c>
       <c r="G20" s="3">
-        <v>-229500</v>
+        <v>-226800</v>
       </c>
       <c r="H20" s="3">
-        <v>-246900</v>
+        <v>-234500</v>
       </c>
       <c r="I20" s="3">
-        <v>-234500</v>
+        <v>-252200</v>
       </c>
       <c r="J20" s="3">
+        <v>-239500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-233300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-201500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-209900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-283900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-228100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-272500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-238300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-260500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-277400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-302100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-177100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-237700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-256200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-213300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-171900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-177400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-226900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-232200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-221200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-226500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3160300</v>
+        <v>3090900</v>
       </c>
       <c r="E21" s="3">
-        <v>2027500</v>
+        <v>3227800</v>
       </c>
       <c r="F21" s="3">
-        <v>2441900</v>
+        <v>2070800</v>
       </c>
       <c r="G21" s="3">
-        <v>1894700</v>
+        <v>2494000</v>
       </c>
       <c r="H21" s="3">
-        <v>3471800</v>
+        <v>1935200</v>
       </c>
       <c r="I21" s="3">
-        <v>1255700</v>
+        <v>3545900</v>
       </c>
       <c r="J21" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2606900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1925900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1663600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3522700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2034800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3446700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2145200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3486800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2801300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3299200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2722100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2710800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1045900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2049100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>348300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3123800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1185600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2470300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1378700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1845,8 +1885,8 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1905,180 +1945,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2366200</v>
+        <v>2518100</v>
       </c>
       <c r="E23" s="3">
-        <v>2017500</v>
+        <v>2416700</v>
       </c>
       <c r="F23" s="3">
-        <v>1255700</v>
+        <v>2060600</v>
       </c>
       <c r="G23" s="3">
-        <v>1111800</v>
+        <v>1282500</v>
       </c>
       <c r="H23" s="3">
-        <v>2598200</v>
+        <v>1135500</v>
       </c>
       <c r="I23" s="3">
-        <v>376000</v>
+        <v>2653700</v>
       </c>
       <c r="J23" s="3">
+        <v>384000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1479000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1276000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1233100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>971200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2038500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3442800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2442600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2333400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2760900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1735700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1724200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1814800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2099900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>793800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1431100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>576500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2231700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-232200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2041000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>557000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>342500</v>
+        <v>306700</v>
       </c>
       <c r="E24" s="3">
-        <v>1200</v>
+        <v>349800</v>
       </c>
       <c r="F24" s="3">
-        <v>289100</v>
+        <v>1300</v>
       </c>
       <c r="G24" s="3">
-        <v>186100</v>
+        <v>295300</v>
       </c>
       <c r="H24" s="3">
-        <v>400800</v>
+        <v>190100</v>
       </c>
       <c r="I24" s="3">
-        <v>-145200</v>
+        <v>409300</v>
       </c>
       <c r="J24" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="K24" s="3">
         <v>305200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-239700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>184800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-21300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>294000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>262000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>207700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>264600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>332600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>293900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>412700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>262800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>237700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>179700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>449900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-356100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>412200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-120000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>430600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>139600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2163,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2023700</v>
+        <v>2211400</v>
       </c>
       <c r="E26" s="3">
-        <v>2016300</v>
+        <v>2067000</v>
       </c>
       <c r="F26" s="3">
-        <v>966600</v>
+        <v>2059400</v>
       </c>
       <c r="G26" s="3">
-        <v>925600</v>
+        <v>987200</v>
       </c>
       <c r="H26" s="3">
-        <v>2197500</v>
+        <v>945400</v>
       </c>
       <c r="I26" s="3">
-        <v>521100</v>
+        <v>2244400</v>
       </c>
       <c r="J26" s="3">
+        <v>532300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1173800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1515700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1048200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>992500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1744500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3180800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2234900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2068900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2428300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1441800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1311400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1551900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1862200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>614100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>981200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>932600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1819500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-112200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1610400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>417400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1848800</v>
+        <v>2058100</v>
       </c>
       <c r="E27" s="3">
-        <v>1861200</v>
+        <v>1888300</v>
       </c>
       <c r="F27" s="3">
-        <v>919400</v>
+        <v>1901000</v>
       </c>
       <c r="G27" s="3">
-        <v>755600</v>
+        <v>939100</v>
       </c>
       <c r="H27" s="3">
-        <v>1744600</v>
+        <v>771800</v>
       </c>
       <c r="I27" s="3">
-        <v>296600</v>
+        <v>1781800</v>
       </c>
       <c r="J27" s="3">
+        <v>302900</v>
+      </c>
+      <c r="K27" s="3">
         <v>925600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1345200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>825200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1517600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2950000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2083200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1771600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2196300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1323800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1105100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1439700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1746400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>570100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>709800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>693900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1580800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-234800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1377400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>338400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2421,46 +2479,49 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>621600</v>
-      </c>
       <c r="F29" s="3">
-        <v>11879400</v>
+        <v>634900</v>
       </c>
       <c r="G29" s="3">
-        <v>284100</v>
+        <v>12133100</v>
       </c>
       <c r="H29" s="3">
-        <v>491400</v>
+        <v>290200</v>
       </c>
       <c r="I29" s="3">
-        <v>632800</v>
+        <v>501900</v>
       </c>
       <c r="J29" s="3">
+        <v>646300</v>
+      </c>
+      <c r="K29" s="3">
         <v>523600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>318400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>454300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2477,11 +2538,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>165100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2489,11 +2550,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2507,8 +2568,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>218400</v>
+        <v>195200</v>
       </c>
       <c r="E32" s="3">
-        <v>300300</v>
+        <v>223000</v>
       </c>
       <c r="F32" s="3">
-        <v>222100</v>
+        <v>306700</v>
       </c>
       <c r="G32" s="3">
-        <v>229500</v>
+        <v>226800</v>
       </c>
       <c r="H32" s="3">
-        <v>246900</v>
+        <v>234500</v>
       </c>
       <c r="I32" s="3">
-        <v>234500</v>
+        <v>252200</v>
       </c>
       <c r="J32" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K32" s="3">
         <v>233300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>201500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>209900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>283900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>228100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>272500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>238300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>260500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>277400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>302100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>177100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>237700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>256200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>213300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>171900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>177400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>226900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>232200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>221200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>226500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1848800</v>
+        <v>2058100</v>
       </c>
       <c r="E33" s="3">
-        <v>2482800</v>
+        <v>1888300</v>
       </c>
       <c r="F33" s="3">
-        <v>12798900</v>
+        <v>2535900</v>
       </c>
       <c r="G33" s="3">
-        <v>1039800</v>
+        <v>13072200</v>
       </c>
       <c r="H33" s="3">
-        <v>2235900</v>
+        <v>1062000</v>
       </c>
       <c r="I33" s="3">
-        <v>929400</v>
+        <v>2283700</v>
       </c>
       <c r="J33" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1449300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1663600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1279600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1517600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2950000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2083200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1771600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2196300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1323800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1105100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1604800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1746400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>570100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>709800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-712200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1580800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-234800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1377400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>338400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1848800</v>
+        <v>2058100</v>
       </c>
       <c r="E35" s="3">
-        <v>2482800</v>
+        <v>1888300</v>
       </c>
       <c r="F35" s="3">
-        <v>12798900</v>
+        <v>2535900</v>
       </c>
       <c r="G35" s="3">
-        <v>1039800</v>
+        <v>13072200</v>
       </c>
       <c r="H35" s="3">
-        <v>2235900</v>
+        <v>1062000</v>
       </c>
       <c r="I35" s="3">
-        <v>929400</v>
+        <v>2283700</v>
       </c>
       <c r="J35" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1449300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1663600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1279600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1517600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2950000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2083200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1771600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2196300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1323800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1105100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1604800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1746400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>570100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>709800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-712200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1580800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-234800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1377400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>338400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,782 +3264,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3585900</v>
+        <v>3979300</v>
       </c>
       <c r="E41" s="3">
-        <v>4619500</v>
+        <v>3662500</v>
       </c>
       <c r="F41" s="3">
-        <v>4474300</v>
+        <v>4718200</v>
       </c>
       <c r="G41" s="3">
-        <v>8021800</v>
+        <v>4569900</v>
       </c>
       <c r="H41" s="3">
-        <v>13607900</v>
+        <v>8193100</v>
       </c>
       <c r="I41" s="3">
-        <v>5303200</v>
+        <v>13898500</v>
       </c>
       <c r="J41" s="3">
+        <v>5416400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4284500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4177400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5672800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7442800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5224800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10645100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6348000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6419400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6092000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5661700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5501300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5116700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4671500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5230700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5176400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4999400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6186300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5199000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5937400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6448300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5068700</v>
+        <v>4263200</v>
       </c>
       <c r="E42" s="3">
-        <v>5154300</v>
+        <v>5176900</v>
       </c>
       <c r="F42" s="3">
-        <v>4411000</v>
+        <v>5264400</v>
       </c>
       <c r="G42" s="3">
-        <v>83100</v>
+        <v>4505300</v>
       </c>
       <c r="H42" s="3">
-        <v>3734800</v>
+        <v>84900</v>
       </c>
       <c r="I42" s="3">
+        <v>3814600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K42" s="3">
         <v>75700</v>
       </c>
-      <c r="J42" s="3">
-        <v>75700</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>101300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>113400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>107700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>121700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>115300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>107800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>110900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>98500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>104700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>98300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>101700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>107000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>110900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>115900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>117200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8845700</v>
+        <v>8991500</v>
       </c>
       <c r="E43" s="3">
-        <v>9253900</v>
+        <v>9034600</v>
       </c>
       <c r="F43" s="3">
-        <v>10043000</v>
+        <v>9451500</v>
       </c>
       <c r="G43" s="3">
-        <v>8524300</v>
+        <v>10257500</v>
       </c>
       <c r="H43" s="3">
-        <v>10915300</v>
+        <v>8706400</v>
       </c>
       <c r="I43" s="3">
-        <v>10355700</v>
+        <v>11148400</v>
       </c>
       <c r="J43" s="3">
+        <v>10576900</v>
+      </c>
+      <c r="K43" s="3">
         <v>10278800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8952200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8565800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9017200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10272800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9771700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11840100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10179300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11804800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9696100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8944300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8785900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9297300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8805300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8283000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8162400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8778000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8337100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8494600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8232600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6644500</v>
+        <v>6985400</v>
       </c>
       <c r="E44" s="3">
-        <v>6385200</v>
+        <v>6786400</v>
       </c>
       <c r="F44" s="3">
-        <v>5780900</v>
+        <v>6521500</v>
       </c>
       <c r="G44" s="3">
-        <v>5787100</v>
+        <v>5904400</v>
       </c>
       <c r="H44" s="3">
-        <v>7448500</v>
+        <v>5910700</v>
       </c>
       <c r="I44" s="3">
-        <v>7175500</v>
+        <v>7607600</v>
       </c>
       <c r="J44" s="3">
+        <v>7328800</v>
+      </c>
+      <c r="K44" s="3">
         <v>7747600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7548600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7412600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7092700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7856200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8337800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7922700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8110500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9588800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8182800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7559700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7232600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7128500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7683200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7316000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7248100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7383700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7490700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7133100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6718300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>322600</v>
+        <v>300400</v>
       </c>
       <c r="E45" s="3">
-        <v>357400</v>
+        <v>329500</v>
       </c>
       <c r="F45" s="3">
-        <v>415700</v>
+        <v>365000</v>
       </c>
       <c r="G45" s="3">
-        <v>44820200</v>
+        <v>424500</v>
       </c>
       <c r="H45" s="3">
-        <v>261800</v>
+        <v>45777400</v>
       </c>
       <c r="I45" s="3">
-        <v>260600</v>
+        <v>267400</v>
       </c>
       <c r="J45" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K45" s="3">
         <v>263000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>367300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>305200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>797800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1085900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3089500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1764700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2095800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1374600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1218200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1110800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>256200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>210700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>358100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>236100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>573900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>286900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>424000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>488500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24467300</v>
+        <v>24519700</v>
       </c>
       <c r="E46" s="3">
-        <v>25770200</v>
+        <v>24989900</v>
       </c>
       <c r="F46" s="3">
-        <v>25125000</v>
+        <v>26320600</v>
       </c>
       <c r="G46" s="3">
-        <v>67236500</v>
+        <v>25661600</v>
       </c>
       <c r="H46" s="3">
-        <v>35968300</v>
+        <v>68672500</v>
       </c>
       <c r="I46" s="3">
-        <v>23170700</v>
+        <v>36736500</v>
       </c>
       <c r="J46" s="3">
+        <v>23665600</v>
+      </c>
+      <c r="K46" s="3">
         <v>22649600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20947600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22090100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23950200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24252800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29953900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29314800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26581600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29703200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25030500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23331500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22357000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21452000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22034700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21231800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20747700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>23028900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21424600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>22105000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>22004900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1662700</v>
+        <v>1710900</v>
       </c>
       <c r="E47" s="3">
-        <v>1912100</v>
+        <v>1698200</v>
       </c>
       <c r="F47" s="3">
-        <v>2022500</v>
+        <v>1952900</v>
       </c>
       <c r="G47" s="3">
-        <v>2144100</v>
+        <v>2065700</v>
       </c>
       <c r="H47" s="3">
-        <v>2157800</v>
+        <v>2189900</v>
       </c>
       <c r="I47" s="3">
-        <v>2747100</v>
+        <v>2203800</v>
       </c>
       <c r="J47" s="3">
+        <v>2805800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3496600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3857800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4477900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4050200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3625500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3342400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2916400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2933500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2725500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2319300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2186200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2057800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1987800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1640600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1484100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1436000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1455600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1647300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1744700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1643400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11680900</v>
+        <v>11804900</v>
       </c>
       <c r="E48" s="3">
-        <v>11936500</v>
+        <v>11930400</v>
       </c>
       <c r="F48" s="3">
-        <v>11973700</v>
+        <v>12191400</v>
       </c>
       <c r="G48" s="3">
-        <v>11357000</v>
+        <v>12229400</v>
       </c>
       <c r="H48" s="3">
-        <v>13281500</v>
+        <v>11599600</v>
       </c>
       <c r="I48" s="3">
-        <v>13241800</v>
+        <v>13565200</v>
       </c>
       <c r="J48" s="3">
+        <v>13524600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13235600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12627500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12680000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13019000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13669000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14901300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15177200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15429900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16556800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15665400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15034200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14605300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13452800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13992100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13782600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14164800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13868700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13906600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14237100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14231900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26077900</v>
+        <v>28193600</v>
       </c>
       <c r="E49" s="3">
-        <v>26508500</v>
+        <v>26634800</v>
       </c>
       <c r="F49" s="3">
-        <v>28270400</v>
+        <v>27074600</v>
       </c>
       <c r="G49" s="3">
-        <v>21437300</v>
+        <v>28874200</v>
       </c>
       <c r="H49" s="3">
-        <v>51087500</v>
+        <v>21895100</v>
       </c>
       <c r="I49" s="3">
-        <v>50414900</v>
+        <v>52178500</v>
       </c>
       <c r="J49" s="3">
+        <v>51491700</v>
+      </c>
+      <c r="K49" s="3">
         <v>50653200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47423700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47533400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47814000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50689300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>55091000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56436000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>56620500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>61558700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>37295800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35720100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30366300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28463500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29827700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29593700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>30385200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30892600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>31732600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>32541800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>32578700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8817100</v>
+        <v>9125800</v>
       </c>
       <c r="E52" s="3">
-        <v>8502000</v>
+        <v>9005400</v>
       </c>
       <c r="F52" s="3">
-        <v>7444800</v>
+        <v>8683500</v>
       </c>
       <c r="G52" s="3">
-        <v>8312100</v>
+        <v>7603800</v>
       </c>
       <c r="H52" s="3">
-        <v>8791100</v>
+        <v>8489600</v>
       </c>
       <c r="I52" s="3">
-        <v>8576400</v>
+        <v>8978800</v>
       </c>
       <c r="J52" s="3">
+        <v>8759600</v>
+      </c>
+      <c r="K52" s="3">
         <v>7602400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6979800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6328700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6308400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6486200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7047200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8476400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7117600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7256700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7067800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6760800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7306600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6820600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7016100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6510600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6804600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7425400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7242800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7371400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7338500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72705900</v>
+        <v>75354900</v>
       </c>
       <c r="E54" s="3">
-        <v>74629200</v>
+        <v>74258700</v>
       </c>
       <c r="F54" s="3">
-        <v>74836400</v>
+        <v>76223000</v>
       </c>
       <c r="G54" s="3">
-        <v>110487000</v>
+        <v>76434700</v>
       </c>
       <c r="H54" s="3">
-        <v>111286100</v>
+        <v>112846700</v>
       </c>
       <c r="I54" s="3">
-        <v>98151000</v>
+        <v>113662900</v>
       </c>
       <c r="J54" s="3">
+        <v>100247200</v>
+      </c>
+      <c r="K54" s="3">
         <v>97637300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91836400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93110000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95141800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98722800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110335900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112320900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108683200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117800800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87378800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>83032800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76693000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>72176700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>74511100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>72602900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73538300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76671300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>75953900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>78000100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>77797300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17703700</v>
+        <v>17680100</v>
       </c>
       <c r="E57" s="3">
-        <v>20179100</v>
+        <v>18081800</v>
       </c>
       <c r="F57" s="3">
-        <v>19995500</v>
+        <v>20610100</v>
       </c>
       <c r="G57" s="3">
-        <v>18371300</v>
+        <v>20422500</v>
       </c>
       <c r="H57" s="3">
-        <v>21809500</v>
+        <v>18763600</v>
       </c>
       <c r="I57" s="3">
-        <v>21781000</v>
+        <v>22275300</v>
       </c>
       <c r="J57" s="3">
+        <v>22246200</v>
+      </c>
+      <c r="K57" s="3">
         <v>18897400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17013500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17422600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18737100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18471700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20140500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20379100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20373700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20854500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18380100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17872700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18539900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16125300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16218300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27262800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27351400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>25877500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>25538400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>15844900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>15754100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5287000</v>
+        <v>7503700</v>
       </c>
       <c r="E58" s="3">
-        <v>4903600</v>
+        <v>5400000</v>
       </c>
       <c r="F58" s="3">
-        <v>3465600</v>
+        <v>5008400</v>
       </c>
       <c r="G58" s="3">
-        <v>4128100</v>
+        <v>3539600</v>
       </c>
       <c r="H58" s="3">
-        <v>5089800</v>
+        <v>4216300</v>
       </c>
       <c r="I58" s="3">
-        <v>4468100</v>
+        <v>5198500</v>
       </c>
       <c r="J58" s="3">
+        <v>4563500</v>
+      </c>
+      <c r="K58" s="3">
         <v>6041500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6011400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3782600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4406300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5994600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7774600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9670400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9434700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11626500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13933800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11201100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7651300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3574100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4486100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4449900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3684700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6182400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8624100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4924800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5437000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2688800</v>
+        <v>2833700</v>
       </c>
       <c r="E59" s="3">
-        <v>3219900</v>
+        <v>2746200</v>
       </c>
       <c r="F59" s="3">
-        <v>2537400</v>
+        <v>3288600</v>
       </c>
       <c r="G59" s="3">
-        <v>24446200</v>
+        <v>2591600</v>
       </c>
       <c r="H59" s="3">
-        <v>3224800</v>
+        <v>24968300</v>
       </c>
       <c r="I59" s="3">
-        <v>3120600</v>
+        <v>3293700</v>
       </c>
       <c r="J59" s="3">
+        <v>3187300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2876200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2479200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2972900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3055400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2589800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3272000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3673800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2990800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3624100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3085600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3492300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3514600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2955800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2822200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3098900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3618200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3727700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3386000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3929300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3829200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25679600</v>
+        <v>28017500</v>
       </c>
       <c r="E60" s="3">
-        <v>28302600</v>
+        <v>26228000</v>
       </c>
       <c r="F60" s="3">
-        <v>25998500</v>
+        <v>28907100</v>
       </c>
       <c r="G60" s="3">
-        <v>46945700</v>
+        <v>26553700</v>
       </c>
       <c r="H60" s="3">
-        <v>30124100</v>
+        <v>47948300</v>
       </c>
       <c r="I60" s="3">
-        <v>29369700</v>
+        <v>30767500</v>
       </c>
       <c r="J60" s="3">
+        <v>29997000</v>
+      </c>
+      <c r="K60" s="3">
         <v>27815000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25504200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24178100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26198900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27056200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31187100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33723400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32799100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36105100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35399500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32566000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29705900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22655300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23526600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>34811500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34654200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>35787700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>37548500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>24699000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>25020300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20651900</v>
+        <v>19710300</v>
       </c>
       <c r="E61" s="3">
-        <v>21137000</v>
+        <v>21092900</v>
       </c>
       <c r="F61" s="3">
-        <v>23974700</v>
+        <v>21588500</v>
       </c>
       <c r="G61" s="3">
-        <v>23307200</v>
+        <v>24486800</v>
       </c>
       <c r="H61" s="3">
-        <v>36263600</v>
+        <v>23805000</v>
       </c>
       <c r="I61" s="3">
-        <v>25525700</v>
+        <v>37038100</v>
       </c>
       <c r="J61" s="3">
+        <v>26070900</v>
+      </c>
+      <c r="K61" s="3">
         <v>25729200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24377300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27483800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27709400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28465100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33536200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32932700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32171800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35141400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32013200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31080200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26773700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30553500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31792800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18118700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18604700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18643800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15989500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>19225100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>19305500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12338500</v>
+        <v>12218000</v>
       </c>
       <c r="E62" s="3">
-        <v>12662400</v>
+        <v>12602000</v>
       </c>
       <c r="F62" s="3">
-        <v>14048300</v>
+        <v>12932800</v>
       </c>
       <c r="G62" s="3">
-        <v>12142500</v>
+        <v>14348400</v>
       </c>
       <c r="H62" s="3">
-        <v>16816600</v>
+        <v>12401800</v>
       </c>
       <c r="I62" s="3">
-        <v>16774400</v>
+        <v>17175700</v>
       </c>
       <c r="J62" s="3">
+        <v>17132600</v>
+      </c>
+      <c r="K62" s="3">
         <v>17108200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16222900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16393400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16619700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18041100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19362200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18913600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18677100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20997400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15891900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14898400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15363400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14382600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15283600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15031500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15728700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15941300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16645600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>26711100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>26936300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5134,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58039700</v>
+        <v>59271600</v>
       </c>
       <c r="E66" s="3">
-        <v>61479200</v>
+        <v>59279200</v>
       </c>
       <c r="F66" s="3">
-        <v>63480600</v>
+        <v>62792200</v>
       </c>
       <c r="G66" s="3">
-        <v>90170200</v>
+        <v>64836300</v>
       </c>
       <c r="H66" s="3">
-        <v>91208700</v>
+        <v>92096000</v>
       </c>
       <c r="I66" s="3">
-        <v>79470800</v>
+        <v>93156700</v>
       </c>
       <c r="J66" s="3">
+        <v>81168000</v>
+      </c>
+      <c r="K66" s="3">
         <v>78496700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73499200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75383300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77886900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81295400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92616200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94891500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93129100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>101142200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>82416100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77688500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>70934300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>66664000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>69754900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>72692100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>73627000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>74983500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>74896100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>75743100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>76317200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8714100</v>
+        <v>10002800</v>
       </c>
       <c r="E72" s="3">
-        <v>7210300</v>
+        <v>8900200</v>
       </c>
       <c r="F72" s="3">
-        <v>5416100</v>
+        <v>7364300</v>
       </c>
       <c r="G72" s="3">
-        <v>14378400</v>
+        <v>5531800</v>
       </c>
       <c r="H72" s="3">
-        <v>14142600</v>
+        <v>14685500</v>
       </c>
       <c r="I72" s="3">
-        <v>12913000</v>
+        <v>14444700</v>
       </c>
       <c r="J72" s="3">
+        <v>13188800</v>
+      </c>
+      <c r="K72" s="3">
         <v>13374600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12796800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12191000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11781700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11784200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11691900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11278400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9389700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10276500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-641700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-100400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>102200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-912700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14666300</v>
+        <v>16083300</v>
       </c>
       <c r="E76" s="3">
-        <v>13150000</v>
+        <v>14979500</v>
       </c>
       <c r="F76" s="3">
-        <v>11355800</v>
+        <v>13430800</v>
       </c>
       <c r="G76" s="3">
-        <v>20316900</v>
+        <v>11598300</v>
       </c>
       <c r="H76" s="3">
-        <v>20077400</v>
+        <v>20750800</v>
       </c>
       <c r="I76" s="3">
-        <v>18680200</v>
+        <v>20506200</v>
       </c>
       <c r="J76" s="3">
+        <v>19079200</v>
+      </c>
+      <c r="K76" s="3">
         <v>19140600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18337200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17726700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17255000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17427500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17719700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17429400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15554000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16658700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4962700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5344200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5758600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5512600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4756200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-89200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-88700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1687800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1057800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2257000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1480100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1848800</v>
+        <v>2058100</v>
       </c>
       <c r="E81" s="3">
-        <v>2482800</v>
+        <v>1888300</v>
       </c>
       <c r="F81" s="3">
-        <v>12798900</v>
+        <v>2535900</v>
       </c>
       <c r="G81" s="3">
-        <v>1039800</v>
+        <v>13072200</v>
       </c>
       <c r="H81" s="3">
-        <v>2235900</v>
+        <v>1062000</v>
       </c>
       <c r="I81" s="3">
-        <v>929400</v>
+        <v>2283700</v>
       </c>
       <c r="J81" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1449300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1663600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1279600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1517600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2950000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2083200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1771600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2196300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1323800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1105100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1604800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1746400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>570100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>709800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-712200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1580800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-234800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1377400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>338400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,40 +6605,41 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>794100</v>
+        <v>572800</v>
       </c>
       <c r="E83" s="3">
-        <v>9900</v>
+        <v>811100</v>
       </c>
       <c r="F83" s="3">
-        <v>1186200</v>
+        <v>10100</v>
       </c>
       <c r="G83" s="3">
-        <v>782900</v>
+        <v>1211500</v>
       </c>
       <c r="H83" s="3">
-        <v>873500</v>
+        <v>799700</v>
       </c>
       <c r="I83" s="3">
-        <v>636500</v>
+        <v>892200</v>
       </c>
       <c r="J83" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1223400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>791800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>430500</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>24</v>
@@ -6448,53 +6647,56 @@
       <c r="O83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83" s="3">
         <v>258200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-188200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>726000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1065600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1575000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>907400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>610900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>252100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>618000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>-228300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>892100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1417800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>429300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>821700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65800</v>
+        <v>1656400</v>
       </c>
       <c r="E89" s="3">
-        <v>2363700</v>
+        <v>67200</v>
       </c>
       <c r="F89" s="3">
-        <v>1639100</v>
+        <v>2414200</v>
       </c>
       <c r="G89" s="3">
-        <v>2028700</v>
+        <v>1674100</v>
       </c>
       <c r="H89" s="3">
-        <v>3154100</v>
+        <v>2072000</v>
       </c>
       <c r="I89" s="3">
-        <v>4674100</v>
+        <v>3221500</v>
       </c>
       <c r="J89" s="3">
+        <v>4773900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3178900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1540700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>394700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4560100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1050300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3597900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1284500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4709200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3559000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1907400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>882700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5440300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2558000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1760800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1115700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3742100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2474300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1314700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1506400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3938500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-529000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-751000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-480000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-426000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-601000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-824000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1199000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-180100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-239700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-608000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-356200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-290700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-262200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-654600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-401900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-383100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-295600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-663000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-370700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-365900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-333500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-696500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-485200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-494300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-547800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506200</v>
+        <v>-1221700</v>
       </c>
       <c r="E94" s="3">
-        <v>-670000</v>
+        <v>-517100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5079800</v>
+        <v>-684300</v>
       </c>
       <c r="G94" s="3">
-        <v>-676200</v>
+        <v>-5188300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4458200</v>
+        <v>-690700</v>
       </c>
       <c r="I94" s="3">
-        <v>-447900</v>
+        <v>-4553400</v>
       </c>
       <c r="J94" s="3">
+        <v>-457500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1467900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-220600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-683100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3690500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-504600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-662300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-774500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-545500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-624400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-338700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-479600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-436900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-602600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-583000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>-229100</v>
       </c>
       <c r="AD94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,94 +7650,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-688600</v>
+        <v>-705900</v>
       </c>
       <c r="E96" s="3">
-        <v>-811500</v>
+        <v>-703400</v>
       </c>
       <c r="F96" s="3">
-        <v>-874800</v>
+        <v>-828800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1434400</v>
+        <v>-893400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1181200</v>
+        <v>-1465000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1206500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1205200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1180000</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1180000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1372600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1128100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1119000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1154000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="AC96" s="3">
         <v>-1218000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-394600</v>
+        <v>39300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1660200</v>
+        <v>-403000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1645300</v>
+        <v>-1695600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5566200</v>
+        <v>-1680400</v>
       </c>
       <c r="H100" s="3">
-        <v>9892900</v>
+        <v>-5685100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3442000</v>
+        <v>10104200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3515500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1729700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2438700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1640900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2572800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5216300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4874300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-365900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-846500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38500</v>
+        <v>-72200</v>
       </c>
       <c r="E101" s="3">
-        <v>57100</v>
+        <v>-39300</v>
       </c>
       <c r="F101" s="3">
-        <v>28500</v>
+        <v>58300</v>
       </c>
       <c r="G101" s="3">
-        <v>88100</v>
+        <v>29100</v>
       </c>
       <c r="H101" s="3">
-        <v>14900</v>
+        <v>90000</v>
       </c>
       <c r="I101" s="3">
-        <v>-9900</v>
+        <v>15200</v>
       </c>
       <c r="J101" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K101" s="3">
         <v>16100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-54900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>55900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-139100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>74200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-53300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>52800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>23300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-40400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-74300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>14500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>105300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-873500</v>
+        <v>401700</v>
       </c>
       <c r="E102" s="3">
-        <v>90600</v>
+        <v>-892200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5057500</v>
+        <v>92500</v>
       </c>
       <c r="G102" s="3">
-        <v>-4125700</v>
+        <v>-5165500</v>
       </c>
       <c r="H102" s="3">
-        <v>8603700</v>
+        <v>-4213800</v>
       </c>
       <c r="I102" s="3">
-        <v>774300</v>
+        <v>8787500</v>
       </c>
       <c r="J102" s="3">
+        <v>790800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1117400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1345200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1899700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4904000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3843000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-137100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>302800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>287300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>442000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>660400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-120700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-93100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>203000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-973000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>984800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-601300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-728200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1256200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-412200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>GSK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9096700</v>
+        <v>10107200</v>
       </c>
       <c r="E8" s="3">
-        <v>8809000</v>
+        <v>8905000</v>
       </c>
       <c r="F8" s="3">
-        <v>9347600</v>
+        <v>8623400</v>
       </c>
       <c r="G8" s="3">
-        <v>9921700</v>
+        <v>9150700</v>
       </c>
       <c r="H8" s="3">
-        <v>8781100</v>
+        <v>9712700</v>
       </c>
       <c r="I8" s="3">
-        <v>9111900</v>
+        <v>8596100</v>
       </c>
       <c r="J8" s="3">
+        <v>8919900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8967400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8222800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6961900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6147400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10337400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10547300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9938600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12099700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12136400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13280800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10723200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10199900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10826500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9966100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9450400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9336700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9963600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10229700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9547500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9723200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9989200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9931200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2397700</v>
+        <v>2772700</v>
       </c>
       <c r="E9" s="3">
-        <v>2411700</v>
+        <v>2347200</v>
       </c>
       <c r="F9" s="3">
-        <v>2758900</v>
+        <v>2360900</v>
       </c>
       <c r="G9" s="3">
-        <v>3023800</v>
+        <v>2700800</v>
       </c>
       <c r="H9" s="3">
-        <v>2707000</v>
+        <v>2960100</v>
       </c>
       <c r="I9" s="3">
-        <v>3409000</v>
+        <v>2649900</v>
       </c>
       <c r="J9" s="3">
+        <v>3337200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3499000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2434400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2007000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1908000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3503700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3315700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3166400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3701800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4106400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4211400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3338200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3160700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3523900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3104900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2853200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2996700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3122500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3183800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2778200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3097100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3066800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3216900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6698900</v>
+        <v>7334400</v>
       </c>
       <c r="E10" s="3">
-        <v>6397300</v>
+        <v>6557800</v>
       </c>
       <c r="F10" s="3">
-        <v>6588700</v>
+        <v>6262500</v>
       </c>
       <c r="G10" s="3">
-        <v>6897900</v>
+        <v>6449900</v>
       </c>
       <c r="H10" s="3">
-        <v>6074200</v>
+        <v>6752600</v>
       </c>
       <c r="I10" s="3">
-        <v>5702900</v>
+        <v>5946200</v>
       </c>
       <c r="J10" s="3">
+        <v>5582700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5468400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5788300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4954900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4239400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6833600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7231600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6772200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8397900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8030000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9069400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7385000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7039100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7302600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6861200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6597200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6339900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6841100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7045900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6769400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6626100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6922400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>6714300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,97 +1097,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1666500</v>
+        <v>1772800</v>
       </c>
       <c r="E12" s="3">
-        <v>1548600</v>
+        <v>1631400</v>
       </c>
       <c r="F12" s="3">
-        <v>1928800</v>
+        <v>1516000</v>
       </c>
       <c r="G12" s="3">
-        <v>1643700</v>
+        <v>1888200</v>
       </c>
       <c r="H12" s="3">
-        <v>1463700</v>
+        <v>1609100</v>
       </c>
       <c r="I12" s="3">
-        <v>1378800</v>
+        <v>1432900</v>
       </c>
       <c r="J12" s="3">
+        <v>1349800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1628500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1379800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1318900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1218700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1534200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1279700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1526500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1445600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1587500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1647200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1428100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1292800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1345900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1183600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1122200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1146700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1293900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1171300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1373400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1210100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1339200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1153500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,186 +1279,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-196400</v>
+        <v>795200</v>
       </c>
       <c r="E14" s="3">
-        <v>-202800</v>
+        <v>-192300</v>
       </c>
       <c r="F14" s="3">
-        <v>-552500</v>
+        <v>-198500</v>
       </c>
       <c r="G14" s="3">
-        <v>1541000</v>
+        <v>-540900</v>
       </c>
       <c r="H14" s="3">
-        <v>931500</v>
+        <v>1508600</v>
       </c>
       <c r="I14" s="3">
-        <v>-503100</v>
+        <v>911800</v>
       </c>
       <c r="J14" s="3">
+        <v>-492500</v>
+      </c>
+      <c r="K14" s="3">
         <v>966900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>884700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>338700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-48900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>662400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>746600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1686800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>629600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-312300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>615600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>656400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>728300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>488700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>570200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1529400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>686500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1712600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>566100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2504300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>156700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1663100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>863800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="E15" s="3">
-        <v>22800</v>
+        <v>24800</v>
       </c>
       <c r="F15" s="3">
-        <v>20300</v>
+        <v>22300</v>
       </c>
       <c r="G15" s="3">
-        <v>32900</v>
+        <v>19800</v>
       </c>
       <c r="H15" s="3">
-        <v>32900</v>
+        <v>32300</v>
       </c>
       <c r="I15" s="3">
-        <v>29100</v>
+        <v>32300</v>
       </c>
       <c r="J15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K15" s="3">
         <v>31700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>29800</v>
       </c>
       <c r="M15" s="3">
         <v>29800</v>
       </c>
       <c r="N15" s="3">
+        <v>29800</v>
+      </c>
+      <c r="O15" s="3">
         <v>30800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>12900</v>
       </c>
       <c r="Y15" s="3">
         <v>12900</v>
       </c>
       <c r="Z15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="AA15" s="3">
         <v>14300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>15700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>14300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>14500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>13200</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6383400</v>
+        <v>7689200</v>
       </c>
       <c r="E17" s="3">
-        <v>6169200</v>
+        <v>6248900</v>
       </c>
       <c r="F17" s="3">
-        <v>6980300</v>
+        <v>6039200</v>
       </c>
       <c r="G17" s="3">
-        <v>8412300</v>
+        <v>6833200</v>
       </c>
       <c r="H17" s="3">
-        <v>7411200</v>
+        <v>8235100</v>
       </c>
       <c r="I17" s="3">
-        <v>6206000</v>
+        <v>7255000</v>
       </c>
       <c r="J17" s="3">
+        <v>6075200</v>
+      </c>
+      <c r="K17" s="3">
         <v>8343900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6510500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5484400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4704500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9082300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8280700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6223300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9418900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9542400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10242600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8685400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8298600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8774000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7610100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8443300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7733600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9209700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7771100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9547500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7460900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9205700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8046900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2713300</v>
+        <v>2417900</v>
       </c>
       <c r="E18" s="3">
-        <v>2639800</v>
+        <v>2656100</v>
       </c>
       <c r="F18" s="3">
-        <v>2367300</v>
+        <v>2584200</v>
       </c>
       <c r="G18" s="3">
-        <v>1509400</v>
+        <v>2317400</v>
       </c>
       <c r="H18" s="3">
-        <v>1370000</v>
+        <v>1477600</v>
       </c>
       <c r="I18" s="3">
-        <v>2905900</v>
+        <v>1341100</v>
       </c>
       <c r="J18" s="3">
+        <v>2844700</v>
+      </c>
+      <c r="K18" s="3">
         <v>623500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1712300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1477500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1442900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1255100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2266600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3715200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2680800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2593900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3038200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2037800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1901200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2052500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2356100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1007100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1603100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>753900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2458600</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>2262200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>783500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1884300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,186 +1714,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-195200</v>
+        <v>-196000</v>
       </c>
       <c r="E20" s="3">
-        <v>-223000</v>
+        <v>-191100</v>
       </c>
       <c r="F20" s="3">
-        <v>-306700</v>
+        <v>-218300</v>
       </c>
       <c r="G20" s="3">
-        <v>-226800</v>
+        <v>-300200</v>
       </c>
       <c r="H20" s="3">
-        <v>-234500</v>
+        <v>-222100</v>
       </c>
       <c r="I20" s="3">
-        <v>-252200</v>
+        <v>-229500</v>
       </c>
       <c r="J20" s="3">
+        <v>-246900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-239500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-233300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-201500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-209900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-283900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-228100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-272500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-238300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-260500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-277400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-302100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-177100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-237700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-256200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-213300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-171900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-177400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-226900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-232200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-221200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-226500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3090900</v>
+        <v>2940200</v>
       </c>
       <c r="E21" s="3">
-        <v>3227800</v>
+        <v>3025800</v>
       </c>
       <c r="F21" s="3">
-        <v>2070800</v>
+        <v>3159800</v>
       </c>
       <c r="G21" s="3">
-        <v>2494000</v>
+        <v>2027100</v>
       </c>
       <c r="H21" s="3">
-        <v>1935200</v>
+        <v>2441500</v>
       </c>
       <c r="I21" s="3">
-        <v>3545900</v>
+        <v>1894400</v>
       </c>
       <c r="J21" s="3">
+        <v>3471200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1282500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2606900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1925900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1663600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3522700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2034800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3446700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2145200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3486800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2801300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3299200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2722100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2710800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1045900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2049100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>348300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3123800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1185600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2470300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1378700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1929100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1888,8 +1928,8 @@
       <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1948,186 +1988,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2518100</v>
+        <v>2221900</v>
       </c>
       <c r="E23" s="3">
-        <v>2416700</v>
+        <v>2465100</v>
       </c>
       <c r="F23" s="3">
-        <v>2060600</v>
+        <v>2365800</v>
       </c>
       <c r="G23" s="3">
-        <v>1282500</v>
+        <v>2017200</v>
       </c>
       <c r="H23" s="3">
-        <v>1135500</v>
+        <v>1255500</v>
       </c>
       <c r="I23" s="3">
-        <v>2653700</v>
+        <v>1111600</v>
       </c>
       <c r="J23" s="3">
+        <v>2597800</v>
+      </c>
+      <c r="K23" s="3">
         <v>384000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1479000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1233100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>971200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2038500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3442800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2442600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2333400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2760900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1735700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1724200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1814800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2099900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>793800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1431100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>576500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2231700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-232200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2041000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>557000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1677600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>306700</v>
+        <v>318800</v>
       </c>
       <c r="E24" s="3">
-        <v>349800</v>
+        <v>300200</v>
       </c>
       <c r="F24" s="3">
-        <v>1300</v>
+        <v>342400</v>
       </c>
       <c r="G24" s="3">
-        <v>295300</v>
+        <v>1200</v>
       </c>
       <c r="H24" s="3">
-        <v>190100</v>
+        <v>289100</v>
       </c>
       <c r="I24" s="3">
-        <v>409300</v>
+        <v>186100</v>
       </c>
       <c r="J24" s="3">
+        <v>400700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-148300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>305200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-239700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>184800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-21300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>294000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>262000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>207700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>264600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>332600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>293900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>412700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>262800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>237700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>179700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>449900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-356100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>412200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-120000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>430600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>139600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>512200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2211400</v>
+        <v>1903100</v>
       </c>
       <c r="E26" s="3">
-        <v>2067000</v>
+        <v>2164800</v>
       </c>
       <c r="F26" s="3">
-        <v>2059400</v>
+        <v>2023400</v>
       </c>
       <c r="G26" s="3">
-        <v>987200</v>
+        <v>2016000</v>
       </c>
       <c r="H26" s="3">
-        <v>945400</v>
+        <v>966400</v>
       </c>
       <c r="I26" s="3">
-        <v>2244400</v>
+        <v>925500</v>
       </c>
       <c r="J26" s="3">
+        <v>2197100</v>
+      </c>
+      <c r="K26" s="3">
         <v>532300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1173800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1515700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1048200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>992500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1744500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3180800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2234900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2068900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2428300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1441800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1311400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1551900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1862200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>614100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>981200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>932600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1819500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-112200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1610400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>417400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1165400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2058100</v>
+        <v>1816200</v>
       </c>
       <c r="E27" s="3">
-        <v>1888300</v>
+        <v>2014700</v>
       </c>
       <c r="F27" s="3">
-        <v>1901000</v>
+        <v>1848500</v>
       </c>
       <c r="G27" s="3">
-        <v>939100</v>
+        <v>1860900</v>
       </c>
       <c r="H27" s="3">
-        <v>771800</v>
+        <v>919300</v>
       </c>
       <c r="I27" s="3">
-        <v>1781800</v>
+        <v>755500</v>
       </c>
       <c r="J27" s="3">
+        <v>1744300</v>
+      </c>
+      <c r="K27" s="3">
         <v>302900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>925600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1345200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>825200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1517600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2083200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1771600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2196300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1323800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1105100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1439700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1746400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>570100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>709800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>693900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1580800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-234800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1377400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>338400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,49 +2540,52 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>634900</v>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>12133100</v>
+        <v>621500</v>
       </c>
       <c r="H29" s="3">
-        <v>290200</v>
+        <v>11877500</v>
       </c>
       <c r="I29" s="3">
-        <v>501900</v>
+        <v>284100</v>
       </c>
       <c r="J29" s="3">
+        <v>491300</v>
+      </c>
+      <c r="K29" s="3">
         <v>646300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>523600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>318400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>454300</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2541,11 +2602,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>165100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2553,11 +2614,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1406000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2571,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>195200</v>
+        <v>196000</v>
       </c>
       <c r="E32" s="3">
-        <v>223000</v>
+        <v>191100</v>
       </c>
       <c r="F32" s="3">
-        <v>306700</v>
+        <v>218300</v>
       </c>
       <c r="G32" s="3">
-        <v>226800</v>
+        <v>300200</v>
       </c>
       <c r="H32" s="3">
-        <v>234500</v>
+        <v>222100</v>
       </c>
       <c r="I32" s="3">
-        <v>252200</v>
+        <v>229500</v>
       </c>
       <c r="J32" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K32" s="3">
         <v>239500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>233300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>201500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>209900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>283900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>228100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>272500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>238300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>260500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>277400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>302100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>177100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>237700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>256200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>213300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>171900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>177400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>226900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>232200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>221200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>226500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>206700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2058100</v>
+        <v>1816200</v>
       </c>
       <c r="E33" s="3">
-        <v>1888300</v>
+        <v>2014700</v>
       </c>
       <c r="F33" s="3">
-        <v>2535900</v>
+        <v>1848500</v>
       </c>
       <c r="G33" s="3">
-        <v>13072200</v>
+        <v>2482400</v>
       </c>
       <c r="H33" s="3">
-        <v>1062000</v>
+        <v>12796800</v>
       </c>
       <c r="I33" s="3">
-        <v>2283700</v>
+        <v>1039600</v>
       </c>
       <c r="J33" s="3">
+        <v>2235600</v>
+      </c>
+      <c r="K33" s="3">
         <v>949200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1449300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1663600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1279600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1517600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2083200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1771600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2196300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1323800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1105100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1604800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1746400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>570100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>709800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-712200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1580800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-234800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1377400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>338400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2058100</v>
+        <v>1816200</v>
       </c>
       <c r="E35" s="3">
-        <v>1888300</v>
+        <v>2014700</v>
       </c>
       <c r="F35" s="3">
-        <v>2535900</v>
+        <v>1848500</v>
       </c>
       <c r="G35" s="3">
-        <v>13072200</v>
+        <v>2482400</v>
       </c>
       <c r="H35" s="3">
-        <v>1062000</v>
+        <v>12796800</v>
       </c>
       <c r="I35" s="3">
-        <v>2283700</v>
+        <v>1039600</v>
       </c>
       <c r="J35" s="3">
+        <v>2235600</v>
+      </c>
+      <c r="K35" s="3">
         <v>949200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1449300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1663600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1279600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1517600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2083200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1771600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2196300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1323800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1105100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1604800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1746400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>570100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>709800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-712200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1580800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-234800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1377400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>338400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,809 +3351,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3979300</v>
+        <v>3941400</v>
       </c>
       <c r="E41" s="3">
-        <v>3662500</v>
+        <v>3895500</v>
       </c>
       <c r="F41" s="3">
-        <v>4718200</v>
+        <v>3585300</v>
       </c>
       <c r="G41" s="3">
-        <v>4569900</v>
+        <v>4618800</v>
       </c>
       <c r="H41" s="3">
-        <v>8193100</v>
+        <v>4473600</v>
       </c>
       <c r="I41" s="3">
-        <v>13898500</v>
+        <v>8020500</v>
       </c>
       <c r="J41" s="3">
+        <v>13605700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5416400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4284500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4177400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5672800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7442800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5224800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10645100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6348000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6419400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6092000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5661700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5501300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5116700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4671500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5230700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5176400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4999400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6186300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5199000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5937400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6448300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>6075700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4263200</v>
+        <v>4349500</v>
       </c>
       <c r="E42" s="3">
-        <v>5176900</v>
+        <v>4173400</v>
       </c>
       <c r="F42" s="3">
-        <v>5264400</v>
+        <v>5067900</v>
       </c>
       <c r="G42" s="3">
-        <v>4505300</v>
+        <v>5153500</v>
       </c>
       <c r="H42" s="3">
-        <v>84900</v>
+        <v>4410300</v>
       </c>
       <c r="I42" s="3">
-        <v>3814600</v>
+        <v>83100</v>
       </c>
       <c r="J42" s="3">
+        <v>3734200</v>
+      </c>
+      <c r="K42" s="3">
         <v>77300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>101300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>113400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>107700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>121700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>115300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>107800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>110900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>98500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>104700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>98300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>101700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>107000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>110900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>115900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>117200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8991500</v>
+        <v>11009100</v>
       </c>
       <c r="E43" s="3">
-        <v>9034600</v>
+        <v>8802100</v>
       </c>
       <c r="F43" s="3">
-        <v>9451500</v>
+        <v>8844200</v>
       </c>
       <c r="G43" s="3">
-        <v>10257500</v>
+        <v>9252400</v>
       </c>
       <c r="H43" s="3">
-        <v>8706400</v>
+        <v>10041400</v>
       </c>
       <c r="I43" s="3">
-        <v>11148400</v>
+        <v>8522900</v>
       </c>
       <c r="J43" s="3">
+        <v>10913600</v>
+      </c>
+      <c r="K43" s="3">
         <v>10576900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10278800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8952200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8565800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9017200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10272800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9771700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11840100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10179300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11804800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9696100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8944300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8785900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9297300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8805300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8283000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8162400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8778000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8337100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8494600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8232600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>9548000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6985400</v>
+        <v>6798500</v>
       </c>
       <c r="E44" s="3">
-        <v>6786400</v>
+        <v>6838200</v>
       </c>
       <c r="F44" s="3">
-        <v>6521500</v>
+        <v>6643400</v>
       </c>
       <c r="G44" s="3">
-        <v>5904400</v>
+        <v>6384100</v>
       </c>
       <c r="H44" s="3">
-        <v>5910700</v>
+        <v>5780000</v>
       </c>
       <c r="I44" s="3">
-        <v>7607600</v>
+        <v>5786200</v>
       </c>
       <c r="J44" s="3">
+        <v>7447300</v>
+      </c>
+      <c r="K44" s="3">
         <v>7328800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7747600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7548600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7412600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7092700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7856200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8337800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7922700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8110500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9588800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8182800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7559700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7232600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7128500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7683200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7316000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7248100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7383700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7490700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>7133100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6718300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>7075100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300400</v>
+        <v>251800</v>
       </c>
       <c r="E45" s="3">
-        <v>329500</v>
+        <v>294000</v>
       </c>
       <c r="F45" s="3">
-        <v>365000</v>
+        <v>322600</v>
       </c>
       <c r="G45" s="3">
-        <v>424500</v>
+        <v>357300</v>
       </c>
       <c r="H45" s="3">
-        <v>45777400</v>
+        <v>415600</v>
       </c>
       <c r="I45" s="3">
-        <v>267400</v>
+        <v>44813000</v>
       </c>
       <c r="J45" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K45" s="3">
         <v>266100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>263000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>199100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>367300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>305200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>797800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1085900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3089500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1764700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2095800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1374600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1218200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1110800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>256200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>210700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>358100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>236100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>573900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>286900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>424000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>488500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24519700</v>
+        <v>26350300</v>
       </c>
       <c r="E46" s="3">
-        <v>24989900</v>
+        <v>24003100</v>
       </c>
       <c r="F46" s="3">
-        <v>26320600</v>
+        <v>24463400</v>
       </c>
       <c r="G46" s="3">
-        <v>25661600</v>
+        <v>25766000</v>
       </c>
       <c r="H46" s="3">
-        <v>68672500</v>
+        <v>25120900</v>
       </c>
       <c r="I46" s="3">
-        <v>36736500</v>
+        <v>67225600</v>
       </c>
       <c r="J46" s="3">
+        <v>35962500</v>
+      </c>
+      <c r="K46" s="3">
         <v>23665600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22649600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20947600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22090100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23950200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24252800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29953900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29314800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26581600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29703200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25030500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23331500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22357000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21452000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22034700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21231800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>20747700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>23028900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21424600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>22105000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>22004900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>23191300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1710900</v>
+        <v>1416800</v>
       </c>
       <c r="E47" s="3">
-        <v>1698200</v>
+        <v>1674800</v>
       </c>
       <c r="F47" s="3">
-        <v>1952900</v>
+        <v>1662400</v>
       </c>
       <c r="G47" s="3">
-        <v>2065700</v>
+        <v>1911800</v>
       </c>
       <c r="H47" s="3">
-        <v>2189900</v>
+        <v>2022200</v>
       </c>
       <c r="I47" s="3">
-        <v>2203800</v>
+        <v>2143800</v>
       </c>
       <c r="J47" s="3">
+        <v>2157400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2805800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3496600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3857800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4477900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4050200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3625500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3342400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2916400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2933500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2725500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2319300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2186200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2057800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1987800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1640600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1484100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1436000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1455600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1647300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1744700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1643400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1582800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11804900</v>
+        <v>11728600</v>
       </c>
       <c r="E48" s="3">
-        <v>11930400</v>
+        <v>11556200</v>
       </c>
       <c r="F48" s="3">
-        <v>12191400</v>
+        <v>11679000</v>
       </c>
       <c r="G48" s="3">
-        <v>12229400</v>
+        <v>11934600</v>
       </c>
       <c r="H48" s="3">
-        <v>11599600</v>
+        <v>11971800</v>
       </c>
       <c r="I48" s="3">
-        <v>13565200</v>
+        <v>11355200</v>
       </c>
       <c r="J48" s="3">
+        <v>13279400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13524600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13235600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12627500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12680000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13019000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13669000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14901300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15177200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15429900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16556800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15665400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15034200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14605300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13452800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13992100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13782600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14164800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13868700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13906600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14237100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14231900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>14446500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28193600</v>
+        <v>27625700</v>
       </c>
       <c r="E49" s="3">
-        <v>26634800</v>
+        <v>27599600</v>
       </c>
       <c r="F49" s="3">
-        <v>27074600</v>
+        <v>26073700</v>
       </c>
       <c r="G49" s="3">
-        <v>28874200</v>
+        <v>26504200</v>
       </c>
       <c r="H49" s="3">
-        <v>21895100</v>
+        <v>28265800</v>
       </c>
       <c r="I49" s="3">
-        <v>52178500</v>
+        <v>21433800</v>
       </c>
       <c r="J49" s="3">
+        <v>51079200</v>
+      </c>
+      <c r="K49" s="3">
         <v>51491700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50653200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47423700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47533400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47814000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50689300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>55091000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>56436000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>56620500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>61558700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>37295800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35720100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30366300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28463500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29827700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29593700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30385200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>30892600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>31732600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>32541800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>32578700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>32045400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9125800</v>
+        <v>8384000</v>
       </c>
       <c r="E52" s="3">
-        <v>9005400</v>
+        <v>8933600</v>
       </c>
       <c r="F52" s="3">
-        <v>8683500</v>
+        <v>8815700</v>
       </c>
       <c r="G52" s="3">
-        <v>7603800</v>
+        <v>8500600</v>
       </c>
       <c r="H52" s="3">
-        <v>8489600</v>
+        <v>7443600</v>
       </c>
       <c r="I52" s="3">
-        <v>8978800</v>
+        <v>8310800</v>
       </c>
       <c r="J52" s="3">
+        <v>8789700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8759600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7602400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6979800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6328700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6308400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6486200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7047200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8476400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7117600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7256700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7067800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6760800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7306600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6820600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7016100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6510600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6804600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7425400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7242800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7371400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7338500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>6144100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75354900</v>
+        <v>75505400</v>
       </c>
       <c r="E54" s="3">
-        <v>74258700</v>
+        <v>73767300</v>
       </c>
       <c r="F54" s="3">
-        <v>76223000</v>
+        <v>72694200</v>
       </c>
       <c r="G54" s="3">
-        <v>76434700</v>
+        <v>74617100</v>
       </c>
       <c r="H54" s="3">
-        <v>112846700</v>
+        <v>74824300</v>
       </c>
       <c r="I54" s="3">
-        <v>113662900</v>
+        <v>110469200</v>
       </c>
       <c r="J54" s="3">
+        <v>111268200</v>
+      </c>
+      <c r="K54" s="3">
         <v>100247200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97637300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91836400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93110000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95141800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98722800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110335900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112320900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108683200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117800800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87378800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>83032800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76693000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>72176700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>74511100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>72602900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>73538300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>76671300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>75953900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>78000100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>77797300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>77410100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17680100</v>
+        <v>19331000</v>
       </c>
       <c r="E57" s="3">
-        <v>18081800</v>
+        <v>17307600</v>
       </c>
       <c r="F57" s="3">
-        <v>20610100</v>
+        <v>17700900</v>
       </c>
       <c r="G57" s="3">
-        <v>20422500</v>
+        <v>20175900</v>
       </c>
       <c r="H57" s="3">
-        <v>18763600</v>
+        <v>19992300</v>
       </c>
       <c r="I57" s="3">
-        <v>22275300</v>
+        <v>18368300</v>
       </c>
       <c r="J57" s="3">
+        <v>21806000</v>
+      </c>
+      <c r="K57" s="3">
         <v>22246200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18897400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17013500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17422600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18737100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18471700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20140500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20379100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20373700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20854500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18380100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17872700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18539900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16125300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16218300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27262800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27351400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>25877500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>25538400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>15844900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>15754100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>15424900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7503700</v>
+        <v>6008200</v>
       </c>
       <c r="E58" s="3">
-        <v>5400000</v>
+        <v>7345600</v>
       </c>
       <c r="F58" s="3">
-        <v>5008400</v>
+        <v>5286200</v>
       </c>
       <c r="G58" s="3">
-        <v>3539600</v>
+        <v>4902900</v>
       </c>
       <c r="H58" s="3">
-        <v>4216300</v>
+        <v>3465000</v>
       </c>
       <c r="I58" s="3">
-        <v>5198500</v>
+        <v>4127500</v>
       </c>
       <c r="J58" s="3">
+        <v>5088900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4563500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6041500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6011400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3782600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4406300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5994600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7774600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9670400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9434700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11626500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13933800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11201100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7651300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3574100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4486100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4449900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3684700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6182400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8624100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4924800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5437000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>5215800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2833700</v>
+        <v>2437800</v>
       </c>
       <c r="E59" s="3">
-        <v>2746200</v>
+        <v>2774000</v>
       </c>
       <c r="F59" s="3">
-        <v>3288600</v>
+        <v>2688400</v>
       </c>
       <c r="G59" s="3">
-        <v>2591600</v>
+        <v>3219400</v>
       </c>
       <c r="H59" s="3">
-        <v>24968300</v>
+        <v>2537000</v>
       </c>
       <c r="I59" s="3">
-        <v>3293700</v>
+        <v>24442300</v>
       </c>
       <c r="J59" s="3">
+        <v>3224300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3187300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2876200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2479200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2972900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3055400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2589800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3272000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3673800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2990800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3624100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3085600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3492300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3514600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2955800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2822200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3098900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3618200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3727700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3386000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3929300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3829200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3241900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28017500</v>
+        <v>27777000</v>
       </c>
       <c r="E60" s="3">
-        <v>26228000</v>
+        <v>27427200</v>
       </c>
       <c r="F60" s="3">
-        <v>28907100</v>
+        <v>25675500</v>
       </c>
       <c r="G60" s="3">
-        <v>26553700</v>
+        <v>28298100</v>
       </c>
       <c r="H60" s="3">
-        <v>47948300</v>
+        <v>25994300</v>
       </c>
       <c r="I60" s="3">
-        <v>30767500</v>
+        <v>46938100</v>
       </c>
       <c r="J60" s="3">
+        <v>30119300</v>
+      </c>
+      <c r="K60" s="3">
         <v>29997000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27815000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25504200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24178100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26198900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27056200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31187100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33723400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32799100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36105100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35399500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32566000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29705900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22655300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23526600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34811500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>34654200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>35787700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>37548500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>24699000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>25020300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>23882600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19710300</v>
+        <v>19840900</v>
       </c>
       <c r="E61" s="3">
-        <v>21092900</v>
+        <v>19295100</v>
       </c>
       <c r="F61" s="3">
-        <v>21588500</v>
+        <v>20648500</v>
       </c>
       <c r="G61" s="3">
-        <v>24486800</v>
+        <v>21133600</v>
       </c>
       <c r="H61" s="3">
-        <v>23805000</v>
+        <v>23970900</v>
       </c>
       <c r="I61" s="3">
-        <v>37038100</v>
+        <v>23303400</v>
       </c>
       <c r="J61" s="3">
+        <v>36257800</v>
+      </c>
+      <c r="K61" s="3">
         <v>26070900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25729200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24377300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27483800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27709400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28465100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33536200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32932700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32171800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35141400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32013200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31080200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26773700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30553500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31792800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18118700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18604700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18643800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15989500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>19225100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>19305500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>20279900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12218000</v>
+        <v>12232300</v>
       </c>
       <c r="E62" s="3">
-        <v>12602000</v>
+        <v>11960600</v>
       </c>
       <c r="F62" s="3">
-        <v>12932800</v>
+        <v>12336500</v>
       </c>
       <c r="G62" s="3">
-        <v>14348400</v>
+        <v>12660300</v>
       </c>
       <c r="H62" s="3">
-        <v>12401800</v>
+        <v>14046100</v>
       </c>
       <c r="I62" s="3">
-        <v>17175700</v>
+        <v>12140500</v>
       </c>
       <c r="J62" s="3">
+        <v>16813900</v>
+      </c>
+      <c r="K62" s="3">
         <v>17132600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17108200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16222900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16393400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16619700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18041100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19362200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18913600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18677100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20997400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15891900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14898400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15363400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14382600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15283600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15031500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15728700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15941300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16645600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>26711100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>26936300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>27983100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59271600</v>
+        <v>59212600</v>
       </c>
       <c r="E66" s="3">
-        <v>59279200</v>
+        <v>58022900</v>
       </c>
       <c r="F66" s="3">
-        <v>62792200</v>
+        <v>58030300</v>
       </c>
       <c r="G66" s="3">
-        <v>64836300</v>
+        <v>61469200</v>
       </c>
       <c r="H66" s="3">
-        <v>92096000</v>
+        <v>63470300</v>
       </c>
       <c r="I66" s="3">
-        <v>93156700</v>
+        <v>90155600</v>
       </c>
       <c r="J66" s="3">
+        <v>91194000</v>
+      </c>
+      <c r="K66" s="3">
         <v>81168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78496700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73499200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75383300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77886900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81295400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92616200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>94891500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93129100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>101142200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>82416100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>77688500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>70934300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>66664000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>69754900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>72692100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>73627000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>74983500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>74896100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>75743100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>76317200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>77228400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10002800</v>
+        <v>10340400</v>
       </c>
       <c r="E72" s="3">
-        <v>8900200</v>
+        <v>9792100</v>
       </c>
       <c r="F72" s="3">
-        <v>7364300</v>
+        <v>8712700</v>
       </c>
       <c r="G72" s="3">
-        <v>5531800</v>
+        <v>7209100</v>
       </c>
       <c r="H72" s="3">
-        <v>14685500</v>
+        <v>5415200</v>
       </c>
       <c r="I72" s="3">
-        <v>14444700</v>
+        <v>14376100</v>
       </c>
       <c r="J72" s="3">
+        <v>14140400</v>
+      </c>
+      <c r="K72" s="3">
         <v>13188800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13374600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12796800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12191000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11781700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11784200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11691900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11278400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9389700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10276500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1219400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-641700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-100400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>102200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-912700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5742700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5778100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3991200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4617300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-3455300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4176900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-5409400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16083300</v>
+        <v>16292800</v>
       </c>
       <c r="E76" s="3">
-        <v>14979500</v>
+        <v>15744500</v>
       </c>
       <c r="F76" s="3">
-        <v>13430800</v>
+        <v>14663900</v>
       </c>
       <c r="G76" s="3">
-        <v>11598300</v>
+        <v>13147900</v>
       </c>
       <c r="H76" s="3">
-        <v>20750800</v>
+        <v>11354000</v>
       </c>
       <c r="I76" s="3">
-        <v>20506200</v>
+        <v>20313600</v>
       </c>
       <c r="J76" s="3">
+        <v>20074100</v>
+      </c>
+      <c r="K76" s="3">
         <v>19079200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19140600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18337200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17726700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17255000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17427500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17719700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17429400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15554000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16658700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4962700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5344200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5758600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5512600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4756200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-89200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-88700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1687800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1057800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2257000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1480100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2058100</v>
+        <v>1816200</v>
       </c>
       <c r="E81" s="3">
-        <v>1888300</v>
+        <v>2014700</v>
       </c>
       <c r="F81" s="3">
-        <v>2535900</v>
+        <v>1848500</v>
       </c>
       <c r="G81" s="3">
-        <v>13072200</v>
+        <v>2482400</v>
       </c>
       <c r="H81" s="3">
-        <v>1062000</v>
+        <v>12796800</v>
       </c>
       <c r="I81" s="3">
-        <v>2283700</v>
+        <v>1039600</v>
       </c>
       <c r="J81" s="3">
+        <v>2235600</v>
+      </c>
+      <c r="K81" s="3">
         <v>949200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1449300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1663600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1279600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1517600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2083200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1771600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2196300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1323800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1105100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1604800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1746400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>570100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>709800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-712200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1580800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-234800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1377400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>338400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1064000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,43 +6804,44 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>572800</v>
+        <v>718300</v>
       </c>
       <c r="E83" s="3">
-        <v>811100</v>
+        <v>560800</v>
       </c>
       <c r="F83" s="3">
-        <v>10100</v>
+        <v>794000</v>
       </c>
       <c r="G83" s="3">
-        <v>1211500</v>
+        <v>9900</v>
       </c>
       <c r="H83" s="3">
-        <v>799700</v>
+        <v>1186000</v>
       </c>
       <c r="I83" s="3">
-        <v>892200</v>
+        <v>782800</v>
       </c>
       <c r="J83" s="3">
+        <v>873400</v>
+      </c>
+      <c r="K83" s="3">
         <v>650100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1223400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>791800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>430500</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>24</v>
@@ -6650,53 +6849,56 @@
       <c r="P83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="3">
         <v>258200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-188200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>726000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1065600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1575000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>907400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>610900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>252100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>618000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>-228300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>892100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1417800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>429300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>821700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>251500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1656400</v>
+        <v>2744200</v>
       </c>
       <c r="E89" s="3">
-        <v>67200</v>
+        <v>1621500</v>
       </c>
       <c r="F89" s="3">
-        <v>2414200</v>
+        <v>65800</v>
       </c>
       <c r="G89" s="3">
-        <v>1674100</v>
+        <v>2363300</v>
       </c>
       <c r="H89" s="3">
-        <v>2072000</v>
+        <v>1638800</v>
       </c>
       <c r="I89" s="3">
-        <v>3221500</v>
+        <v>2028400</v>
       </c>
       <c r="J89" s="3">
+        <v>3153600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4773900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3178900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1540700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>394700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4560100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1050300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3597900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1284500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4709200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3559000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1907400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>882700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5440300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2558000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1760800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1115700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3742100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2474300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1314700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1506400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3938500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2326800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-497000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-535000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-529000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-751000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-480000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-426000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-601000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-824000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1199000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-180100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-239700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-608000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-356200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-290700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-262200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-654600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-401900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-383100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-295600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-663000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-370700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-365900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-333500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-696500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-485200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-494300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-547800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1002100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-651800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1221700</v>
+        <v>-609100</v>
       </c>
       <c r="E94" s="3">
-        <v>-517100</v>
+        <v>-1195900</v>
       </c>
       <c r="F94" s="3">
-        <v>-684300</v>
+        <v>-506200</v>
       </c>
       <c r="G94" s="3">
-        <v>-5188300</v>
+        <v>-669900</v>
       </c>
       <c r="H94" s="3">
-        <v>-690700</v>
+        <v>-5079000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4553400</v>
+        <v>-676100</v>
       </c>
       <c r="J94" s="3">
+        <v>-4457500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-457500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1467900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-220600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-683100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3690500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-504600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-662300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-774500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5261700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-545500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-624400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-338700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-479600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-436900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-602600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-583000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-262000</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>-229100</v>
       </c>
       <c r="AE94" s="3">
         <v>-229100</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>-229100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,97 +7884,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-705900</v>
+        <v>-703400</v>
       </c>
       <c r="E96" s="3">
-        <v>-703400</v>
+        <v>-691000</v>
       </c>
       <c r="F96" s="3">
-        <v>-828800</v>
+        <v>-688500</v>
       </c>
       <c r="G96" s="3">
-        <v>-893400</v>
+        <v>-811400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1465000</v>
+        <v>-874600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1206500</v>
+        <v>-1434100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1181100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1205200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1180000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1372600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1128100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1119000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1154000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1491300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1252600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1283300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1330200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1561300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1244900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1233600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1150300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1460900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1201000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1211700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1210400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1466000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-1218000</v>
       </c>
       <c r="AD96" s="3">
         <v>-1218000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-1215400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,271 +8250,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>39300</v>
+        <v>-2185900</v>
       </c>
       <c r="E100" s="3">
-        <v>-403000</v>
+        <v>38500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1695600</v>
+        <v>-394500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1680400</v>
+        <v>-1659900</v>
       </c>
       <c r="H100" s="3">
-        <v>-5685100</v>
+        <v>-1645000</v>
       </c>
       <c r="I100" s="3">
-        <v>10104200</v>
+        <v>-5565300</v>
       </c>
       <c r="J100" s="3">
+        <v>9891300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3515500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1729700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2438700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1640900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2572800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5216300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3427100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3762700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2618000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1224900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4874300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4287300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2056800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1538400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-365900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4248100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-846500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1258700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1987000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2558500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-2587500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72200</v>
+        <v>28500</v>
       </c>
       <c r="E101" s="3">
-        <v>-39300</v>
+        <v>-70700</v>
       </c>
       <c r="F101" s="3">
-        <v>58300</v>
+        <v>-38500</v>
       </c>
       <c r="G101" s="3">
-        <v>29100</v>
+        <v>57100</v>
       </c>
       <c r="H101" s="3">
-        <v>90000</v>
+        <v>28500</v>
       </c>
       <c r="I101" s="3">
-        <v>15200</v>
+        <v>88100</v>
       </c>
       <c r="J101" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-54900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>55900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-139100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>74200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-53300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>52800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>23300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-67200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-40400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-74300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>14500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>105300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>401700</v>
+        <v>-22300</v>
       </c>
       <c r="E102" s="3">
-        <v>-892200</v>
+        <v>393300</v>
       </c>
       <c r="F102" s="3">
-        <v>92500</v>
+        <v>-873400</v>
       </c>
       <c r="G102" s="3">
-        <v>-5165500</v>
+        <v>90600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4213800</v>
+        <v>-5056700</v>
       </c>
       <c r="I102" s="3">
-        <v>8787500</v>
+        <v>-4125000</v>
       </c>
       <c r="J102" s="3">
+        <v>8602300</v>
+      </c>
+      <c r="K102" s="3">
         <v>790800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1117400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1345200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1899700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4904000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3843000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-137100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>302800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>287300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>442000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>660400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-120700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-93100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>203000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-973000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>984800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-601300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-728200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1256200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-412200</v>
       </c>
     </row>
